--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\github\yoga-suit\kw-rank\keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\indexed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC889C-500F-4831-94C1-786996641539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,74 +24,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>yoga outfit seamless 2</t>
   </si>
   <si>
-    <t>seamless set</t>
+    <t>sports bra</t>
+  </si>
+  <si>
+    <t>jeggings set for women</t>
+  </si>
+  <si>
+    <t>green muscle leggings</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>high waist legging set</t>
+  </si>
+  <si>
+    <t>yoga bra legging set</t>
+  </si>
+  <si>
+    <t>exercise outfit for women</t>
+  </si>
+  <si>
+    <t>sport bra outfit</t>
+  </si>
+  <si>
+    <t>bra legging workout set</t>
+  </si>
+  <si>
+    <t>leggings sets</t>
+  </si>
+  <si>
+    <t>yoga pants enhance butt</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings for women</t>
+  </si>
+  <si>
+    <t>green jeggings women</t>
+  </si>
+  <si>
+    <t>denim outfits for women sexy</t>
+  </si>
+  <si>
+    <t>yoga legging sport bra set</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women</t>
+  </si>
+  <si>
+    <t>green workout leggings for women</t>
+  </si>
+  <si>
+    <t>nylon leggings for women</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>green sport bra</t>
+  </si>
+  <si>
+    <t>yoga legging green</t>
+  </si>
+  <si>
+    <t>fashionable workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>yoga bra set</t>
+  </si>
+  <si>
+    <t>legging bra</t>
+  </si>
+  <si>
+    <t>sport bra legging</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>legging bra set</t>
+  </si>
+  <si>
+    <t>workout legging sport bra set</t>
+  </si>
+  <si>
+    <t>seamless bra set</t>
+  </si>
+  <si>
+    <t>legging sport bra set</t>
+  </si>
+  <si>
+    <t>yoga jeggings</t>
+  </si>
+  <si>
+    <t>yoga outfit set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -399,98 +452,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\indexed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD488279-4997-458B-B2D6-67879F7620CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,128 +25,323 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>sports bra</t>
-  </si>
-  <si>
-    <t>jeggings set for women</t>
-  </si>
-  <si>
-    <t>green muscle leggings</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>high waist legging set</t>
-  </si>
-  <si>
-    <t>yoga bra legging set</t>
-  </si>
-  <si>
-    <t>exercise outfit for women</t>
-  </si>
-  <si>
-    <t>sport bra outfit</t>
-  </si>
-  <si>
-    <t>bra legging workout set</t>
-  </si>
-  <si>
-    <t>leggings sets</t>
-  </si>
-  <si>
-    <t>yoga pants enhance butt</t>
-  </si>
-  <si>
-    <t>butt lifting jeggings for women</t>
-  </si>
-  <si>
-    <t>green jeggings women</t>
-  </si>
-  <si>
-    <t>denim outfits for women sexy</t>
-  </si>
-  <si>
-    <t>yoga legging sport bra set</t>
-  </si>
-  <si>
-    <t>high waist jeggings for women</t>
-  </si>
-  <si>
-    <t>green workout leggings for women</t>
-  </si>
-  <si>
-    <t>nylon leggings for women</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>green sport bra</t>
-  </si>
-  <si>
-    <t>yoga legging green</t>
-  </si>
-  <si>
-    <t>fashionable workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>yoga work out set</t>
-  </si>
-  <si>
-    <t>yoga bra set</t>
-  </si>
-  <si>
-    <t>legging bra</t>
-  </si>
-  <si>
-    <t>sport bra legging</t>
-  </si>
-  <si>
-    <t>seamless yoga set</t>
-  </si>
-  <si>
-    <t>legging bra set</t>
-  </si>
-  <si>
-    <t>workout legging sport bra set</t>
-  </si>
-  <si>
-    <t>seamless bra set</t>
-  </si>
-  <si>
-    <t>legging sport bra set</t>
-  </si>
-  <si>
-    <t>yoga jeggings</t>
-  </si>
-  <si>
-    <t>yoga outfit set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>long sleeve crop shirt</t>
+  </si>
+  <si>
+    <t>black 2 piece outfit</t>
+  </si>
+  <si>
+    <t>black 2 piece set</t>
+  </si>
+  <si>
+    <t>jogger outfit</t>
+  </si>
+  <si>
+    <t>fashion legging</t>
+  </si>
+  <si>
+    <t>track outfit</t>
+  </si>
+  <si>
+    <t>fashion crop top</t>
+  </si>
+  <si>
+    <t>top legging</t>
+  </si>
+  <si>
+    <t>track shirt</t>
+  </si>
+  <si>
+    <t>long sleeve gym shirt</t>
+  </si>
+  <si>
+    <t>long sleeve activewear</t>
+  </si>
+  <si>
+    <t>long sleeve athletic crop top</t>
+  </si>
+  <si>
+    <t>long sleeve two piece</t>
+  </si>
+  <si>
+    <t>long sleeve legging set</t>
+  </si>
+  <si>
+    <t>work out long sleeve</t>
+  </si>
+  <si>
+    <t>two piece crop top</t>
+  </si>
+  <si>
+    <t>two piece suit</t>
+  </si>
+  <si>
+    <t>two piece jogger</t>
+  </si>
+  <si>
+    <t>two piece sweatsuit</t>
+  </si>
+  <si>
+    <t>2 piece outfit set</t>
+  </si>
+  <si>
+    <t>seamless long sleeve crop top</t>
+  </si>
+  <si>
+    <t>seamless long sleeve top</t>
+  </si>
+  <si>
+    <t>crop top fitness</t>
+  </si>
+  <si>
+    <t>2 piece legging set</t>
+  </si>
+  <si>
+    <t>2 piece crop top</t>
+  </si>
+  <si>
+    <t>2 piece suit</t>
+  </si>
+  <si>
+    <t>yoga sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt set</t>
+  </si>
+  <si>
+    <t>green long sleeve crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve top</t>
+  </si>
+  <si>
+    <t>long sleeve workout crop</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>high waist set</t>
+  </si>
+  <si>
+    <t>pink apparel</t>
+  </si>
+  <si>
+    <t>size workout</t>
+  </si>
+  <si>
+    <t>piece set</t>
+  </si>
+  <si>
+    <t>2 piece track suit</t>
+  </si>
+  <si>
+    <t>pant set</t>
+  </si>
+  <si>
+    <t>track suit</t>
+  </si>
+  <si>
+    <t>fitness top</t>
+  </si>
+  <si>
+    <t>gym long sleeve</t>
+  </si>
+  <si>
+    <t>two outfit</t>
+  </si>
+  <si>
+    <t>top track</t>
+  </si>
+  <si>
+    <t>green pant</t>
+  </si>
+  <si>
+    <t>work out shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve</t>
+  </si>
+  <si>
+    <t>blue outfit</t>
+  </si>
+  <si>
+    <t>work apparel</t>
+  </si>
+  <si>
+    <t>pant woman</t>
+  </si>
+  <si>
+    <t>matching tracksuit</t>
+  </si>
+  <si>
+    <t>pink out</t>
+  </si>
+  <si>
+    <t>high black</t>
+  </si>
+  <si>
+    <t>waist set</t>
+  </si>
+  <si>
+    <t>green tracksuit</t>
+  </si>
+  <si>
+    <t>long crop top</t>
+  </si>
+  <si>
+    <t>waist woman</t>
+  </si>
+  <si>
+    <t>suit fashion</t>
+  </si>
+  <si>
+    <t>pink track suit</t>
+  </si>
+  <si>
+    <t>long pink shirt</t>
+  </si>
+  <si>
+    <t>tight long sleeve</t>
+  </si>
+  <si>
+    <t>tight top</t>
+  </si>
+  <si>
+    <t>pink outfit</t>
+  </si>
+  <si>
+    <t>long winter</t>
+  </si>
+  <si>
+    <t>pink workout</t>
+  </si>
+  <si>
+    <t>green outfit</t>
+  </si>
+  <si>
+    <t>woman top</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>green workout top</t>
+  </si>
+  <si>
+    <t>long workout top</t>
+  </si>
+  <si>
+    <t>woman workout</t>
+  </si>
+  <si>
+    <t>sport fitness</t>
+  </si>
+  <si>
+    <t>black winter</t>
+  </si>
+  <si>
+    <t>black apparel</t>
+  </si>
+  <si>
+    <t>blue workout top</t>
+  </si>
+  <si>
+    <t>green black</t>
+  </si>
+  <si>
+    <t>winter legging</t>
+  </si>
+  <si>
+    <t>waist top</t>
+  </si>
+  <si>
+    <t>tight long sleeve shirt</t>
+  </si>
+  <si>
+    <t>tight set</t>
+  </si>
+  <si>
+    <t>work workout</t>
+  </si>
+  <si>
+    <t>sport fashion</t>
+  </si>
+  <si>
+    <t>sport crop</t>
+  </si>
+  <si>
+    <t>black athletic top</t>
+  </si>
+  <si>
+    <t>long workout shirt</t>
+  </si>
+  <si>
+    <t>waist sleeve</t>
+  </si>
+  <si>
+    <t>winter suit</t>
+  </si>
+  <si>
+    <t>sport jogger</t>
+  </si>
+  <si>
+    <t>black set</t>
+  </si>
+  <si>
+    <t>blue apparel</t>
+  </si>
+  <si>
+    <t>fitness jacket</t>
+  </si>
+  <si>
+    <t>black tracksuit</t>
+  </si>
+  <si>
+    <t>winter set</t>
+  </si>
+  <si>
+    <t>suit woman</t>
+  </si>
+  <si>
+    <t>winter crop top</t>
+  </si>
+  <si>
+    <t>pink winter</t>
+  </si>
+  <si>
+    <t>green pant suit</t>
+  </si>
+  <si>
+    <t>woman pant suit set</t>
+  </si>
+  <si>
+    <t>blue crop shirt</t>
+  </si>
+  <si>
+    <t>pink sleeve</t>
+  </si>
+  <si>
+    <t>black matching set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -452,188 +648,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD488279-4997-458B-B2D6-67879F7620CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848FAFE7-A8ED-4C31-9A7A-7651FA82F450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>long sleeve crop shirt</t>
-  </si>
-  <si>
-    <t>black 2 piece outfit</t>
-  </si>
-  <si>
-    <t>black 2 piece set</t>
-  </si>
-  <si>
-    <t>jogger outfit</t>
-  </si>
-  <si>
-    <t>fashion legging</t>
-  </si>
-  <si>
-    <t>track outfit</t>
-  </si>
-  <si>
-    <t>fashion crop top</t>
-  </si>
-  <si>
-    <t>top legging</t>
-  </si>
-  <si>
-    <t>track shirt</t>
-  </si>
-  <si>
-    <t>long sleeve gym shirt</t>
-  </si>
-  <si>
-    <t>long sleeve activewear</t>
-  </si>
-  <si>
-    <t>long sleeve athletic crop top</t>
-  </si>
-  <si>
-    <t>long sleeve two piece</t>
-  </si>
-  <si>
-    <t>long sleeve legging set</t>
-  </si>
-  <si>
-    <t>work out long sleeve</t>
-  </si>
-  <si>
-    <t>two piece crop top</t>
-  </si>
-  <si>
-    <t>two piece suit</t>
-  </si>
-  <si>
-    <t>two piece jogger</t>
-  </si>
-  <si>
-    <t>two piece sweatsuit</t>
-  </si>
-  <si>
-    <t>2 piece outfit set</t>
-  </si>
-  <si>
-    <t>seamless long sleeve crop top</t>
-  </si>
-  <si>
-    <t>seamless long sleeve top</t>
-  </si>
-  <si>
-    <t>crop top fitness</t>
-  </si>
-  <si>
-    <t>2 piece legging set</t>
-  </si>
-  <si>
-    <t>2 piece crop top</t>
-  </si>
-  <si>
-    <t>2 piece suit</t>
-  </si>
-  <si>
-    <t>yoga sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt set</t>
-  </si>
-  <si>
-    <t>green long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green long sleeve top</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>high waist set</t>
-  </si>
-  <si>
-    <t>pink apparel</t>
-  </si>
-  <si>
-    <t>size workout</t>
-  </si>
-  <si>
-    <t>piece set</t>
-  </si>
-  <si>
-    <t>2 piece track suit</t>
-  </si>
-  <si>
-    <t>pant set</t>
-  </si>
-  <si>
-    <t>track suit</t>
-  </si>
-  <si>
-    <t>fitness top</t>
-  </si>
-  <si>
-    <t>gym long sleeve</t>
-  </si>
-  <si>
-    <t>two outfit</t>
-  </si>
-  <si>
-    <t>top track</t>
-  </si>
-  <si>
-    <t>green pant</t>
-  </si>
-  <si>
-    <t>work out shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve</t>
-  </si>
-  <si>
-    <t>blue outfit</t>
-  </si>
-  <si>
-    <t>work apparel</t>
-  </si>
-  <si>
-    <t>pant woman</t>
-  </si>
-  <si>
-    <t>matching tracksuit</t>
-  </si>
-  <si>
-    <t>pink out</t>
-  </si>
-  <si>
-    <t>high black</t>
-  </si>
-  <si>
-    <t>waist set</t>
-  </si>
-  <si>
-    <t>green tracksuit</t>
-  </si>
-  <si>
-    <t>long crop top</t>
-  </si>
-  <si>
-    <t>waist woman</t>
-  </si>
-  <si>
-    <t>suit fashion</t>
-  </si>
-  <si>
-    <t>pink track suit</t>
-  </si>
-  <si>
-    <t>long pink shirt</t>
-  </si>
-  <si>
-    <t>tight long sleeve</t>
-  </si>
-  <si>
-    <t>tight top</t>
-  </si>
-  <si>
-    <t>pink outfit</t>
-  </si>
-  <si>
-    <t>long winter</t>
-  </si>
-  <si>
-    <t>pink workout</t>
-  </si>
-  <si>
-    <t>green outfit</t>
-  </si>
-  <si>
-    <t>woman top</t>
-  </si>
-  <si>
-    <t>work out set</t>
-  </si>
-  <si>
-    <t>green workout top</t>
-  </si>
-  <si>
-    <t>long workout top</t>
-  </si>
-  <si>
-    <t>woman workout</t>
-  </si>
-  <si>
-    <t>sport fitness</t>
-  </si>
-  <si>
-    <t>black winter</t>
-  </si>
-  <si>
-    <t>black apparel</t>
-  </si>
-  <si>
-    <t>blue workout top</t>
-  </si>
-  <si>
-    <t>green black</t>
-  </si>
-  <si>
-    <t>winter legging</t>
-  </si>
-  <si>
-    <t>waist top</t>
-  </si>
-  <si>
-    <t>tight long sleeve shirt</t>
-  </si>
-  <si>
-    <t>tight set</t>
-  </si>
-  <si>
-    <t>work workout</t>
-  </si>
-  <si>
-    <t>sport fashion</t>
-  </si>
-  <si>
-    <t>sport crop</t>
-  </si>
-  <si>
-    <t>black athletic top</t>
-  </si>
-  <si>
-    <t>long workout shirt</t>
-  </si>
-  <si>
-    <t>waist sleeve</t>
-  </si>
-  <si>
-    <t>winter suit</t>
-  </si>
-  <si>
-    <t>sport jogger</t>
-  </si>
-  <si>
-    <t>black set</t>
-  </si>
-  <si>
-    <t>blue apparel</t>
-  </si>
-  <si>
-    <t>fitness jacket</t>
-  </si>
-  <si>
-    <t>black tracksuit</t>
-  </si>
-  <si>
-    <t>winter set</t>
-  </si>
-  <si>
-    <t>suit woman</t>
-  </si>
-  <si>
-    <t>winter crop top</t>
-  </si>
-  <si>
-    <t>pink winter</t>
-  </si>
-  <si>
-    <t>green pant suit</t>
-  </si>
-  <si>
-    <t>woman pant suit set</t>
-  </si>
-  <si>
-    <t>blue crop shirt</t>
-  </si>
-  <si>
-    <t>pink sleeve</t>
-  </si>
-  <si>
-    <t>black matching set</t>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848FAFE7-A8ED-4C31-9A7A-7651FA82F450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F57D88-0A9B-4A6B-988C-A3E2D59F77D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>black sleeve</t>
-  </si>
-  <si>
-    <t>high waist legging</t>
-  </si>
-  <si>
-    <t>yoga suit</t>
-  </si>
-  <si>
-    <t>top set</t>
-  </si>
-  <si>
-    <t>out shirt</t>
-  </si>
-  <si>
-    <t>tight shirt</t>
-  </si>
-  <si>
-    <t>athletic yoga</t>
-  </si>
-  <si>
-    <t>pink crop top</t>
-  </si>
-  <si>
-    <t>high waist pant</t>
-  </si>
-  <si>
-    <t>workout top</t>
-  </si>
-  <si>
-    <t>jogger pant</t>
-  </si>
-  <si>
-    <t>2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece jogger set</t>
-  </si>
-  <si>
-    <t>2 piece outfit</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit</t>
-  </si>
-  <si>
-    <t>blue shirt</t>
-  </si>
-  <si>
-    <t>seamless long sleeve</t>
-  </si>
-  <si>
-    <t>long top</t>
-  </si>
-  <si>
-    <t>jogger set</t>
-  </si>
-  <si>
-    <t>black with</t>
-  </si>
-  <si>
-    <t>athletic top</t>
-  </si>
-  <si>
-    <t>exercise apparel</t>
-  </si>
-  <si>
-    <t>green suit</t>
-  </si>
-  <si>
-    <t>matching outfit</t>
-  </si>
-  <si>
-    <t>yoga top</t>
-  </si>
-  <si>
-    <t>athletic outfit</t>
-  </si>
-  <si>
-    <t>pant outfit</t>
-  </si>
-  <si>
-    <t>with 2</t>
-  </si>
-  <si>
-    <t>green top</t>
-  </si>
-  <si>
-    <t>athletic green</t>
-  </si>
-  <si>
-    <t>black blue shirt</t>
-  </si>
-  <si>
-    <t>black long sleeve top</t>
-  </si>
-  <si>
-    <t>black sleeve crop top</t>
-  </si>
-  <si>
-    <t>black crop top set</t>
-  </si>
-  <si>
-    <t>exercise crop top</t>
-  </si>
-  <si>
-    <t>pink gym</t>
-  </si>
-  <si>
-    <t>pink workout shirt</t>
-  </si>
-  <si>
-    <t>small waist</t>
-  </si>
-  <si>
-    <t>blue set</t>
-  </si>
-  <si>
-    <t>blue tracksuit</t>
-  </si>
-  <si>
-    <t>black blue</t>
-  </si>
-  <si>
-    <t>pink workout top</t>
-  </si>
-  <si>
-    <t>pink yoga top</t>
-  </si>
-  <si>
-    <t>long suit</t>
-  </si>
-  <si>
-    <t>workout crop</t>
-  </si>
-  <si>
-    <t>workout long sleeve</t>
-  </si>
-  <si>
-    <t>sport gym</t>
-  </si>
-  <si>
-    <t>sport top</t>
-  </si>
-  <si>
-    <t>gym crop</t>
-  </si>
-  <si>
-    <t>sport crop top</t>
-  </si>
-  <si>
-    <t>sport outfit</t>
-  </si>
-  <si>
-    <t>gym apparel</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>winter apparel</t>
-  </si>
-  <si>
-    <t>sport suit</t>
-  </si>
-  <si>
-    <t>shirt set</t>
-  </si>
-  <si>
-    <t>shirt outfit</t>
-  </si>
-  <si>
-    <t>jacket outfit</t>
-  </si>
-  <si>
-    <t>fitness set</t>
-  </si>
-  <si>
-    <t>fitness suit</t>
-  </si>
-  <si>
-    <t>high crop top</t>
-  </si>
-  <si>
-    <t>woman apparel</t>
-  </si>
-  <si>
-    <t>black 2</t>
-  </si>
-  <si>
-    <t>yoga crop top</t>
-  </si>
-  <si>
-    <t>yoga crop</t>
-  </si>
-  <si>
-    <t>yoga black</t>
-  </si>
-  <si>
-    <t>athletic set</t>
-  </si>
-  <si>
-    <t>athletic crop</t>
-  </si>
-  <si>
-    <t>athletic suit</t>
-  </si>
-  <si>
-    <t>athletic fashion</t>
-  </si>
-  <si>
-    <t>tight sleeve</t>
-  </si>
-  <si>
-    <t>tight jacket</t>
-  </si>
-  <si>
-    <t>bodybuilding workout</t>
-  </si>
-  <si>
-    <t>clothe set</t>
-  </si>
-  <si>
-    <t>suit top</t>
-  </si>
-  <si>
-    <t>jogger suit</t>
-  </si>
-  <si>
-    <t>apparel shirt</t>
-  </si>
-  <si>
-    <t>ribbed crop</t>
-  </si>
-  <si>
-    <t>2 shirt</t>
-  </si>
-  <si>
-    <t>winter clothing</t>
-  </si>
-  <si>
-    <t>crop workout shirt</t>
-  </si>
-  <si>
-    <t>crop set</t>
-  </si>
-  <si>
-    <t>crop tracksuit</t>
-  </si>
-  <si>
-    <t>jogging set</t>
-  </si>
-  <si>
-    <t>green set</t>
-  </si>
-  <si>
-    <t>long sleeve work shirt</t>
-  </si>
-  <si>
-    <t>yoga 2</t>
-  </si>
-  <si>
-    <t>crop top tracksuit</t>
-  </si>
-  <si>
-    <t>long sleeve yoga crop top</t>
-  </si>
-  <si>
-    <t>workout suit</t>
-  </si>
-  <si>
-    <t>blue 2</t>
-  </si>
-  <si>
-    <t>pink tracksuit</t>
-  </si>
-  <si>
-    <t>pink yoga</t>
-  </si>
-  <si>
-    <t>two piece outfit set</t>
-  </si>
-  <si>
-    <t>workout top set</t>
-  </si>
-  <si>
-    <t>green crop top</t>
-  </si>
-  <si>
-    <t>green long sleeve</t>
-  </si>
-  <si>
-    <t>green piece</t>
-  </si>
-  <si>
-    <t>jogger pant set</t>
-  </si>
-  <si>
-    <t>high waist pant set</t>
+    <t>ribbed crop top</t>
+  </si>
+  <si>
+    <t>athletic jogger</t>
+  </si>
+  <si>
+    <t>size 2</t>
+  </si>
+  <si>
+    <t>high waist workout</t>
+  </si>
+  <si>
+    <t>workout clothe</t>
+  </si>
+  <si>
+    <t>workout fitness</t>
+  </si>
+  <si>
+    <t>black yoga jacket</t>
+  </si>
+  <si>
+    <t>matching set</t>
+  </si>
+  <si>
+    <t>high waist jogger</t>
+  </si>
+  <si>
+    <t>black crop top</t>
+  </si>
+  <si>
+    <t>long sleeve crop top</t>
+  </si>
+  <si>
+    <t>2 piece winter outfit</t>
+  </si>
+  <si>
+    <t>black workout crop top</t>
+  </si>
+  <si>
+    <t>pink workout outfit</t>
+  </si>
+  <si>
+    <t>blue sport</t>
+  </si>
+  <si>
+    <t>black long sleeve crop top</t>
+  </si>
+  <si>
+    <t>green 2</t>
+  </si>
+  <si>
+    <t>pink top</t>
+  </si>
+  <si>
+    <t>blue top</t>
+  </si>
+  <si>
+    <t>small size</t>
+  </si>
+  <si>
+    <t>long shirt</t>
+  </si>
+  <si>
+    <t>out set</t>
+  </si>
+  <si>
+    <t>fitness outfit</t>
+  </si>
+  <si>
+    <t>exercise outfit</t>
+  </si>
+  <si>
+    <t>tight crop top</t>
+  </si>
+  <si>
+    <t>athletic crop top</t>
+  </si>
+  <si>
+    <t>athletic jacket</t>
+  </si>
+  <si>
+    <t>sleeve crop top</t>
+  </si>
+  <si>
+    <t>crop jacket</t>
+  </si>
+  <si>
+    <t>crop jogger</t>
+  </si>
+  <si>
+    <t>crop outfit</t>
+  </si>
+  <si>
+    <t>crop shirt</t>
+  </si>
+  <si>
+    <t>compression jacket</t>
+  </si>
+  <si>
+    <t>compression outfit</t>
+  </si>
+  <si>
+    <t>compression yoga</t>
+  </si>
+  <si>
+    <t>gym outfit</t>
+  </si>
+  <si>
+    <t>waist yoga</t>
+  </si>
+  <si>
+    <t>outfit set</t>
+  </si>
+  <si>
+    <t>seamless yoga</t>
+  </si>
+  <si>
+    <t>pant suit</t>
+  </si>
+  <si>
+    <t>blue crop top</t>
+  </si>
+  <si>
+    <t>long sleeve yoga</t>
+  </si>
+  <si>
+    <t>long sleeve yoga top</t>
+  </si>
+  <si>
+    <t>black tight crop top</t>
+  </si>
+  <si>
+    <t>black athletic jacket</t>
+  </si>
+  <si>
+    <t>black crop shirt</t>
+  </si>
+  <si>
+    <t>black crop jacket</t>
+  </si>
+  <si>
+    <t>high waist yoga</t>
+  </si>
+  <si>
+    <t>sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport legging</t>
+  </si>
+  <si>
+    <t>black shirt</t>
+  </si>
+  <si>
+    <t>tracksuit outfit</t>
+  </si>
+  <si>
+    <t>tracksuit set</t>
+  </si>
+  <si>
+    <t>tracksuit top</t>
+  </si>
+  <si>
+    <t>ribbed top</t>
+  </si>
+  <si>
+    <t>long sleeve top</t>
+  </si>
+  <si>
+    <t>two piece crop top set</t>
+  </si>
+  <si>
+    <t>two piece jogger set</t>
+  </si>
+  <si>
+    <t>two piece outfit</t>
+  </si>
+  <si>
+    <t>two piece set</t>
+  </si>
+  <si>
+    <t>two piece tracksuit</t>
+  </si>
+  <si>
+    <t>small black</t>
+  </si>
+  <si>
+    <t>crop top set</t>
+  </si>
+  <si>
+    <t>black legging set</t>
+  </si>
+  <si>
+    <t>black suit top</t>
+  </si>
+  <si>
+    <t>matching set outfit</t>
+  </si>
+  <si>
+    <t>green 2 piece</t>
+  </si>
+  <si>
+    <t>sport set</t>
+  </si>
+  <si>
+    <t>pant suit set</t>
+  </si>
+  <si>
+    <t>black outfit</t>
+  </si>
+  <si>
+    <t>green 2 piece set</t>
+  </si>
+  <si>
+    <t>green 2 piece outfit</t>
+  </si>
+  <si>
+    <t>long sleeve crop</t>
+  </si>
+  <si>
+    <t>high waist</t>
+  </si>
+  <si>
+    <t>jogging suit</t>
+  </si>
+  <si>
+    <t>jogger tracksuit</t>
+  </si>
+  <si>
+    <t>athletic apparel</t>
+  </si>
+  <si>
+    <t>athletic clothing</t>
+  </si>
+  <si>
+    <t>activewear set</t>
+  </si>
+  <si>
+    <t>suit set</t>
+  </si>
+  <si>
+    <t>pink shirt</t>
+  </si>
+  <si>
+    <t>pink suit</t>
+  </si>
+  <si>
+    <t>skinny shirt</t>
+  </si>
+  <si>
+    <t>jogging suit set</t>
+  </si>
+  <si>
+    <t>black top</t>
+  </si>
+  <si>
+    <t>gym set</t>
+  </si>
+  <si>
+    <t>sweatsuit outfit</t>
+  </si>
+  <si>
+    <t>sweatsuit set</t>
+  </si>
+  <si>
+    <t>work shirt</t>
+  </si>
+  <si>
+    <t>fitness legging</t>
+  </si>
+  <si>
+    <t>tight pant</t>
+  </si>
+  <si>
+    <t>black 2 piece</t>
+  </si>
+  <si>
+    <t>crop top outfit</t>
+  </si>
+  <si>
+    <t>set 2</t>
+  </si>
+  <si>
+    <t>exercise set</t>
+  </si>
+  <si>
+    <t>athletic long sleeve</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>long set</t>
+  </si>
+  <si>
+    <t>pink set</t>
+  </si>
+  <si>
+    <t>exercise top</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F57D88-0A9B-4A6B-988C-A3E2D59F77D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9750137-22F8-4BBC-887B-9F8F51DB491A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>ribbed crop top</t>
-  </si>
-  <si>
-    <t>athletic jogger</t>
-  </si>
-  <si>
-    <t>size 2</t>
-  </si>
-  <si>
-    <t>high waist workout</t>
-  </si>
-  <si>
-    <t>workout clothe</t>
-  </si>
-  <si>
-    <t>workout fitness</t>
-  </si>
-  <si>
-    <t>black yoga jacket</t>
-  </si>
-  <si>
-    <t>matching set</t>
-  </si>
-  <si>
-    <t>high waist jogger</t>
-  </si>
-  <si>
-    <t>black crop top</t>
-  </si>
-  <si>
-    <t>long sleeve crop top</t>
-  </si>
-  <si>
-    <t>2 piece winter outfit</t>
-  </si>
-  <si>
-    <t>black workout crop top</t>
-  </si>
-  <si>
-    <t>pink workout outfit</t>
-  </si>
-  <si>
-    <t>blue sport</t>
-  </si>
-  <si>
-    <t>black long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green 2</t>
-  </si>
-  <si>
-    <t>pink top</t>
-  </si>
-  <si>
-    <t>blue top</t>
-  </si>
-  <si>
-    <t>small size</t>
-  </si>
-  <si>
-    <t>long shirt</t>
-  </si>
-  <si>
-    <t>out set</t>
-  </si>
-  <si>
-    <t>fitness outfit</t>
-  </si>
-  <si>
-    <t>exercise outfit</t>
-  </si>
-  <si>
-    <t>tight crop top</t>
-  </si>
-  <si>
-    <t>athletic crop top</t>
-  </si>
-  <si>
-    <t>athletic jacket</t>
-  </si>
-  <si>
-    <t>sleeve crop top</t>
-  </si>
-  <si>
-    <t>crop jacket</t>
-  </si>
-  <si>
-    <t>crop jogger</t>
-  </si>
-  <si>
-    <t>crop outfit</t>
-  </si>
-  <si>
-    <t>crop shirt</t>
-  </si>
-  <si>
-    <t>compression jacket</t>
-  </si>
-  <si>
-    <t>compression outfit</t>
-  </si>
-  <si>
-    <t>compression yoga</t>
-  </si>
-  <si>
-    <t>gym outfit</t>
-  </si>
-  <si>
-    <t>waist yoga</t>
-  </si>
-  <si>
-    <t>outfit set</t>
-  </si>
-  <si>
-    <t>seamless yoga</t>
-  </si>
-  <si>
-    <t>pant suit</t>
-  </si>
-  <si>
-    <t>blue crop top</t>
-  </si>
-  <si>
-    <t>long sleeve yoga</t>
-  </si>
-  <si>
-    <t>long sleeve yoga top</t>
-  </si>
-  <si>
-    <t>black tight crop top</t>
-  </si>
-  <si>
-    <t>black athletic jacket</t>
-  </si>
-  <si>
-    <t>black crop shirt</t>
-  </si>
-  <si>
-    <t>black crop jacket</t>
-  </si>
-  <si>
-    <t>high waist yoga</t>
-  </si>
-  <si>
-    <t>sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>black shirt</t>
-  </si>
-  <si>
-    <t>tracksuit outfit</t>
-  </si>
-  <si>
-    <t>tracksuit set</t>
-  </si>
-  <si>
-    <t>tracksuit top</t>
-  </si>
-  <si>
-    <t>ribbed top</t>
-  </si>
-  <si>
-    <t>long sleeve top</t>
-  </si>
-  <si>
-    <t>two piece crop top set</t>
-  </si>
-  <si>
-    <t>two piece jogger set</t>
-  </si>
-  <si>
-    <t>two piece outfit</t>
-  </si>
-  <si>
-    <t>two piece set</t>
-  </si>
-  <si>
-    <t>two piece tracksuit</t>
-  </si>
-  <si>
-    <t>small black</t>
-  </si>
-  <si>
-    <t>crop top set</t>
-  </si>
-  <si>
-    <t>black legging set</t>
-  </si>
-  <si>
-    <t>black suit top</t>
-  </si>
-  <si>
-    <t>matching set outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>pant suit set</t>
-  </si>
-  <si>
-    <t>black outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece set</t>
-  </si>
-  <si>
-    <t>green 2 piece outfit</t>
-  </si>
-  <si>
-    <t>long sleeve crop</t>
-  </si>
-  <si>
-    <t>high waist</t>
-  </si>
-  <si>
-    <t>jogging suit</t>
-  </si>
-  <si>
-    <t>jogger tracksuit</t>
-  </si>
-  <si>
-    <t>athletic apparel</t>
-  </si>
-  <si>
-    <t>athletic clothing</t>
-  </si>
-  <si>
-    <t>activewear set</t>
-  </si>
-  <si>
-    <t>suit set</t>
-  </si>
-  <si>
-    <t>pink shirt</t>
-  </si>
-  <si>
-    <t>pink suit</t>
-  </si>
-  <si>
-    <t>skinny shirt</t>
-  </si>
-  <si>
-    <t>jogging suit set</t>
-  </si>
-  <si>
-    <t>black top</t>
-  </si>
-  <si>
-    <t>gym set</t>
-  </si>
-  <si>
-    <t>sweatsuit outfit</t>
-  </si>
-  <si>
-    <t>sweatsuit set</t>
-  </si>
-  <si>
-    <t>work shirt</t>
-  </si>
-  <si>
-    <t>fitness legging</t>
-  </si>
-  <si>
-    <t>tight pant</t>
-  </si>
-  <si>
-    <t>black 2 piece</t>
-  </si>
-  <si>
-    <t>crop top outfit</t>
-  </si>
-  <si>
-    <t>set 2</t>
-  </si>
-  <si>
-    <t>exercise set</t>
-  </si>
-  <si>
-    <t>athletic long sleeve</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>long set</t>
-  </si>
-  <si>
-    <t>pink set</t>
-  </si>
-  <si>
-    <t>exercise top</t>
+    <t>bodybuilding clothe</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>blue workout legging</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>black workout legging</t>
+  </si>
+  <si>
+    <t>blue clothe</t>
+  </si>
+  <si>
+    <t>shirt legging</t>
+  </si>
+  <si>
+    <t>pink tight</t>
+  </si>
+  <si>
+    <t>skinny outfit</t>
+  </si>
+  <si>
+    <t>clothing set outfit</t>
+  </si>
+  <si>
+    <t>clothing outfit</t>
+  </si>
+  <si>
+    <t>blue pant</t>
+  </si>
+  <si>
+    <t>winter pant</t>
+  </si>
+  <si>
+    <t>legging with</t>
+  </si>
+  <si>
+    <t>black shirt legging</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>black blue legging</t>
+  </si>
+  <si>
+    <t>clothe shirt</t>
+  </si>
+  <si>
+    <t>work tight</t>
+  </si>
+  <si>
+    <t>track tight</t>
+  </si>
+  <si>
+    <t>pink 2 piece outfit</t>
+  </si>
+  <si>
+    <t>pink 2 piece set</t>
+  </si>
+  <si>
+    <t>long tight</t>
+  </si>
+  <si>
+    <t>work out tight</t>
+  </si>
+  <si>
+    <t>soft athletic legging</t>
+  </si>
+  <si>
+    <t>legging long sleeve top set</t>
+  </si>
+  <si>
+    <t>black top legging</t>
+  </si>
+  <si>
+    <t>black crop legging</t>
+  </si>
+  <si>
+    <t>long sleeve 2 piece set</t>
+  </si>
+  <si>
+    <t>green athletic legging</t>
+  </si>
+  <si>
+    <t>soft sleeve</t>
+  </si>
+  <si>
+    <t>long black legging</t>
+  </si>
+  <si>
+    <t>black green legging</t>
+  </si>
+  <si>
+    <t>matching legging</t>
+  </si>
+  <si>
+    <t>exercise black legging</t>
+  </si>
+  <si>
+    <t>soft black legging</t>
+  </si>
+  <si>
+    <t>soft black</t>
+  </si>
+  <si>
+    <t>blue black tight</t>
+  </si>
+  <si>
+    <t>blue workout pant</t>
+  </si>
+  <si>
+    <t>black workout tight</t>
+  </si>
+  <si>
+    <t>blue 2 piece set</t>
+  </si>
+  <si>
+    <t>matching crop top pant set</t>
+  </si>
+  <si>
+    <t>black winter outfit</t>
+  </si>
+  <si>
+    <t>winter workout pant</t>
+  </si>
+  <si>
+    <t>2 piece pant outfit</t>
+  </si>
+  <si>
+    <t>black tight set</t>
+  </si>
+  <si>
+    <t>black winter tight</t>
+  </si>
+  <si>
+    <t>black tight pant</t>
+  </si>
+  <si>
+    <t>2 piece matching pant set</t>
+  </si>
+  <si>
+    <t>size top</t>
+  </si>
+  <si>
+    <t>winter crop</t>
+  </si>
+  <si>
+    <t>winter yoga top</t>
+  </si>
+  <si>
+    <t>seamless ribbed crop top</t>
+  </si>
+  <si>
+    <t>top with legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless</t>
+  </si>
+  <si>
+    <t>legging size small</t>
+  </si>
+  <si>
+    <t>pink long</t>
+  </si>
+  <si>
+    <t>pink seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed workout top</t>
+  </si>
+  <si>
+    <t>small legging</t>
+  </si>
+  <si>
+    <t>pink 2 piece</t>
+  </si>
+  <si>
+    <t>ribbed workout legging</t>
+  </si>
+  <si>
+    <t>pink workout legging</t>
+  </si>
+  <si>
+    <t>pink yoga legging</t>
+  </si>
+  <si>
+    <t>fashionable pant</t>
+  </si>
+  <si>
+    <t>black suit set woman</t>
+  </si>
+  <si>
+    <t>woman clothe jogger</t>
+  </si>
+  <si>
+    <t>suit piece woman</t>
+  </si>
+  <si>
+    <t>clothe woman crop top</t>
+  </si>
+  <si>
+    <t>workout clothe woman pant</t>
+  </si>
+  <si>
+    <t>suit clothe</t>
+  </si>
+  <si>
+    <t>high top pant woman</t>
+  </si>
+  <si>
+    <t>black pant set woman</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
+  </si>
+  <si>
+    <t>2 piece pant woman</t>
+  </si>
+  <si>
+    <t>black apparel woman</t>
+  </si>
+  <si>
+    <t>green black clothe</t>
+  </si>
+  <si>
+    <t>crop top suit woman</t>
+  </si>
+  <si>
+    <t>waist black</t>
+  </si>
+  <si>
+    <t>suit top woman</t>
+  </si>
+  <si>
+    <t>black set woman</t>
+  </si>
+  <si>
+    <t>small pant woman</t>
+  </si>
+  <si>
+    <t>green pant woman high waist</t>
+  </si>
+  <si>
+    <t>green jogger set woman</t>
+  </si>
+  <si>
+    <t>workout pant set</t>
+  </si>
+  <si>
+    <t>workout jogger pant</t>
+  </si>
+  <si>
+    <t>fashionable jogger woman</t>
+  </si>
+  <si>
+    <t>crop workout pant</t>
+  </si>
+  <si>
+    <t>crop set woman</t>
+  </si>
+  <si>
+    <t>black jogger suit woman</t>
+  </si>
+  <si>
+    <t>woman apparel top</t>
+  </si>
+  <si>
+    <t>suit 2</t>
+  </si>
+  <si>
+    <t>small green</t>
+  </si>
+  <si>
+    <t>small crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger pant</t>
+  </si>
+  <si>
+    <t>black crop woman</t>
+  </si>
+  <si>
+    <t>2 piece pant</t>
+  </si>
+  <si>
+    <t>crop jogger set woman</t>
   </si>
 </sst>
 </file>
@@ -652,334 +652,334 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1160,5 +1160,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9750137-22F8-4BBC-887B-9F8F51DB491A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB613F22-D663-4CA7-A8E4-A00B5909988B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,306 +25,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>bodybuilding clothe</t>
-  </si>
-  <si>
-    <t>sport 2</t>
-  </si>
-  <si>
-    <t>blue workout legging</t>
-  </si>
-  <si>
-    <t>gym clothe</t>
-  </si>
-  <si>
-    <t>black workout legging</t>
-  </si>
-  <si>
-    <t>blue clothe</t>
-  </si>
-  <si>
-    <t>shirt legging</t>
-  </si>
-  <si>
-    <t>pink tight</t>
-  </si>
-  <si>
-    <t>skinny outfit</t>
-  </si>
-  <si>
-    <t>clothing set outfit</t>
-  </si>
-  <si>
-    <t>clothing outfit</t>
-  </si>
-  <si>
-    <t>blue pant</t>
-  </si>
-  <si>
-    <t>winter pant</t>
-  </si>
-  <si>
-    <t>legging with</t>
-  </si>
-  <si>
-    <t>black shirt legging</t>
-  </si>
-  <si>
-    <t>gym workout clothe</t>
-  </si>
-  <si>
-    <t>clothe legging</t>
-  </si>
-  <si>
-    <t>black blue legging</t>
-  </si>
-  <si>
-    <t>clothe shirt</t>
-  </si>
-  <si>
-    <t>work tight</t>
-  </si>
-  <si>
-    <t>track tight</t>
-  </si>
-  <si>
-    <t>pink 2 piece outfit</t>
-  </si>
-  <si>
-    <t>pink 2 piece set</t>
-  </si>
-  <si>
-    <t>long tight</t>
-  </si>
-  <si>
-    <t>work out tight</t>
-  </si>
-  <si>
-    <t>soft athletic legging</t>
-  </si>
-  <si>
-    <t>legging long sleeve top set</t>
-  </si>
-  <si>
-    <t>black top legging</t>
-  </si>
-  <si>
-    <t>black crop legging</t>
-  </si>
-  <si>
-    <t>long sleeve 2 piece set</t>
-  </si>
-  <si>
-    <t>green athletic legging</t>
-  </si>
-  <si>
-    <t>soft sleeve</t>
-  </si>
-  <si>
-    <t>long black legging</t>
-  </si>
-  <si>
-    <t>black green legging</t>
-  </si>
-  <si>
-    <t>matching legging</t>
-  </si>
-  <si>
-    <t>exercise black legging</t>
-  </si>
-  <si>
-    <t>soft black legging</t>
-  </si>
-  <si>
-    <t>soft black</t>
-  </si>
-  <si>
-    <t>blue black tight</t>
-  </si>
-  <si>
-    <t>blue workout pant</t>
-  </si>
-  <si>
-    <t>black workout tight</t>
-  </si>
-  <si>
-    <t>blue 2 piece set</t>
-  </si>
-  <si>
-    <t>matching crop top pant set</t>
-  </si>
-  <si>
-    <t>black winter outfit</t>
-  </si>
-  <si>
-    <t>winter workout pant</t>
-  </si>
-  <si>
-    <t>2 piece pant outfit</t>
-  </si>
-  <si>
-    <t>black tight set</t>
-  </si>
-  <si>
-    <t>black winter tight</t>
-  </si>
-  <si>
-    <t>black tight pant</t>
-  </si>
-  <si>
-    <t>2 piece matching pant set</t>
-  </si>
-  <si>
-    <t>size top</t>
-  </si>
-  <si>
-    <t>winter crop</t>
-  </si>
-  <si>
-    <t>winter yoga top</t>
-  </si>
-  <si>
-    <t>seamless ribbed crop top</t>
-  </si>
-  <si>
-    <t>top with legging</t>
-  </si>
-  <si>
-    <t>ribbed seamless</t>
-  </si>
-  <si>
-    <t>legging size small</t>
-  </si>
-  <si>
-    <t>pink long</t>
-  </si>
-  <si>
-    <t>pink seamless legging</t>
-  </si>
-  <si>
-    <t>ribbed seamless legging</t>
-  </si>
-  <si>
-    <t>ribbed workout top</t>
-  </si>
-  <si>
-    <t>small legging</t>
-  </si>
-  <si>
-    <t>pink 2 piece</t>
-  </si>
-  <si>
-    <t>ribbed workout legging</t>
-  </si>
-  <si>
-    <t>pink workout legging</t>
-  </si>
-  <si>
-    <t>pink yoga legging</t>
-  </si>
-  <si>
-    <t>fashionable pant</t>
-  </si>
-  <si>
-    <t>black suit set woman</t>
-  </si>
-  <si>
-    <t>woman clothe jogger</t>
-  </si>
-  <si>
-    <t>suit piece woman</t>
-  </si>
-  <si>
-    <t>clothe woman crop top</t>
-  </si>
-  <si>
-    <t>workout clothe woman pant</t>
-  </si>
-  <si>
-    <t>suit clothe</t>
-  </si>
-  <si>
-    <t>high top pant woman</t>
-  </si>
-  <si>
-    <t>black pant set woman</t>
-  </si>
-  <si>
-    <t>2 piece workout clothe</t>
-  </si>
-  <si>
-    <t>2 piece pant woman</t>
-  </si>
-  <si>
-    <t>black apparel woman</t>
-  </si>
-  <si>
-    <t>green black clothe</t>
-  </si>
-  <si>
-    <t>crop top suit woman</t>
-  </si>
-  <si>
-    <t>waist black</t>
-  </si>
-  <si>
-    <t>suit top woman</t>
-  </si>
-  <si>
-    <t>black set woman</t>
-  </si>
-  <si>
-    <t>small pant woman</t>
-  </si>
-  <si>
-    <t>green pant woman high waist</t>
-  </si>
-  <si>
-    <t>green jogger set woman</t>
-  </si>
-  <si>
-    <t>workout pant set</t>
-  </si>
-  <si>
-    <t>workout jogger pant</t>
-  </si>
-  <si>
-    <t>fashionable jogger woman</t>
-  </si>
-  <si>
-    <t>crop workout pant</t>
-  </si>
-  <si>
-    <t>crop set woman</t>
-  </si>
-  <si>
-    <t>black jogger suit woman</t>
-  </si>
-  <si>
-    <t>woman apparel top</t>
-  </si>
-  <si>
-    <t>suit 2</t>
-  </si>
-  <si>
-    <t>small green</t>
-  </si>
-  <si>
-    <t>small crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger pant</t>
-  </si>
-  <si>
-    <t>black crop woman</t>
-  </si>
-  <si>
-    <t>2 piece pant</t>
-  </si>
-  <si>
-    <t>crop jogger set woman</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t>small pink</t>
+  </si>
+  <si>
+    <t>winter work</t>
+  </si>
+  <si>
+    <t>pink legging</t>
+  </si>
+  <si>
+    <t>winter two piece outfit</t>
+  </si>
+  <si>
+    <t>crop pant</t>
+  </si>
+  <si>
+    <t>exercise legging</t>
+  </si>
+  <si>
+    <t>work out gym</t>
+  </si>
+  <si>
+    <t>matching top</t>
+  </si>
+  <si>
+    <t>matching pant</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>compression tight</t>
+  </si>
+  <si>
+    <t>small black top</t>
+  </si>
+  <si>
+    <t>winter work shirt</t>
+  </si>
+  <si>
+    <t>woman black</t>
+  </si>
+  <si>
+    <t>green jogger</t>
+  </si>
+  <si>
+    <t>black athletic</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>small woman</t>
+  </si>
+  <si>
+    <t>woman clothe</t>
+  </si>
+  <si>
+    <t>green sleeve</t>
+  </si>
+  <si>
+    <t>green crop</t>
+  </si>
+  <si>
+    <t>black tight</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>winter tight</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>small set</t>
+  </si>
+  <si>
+    <t>legging outfit set</t>
+  </si>
+  <si>
+    <t>2 woman</t>
+  </si>
+  <si>
+    <t>black sport legging</t>
+  </si>
+  <si>
+    <t>apparel size</t>
+  </si>
+  <si>
+    <t>long jogger</t>
+  </si>
+  <si>
+    <t>long legging</t>
+  </si>
+  <si>
+    <t>small piece</t>
+  </si>
+  <si>
+    <t>workout jogger</t>
+  </si>
+  <si>
+    <t>pant suit woman</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>blue legging</t>
+  </si>
+  <si>
+    <t>blue tight</t>
+  </si>
+  <si>
+    <t>woman high waist</t>
+  </si>
+  <si>
+    <t>workout sleeve</t>
+  </si>
+  <si>
+    <t>fashion jogger</t>
+  </si>
+  <si>
+    <t>yoga tight</t>
+  </si>
+  <si>
+    <t>long yoga top</t>
+  </si>
+  <si>
+    <t>woman set</t>
+  </si>
+  <si>
+    <t>long crop</t>
+  </si>
+  <si>
+    <t>small top</t>
+  </si>
+  <si>
+    <t>work sleeve</t>
+  </si>
+  <si>
+    <t>black jogger pant</t>
+  </si>
+  <si>
+    <t>black athletic legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>blue crop</t>
+  </si>
+  <si>
+    <t>black workout pant</t>
+  </si>
+  <si>
+    <t>ribbed legging</t>
+  </si>
+  <si>
+    <t>winter sleeve</t>
+  </si>
+  <si>
+    <t>soft set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfit</t>
+  </si>
+  <si>
+    <t>black suit woman</t>
+  </si>
+  <si>
+    <t>green black crop top</t>
+  </si>
+  <si>
+    <t>green matching set</t>
+  </si>
+  <si>
+    <t>long sleeve workout set</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>long sleeve matching set</t>
+  </si>
+  <si>
+    <t>workout crop top set</t>
+  </si>
+  <si>
+    <t>2 soft</t>
+  </si>
+  <si>
+    <t>crop jogger set</t>
+  </si>
+  <si>
+    <t>blue matching set</t>
+  </si>
+  <si>
+    <t>soft crop top</t>
+  </si>
+  <si>
+    <t>jogger crop top set</t>
+  </si>
+  <si>
+    <t>pink out outfit</t>
+  </si>
+  <si>
+    <t>soft long sleeve</t>
+  </si>
+  <si>
+    <t>jogger woman</t>
+  </si>
+  <si>
+    <t>black winter top</t>
+  </si>
+  <si>
+    <t>2 piece set woman</t>
+  </si>
+  <si>
+    <t>black fitness</t>
+  </si>
+  <si>
+    <t>soft legging</t>
+  </si>
+  <si>
+    <t>soft top</t>
+  </si>
+  <si>
+    <t>black pant</t>
+  </si>
+  <si>
+    <t>seamless crop top workout</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>blue workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>seamless set</t>
   </si>
 </sst>
 </file>
@@ -649,337 +598,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1072,94 +1021,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB613F22-D663-4CA7-A8E4-A00B5909988B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333726CB-56DD-453A-B3F0-901BD2557B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,255 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t>small pink</t>
-  </si>
-  <si>
-    <t>winter work</t>
-  </si>
-  <si>
-    <t>pink legging</t>
-  </si>
-  <si>
-    <t>winter two piece outfit</t>
-  </si>
-  <si>
-    <t>crop pant</t>
-  </si>
-  <si>
-    <t>exercise legging</t>
-  </si>
-  <si>
-    <t>work out gym</t>
-  </si>
-  <si>
-    <t>matching top</t>
-  </si>
-  <si>
-    <t>matching pant</t>
-  </si>
-  <si>
-    <t>high waist black</t>
-  </si>
-  <si>
-    <t>compression tight</t>
-  </si>
-  <si>
-    <t>small black top</t>
-  </si>
-  <si>
-    <t>winter work shirt</t>
-  </si>
-  <si>
-    <t>woman black</t>
-  </si>
-  <si>
-    <t>green jogger</t>
-  </si>
-  <si>
-    <t>black athletic</t>
-  </si>
-  <si>
-    <t>sport clothe</t>
-  </si>
-  <si>
-    <t>small woman</t>
-  </si>
-  <si>
-    <t>woman clothe</t>
-  </si>
-  <si>
-    <t>green sleeve</t>
-  </si>
-  <si>
-    <t>green crop</t>
-  </si>
-  <si>
-    <t>black tight</t>
-  </si>
-  <si>
-    <t>green legging</t>
-  </si>
-  <si>
-    <t>winter tight</t>
-  </si>
-  <si>
-    <t>yoga waist legging</t>
-  </si>
-  <si>
-    <t>small set</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>2 woman</t>
-  </si>
-  <si>
-    <t>black sport legging</t>
-  </si>
-  <si>
-    <t>apparel size</t>
-  </si>
-  <si>
-    <t>long jogger</t>
-  </si>
-  <si>
-    <t>long legging</t>
-  </si>
-  <si>
-    <t>small piece</t>
-  </si>
-  <si>
-    <t>workout jogger</t>
-  </si>
-  <si>
-    <t>pant suit woman</t>
-  </si>
-  <si>
-    <t>gym legging</t>
-  </si>
-  <si>
-    <t>blue legging</t>
-  </si>
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>woman high waist</t>
-  </si>
-  <si>
-    <t>workout sleeve</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>long yoga top</t>
-  </si>
-  <si>
-    <t>woman set</t>
-  </si>
-  <si>
-    <t>long crop</t>
-  </si>
-  <si>
-    <t>small top</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black jogger pant</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>blue crop</t>
-  </si>
-  <si>
-    <t>black workout pant</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>winter sleeve</t>
-  </si>
-  <si>
-    <t>soft set</t>
-  </si>
-  <si>
-    <t>long sleeve two piece outfit</t>
-  </si>
-  <si>
-    <t>black suit woman</t>
-  </si>
-  <si>
-    <t>green black crop top</t>
-  </si>
-  <si>
-    <t>green matching set</t>
-  </si>
-  <si>
-    <t>long sleeve workout set</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>black workout set</t>
-  </si>
-  <si>
-    <t>long sleeve matching set</t>
-  </si>
-  <si>
-    <t>workout crop top set</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>crop jogger set</t>
-  </si>
-  <si>
-    <t>blue matching set</t>
-  </si>
-  <si>
-    <t>soft crop top</t>
-  </si>
-  <si>
-    <t>jogger crop top set</t>
-  </si>
-  <si>
-    <t>pink out outfit</t>
-  </si>
-  <si>
-    <t>soft long sleeve</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>black winter top</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>black fitness</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>blue workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>seamless set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
@@ -598,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,6 +1072,91 @@
         <v>82</v>
       </c>
     </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333726CB-56DD-453A-B3F0-901BD2557B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DE929-C8BB-4AAA-B0BE-CED375B0E285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>jogger woman high waist</t>
-  </si>
-  <si>
-    <t>black jogger woman</t>
-  </si>
-  <si>
-    <t>workout crop top woman</t>
-  </si>
-  <si>
-    <t>jogger set woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant woman</t>
-  </si>
-  <si>
-    <t>workout set woman 2 piece</t>
-  </si>
-  <si>
-    <t>black pant woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman</t>
-  </si>
-  <si>
-    <t>workout top woman</t>
-  </si>
-  <si>
-    <t>crop athletic jacket</t>
-  </si>
-  <si>
-    <t>tight clothe</t>
-  </si>
-  <si>
-    <t>black yoga tight</t>
-  </si>
-  <si>
-    <t>black compression tight</t>
-  </si>
-  <si>
-    <t>turquoise clothe</t>
-  </si>
-  <si>
-    <t>turquoise piece</t>
-  </si>
-  <si>
-    <t>fitness tight</t>
-  </si>
-  <si>
-    <t>crop tight</t>
-  </si>
-  <si>
-    <t>clothe compression</t>
-  </si>
-  <si>
-    <t>turquoise tight</t>
-  </si>
-  <si>
-    <t>piece black</t>
-  </si>
-  <si>
-    <t>athletic tight</t>
-  </si>
-  <si>
-    <t>fitness clothe</t>
-  </si>
-  <si>
-    <t>compression yoga tight</t>
-  </si>
-  <si>
-    <t>clothe outfit</t>
-  </si>
-  <si>
-    <t>athletic clothe</t>
-  </si>
-  <si>
-    <t>black clothe</t>
-  </si>
-  <si>
-    <t>yoga clothe</t>
-  </si>
-  <si>
-    <t>athletic sport</t>
-  </si>
-  <si>
-    <t>fitness jogger</t>
-  </si>
-  <si>
-    <t>jogging legging</t>
-  </si>
-  <si>
-    <t>seamless athletic legging</t>
-  </si>
-  <si>
-    <t>two set top</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>long workout legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging high waist</t>
-  </si>
-  <si>
-    <t>2 piece seamless workout outfit</t>
-  </si>
-  <si>
-    <t>crop workout legging</t>
-  </si>
-  <si>
-    <t>yoga seamless outfit</t>
-  </si>
-  <si>
-    <t>2 piece outfit long sleeve</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout outfit</t>
-  </si>
-  <si>
-    <t>high waist crop legging</t>
-  </si>
-  <si>
-    <t>waist legging</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>high waist legging long</t>
-  </si>
-  <si>
-    <t>high legging</t>
-  </si>
-  <si>
-    <t>long sleeve crop top outfit</t>
-  </si>
-  <si>
-    <t>long sleeve top legging</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>jogger legging</t>
-  </si>
-  <si>
-    <t>seamless yoga legging</t>
-  </si>
-  <si>
-    <t>high waist yoga legging</t>
-  </si>
-  <si>
-    <t>high waist seamless legging</t>
-  </si>
-  <si>
-    <t>long top legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging</t>
-  </si>
-  <si>
-    <t>long sleeve</t>
-  </si>
-  <si>
-    <t>work out</t>
-  </si>
-  <si>
-    <t>fashion top</t>
-  </si>
-  <si>
-    <t>athletic sleeve</t>
-  </si>
-  <si>
-    <t>gym shirt</t>
-  </si>
-  <si>
-    <t>two piece</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>workout waist</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>track set</t>
-  </si>
-  <si>
-    <t>yoga fitness</t>
-  </si>
-  <si>
-    <t>yoga jacket</t>
-  </si>
-  <si>
-    <t>yoga outfit</t>
-  </si>
-  <si>
-    <t>bodybuilding shirt</t>
-  </si>
-  <si>
-    <t>turquoise jacket</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>high top</t>
-  </si>
-  <si>
-    <t>fitness apparel</t>
-  </si>
-  <si>
-    <t>crop top</t>
-  </si>
-  <si>
-    <t>sleeve top</t>
-  </si>
-  <si>
-    <t>fashion set</t>
-  </si>
-  <si>
-    <t>high waist black pant</t>
-  </si>
-  <si>
-    <t>legging crop top set</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout crop top</t>
-  </si>
-  <si>
-    <t>workout matching set</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout gym</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>gym workout set</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>workout shirt long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>black suit</t>
-  </si>
-  <si>
-    <t>black jacket</t>
-  </si>
-  <si>
-    <t>black legging</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>black long sleeve</t>
+    <t>black sport</t>
+  </si>
+  <si>
+    <t>clothing set</t>
+  </si>
+  <si>
+    <t>seamless legging</t>
+  </si>
+  <si>
+    <t>seamless crop top</t>
+  </si>
+  <si>
+    <t>legging suit</t>
+  </si>
+  <si>
+    <t>legging top set</t>
+  </si>
+  <si>
+    <t>green apparel</t>
+  </si>
+  <si>
+    <t>small crop top</t>
+  </si>
+  <si>
+    <t>black compression</t>
+  </si>
+  <si>
+    <t>winter activewear</t>
+  </si>
+  <si>
+    <t>winter blue</t>
+  </si>
+  <si>
+    <t>winter tracksuit</t>
+  </si>
+  <si>
+    <t>pink work shirt</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>winter outfit</t>
+  </si>
+  <si>
+    <t>2 piece matching set</t>
+  </si>
+  <si>
+    <t>2 piece long sleeve</t>
+  </si>
+  <si>
+    <t>2 piece workout set</t>
+  </si>
+  <si>
+    <t>black pant suit</t>
+  </si>
+  <si>
+    <t>black pant set</t>
+  </si>
+  <si>
+    <t>black workout shirt</t>
+  </si>
+  <si>
+    <t>black workout top</t>
+  </si>
+  <si>
+    <t>seamless top</t>
+  </si>
+  <si>
+    <t>pink tight shirt</t>
+  </si>
+  <si>
+    <t>pink crop shirt</t>
+  </si>
+  <si>
+    <t>green high top</t>
+  </si>
+  <si>
+    <t>work out crop</t>
+  </si>
+  <si>
+    <t>two piece legging set</t>
+  </si>
+  <si>
+    <t>seamless workout top</t>
+  </si>
+  <si>
+    <t>seamless workout</t>
+  </si>
+  <si>
+    <t>black sport shirt</t>
+  </si>
+  <si>
+    <t>winter workout</t>
+  </si>
+  <si>
+    <t>long black top</t>
+  </si>
+  <si>
+    <t>tight long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>workout tracksuit</t>
+  </si>
+  <si>
+    <t>workout pant</t>
+  </si>
+  <si>
+    <t>2 piece jogger</t>
+  </si>
+  <si>
+    <t>2 piece woman</t>
+  </si>
+  <si>
+    <t>athletic legging</t>
+  </si>
+  <si>
+    <t>black tight top</t>
+  </si>
+  <si>
+    <t>black jogger</t>
+  </si>
+  <si>
+    <t>black long crop top</t>
+  </si>
+  <si>
+    <t>crop top woman</t>
+  </si>
+  <si>
+    <t>green black top</t>
+  </si>
+  <si>
+    <t>long sleeve winter shirt</t>
+  </si>
+  <si>
+    <t>2 piece pant set</t>
+  </si>
+  <si>
+    <t>2 piece pant suit</t>
+  </si>
+  <si>
+    <t>long sleeve work out shirt</t>
+  </si>
+  <si>
+    <t>long sleeve set</t>
+  </si>
+  <si>
+    <t>black top woman</t>
+  </si>
+  <si>
+    <t>long sleeve outfit</t>
+  </si>
+  <si>
+    <t>crop top pant set</t>
+  </si>
+  <si>
+    <t>long sleeve athletic top</t>
+  </si>
+  <si>
+    <t>long sleeve two piece set</t>
+  </si>
+  <si>
+    <t>pink workout set</t>
+  </si>
+  <si>
+    <t>black jogger set</t>
+  </si>
+  <si>
+    <t>tight workout top</t>
+  </si>
+  <si>
+    <t>long sleeve clothing</t>
+  </si>
+  <si>
+    <t>black athletic crop top</t>
+  </si>
+  <si>
+    <t>small black crop top</t>
+  </si>
+  <si>
+    <t>black athletic sleeve</t>
+  </si>
+  <si>
+    <t>matching legging set</t>
+  </si>
+  <si>
+    <t>long sleeve workout top</t>
+  </si>
+  <si>
+    <t>long sleeve crop top workout</t>
+  </si>
+  <si>
+    <t>pink long sleeve crop</t>
+  </si>
+  <si>
+    <t>black long sleeve crop</t>
+  </si>
+  <si>
+    <t>green long sleeve crop</t>
+  </si>
+  <si>
+    <t>long sleeve crop top set</t>
+  </si>
+  <si>
+    <t>long sleeve work</t>
+  </si>
+  <si>
+    <t>top pant set</t>
+  </si>
+  <si>
+    <t>pink outfit set</t>
+  </si>
+  <si>
+    <t>black crop</t>
+  </si>
+  <si>
+    <t>long black</t>
+  </si>
+  <si>
+    <t>work outfit</t>
+  </si>
+  <si>
+    <t>piece work</t>
+  </si>
+  <si>
+    <t>set two</t>
+  </si>
+  <si>
+    <t>fitness pant</t>
+  </si>
+  <si>
+    <t>winter shirt</t>
+  </si>
+  <si>
+    <t>workout tight</t>
+  </si>
+  <si>
+    <t>high top woman</t>
+  </si>
+  <si>
+    <t>matching pant set</t>
+  </si>
+  <si>
+    <t>gym tight</t>
+  </si>
+  <si>
+    <t>legging outfit</t>
+  </si>
+  <si>
+    <t>long green</t>
+  </si>
+  <si>
+    <t>crop legging</t>
+  </si>
+  <si>
+    <t>work set</t>
+  </si>
+  <si>
+    <t>seamless long sleeve workout top</t>
+  </si>
+  <si>
+    <t>two apparel</t>
+  </si>
+  <si>
+    <t>tracksuit pant</t>
+  </si>
+  <si>
+    <t>work out pink</t>
+  </si>
+  <si>
+    <t>workout track</t>
+  </si>
+  <si>
+    <t>black high top</t>
+  </si>
+  <si>
+    <t>fashionable top</t>
+  </si>
+  <si>
+    <t>winter top</t>
+  </si>
+  <si>
+    <t>2 small</t>
+  </si>
+  <si>
+    <t>seamless crop</t>
+  </si>
+  <si>
+    <t>yoga with</t>
+  </si>
+  <si>
+    <t>pink out shirt</t>
+  </si>
+  <si>
+    <t>pink crop</t>
+  </si>
+  <si>
+    <t>yoga jogger</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DE929-C8BB-4AAA-B0BE-CED375B0E285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBF2A1-37C3-4B42-9277-2E63FA49A4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
+    <sheet name="B07L79DT42" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>black sport</t>
-  </si>
-  <si>
-    <t>clothing set</t>
-  </si>
-  <si>
-    <t>seamless legging</t>
-  </si>
-  <si>
-    <t>seamless crop top</t>
-  </si>
-  <si>
-    <t>legging suit</t>
-  </si>
-  <si>
-    <t>legging top set</t>
-  </si>
-  <si>
-    <t>green apparel</t>
-  </si>
-  <si>
-    <t>small crop top</t>
-  </si>
-  <si>
-    <t>black compression</t>
-  </si>
-  <si>
-    <t>winter activewear</t>
-  </si>
-  <si>
-    <t>winter blue</t>
-  </si>
-  <si>
-    <t>winter tracksuit</t>
-  </si>
-  <si>
-    <t>pink work shirt</t>
-  </si>
-  <si>
-    <t>work out outfit</t>
-  </si>
-  <si>
-    <t>winter outfit</t>
-  </si>
-  <si>
-    <t>2 piece matching set</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve</t>
-  </si>
-  <si>
-    <t>2 piece workout set</t>
-  </si>
-  <si>
-    <t>black pant suit</t>
-  </si>
-  <si>
-    <t>black pant set</t>
-  </si>
-  <si>
-    <t>black workout shirt</t>
-  </si>
-  <si>
-    <t>black workout top</t>
-  </si>
-  <si>
-    <t>seamless top</t>
-  </si>
-  <si>
-    <t>pink tight shirt</t>
-  </si>
-  <si>
-    <t>pink crop shirt</t>
-  </si>
-  <si>
-    <t>green high top</t>
-  </si>
-  <si>
-    <t>work out crop</t>
-  </si>
-  <si>
-    <t>two piece legging set</t>
-  </si>
-  <si>
-    <t>seamless workout top</t>
-  </si>
-  <si>
-    <t>seamless workout</t>
-  </si>
-  <si>
-    <t>black sport shirt</t>
-  </si>
-  <si>
-    <t>winter workout</t>
-  </si>
-  <si>
-    <t>long black top</t>
-  </si>
-  <si>
-    <t>tight long sleeve workout shirt</t>
-  </si>
-  <si>
-    <t>workout tracksuit</t>
-  </si>
-  <si>
-    <t>workout pant</t>
-  </si>
-  <si>
-    <t>2 piece jogger</t>
-  </si>
-  <si>
-    <t>2 piece woman</t>
-  </si>
-  <si>
-    <t>athletic legging</t>
-  </si>
-  <si>
-    <t>black tight top</t>
-  </si>
-  <si>
-    <t>black jogger</t>
-  </si>
-  <si>
-    <t>black long crop top</t>
-  </si>
-  <si>
-    <t>crop top woman</t>
-  </si>
-  <si>
-    <t>green black top</t>
-  </si>
-  <si>
-    <t>long sleeve winter shirt</t>
-  </si>
-  <si>
-    <t>2 piece pant set</t>
-  </si>
-  <si>
-    <t>2 piece pant suit</t>
-  </si>
-  <si>
-    <t>long sleeve work out shirt</t>
-  </si>
-  <si>
-    <t>long sleeve set</t>
-  </si>
-  <si>
-    <t>black top woman</t>
-  </si>
-  <si>
-    <t>long sleeve outfit</t>
-  </si>
-  <si>
-    <t>crop top pant set</t>
-  </si>
-  <si>
-    <t>long sleeve athletic top</t>
-  </si>
-  <si>
-    <t>long sleeve two piece set</t>
-  </si>
-  <si>
-    <t>pink workout set</t>
-  </si>
-  <si>
-    <t>black jogger set</t>
-  </si>
-  <si>
-    <t>tight workout top</t>
-  </si>
-  <si>
-    <t>long sleeve clothing</t>
-  </si>
-  <si>
-    <t>black athletic crop top</t>
-  </si>
-  <si>
-    <t>small black crop top</t>
-  </si>
-  <si>
-    <t>black athletic sleeve</t>
-  </si>
-  <si>
-    <t>matching legging set</t>
-  </si>
-  <si>
-    <t>long sleeve workout top</t>
-  </si>
-  <si>
-    <t>long sleeve crop top workout</t>
-  </si>
-  <si>
-    <t>pink long sleeve crop</t>
-  </si>
-  <si>
-    <t>black long sleeve crop</t>
-  </si>
-  <si>
-    <t>green long sleeve crop</t>
-  </si>
-  <si>
-    <t>long sleeve crop top set</t>
-  </si>
-  <si>
-    <t>long sleeve work</t>
-  </si>
-  <si>
-    <t>top pant set</t>
-  </si>
-  <si>
-    <t>pink outfit set</t>
-  </si>
-  <si>
-    <t>black crop</t>
-  </si>
-  <si>
-    <t>long black</t>
-  </si>
-  <si>
-    <t>work outfit</t>
-  </si>
-  <si>
-    <t>piece work</t>
-  </si>
-  <si>
-    <t>set two</t>
-  </si>
-  <si>
-    <t>fitness pant</t>
-  </si>
-  <si>
-    <t>winter shirt</t>
-  </si>
-  <si>
-    <t>workout tight</t>
-  </si>
-  <si>
-    <t>high top woman</t>
-  </si>
-  <si>
-    <t>matching pant set</t>
-  </si>
-  <si>
-    <t>gym tight</t>
-  </si>
-  <si>
-    <t>legging outfit</t>
-  </si>
-  <si>
-    <t>long green</t>
-  </si>
-  <si>
-    <t>crop legging</t>
-  </si>
-  <si>
-    <t>work set</t>
-  </si>
-  <si>
-    <t>seamless long sleeve workout top</t>
-  </si>
-  <si>
-    <t>two apparel</t>
-  </si>
-  <si>
-    <t>tracksuit pant</t>
-  </si>
-  <si>
-    <t>work out pink</t>
-  </si>
-  <si>
-    <t>workout track</t>
-  </si>
-  <si>
-    <t>black high top</t>
-  </si>
-  <si>
-    <t>fashionable top</t>
-  </si>
-  <si>
-    <t>winter top</t>
-  </si>
-  <si>
-    <t>2 small</t>
-  </si>
-  <si>
-    <t>seamless crop</t>
-  </si>
-  <si>
-    <t>yoga with</t>
-  </si>
-  <si>
-    <t>pink out shirt</t>
-  </si>
-  <si>
-    <t>pink crop</t>
-  </si>
-  <si>
-    <t>yoga jogger</t>
+    <t>workout suit woman set</t>
+  </si>
+  <si>
+    <t>jogger top woman</t>
+  </si>
+  <si>
+    <t>small jogger</t>
+  </si>
+  <si>
+    <t>waist top woman</t>
+  </si>
+  <si>
+    <t>top set woman</t>
+  </si>
+  <si>
+    <t>crop workout pant woman</t>
+  </si>
+  <si>
+    <t>high pant</t>
+  </si>
+  <si>
+    <t>fashionable pant woman</t>
+  </si>
+  <si>
+    <t>woman clothe pant</t>
+  </si>
+  <si>
+    <t>small pant</t>
+  </si>
+  <si>
+    <t>woman workout jogger high waist</t>
+  </si>
+  <si>
+    <t>woman black 2</t>
+  </si>
+  <si>
+    <t>black 2 piece set woman</t>
+  </si>
+  <si>
+    <t>high waist jogger pant woman</t>
+  </si>
+  <si>
+    <t>high woman</t>
+  </si>
+  <si>
+    <t>fashionable clothe</t>
+  </si>
+  <si>
+    <t>workout crop top set woman</t>
+  </si>
+  <si>
+    <t>black workout</t>
+  </si>
+  <si>
+    <t>waist pant</t>
+  </si>
+  <si>
+    <t>woman green</t>
+  </si>
+  <si>
+    <t>2 piece pant suit woman</t>
+  </si>
+  <si>
+    <t>green workout pant</t>
+  </si>
+  <si>
+    <t>green jogger pant woman</t>
+  </si>
+  <si>
+    <t>workout apparel woman set</t>
+  </si>
+  <si>
+    <t>fashionable top woman</t>
+  </si>
+  <si>
+    <t>piece woman</t>
+  </si>
+  <si>
+    <t>small clothe</t>
+  </si>
+  <si>
+    <t>clothe crop top</t>
+  </si>
+  <si>
+    <t>woman clothe 2 piece set</t>
+  </si>
+  <si>
+    <t>green black pant</t>
+  </si>
+  <si>
+    <t>woman small clothe</t>
+  </si>
+  <si>
+    <t>black crop pant</t>
+  </si>
+  <si>
+    <t>green black jogger</t>
+  </si>
+  <si>
+    <t>clothe top</t>
+  </si>
+  <si>
+    <t>clothe pant</t>
+  </si>
+  <si>
+    <t>workout crop woman</t>
+  </si>
+  <si>
+    <t>waist pant woman</t>
+  </si>
+  <si>
+    <t>black workout set woman</t>
+  </si>
+  <si>
+    <t>woman jogger pant set</t>
+  </si>
+  <si>
+    <t>small top woman</t>
+  </si>
+  <si>
+    <t>workout jogger pant woman</t>
+  </si>
+  <si>
+    <t>green pant suit woman</t>
+  </si>
+  <si>
+    <t>high waist workout pant</t>
+  </si>
+  <si>
+    <t>crop top pant</t>
+  </si>
+  <si>
+    <t>black workout crop top woman</t>
+  </si>
+  <si>
+    <t>workout suit woman 2 piece</t>
+  </si>
+  <si>
+    <t>black crop pant woman</t>
+  </si>
+  <si>
+    <t>2 piece jogger woman</t>
+  </si>
+  <si>
+    <t>clothe woman top</t>
+  </si>
+  <si>
+    <t>green workout top woman</t>
+  </si>
+  <si>
+    <t>fashionable clothe woman</t>
+  </si>
+  <si>
+    <t>woman jogger suit 2 piece</t>
+  </si>
+  <si>
+    <t>woman pant top set</t>
+  </si>
+  <si>
+    <t>black jogger set woman</t>
+  </si>
+  <si>
+    <t>crop jogger woman</t>
+  </si>
+  <si>
+    <t>woman workout pant set</t>
+  </si>
+  <si>
+    <t>workout 2 piece woman</t>
+  </si>
+  <si>
+    <t>green suit woman</t>
+  </si>
+  <si>
+    <t>woman 2 piece suit</t>
+  </si>
+  <si>
+    <t>crop top jogger set woman</t>
+  </si>
+  <si>
+    <t>high pant woman</t>
+  </si>
+  <si>
+    <t>black jogger pant woman</t>
+  </si>
+  <si>
+    <t>clothe set woman</t>
+  </si>
+  <si>
+    <t>crop woman</t>
+  </si>
+  <si>
+    <t>high waist black pant woman</t>
+  </si>
+  <si>
+    <t>black jogger woman high waist</t>
+  </si>
+  <si>
+    <t>green clothe woman</t>
+  </si>
+  <si>
+    <t>crop top pant set woman</t>
+  </si>
+  <si>
+    <t>workout apparel woman</t>
+  </si>
+  <si>
+    <t>black high top woman</t>
+  </si>
+  <si>
+    <t>workout clothe set</t>
+  </si>
+  <si>
+    <t>workout clothe woman 2 piece</t>
+  </si>
+  <si>
+    <t>high waist workout pant woman</t>
+  </si>
+  <si>
+    <t>jogger woman high waist set</t>
+  </si>
+  <si>
+    <t>workout top woman set</t>
+  </si>
+  <si>
+    <t>workout clothe woman top</t>
+  </si>
+  <si>
+    <t>black workout top woman</t>
+  </si>
+  <si>
+    <t>jogger suit woman</t>
+  </si>
+  <si>
+    <t>suit set woman</t>
+  </si>
+  <si>
+    <t>crop top set woman</t>
+  </si>
+  <si>
+    <t>green clothe</t>
+  </si>
+  <si>
+    <t>workout suit woman</t>
+  </si>
+  <si>
+    <t>pant set woman</t>
+  </si>
+  <si>
+    <t>black pant suit woman</t>
+  </si>
+  <si>
+    <t>black workout pant woman</t>
+  </si>
+  <si>
+    <t>crop pant woman</t>
+  </si>
+  <si>
+    <t>2 piece pant set woman</t>
+  </si>
+  <si>
+    <t>green crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger woman</t>
+  </si>
+  <si>
+    <t>workout jogger woman</t>
+  </si>
+  <si>
+    <t>jogger suit woman set</t>
+  </si>
+  <si>
+    <t>black clothe woman</t>
+  </si>
+  <si>
+    <t>green top woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman set</t>
+  </si>
+  <si>
+    <t>green pant woman</t>
+  </si>
+  <si>
+    <t>high waist pant woman</t>
+  </si>
+  <si>
+    <t>jogger woman set</t>
+  </si>
+  <si>
+    <t>workout set woman</t>
+  </si>
+  <si>
+    <t>jogger pant woman</t>
+  </si>
+  <si>
+    <t>black crop top woman</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBF2A1-37C3-4B42-9277-2E63FA49A4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD488279-4997-458B-B2D6-67879F7620CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B07L79DT42" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>workout suit woman set</t>
-  </si>
-  <si>
-    <t>jogger top woman</t>
-  </si>
-  <si>
-    <t>small jogger</t>
-  </si>
-  <si>
-    <t>waist top woman</t>
-  </si>
-  <si>
-    <t>top set woman</t>
-  </si>
-  <si>
-    <t>crop workout pant woman</t>
-  </si>
-  <si>
-    <t>high pant</t>
-  </si>
-  <si>
-    <t>fashionable pant woman</t>
-  </si>
-  <si>
-    <t>woman clothe pant</t>
-  </si>
-  <si>
-    <t>small pant</t>
-  </si>
-  <si>
-    <t>woman workout jogger high waist</t>
-  </si>
-  <si>
-    <t>woman black 2</t>
-  </si>
-  <si>
-    <t>black 2 piece set woman</t>
-  </si>
-  <si>
-    <t>high waist jogger pant woman</t>
-  </si>
-  <si>
-    <t>high woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe</t>
-  </si>
-  <si>
-    <t>workout crop top set woman</t>
-  </si>
-  <si>
-    <t>black workout</t>
-  </si>
-  <si>
-    <t>waist pant</t>
-  </si>
-  <si>
-    <t>woman green</t>
-  </si>
-  <si>
-    <t>2 piece pant suit woman</t>
-  </si>
-  <si>
-    <t>green workout pant</t>
-  </si>
-  <si>
-    <t>green jogger pant woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman set</t>
-  </si>
-  <si>
-    <t>fashionable top woman</t>
-  </si>
-  <si>
-    <t>piece woman</t>
-  </si>
-  <si>
-    <t>small clothe</t>
-  </si>
-  <si>
-    <t>clothe crop top</t>
-  </si>
-  <si>
-    <t>woman clothe 2 piece set</t>
-  </si>
-  <si>
-    <t>green black pant</t>
-  </si>
-  <si>
-    <t>woman small clothe</t>
-  </si>
-  <si>
-    <t>black crop pant</t>
-  </si>
-  <si>
-    <t>green black jogger</t>
-  </si>
-  <si>
-    <t>clothe top</t>
-  </si>
-  <si>
-    <t>clothe pant</t>
-  </si>
-  <si>
-    <t>workout crop woman</t>
-  </si>
-  <si>
-    <t>waist pant woman</t>
-  </si>
-  <si>
-    <t>black workout set woman</t>
-  </si>
-  <si>
-    <t>woman jogger pant set</t>
-  </si>
-  <si>
-    <t>small top woman</t>
-  </si>
-  <si>
-    <t>workout jogger pant woman</t>
-  </si>
-  <si>
-    <t>green pant suit woman</t>
-  </si>
-  <si>
-    <t>high waist workout pant</t>
-  </si>
-  <si>
-    <t>crop top pant</t>
-  </si>
-  <si>
-    <t>black workout crop top woman</t>
-  </si>
-  <si>
-    <t>workout suit woman 2 piece</t>
-  </si>
-  <si>
-    <t>black crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece jogger woman</t>
-  </si>
-  <si>
-    <t>clothe woman top</t>
-  </si>
-  <si>
-    <t>green workout top woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe woman</t>
-  </si>
-  <si>
-    <t>woman jogger suit 2 piece</t>
-  </si>
-  <si>
-    <t>woman pant top set</t>
-  </si>
-  <si>
-    <t>black jogger set woman</t>
-  </si>
-  <si>
-    <t>crop jogger woman</t>
-  </si>
-  <si>
-    <t>woman workout pant set</t>
-  </si>
-  <si>
-    <t>workout 2 piece woman</t>
-  </si>
-  <si>
-    <t>green suit woman</t>
-  </si>
-  <si>
-    <t>woman 2 piece suit</t>
-  </si>
-  <si>
-    <t>crop top jogger set woman</t>
-  </si>
-  <si>
-    <t>high pant woman</t>
-  </si>
-  <si>
-    <t>black jogger pant woman</t>
-  </si>
-  <si>
-    <t>clothe set woman</t>
-  </si>
-  <si>
-    <t>crop woman</t>
-  </si>
-  <si>
-    <t>high waist black pant woman</t>
-  </si>
-  <si>
-    <t>black jogger woman high waist</t>
-  </si>
-  <si>
-    <t>green clothe woman</t>
-  </si>
-  <si>
-    <t>crop top pant set woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman</t>
-  </si>
-  <si>
-    <t>black high top woman</t>
-  </si>
-  <si>
-    <t>workout clothe set</t>
-  </si>
-  <si>
-    <t>workout clothe woman 2 piece</t>
-  </si>
-  <si>
-    <t>high waist workout pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman high waist set</t>
-  </si>
-  <si>
-    <t>workout top woman set</t>
-  </si>
-  <si>
-    <t>workout clothe woman top</t>
-  </si>
-  <si>
-    <t>black workout top woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman</t>
-  </si>
-  <si>
-    <t>suit set woman</t>
-  </si>
-  <si>
-    <t>crop top set woman</t>
-  </si>
-  <si>
-    <t>green clothe</t>
-  </si>
-  <si>
-    <t>workout suit woman</t>
-  </si>
-  <si>
-    <t>pant set woman</t>
-  </si>
-  <si>
-    <t>black pant suit woman</t>
-  </si>
-  <si>
-    <t>black workout pant woman</t>
-  </si>
-  <si>
-    <t>crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece pant set woman</t>
-  </si>
-  <si>
-    <t>green crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger woman</t>
-  </si>
-  <si>
-    <t>workout jogger woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman set</t>
-  </si>
-  <si>
-    <t>black clothe woman</t>
-  </si>
-  <si>
-    <t>green top woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman set</t>
-  </si>
-  <si>
-    <t>green pant woman</t>
-  </si>
-  <si>
-    <t>high waist pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman set</t>
-  </si>
-  <si>
-    <t>workout set woman</t>
-  </si>
-  <si>
-    <t>jogger pant woman</t>
-  </si>
-  <si>
-    <t>black crop top woman</t>
+    <t>long sleeve crop shirt</t>
+  </si>
+  <si>
+    <t>black 2 piece outfit</t>
+  </si>
+  <si>
+    <t>black 2 piece set</t>
+  </si>
+  <si>
+    <t>jogger outfit</t>
+  </si>
+  <si>
+    <t>fashion legging</t>
+  </si>
+  <si>
+    <t>track outfit</t>
+  </si>
+  <si>
+    <t>fashion crop top</t>
+  </si>
+  <si>
+    <t>top legging</t>
+  </si>
+  <si>
+    <t>track shirt</t>
+  </si>
+  <si>
+    <t>long sleeve gym shirt</t>
+  </si>
+  <si>
+    <t>long sleeve activewear</t>
+  </si>
+  <si>
+    <t>long sleeve athletic crop top</t>
+  </si>
+  <si>
+    <t>long sleeve two piece</t>
+  </si>
+  <si>
+    <t>long sleeve legging set</t>
+  </si>
+  <si>
+    <t>work out long sleeve</t>
+  </si>
+  <si>
+    <t>two piece crop top</t>
+  </si>
+  <si>
+    <t>two piece suit</t>
+  </si>
+  <si>
+    <t>two piece jogger</t>
+  </si>
+  <si>
+    <t>two piece sweatsuit</t>
+  </si>
+  <si>
+    <t>2 piece outfit set</t>
+  </si>
+  <si>
+    <t>seamless long sleeve crop top</t>
+  </si>
+  <si>
+    <t>seamless long sleeve top</t>
+  </si>
+  <si>
+    <t>crop top fitness</t>
+  </si>
+  <si>
+    <t>2 piece legging set</t>
+  </si>
+  <si>
+    <t>2 piece crop top</t>
+  </si>
+  <si>
+    <t>2 piece suit</t>
+  </si>
+  <si>
+    <t>yoga sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt set</t>
+  </si>
+  <si>
+    <t>green long sleeve crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve top</t>
+  </si>
+  <si>
+    <t>long sleeve workout crop</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>high waist set</t>
+  </si>
+  <si>
+    <t>pink apparel</t>
+  </si>
+  <si>
+    <t>size workout</t>
+  </si>
+  <si>
+    <t>piece set</t>
+  </si>
+  <si>
+    <t>2 piece track suit</t>
+  </si>
+  <si>
+    <t>pant set</t>
+  </si>
+  <si>
+    <t>track suit</t>
+  </si>
+  <si>
+    <t>fitness top</t>
+  </si>
+  <si>
+    <t>gym long sleeve</t>
+  </si>
+  <si>
+    <t>two outfit</t>
+  </si>
+  <si>
+    <t>top track</t>
+  </si>
+  <si>
+    <t>green pant</t>
+  </si>
+  <si>
+    <t>work out shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve</t>
+  </si>
+  <si>
+    <t>blue outfit</t>
+  </si>
+  <si>
+    <t>work apparel</t>
+  </si>
+  <si>
+    <t>pant woman</t>
+  </si>
+  <si>
+    <t>matching tracksuit</t>
+  </si>
+  <si>
+    <t>pink out</t>
+  </si>
+  <si>
+    <t>high black</t>
+  </si>
+  <si>
+    <t>waist set</t>
+  </si>
+  <si>
+    <t>green tracksuit</t>
+  </si>
+  <si>
+    <t>long crop top</t>
+  </si>
+  <si>
+    <t>waist woman</t>
+  </si>
+  <si>
+    <t>suit fashion</t>
+  </si>
+  <si>
+    <t>pink track suit</t>
+  </si>
+  <si>
+    <t>long pink shirt</t>
+  </si>
+  <si>
+    <t>tight long sleeve</t>
+  </si>
+  <si>
+    <t>tight top</t>
+  </si>
+  <si>
+    <t>pink outfit</t>
+  </si>
+  <si>
+    <t>long winter</t>
+  </si>
+  <si>
+    <t>pink workout</t>
+  </si>
+  <si>
+    <t>green outfit</t>
+  </si>
+  <si>
+    <t>woman top</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>green workout top</t>
+  </si>
+  <si>
+    <t>long workout top</t>
+  </si>
+  <si>
+    <t>woman workout</t>
+  </si>
+  <si>
+    <t>sport fitness</t>
+  </si>
+  <si>
+    <t>black winter</t>
+  </si>
+  <si>
+    <t>black apparel</t>
+  </si>
+  <si>
+    <t>blue workout top</t>
+  </si>
+  <si>
+    <t>green black</t>
+  </si>
+  <si>
+    <t>winter legging</t>
+  </si>
+  <si>
+    <t>waist top</t>
+  </si>
+  <si>
+    <t>tight long sleeve shirt</t>
+  </si>
+  <si>
+    <t>tight set</t>
+  </si>
+  <si>
+    <t>work workout</t>
+  </si>
+  <si>
+    <t>sport fashion</t>
+  </si>
+  <si>
+    <t>sport crop</t>
+  </si>
+  <si>
+    <t>black athletic top</t>
+  </si>
+  <si>
+    <t>long workout shirt</t>
+  </si>
+  <si>
+    <t>waist sleeve</t>
+  </si>
+  <si>
+    <t>winter suit</t>
+  </si>
+  <si>
+    <t>sport jogger</t>
+  </si>
+  <si>
+    <t>black set</t>
+  </si>
+  <si>
+    <t>blue apparel</t>
+  </si>
+  <si>
+    <t>fitness jacket</t>
+  </si>
+  <si>
+    <t>black tracksuit</t>
+  </si>
+  <si>
+    <t>winter set</t>
+  </si>
+  <si>
+    <t>suit woman</t>
+  </si>
+  <si>
+    <t>winter crop top</t>
+  </si>
+  <si>
+    <t>pink winter</t>
+  </si>
+  <si>
+    <t>green pant suit</t>
+  </si>
+  <si>
+    <t>woman pant suit set</t>
+  </si>
+  <si>
+    <t>blue crop shirt</t>
+  </si>
+  <si>
+    <t>pink sleeve</t>
+  </si>
+  <si>
+    <t>black matching set</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9750137-22F8-4BBC-887B-9F8F51DB491A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5EE3F6-062D-409F-A3C0-D993DD50DEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,306 +25,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>bodybuilding clothe</t>
-  </si>
-  <si>
-    <t>sport 2</t>
-  </si>
-  <si>
-    <t>blue workout legging</t>
-  </si>
-  <si>
-    <t>gym clothe</t>
-  </si>
-  <si>
-    <t>black workout legging</t>
-  </si>
-  <si>
-    <t>blue clothe</t>
-  </si>
-  <si>
-    <t>shirt legging</t>
-  </si>
-  <si>
-    <t>pink tight</t>
-  </si>
-  <si>
-    <t>skinny outfit</t>
-  </si>
-  <si>
-    <t>clothing set outfit</t>
-  </si>
-  <si>
-    <t>clothing outfit</t>
-  </si>
-  <si>
-    <t>blue pant</t>
-  </si>
-  <si>
-    <t>winter pant</t>
-  </si>
-  <si>
-    <t>legging with</t>
-  </si>
-  <si>
-    <t>black shirt legging</t>
-  </si>
-  <si>
-    <t>gym workout clothe</t>
-  </si>
-  <si>
-    <t>clothe legging</t>
-  </si>
-  <si>
-    <t>black blue legging</t>
-  </si>
-  <si>
-    <t>clothe shirt</t>
-  </si>
-  <si>
-    <t>work tight</t>
-  </si>
-  <si>
-    <t>track tight</t>
-  </si>
-  <si>
-    <t>pink 2 piece outfit</t>
-  </si>
-  <si>
-    <t>pink 2 piece set</t>
-  </si>
-  <si>
-    <t>long tight</t>
-  </si>
-  <si>
-    <t>work out tight</t>
-  </si>
-  <si>
-    <t>soft athletic legging</t>
-  </si>
-  <si>
-    <t>legging long sleeve top set</t>
-  </si>
-  <si>
-    <t>black top legging</t>
-  </si>
-  <si>
-    <t>black crop legging</t>
-  </si>
-  <si>
-    <t>long sleeve 2 piece set</t>
-  </si>
-  <si>
-    <t>green athletic legging</t>
-  </si>
-  <si>
-    <t>soft sleeve</t>
-  </si>
-  <si>
-    <t>long black legging</t>
-  </si>
-  <si>
-    <t>black green legging</t>
-  </si>
-  <si>
-    <t>matching legging</t>
-  </si>
-  <si>
-    <t>exercise black legging</t>
-  </si>
-  <si>
-    <t>soft black legging</t>
-  </si>
-  <si>
-    <t>soft black</t>
-  </si>
-  <si>
-    <t>blue black tight</t>
-  </si>
-  <si>
-    <t>blue workout pant</t>
-  </si>
-  <si>
-    <t>black workout tight</t>
-  </si>
-  <si>
-    <t>blue 2 piece set</t>
-  </si>
-  <si>
-    <t>matching crop top pant set</t>
-  </si>
-  <si>
-    <t>black winter outfit</t>
-  </si>
-  <si>
-    <t>winter workout pant</t>
-  </si>
-  <si>
-    <t>2 piece pant outfit</t>
-  </si>
-  <si>
-    <t>black tight set</t>
-  </si>
-  <si>
-    <t>black winter tight</t>
-  </si>
-  <si>
-    <t>black tight pant</t>
-  </si>
-  <si>
-    <t>2 piece matching pant set</t>
-  </si>
-  <si>
-    <t>size top</t>
-  </si>
-  <si>
-    <t>winter crop</t>
-  </si>
-  <si>
-    <t>winter yoga top</t>
-  </si>
-  <si>
-    <t>seamless ribbed crop top</t>
-  </si>
-  <si>
-    <t>top with legging</t>
-  </si>
-  <si>
-    <t>ribbed seamless</t>
-  </si>
-  <si>
-    <t>legging size small</t>
-  </si>
-  <si>
-    <t>pink long</t>
-  </si>
-  <si>
-    <t>pink seamless legging</t>
-  </si>
-  <si>
-    <t>ribbed seamless legging</t>
-  </si>
-  <si>
-    <t>ribbed workout top</t>
-  </si>
-  <si>
-    <t>small legging</t>
-  </si>
-  <si>
-    <t>pink 2 piece</t>
-  </si>
-  <si>
-    <t>ribbed workout legging</t>
-  </si>
-  <si>
-    <t>pink workout legging</t>
-  </si>
-  <si>
-    <t>pink yoga legging</t>
-  </si>
-  <si>
-    <t>fashionable pant</t>
-  </si>
-  <si>
-    <t>black suit set woman</t>
-  </si>
-  <si>
-    <t>woman clothe jogger</t>
-  </si>
-  <si>
-    <t>suit piece woman</t>
-  </si>
-  <si>
-    <t>clothe woman crop top</t>
-  </si>
-  <si>
-    <t>workout clothe woman pant</t>
-  </si>
-  <si>
-    <t>suit clothe</t>
-  </si>
-  <si>
-    <t>high top pant woman</t>
-  </si>
-  <si>
-    <t>black pant set woman</t>
-  </si>
-  <si>
-    <t>2 piece workout clothe</t>
-  </si>
-  <si>
-    <t>2 piece pant woman</t>
-  </si>
-  <si>
-    <t>black apparel woman</t>
-  </si>
-  <si>
-    <t>green black clothe</t>
-  </si>
-  <si>
-    <t>crop top suit woman</t>
-  </si>
-  <si>
-    <t>waist black</t>
-  </si>
-  <si>
-    <t>suit top woman</t>
-  </si>
-  <si>
-    <t>black set woman</t>
-  </si>
-  <si>
-    <t>small pant woman</t>
-  </si>
-  <si>
-    <t>green pant woman high waist</t>
-  </si>
-  <si>
-    <t>green jogger set woman</t>
-  </si>
-  <si>
-    <t>workout pant set</t>
-  </si>
-  <si>
-    <t>workout jogger pant</t>
-  </si>
-  <si>
-    <t>fashionable jogger woman</t>
-  </si>
-  <si>
-    <t>crop workout pant</t>
-  </si>
-  <si>
-    <t>crop set woman</t>
-  </si>
-  <si>
-    <t>black jogger suit woman</t>
-  </si>
-  <si>
-    <t>woman apparel top</t>
-  </si>
-  <si>
-    <t>suit 2</t>
-  </si>
-  <si>
-    <t>small green</t>
-  </si>
-  <si>
-    <t>small crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger pant</t>
-  </si>
-  <si>
-    <t>black crop woman</t>
-  </si>
-  <si>
-    <t>2 piece pant</t>
-  </si>
-  <si>
-    <t>crop jogger set woman</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+  <si>
+    <t>small pink</t>
+  </si>
+  <si>
+    <t>winter work</t>
+  </si>
+  <si>
+    <t>pink legging</t>
+  </si>
+  <si>
+    <t>winter two piece outfit</t>
+  </si>
+  <si>
+    <t>crop pant</t>
+  </si>
+  <si>
+    <t>exercise legging</t>
+  </si>
+  <si>
+    <t>work out gym</t>
+  </si>
+  <si>
+    <t>matching top</t>
+  </si>
+  <si>
+    <t>matching pant</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>compression tight</t>
+  </si>
+  <si>
+    <t>small black top</t>
+  </si>
+  <si>
+    <t>winter work shirt</t>
+  </si>
+  <si>
+    <t>woman black</t>
+  </si>
+  <si>
+    <t>green jogger</t>
+  </si>
+  <si>
+    <t>black athletic</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>small woman</t>
+  </si>
+  <si>
+    <t>woman clothe</t>
+  </si>
+  <si>
+    <t>green sleeve</t>
+  </si>
+  <si>
+    <t>green crop</t>
+  </si>
+  <si>
+    <t>black tight</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>winter tight</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>small set</t>
+  </si>
+  <si>
+    <t>legging outfit set</t>
+  </si>
+  <si>
+    <t>2 woman</t>
+  </si>
+  <si>
+    <t>black sport legging</t>
+  </si>
+  <si>
+    <t>apparel size</t>
+  </si>
+  <si>
+    <t>long jogger</t>
+  </si>
+  <si>
+    <t>long legging</t>
+  </si>
+  <si>
+    <t>small piece</t>
+  </si>
+  <si>
+    <t>workout jogger</t>
+  </si>
+  <si>
+    <t>pant suit woman</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>blue legging</t>
+  </si>
+  <si>
+    <t>blue tight</t>
+  </si>
+  <si>
+    <t>woman high waist</t>
+  </si>
+  <si>
+    <t>workout sleeve</t>
+  </si>
+  <si>
+    <t>fashion jogger</t>
+  </si>
+  <si>
+    <t>yoga tight</t>
+  </si>
+  <si>
+    <t>long yoga top</t>
+  </si>
+  <si>
+    <t>woman set</t>
+  </si>
+  <si>
+    <t>long crop</t>
+  </si>
+  <si>
+    <t>small top</t>
+  </si>
+  <si>
+    <t>work sleeve</t>
+  </si>
+  <si>
+    <t>black jogger pant</t>
+  </si>
+  <si>
+    <t>black athletic legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>blue crop</t>
+  </si>
+  <si>
+    <t>black workout pant</t>
+  </si>
+  <si>
+    <t>ribbed legging</t>
+  </si>
+  <si>
+    <t>winter sleeve</t>
+  </si>
+  <si>
+    <t>soft set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfit</t>
+  </si>
+  <si>
+    <t>black suit woman</t>
+  </si>
+  <si>
+    <t>green black crop top</t>
+  </si>
+  <si>
+    <t>green matching set</t>
+  </si>
+  <si>
+    <t>long sleeve workout set</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>long sleeve matching set</t>
+  </si>
+  <si>
+    <t>workout crop top set</t>
+  </si>
+  <si>
+    <t>2 soft</t>
+  </si>
+  <si>
+    <t>crop jogger set</t>
+  </si>
+  <si>
+    <t>blue matching set</t>
+  </si>
+  <si>
+    <t>soft crop top</t>
+  </si>
+  <si>
+    <t>jogger crop top set</t>
+  </si>
+  <si>
+    <t>pink out outfit</t>
+  </si>
+  <si>
+    <t>soft long sleeve</t>
+  </si>
+  <si>
+    <t>jogger woman</t>
+  </si>
+  <si>
+    <t>black winter top</t>
+  </si>
+  <si>
+    <t>2 piece set woman</t>
+  </si>
+  <si>
+    <t>black fitness</t>
+  </si>
+  <si>
+    <t>soft legging</t>
+  </si>
+  <si>
+    <t>soft top</t>
+  </si>
+  <si>
+    <t>black pant</t>
+  </si>
+  <si>
+    <t>seamless crop top workout</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>blue workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>piece long</t>
+  </si>
+  <si>
+    <t>two piece athletic set</t>
+  </si>
+  <si>
+    <t>apparel clothing</t>
+  </si>
+  <si>
+    <t>outfit winter</t>
+  </si>
+  <si>
+    <t>long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>black yoga</t>
+  </si>
+  <si>
+    <t>shirt sleeve</t>
+  </si>
+  <si>
+    <t>top woman</t>
+  </si>
+  <si>
+    <t>turquoise leggings</t>
+  </si>
+  <si>
+    <t>ribbed leggings</t>
   </si>
 </sst>
 </file>
@@ -649,337 +628,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1124,42 +1103,16 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5EE3F6-062D-409F-A3C0-D993DD50DEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333726CB-56DD-453A-B3F0-901BD2557B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,285 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
-  <si>
-    <t>small pink</t>
-  </si>
-  <si>
-    <t>winter work</t>
-  </si>
-  <si>
-    <t>pink legging</t>
-  </si>
-  <si>
-    <t>winter two piece outfit</t>
-  </si>
-  <si>
-    <t>crop pant</t>
-  </si>
-  <si>
-    <t>exercise legging</t>
-  </si>
-  <si>
-    <t>work out gym</t>
-  </si>
-  <si>
-    <t>matching top</t>
-  </si>
-  <si>
-    <t>matching pant</t>
-  </si>
-  <si>
-    <t>high waist black</t>
-  </si>
-  <si>
-    <t>compression tight</t>
-  </si>
-  <si>
-    <t>small black top</t>
-  </si>
-  <si>
-    <t>winter work shirt</t>
-  </si>
-  <si>
-    <t>woman black</t>
-  </si>
-  <si>
-    <t>green jogger</t>
-  </si>
-  <si>
-    <t>black athletic</t>
-  </si>
-  <si>
-    <t>sport clothe</t>
-  </si>
-  <si>
-    <t>small woman</t>
-  </si>
-  <si>
-    <t>woman clothe</t>
-  </si>
-  <si>
-    <t>green sleeve</t>
-  </si>
-  <si>
-    <t>green crop</t>
-  </si>
-  <si>
-    <t>black tight</t>
-  </si>
-  <si>
-    <t>green legging</t>
-  </si>
-  <si>
-    <t>winter tight</t>
-  </si>
-  <si>
-    <t>yoga waist legging</t>
-  </si>
-  <si>
-    <t>small set</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>2 woman</t>
-  </si>
-  <si>
-    <t>black sport legging</t>
-  </si>
-  <si>
-    <t>apparel size</t>
-  </si>
-  <si>
-    <t>long jogger</t>
-  </si>
-  <si>
-    <t>long legging</t>
-  </si>
-  <si>
-    <t>small piece</t>
-  </si>
-  <si>
-    <t>workout jogger</t>
-  </si>
-  <si>
-    <t>pant suit woman</t>
-  </si>
-  <si>
-    <t>gym legging</t>
-  </si>
-  <si>
-    <t>blue legging</t>
-  </si>
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>woman high waist</t>
-  </si>
-  <si>
-    <t>workout sleeve</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>long yoga top</t>
-  </si>
-  <si>
-    <t>woman set</t>
-  </si>
-  <si>
-    <t>long crop</t>
-  </si>
-  <si>
-    <t>small top</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black jogger pant</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>blue crop</t>
-  </si>
-  <si>
-    <t>black workout pant</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>winter sleeve</t>
-  </si>
-  <si>
-    <t>soft set</t>
-  </si>
-  <si>
-    <t>long sleeve two piece outfit</t>
-  </si>
-  <si>
-    <t>black suit woman</t>
-  </si>
-  <si>
-    <t>green black crop top</t>
-  </si>
-  <si>
-    <t>green matching set</t>
-  </si>
-  <si>
-    <t>long sleeve workout set</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>black workout set</t>
-  </si>
-  <si>
-    <t>long sleeve matching set</t>
-  </si>
-  <si>
-    <t>workout crop top set</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>crop jogger set</t>
-  </si>
-  <si>
-    <t>blue matching set</t>
-  </si>
-  <si>
-    <t>soft crop top</t>
-  </si>
-  <si>
-    <t>jogger crop top set</t>
-  </si>
-  <si>
-    <t>pink out outfit</t>
-  </si>
-  <si>
-    <t>soft long sleeve</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>black winter top</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>black fitness</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>blue workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>seamless set</t>
-  </si>
-  <si>
-    <t>piece long</t>
-  </si>
-  <si>
-    <t>two piece athletic set</t>
-  </si>
-  <si>
-    <t>apparel clothing</t>
-  </si>
-  <si>
-    <t>outfit winter</t>
-  </si>
-  <si>
-    <t>long sleeve workout shirt</t>
-  </si>
-  <si>
-    <t>black yoga</t>
-  </si>
-  <si>
-    <t>shirt sleeve</t>
-  </si>
-  <si>
-    <t>top woman</t>
-  </si>
-  <si>
-    <t>turquoise leggings</t>
-  </si>
-  <si>
-    <t>ribbed leggings</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
@@ -628,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,12 +1124,37 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBF2A1-37C3-4B42-9277-2E63FA49A4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F57D88-0A9B-4A6B-988C-A3E2D59F77D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B07L79DT42" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>workout suit woman set</t>
-  </si>
-  <si>
-    <t>jogger top woman</t>
-  </si>
-  <si>
-    <t>small jogger</t>
-  </si>
-  <si>
-    <t>waist top woman</t>
-  </si>
-  <si>
-    <t>top set woman</t>
-  </si>
-  <si>
-    <t>crop workout pant woman</t>
-  </si>
-  <si>
-    <t>high pant</t>
-  </si>
-  <si>
-    <t>fashionable pant woman</t>
-  </si>
-  <si>
-    <t>woman clothe pant</t>
-  </si>
-  <si>
-    <t>small pant</t>
-  </si>
-  <si>
-    <t>woman workout jogger high waist</t>
-  </si>
-  <si>
-    <t>woman black 2</t>
-  </si>
-  <si>
-    <t>black 2 piece set woman</t>
-  </si>
-  <si>
-    <t>high waist jogger pant woman</t>
-  </si>
-  <si>
-    <t>high woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe</t>
-  </si>
-  <si>
-    <t>workout crop top set woman</t>
-  </si>
-  <si>
-    <t>black workout</t>
-  </si>
-  <si>
-    <t>waist pant</t>
-  </si>
-  <si>
-    <t>woman green</t>
-  </si>
-  <si>
-    <t>2 piece pant suit woman</t>
-  </si>
-  <si>
-    <t>green workout pant</t>
-  </si>
-  <si>
-    <t>green jogger pant woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman set</t>
-  </si>
-  <si>
-    <t>fashionable top woman</t>
-  </si>
-  <si>
-    <t>piece woman</t>
-  </si>
-  <si>
-    <t>small clothe</t>
-  </si>
-  <si>
-    <t>clothe crop top</t>
-  </si>
-  <si>
-    <t>woman clothe 2 piece set</t>
-  </si>
-  <si>
-    <t>green black pant</t>
-  </si>
-  <si>
-    <t>woman small clothe</t>
-  </si>
-  <si>
-    <t>black crop pant</t>
-  </si>
-  <si>
-    <t>green black jogger</t>
-  </si>
-  <si>
-    <t>clothe top</t>
-  </si>
-  <si>
-    <t>clothe pant</t>
-  </si>
-  <si>
-    <t>workout crop woman</t>
-  </si>
-  <si>
-    <t>waist pant woman</t>
-  </si>
-  <si>
-    <t>black workout set woman</t>
-  </si>
-  <si>
-    <t>woman jogger pant set</t>
-  </si>
-  <si>
-    <t>small top woman</t>
-  </si>
-  <si>
-    <t>workout jogger pant woman</t>
-  </si>
-  <si>
-    <t>green pant suit woman</t>
-  </si>
-  <si>
-    <t>high waist workout pant</t>
-  </si>
-  <si>
-    <t>crop top pant</t>
-  </si>
-  <si>
-    <t>black workout crop top woman</t>
-  </si>
-  <si>
-    <t>workout suit woman 2 piece</t>
-  </si>
-  <si>
-    <t>black crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece jogger woman</t>
-  </si>
-  <si>
-    <t>clothe woman top</t>
-  </si>
-  <si>
-    <t>green workout top woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe woman</t>
-  </si>
-  <si>
-    <t>woman jogger suit 2 piece</t>
-  </si>
-  <si>
-    <t>woman pant top set</t>
-  </si>
-  <si>
-    <t>black jogger set woman</t>
-  </si>
-  <si>
-    <t>crop jogger woman</t>
-  </si>
-  <si>
-    <t>woman workout pant set</t>
-  </si>
-  <si>
-    <t>workout 2 piece woman</t>
-  </si>
-  <si>
-    <t>green suit woman</t>
-  </si>
-  <si>
-    <t>woman 2 piece suit</t>
-  </si>
-  <si>
-    <t>crop top jogger set woman</t>
-  </si>
-  <si>
-    <t>high pant woman</t>
-  </si>
-  <si>
-    <t>black jogger pant woman</t>
-  </si>
-  <si>
-    <t>clothe set woman</t>
-  </si>
-  <si>
-    <t>crop woman</t>
-  </si>
-  <si>
-    <t>high waist black pant woman</t>
-  </si>
-  <si>
-    <t>black jogger woman high waist</t>
-  </si>
-  <si>
-    <t>green clothe woman</t>
-  </si>
-  <si>
-    <t>crop top pant set woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman</t>
-  </si>
-  <si>
-    <t>black high top woman</t>
-  </si>
-  <si>
-    <t>workout clothe set</t>
-  </si>
-  <si>
-    <t>workout clothe woman 2 piece</t>
-  </si>
-  <si>
-    <t>high waist workout pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman high waist set</t>
-  </si>
-  <si>
-    <t>workout top woman set</t>
-  </si>
-  <si>
-    <t>workout clothe woman top</t>
-  </si>
-  <si>
-    <t>black workout top woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman</t>
-  </si>
-  <si>
-    <t>suit set woman</t>
-  </si>
-  <si>
-    <t>crop top set woman</t>
-  </si>
-  <si>
-    <t>green clothe</t>
-  </si>
-  <si>
-    <t>workout suit woman</t>
-  </si>
-  <si>
-    <t>pant set woman</t>
-  </si>
-  <si>
-    <t>black pant suit woman</t>
-  </si>
-  <si>
-    <t>black workout pant woman</t>
-  </si>
-  <si>
-    <t>crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece pant set woman</t>
-  </si>
-  <si>
-    <t>green crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger woman</t>
-  </si>
-  <si>
-    <t>workout jogger woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman set</t>
-  </si>
-  <si>
-    <t>black clothe woman</t>
-  </si>
-  <si>
-    <t>green top woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman set</t>
-  </si>
-  <si>
-    <t>green pant woman</t>
-  </si>
-  <si>
-    <t>high waist pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman set</t>
-  </si>
-  <si>
-    <t>workout set woman</t>
-  </si>
-  <si>
-    <t>jogger pant woman</t>
-  </si>
-  <si>
-    <t>black crop top woman</t>
+    <t>ribbed crop top</t>
+  </si>
+  <si>
+    <t>athletic jogger</t>
+  </si>
+  <si>
+    <t>size 2</t>
+  </si>
+  <si>
+    <t>high waist workout</t>
+  </si>
+  <si>
+    <t>workout clothe</t>
+  </si>
+  <si>
+    <t>workout fitness</t>
+  </si>
+  <si>
+    <t>black yoga jacket</t>
+  </si>
+  <si>
+    <t>matching set</t>
+  </si>
+  <si>
+    <t>high waist jogger</t>
+  </si>
+  <si>
+    <t>black crop top</t>
+  </si>
+  <si>
+    <t>long sleeve crop top</t>
+  </si>
+  <si>
+    <t>2 piece winter outfit</t>
+  </si>
+  <si>
+    <t>black workout crop top</t>
+  </si>
+  <si>
+    <t>pink workout outfit</t>
+  </si>
+  <si>
+    <t>blue sport</t>
+  </si>
+  <si>
+    <t>black long sleeve crop top</t>
+  </si>
+  <si>
+    <t>green 2</t>
+  </si>
+  <si>
+    <t>pink top</t>
+  </si>
+  <si>
+    <t>blue top</t>
+  </si>
+  <si>
+    <t>small size</t>
+  </si>
+  <si>
+    <t>long shirt</t>
+  </si>
+  <si>
+    <t>out set</t>
+  </si>
+  <si>
+    <t>fitness outfit</t>
+  </si>
+  <si>
+    <t>exercise outfit</t>
+  </si>
+  <si>
+    <t>tight crop top</t>
+  </si>
+  <si>
+    <t>athletic crop top</t>
+  </si>
+  <si>
+    <t>athletic jacket</t>
+  </si>
+  <si>
+    <t>sleeve crop top</t>
+  </si>
+  <si>
+    <t>crop jacket</t>
+  </si>
+  <si>
+    <t>crop jogger</t>
+  </si>
+  <si>
+    <t>crop outfit</t>
+  </si>
+  <si>
+    <t>crop shirt</t>
+  </si>
+  <si>
+    <t>compression jacket</t>
+  </si>
+  <si>
+    <t>compression outfit</t>
+  </si>
+  <si>
+    <t>compression yoga</t>
+  </si>
+  <si>
+    <t>gym outfit</t>
+  </si>
+  <si>
+    <t>waist yoga</t>
+  </si>
+  <si>
+    <t>outfit set</t>
+  </si>
+  <si>
+    <t>seamless yoga</t>
+  </si>
+  <si>
+    <t>pant suit</t>
+  </si>
+  <si>
+    <t>blue crop top</t>
+  </si>
+  <si>
+    <t>long sleeve yoga</t>
+  </si>
+  <si>
+    <t>long sleeve yoga top</t>
+  </si>
+  <si>
+    <t>black tight crop top</t>
+  </si>
+  <si>
+    <t>black athletic jacket</t>
+  </si>
+  <si>
+    <t>black crop shirt</t>
+  </si>
+  <si>
+    <t>black crop jacket</t>
+  </si>
+  <si>
+    <t>high waist yoga</t>
+  </si>
+  <si>
+    <t>sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport legging</t>
+  </si>
+  <si>
+    <t>black shirt</t>
+  </si>
+  <si>
+    <t>tracksuit outfit</t>
+  </si>
+  <si>
+    <t>tracksuit set</t>
+  </si>
+  <si>
+    <t>tracksuit top</t>
+  </si>
+  <si>
+    <t>ribbed top</t>
+  </si>
+  <si>
+    <t>long sleeve top</t>
+  </si>
+  <si>
+    <t>two piece crop top set</t>
+  </si>
+  <si>
+    <t>two piece jogger set</t>
+  </si>
+  <si>
+    <t>two piece outfit</t>
+  </si>
+  <si>
+    <t>two piece set</t>
+  </si>
+  <si>
+    <t>two piece tracksuit</t>
+  </si>
+  <si>
+    <t>small black</t>
+  </si>
+  <si>
+    <t>crop top set</t>
+  </si>
+  <si>
+    <t>black legging set</t>
+  </si>
+  <si>
+    <t>black suit top</t>
+  </si>
+  <si>
+    <t>matching set outfit</t>
+  </si>
+  <si>
+    <t>green 2 piece</t>
+  </si>
+  <si>
+    <t>sport set</t>
+  </si>
+  <si>
+    <t>pant suit set</t>
+  </si>
+  <si>
+    <t>black outfit</t>
+  </si>
+  <si>
+    <t>green 2 piece set</t>
+  </si>
+  <si>
+    <t>green 2 piece outfit</t>
+  </si>
+  <si>
+    <t>long sleeve crop</t>
+  </si>
+  <si>
+    <t>high waist</t>
+  </si>
+  <si>
+    <t>jogging suit</t>
+  </si>
+  <si>
+    <t>jogger tracksuit</t>
+  </si>
+  <si>
+    <t>athletic apparel</t>
+  </si>
+  <si>
+    <t>athletic clothing</t>
+  </si>
+  <si>
+    <t>activewear set</t>
+  </si>
+  <si>
+    <t>suit set</t>
+  </si>
+  <si>
+    <t>pink shirt</t>
+  </si>
+  <si>
+    <t>pink suit</t>
+  </si>
+  <si>
+    <t>skinny shirt</t>
+  </si>
+  <si>
+    <t>jogging suit set</t>
+  </si>
+  <si>
+    <t>black top</t>
+  </si>
+  <si>
+    <t>gym set</t>
+  </si>
+  <si>
+    <t>sweatsuit outfit</t>
+  </si>
+  <si>
+    <t>sweatsuit set</t>
+  </si>
+  <si>
+    <t>work shirt</t>
+  </si>
+  <si>
+    <t>fitness legging</t>
+  </si>
+  <si>
+    <t>tight pant</t>
+  </si>
+  <si>
+    <t>black 2 piece</t>
+  </si>
+  <si>
+    <t>crop top outfit</t>
+  </si>
+  <si>
+    <t>set 2</t>
+  </si>
+  <si>
+    <t>exercise set</t>
+  </si>
+  <si>
+    <t>athletic long sleeve</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>long set</t>
+  </si>
+  <si>
+    <t>pink set</t>
+  </si>
+  <si>
+    <t>exercise top</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F57D88-0A9B-4A6B-988C-A3E2D59F77D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>ribbed crop top</t>
-  </si>
-  <si>
-    <t>athletic jogger</t>
-  </si>
-  <si>
-    <t>size 2</t>
-  </si>
-  <si>
-    <t>high waist workout</t>
-  </si>
-  <si>
-    <t>workout clothe</t>
-  </si>
-  <si>
-    <t>workout fitness</t>
-  </si>
-  <si>
-    <t>black yoga jacket</t>
-  </si>
-  <si>
-    <t>matching set</t>
-  </si>
-  <si>
-    <t>high waist jogger</t>
-  </si>
-  <si>
-    <t>black crop top</t>
-  </si>
-  <si>
-    <t>long sleeve crop top</t>
-  </si>
-  <si>
-    <t>2 piece winter outfit</t>
-  </si>
-  <si>
-    <t>black workout crop top</t>
-  </si>
-  <si>
-    <t>pink workout outfit</t>
-  </si>
-  <si>
-    <t>blue sport</t>
-  </si>
-  <si>
-    <t>black long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green 2</t>
-  </si>
-  <si>
-    <t>pink top</t>
-  </si>
-  <si>
-    <t>blue top</t>
-  </si>
-  <si>
-    <t>small size</t>
-  </si>
-  <si>
-    <t>long shirt</t>
-  </si>
-  <si>
-    <t>out set</t>
-  </si>
-  <si>
-    <t>fitness outfit</t>
-  </si>
-  <si>
-    <t>exercise outfit</t>
-  </si>
-  <si>
-    <t>tight crop top</t>
-  </si>
-  <si>
-    <t>athletic crop top</t>
-  </si>
-  <si>
-    <t>athletic jacket</t>
-  </si>
-  <si>
-    <t>sleeve crop top</t>
-  </si>
-  <si>
-    <t>crop jacket</t>
-  </si>
-  <si>
-    <t>crop jogger</t>
-  </si>
-  <si>
-    <t>crop outfit</t>
-  </si>
-  <si>
-    <t>crop shirt</t>
-  </si>
-  <si>
-    <t>compression jacket</t>
-  </si>
-  <si>
-    <t>compression outfit</t>
-  </si>
-  <si>
-    <t>compression yoga</t>
-  </si>
-  <si>
-    <t>gym outfit</t>
-  </si>
-  <si>
-    <t>waist yoga</t>
-  </si>
-  <si>
-    <t>outfit set</t>
-  </si>
-  <si>
-    <t>seamless yoga</t>
-  </si>
-  <si>
-    <t>pant suit</t>
-  </si>
-  <si>
-    <t>blue crop top</t>
-  </si>
-  <si>
-    <t>long sleeve yoga</t>
-  </si>
-  <si>
-    <t>long sleeve yoga top</t>
-  </si>
-  <si>
-    <t>black tight crop top</t>
-  </si>
-  <si>
-    <t>black athletic jacket</t>
-  </si>
-  <si>
-    <t>black crop shirt</t>
-  </si>
-  <si>
-    <t>black crop jacket</t>
-  </si>
-  <si>
-    <t>high waist yoga</t>
-  </si>
-  <si>
-    <t>sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>black shirt</t>
-  </si>
-  <si>
-    <t>tracksuit outfit</t>
-  </si>
-  <si>
-    <t>tracksuit set</t>
-  </si>
-  <si>
-    <t>tracksuit top</t>
-  </si>
-  <si>
-    <t>ribbed top</t>
-  </si>
-  <si>
-    <t>long sleeve top</t>
-  </si>
-  <si>
-    <t>two piece crop top set</t>
-  </si>
-  <si>
-    <t>two piece jogger set</t>
-  </si>
-  <si>
-    <t>two piece outfit</t>
-  </si>
-  <si>
-    <t>two piece set</t>
-  </si>
-  <si>
-    <t>two piece tracksuit</t>
-  </si>
-  <si>
-    <t>small black</t>
-  </si>
-  <si>
-    <t>crop top set</t>
-  </si>
-  <si>
-    <t>black legging set</t>
-  </si>
-  <si>
-    <t>black suit top</t>
-  </si>
-  <si>
-    <t>matching set outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>pant suit set</t>
-  </si>
-  <si>
-    <t>black outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece set</t>
-  </si>
-  <si>
-    <t>green 2 piece outfit</t>
-  </si>
-  <si>
-    <t>long sleeve crop</t>
-  </si>
-  <si>
-    <t>high waist</t>
-  </si>
-  <si>
-    <t>jogging suit</t>
-  </si>
-  <si>
-    <t>jogger tracksuit</t>
-  </si>
-  <si>
-    <t>athletic apparel</t>
-  </si>
-  <si>
-    <t>athletic clothing</t>
-  </si>
-  <si>
-    <t>activewear set</t>
-  </si>
-  <si>
-    <t>suit set</t>
-  </si>
-  <si>
-    <t>pink shirt</t>
-  </si>
-  <si>
-    <t>pink suit</t>
-  </si>
-  <si>
-    <t>skinny shirt</t>
-  </si>
-  <si>
-    <t>jogging suit set</t>
-  </si>
-  <si>
-    <t>black top</t>
-  </si>
-  <si>
-    <t>gym set</t>
-  </si>
-  <si>
-    <t>sweatsuit outfit</t>
-  </si>
-  <si>
-    <t>sweatsuit set</t>
-  </si>
-  <si>
-    <t>work shirt</t>
-  </si>
-  <si>
-    <t>fitness legging</t>
-  </si>
-  <si>
-    <t>tight pant</t>
-  </si>
-  <si>
-    <t>black 2 piece</t>
-  </si>
-  <si>
-    <t>crop top outfit</t>
-  </si>
-  <si>
-    <t>set 2</t>
-  </si>
-  <si>
-    <t>exercise set</t>
-  </si>
-  <si>
-    <t>athletic long sleeve</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>long set</t>
-  </si>
-  <si>
-    <t>pink set</t>
-  </si>
-  <si>
-    <t>exercise top</t>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B977DC-F310-488F-9C32-36A681194097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,306 +25,291 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>jogger woman high waist</t>
-  </si>
-  <si>
-    <t>black jogger woman</t>
-  </si>
-  <si>
-    <t>workout crop top woman</t>
-  </si>
-  <si>
-    <t>jogger set woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant woman</t>
-  </si>
-  <si>
-    <t>workout set woman 2 piece</t>
-  </si>
-  <si>
-    <t>black pant woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman</t>
-  </si>
-  <si>
-    <t>workout top woman</t>
-  </si>
-  <si>
-    <t>crop athletic jacket</t>
-  </si>
-  <si>
-    <t>tight clothe</t>
-  </si>
-  <si>
-    <t>black yoga tight</t>
-  </si>
-  <si>
-    <t>black compression tight</t>
-  </si>
-  <si>
-    <t>turquoise clothe</t>
-  </si>
-  <si>
-    <t>turquoise piece</t>
-  </si>
-  <si>
-    <t>fitness tight</t>
-  </si>
-  <si>
-    <t>crop tight</t>
-  </si>
-  <si>
-    <t>clothe compression</t>
-  </si>
-  <si>
-    <t>turquoise tight</t>
-  </si>
-  <si>
-    <t>piece black</t>
-  </si>
-  <si>
-    <t>athletic tight</t>
-  </si>
-  <si>
-    <t>fitness clothe</t>
-  </si>
-  <si>
-    <t>compression yoga tight</t>
-  </si>
-  <si>
-    <t>clothe outfit</t>
-  </si>
-  <si>
-    <t>athletic clothe</t>
-  </si>
-  <si>
-    <t>black clothe</t>
-  </si>
-  <si>
-    <t>yoga clothe</t>
-  </si>
-  <si>
-    <t>athletic sport</t>
-  </si>
-  <si>
-    <t>fitness jogger</t>
-  </si>
-  <si>
-    <t>jogging legging</t>
-  </si>
-  <si>
-    <t>seamless athletic legging</t>
-  </si>
-  <si>
-    <t>two set top</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>long workout legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging high waist</t>
-  </si>
-  <si>
-    <t>2 piece seamless workout outfit</t>
-  </si>
-  <si>
-    <t>crop workout legging</t>
-  </si>
-  <si>
-    <t>yoga seamless outfit</t>
-  </si>
-  <si>
-    <t>2 piece outfit long sleeve</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout outfit</t>
-  </si>
-  <si>
-    <t>high waist crop legging</t>
-  </si>
-  <si>
-    <t>waist legging</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>high waist legging long</t>
-  </si>
-  <si>
-    <t>high legging</t>
-  </si>
-  <si>
-    <t>long sleeve crop top outfit</t>
-  </si>
-  <si>
-    <t>long sleeve top legging</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>jogger legging</t>
-  </si>
-  <si>
-    <t>seamless yoga legging</t>
-  </si>
-  <si>
-    <t>high waist yoga legging</t>
-  </si>
-  <si>
-    <t>high waist seamless legging</t>
-  </si>
-  <si>
-    <t>long top legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging</t>
-  </si>
-  <si>
-    <t>long sleeve</t>
-  </si>
-  <si>
-    <t>work out</t>
-  </si>
-  <si>
-    <t>fashion top</t>
-  </si>
-  <si>
-    <t>athletic sleeve</t>
-  </si>
-  <si>
-    <t>gym shirt</t>
-  </si>
-  <si>
-    <t>two piece</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>workout waist</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>track set</t>
-  </si>
-  <si>
-    <t>yoga fitness</t>
-  </si>
-  <si>
-    <t>yoga jacket</t>
-  </si>
-  <si>
-    <t>yoga outfit</t>
-  </si>
-  <si>
-    <t>bodybuilding shirt</t>
-  </si>
-  <si>
-    <t>turquoise jacket</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>high top</t>
-  </si>
-  <si>
-    <t>fitness apparel</t>
-  </si>
-  <si>
-    <t>crop top</t>
-  </si>
-  <si>
-    <t>sleeve top</t>
-  </si>
-  <si>
-    <t>fashion set</t>
-  </si>
-  <si>
-    <t>high waist black pant</t>
-  </si>
-  <si>
-    <t>legging crop top set</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout crop top</t>
-  </si>
-  <si>
-    <t>workout matching set</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout gym</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>gym workout set</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>workout shirt long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>black suit</t>
-  </si>
-  <si>
-    <t>black jacket</t>
-  </si>
-  <si>
-    <t>black legging</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>black long sleeve</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+  <si>
+    <t>small pink</t>
+  </si>
+  <si>
+    <t>winter work</t>
+  </si>
+  <si>
+    <t>pink legging</t>
+  </si>
+  <si>
+    <t>winter two piece outfit</t>
+  </si>
+  <si>
+    <t>crop pant</t>
+  </si>
+  <si>
+    <t>exercise legging</t>
+  </si>
+  <si>
+    <t>work out gym</t>
+  </si>
+  <si>
+    <t>matching top</t>
+  </si>
+  <si>
+    <t>matching pant</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>compression tight</t>
+  </si>
+  <si>
+    <t>small black top</t>
+  </si>
+  <si>
+    <t>winter work shirt</t>
+  </si>
+  <si>
+    <t>woman black</t>
+  </si>
+  <si>
+    <t>green jogger</t>
+  </si>
+  <si>
+    <t>black athletic</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>small woman</t>
+  </si>
+  <si>
+    <t>woman clothe</t>
+  </si>
+  <si>
+    <t>green sleeve</t>
+  </si>
+  <si>
+    <t>green crop</t>
+  </si>
+  <si>
+    <t>black tight</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>winter tight</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>small set</t>
+  </si>
+  <si>
+    <t>legging outfit set</t>
+  </si>
+  <si>
+    <t>2 woman</t>
+  </si>
+  <si>
+    <t>black sport legging</t>
+  </si>
+  <si>
+    <t>apparel size</t>
+  </si>
+  <si>
+    <t>long jogger</t>
+  </si>
+  <si>
+    <t>long legging</t>
+  </si>
+  <si>
+    <t>small piece</t>
+  </si>
+  <si>
+    <t>workout jogger</t>
+  </si>
+  <si>
+    <t>pant suit woman</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>blue legging</t>
+  </si>
+  <si>
+    <t>blue tight</t>
+  </si>
+  <si>
+    <t>woman high waist</t>
+  </si>
+  <si>
+    <t>workout sleeve</t>
+  </si>
+  <si>
+    <t>fashion jogger</t>
+  </si>
+  <si>
+    <t>yoga tight</t>
+  </si>
+  <si>
+    <t>long yoga top</t>
+  </si>
+  <si>
+    <t>woman set</t>
+  </si>
+  <si>
+    <t>long crop</t>
+  </si>
+  <si>
+    <t>small top</t>
+  </si>
+  <si>
+    <t>work sleeve</t>
+  </si>
+  <si>
+    <t>black jogger pant</t>
+  </si>
+  <si>
+    <t>black athletic legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>blue crop</t>
+  </si>
+  <si>
+    <t>black workout pant</t>
+  </si>
+  <si>
+    <t>ribbed legging</t>
+  </si>
+  <si>
+    <t>winter sleeve</t>
+  </si>
+  <si>
+    <t>soft set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfit</t>
+  </si>
+  <si>
+    <t>black suit woman</t>
+  </si>
+  <si>
+    <t>green black crop top</t>
+  </si>
+  <si>
+    <t>green matching set</t>
+  </si>
+  <si>
+    <t>long sleeve workout set</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>long sleeve matching set</t>
+  </si>
+  <si>
+    <t>workout crop top set</t>
+  </si>
+  <si>
+    <t>2 soft</t>
+  </si>
+  <si>
+    <t>crop jogger set</t>
+  </si>
+  <si>
+    <t>blue matching set</t>
+  </si>
+  <si>
+    <t>soft crop top</t>
+  </si>
+  <si>
+    <t>jogger crop top set</t>
+  </si>
+  <si>
+    <t>pink out outfit</t>
+  </si>
+  <si>
+    <t>soft long sleeve</t>
+  </si>
+  <si>
+    <t>jogger woman</t>
+  </si>
+  <si>
+    <t>black winter top</t>
+  </si>
+  <si>
+    <t>2 piece set woman</t>
+  </si>
+  <si>
+    <t>black fitness</t>
+  </si>
+  <si>
+    <t>soft legging</t>
+  </si>
+  <si>
+    <t>soft top</t>
+  </si>
+  <si>
+    <t>black pant</t>
+  </si>
+  <si>
+    <t>seamless crop top workout</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>blue workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>piece long</t>
+  </si>
+  <si>
+    <t>two piece athletic set</t>
+  </si>
+  <si>
+    <t>apparel clothing</t>
+  </si>
+  <si>
+    <t>outfit winter</t>
+  </si>
+  <si>
+    <t>long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>black yoga</t>
+  </si>
+  <si>
+    <t>shirt sleeve</t>
+  </si>
+  <si>
+    <t>top woman</t>
+  </si>
+  <si>
+    <t>turquoise leggings</t>
+  </si>
+  <si>
+    <t>ribbed leggings</t>
+  </si>
+  <si>
+    <t>workout clothes for women gym</t>
+  </si>
+  <si>
+    <t>ready set</t>
   </si>
 </sst>
 </file>
@@ -649,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,31 +1117,6 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B977DC-F310-488F-9C32-36A681194097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,291 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
-  <si>
-    <t>small pink</t>
-  </si>
-  <si>
-    <t>winter work</t>
-  </si>
-  <si>
-    <t>pink legging</t>
-  </si>
-  <si>
-    <t>winter two piece outfit</t>
-  </si>
-  <si>
-    <t>crop pant</t>
-  </si>
-  <si>
-    <t>exercise legging</t>
-  </si>
-  <si>
-    <t>work out gym</t>
-  </si>
-  <si>
-    <t>matching top</t>
-  </si>
-  <si>
-    <t>matching pant</t>
-  </si>
-  <si>
-    <t>high waist black</t>
-  </si>
-  <si>
-    <t>compression tight</t>
-  </si>
-  <si>
-    <t>small black top</t>
-  </si>
-  <si>
-    <t>winter work shirt</t>
-  </si>
-  <si>
-    <t>woman black</t>
-  </si>
-  <si>
-    <t>green jogger</t>
-  </si>
-  <si>
-    <t>black athletic</t>
-  </si>
-  <si>
-    <t>sport clothe</t>
-  </si>
-  <si>
-    <t>small woman</t>
-  </si>
-  <si>
-    <t>woman clothe</t>
-  </si>
-  <si>
-    <t>green sleeve</t>
-  </si>
-  <si>
-    <t>green crop</t>
-  </si>
-  <si>
-    <t>black tight</t>
-  </si>
-  <si>
-    <t>green legging</t>
-  </si>
-  <si>
-    <t>winter tight</t>
-  </si>
-  <si>
-    <t>yoga waist legging</t>
-  </si>
-  <si>
-    <t>small set</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>2 woman</t>
-  </si>
-  <si>
-    <t>black sport legging</t>
-  </si>
-  <si>
-    <t>apparel size</t>
-  </si>
-  <si>
-    <t>long jogger</t>
-  </si>
-  <si>
-    <t>long legging</t>
-  </si>
-  <si>
-    <t>small piece</t>
-  </si>
-  <si>
-    <t>workout jogger</t>
-  </si>
-  <si>
-    <t>pant suit woman</t>
-  </si>
-  <si>
-    <t>gym legging</t>
-  </si>
-  <si>
-    <t>blue legging</t>
-  </si>
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>woman high waist</t>
-  </si>
-  <si>
-    <t>workout sleeve</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>long yoga top</t>
-  </si>
-  <si>
-    <t>woman set</t>
-  </si>
-  <si>
-    <t>long crop</t>
-  </si>
-  <si>
-    <t>small top</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black jogger pant</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>blue crop</t>
-  </si>
-  <si>
-    <t>black workout pant</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>winter sleeve</t>
-  </si>
-  <si>
-    <t>soft set</t>
-  </si>
-  <si>
-    <t>long sleeve two piece outfit</t>
-  </si>
-  <si>
-    <t>black suit woman</t>
-  </si>
-  <si>
-    <t>green black crop top</t>
-  </si>
-  <si>
-    <t>green matching set</t>
-  </si>
-  <si>
-    <t>long sleeve workout set</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>black workout set</t>
-  </si>
-  <si>
-    <t>long sleeve matching set</t>
-  </si>
-  <si>
-    <t>workout crop top set</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>crop jogger set</t>
-  </si>
-  <si>
-    <t>blue matching set</t>
-  </si>
-  <si>
-    <t>soft crop top</t>
-  </si>
-  <si>
-    <t>jogger crop top set</t>
-  </si>
-  <si>
-    <t>pink out outfit</t>
-  </si>
-  <si>
-    <t>soft long sleeve</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>black winter top</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>black fitness</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>blue workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>seamless set</t>
-  </si>
-  <si>
-    <t>piece long</t>
-  </si>
-  <si>
-    <t>two piece athletic set</t>
-  </si>
-  <si>
-    <t>apparel clothing</t>
-  </si>
-  <si>
-    <t>outfit winter</t>
-  </si>
-  <si>
-    <t>long sleeve workout shirt</t>
-  </si>
-  <si>
-    <t>black yoga</t>
-  </si>
-  <si>
-    <t>shirt sleeve</t>
-  </si>
-  <si>
-    <t>top woman</t>
-  </si>
-  <si>
-    <t>turquoise leggings</t>
-  </si>
-  <si>
-    <t>ribbed leggings</t>
-  </si>
-  <si>
-    <t>workout clothes for women gym</t>
-  </si>
-  <si>
-    <t>ready set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -634,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,6 +1132,31 @@
         <v>94</v>
       </c>
     </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB14DB-6CC1-45B1-B584-4556476ECCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>black sleeve</t>
-  </si>
-  <si>
-    <t>high waist legging</t>
-  </si>
-  <si>
-    <t>yoga suit</t>
-  </si>
-  <si>
-    <t>top set</t>
-  </si>
-  <si>
-    <t>out shirt</t>
-  </si>
-  <si>
-    <t>tight shirt</t>
-  </si>
-  <si>
-    <t>athletic yoga</t>
-  </si>
-  <si>
-    <t>pink crop top</t>
-  </si>
-  <si>
-    <t>high waist pant</t>
-  </si>
-  <si>
-    <t>workout top</t>
-  </si>
-  <si>
-    <t>jogger pant</t>
-  </si>
-  <si>
-    <t>2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece jogger set</t>
-  </si>
-  <si>
-    <t>2 piece outfit</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit</t>
-  </si>
-  <si>
-    <t>blue shirt</t>
-  </si>
-  <si>
-    <t>seamless long sleeve</t>
-  </si>
-  <si>
-    <t>long top</t>
-  </si>
-  <si>
-    <t>jogger set</t>
-  </si>
-  <si>
-    <t>black with</t>
-  </si>
-  <si>
-    <t>athletic top</t>
-  </si>
-  <si>
-    <t>exercise apparel</t>
-  </si>
-  <si>
-    <t>green suit</t>
-  </si>
-  <si>
-    <t>matching outfit</t>
-  </si>
-  <si>
-    <t>yoga top</t>
-  </si>
-  <si>
-    <t>athletic outfit</t>
-  </si>
-  <si>
-    <t>pant outfit</t>
-  </si>
-  <si>
-    <t>with 2</t>
-  </si>
-  <si>
-    <t>green top</t>
-  </si>
-  <si>
-    <t>athletic green</t>
-  </si>
-  <si>
-    <t>black blue shirt</t>
-  </si>
-  <si>
-    <t>black long sleeve top</t>
-  </si>
-  <si>
-    <t>black sleeve crop top</t>
-  </si>
-  <si>
-    <t>black crop top set</t>
-  </si>
-  <si>
-    <t>exercise crop top</t>
-  </si>
-  <si>
-    <t>pink gym</t>
-  </si>
-  <si>
-    <t>pink workout shirt</t>
-  </si>
-  <si>
-    <t>small waist</t>
-  </si>
-  <si>
-    <t>blue set</t>
-  </si>
-  <si>
-    <t>blue tracksuit</t>
-  </si>
-  <si>
-    <t>black blue</t>
-  </si>
-  <si>
-    <t>pink workout top</t>
-  </si>
-  <si>
-    <t>pink yoga top</t>
-  </si>
-  <si>
-    <t>long suit</t>
-  </si>
-  <si>
-    <t>workout crop</t>
-  </si>
-  <si>
-    <t>workout long sleeve</t>
-  </si>
-  <si>
-    <t>sport gym</t>
-  </si>
-  <si>
-    <t>sport top</t>
-  </si>
-  <si>
-    <t>gym crop</t>
-  </si>
-  <si>
-    <t>sport crop top</t>
-  </si>
-  <si>
-    <t>sport outfit</t>
-  </si>
-  <si>
-    <t>gym apparel</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>winter apparel</t>
-  </si>
-  <si>
-    <t>sport suit</t>
-  </si>
-  <si>
-    <t>shirt set</t>
-  </si>
-  <si>
-    <t>shirt outfit</t>
-  </si>
-  <si>
-    <t>jacket outfit</t>
-  </si>
-  <si>
-    <t>fitness set</t>
-  </si>
-  <si>
-    <t>fitness suit</t>
-  </si>
-  <si>
-    <t>high crop top</t>
-  </si>
-  <si>
-    <t>woman apparel</t>
-  </si>
-  <si>
-    <t>black 2</t>
-  </si>
-  <si>
-    <t>yoga crop top</t>
-  </si>
-  <si>
-    <t>yoga crop</t>
-  </si>
-  <si>
-    <t>yoga black</t>
-  </si>
-  <si>
-    <t>athletic set</t>
-  </si>
-  <si>
-    <t>athletic crop</t>
-  </si>
-  <si>
-    <t>athletic suit</t>
-  </si>
-  <si>
-    <t>athletic fashion</t>
-  </si>
-  <si>
-    <t>tight sleeve</t>
-  </si>
-  <si>
-    <t>tight jacket</t>
-  </si>
-  <si>
-    <t>bodybuilding workout</t>
-  </si>
-  <si>
-    <t>clothe set</t>
-  </si>
-  <si>
-    <t>suit top</t>
-  </si>
-  <si>
-    <t>jogger suit</t>
-  </si>
-  <si>
-    <t>apparel shirt</t>
-  </si>
-  <si>
-    <t>ribbed crop</t>
-  </si>
-  <si>
-    <t>2 shirt</t>
-  </si>
-  <si>
-    <t>winter clothing</t>
-  </si>
-  <si>
-    <t>crop workout shirt</t>
-  </si>
-  <si>
-    <t>crop set</t>
-  </si>
-  <si>
-    <t>crop tracksuit</t>
-  </si>
-  <si>
-    <t>jogging set</t>
-  </si>
-  <si>
-    <t>green set</t>
-  </si>
-  <si>
-    <t>long sleeve work shirt</t>
-  </si>
-  <si>
-    <t>yoga 2</t>
-  </si>
-  <si>
-    <t>crop top tracksuit</t>
-  </si>
-  <si>
-    <t>long sleeve yoga crop top</t>
-  </si>
-  <si>
-    <t>workout suit</t>
-  </si>
-  <si>
-    <t>blue 2</t>
-  </si>
-  <si>
-    <t>pink tracksuit</t>
-  </si>
-  <si>
-    <t>pink yoga</t>
-  </si>
-  <si>
-    <t>two piece outfit set</t>
-  </si>
-  <si>
-    <t>workout top set</t>
-  </si>
-  <si>
-    <t>green crop top</t>
-  </si>
-  <si>
-    <t>green long sleeve</t>
-  </si>
-  <si>
-    <t>green piece</t>
-  </si>
-  <si>
-    <t>jogger pant set</t>
-  </si>
-  <si>
-    <t>high waist pant set</t>
+    <t>workout suit woman set</t>
+  </si>
+  <si>
+    <t>jogger top woman</t>
+  </si>
+  <si>
+    <t>small jogger</t>
+  </si>
+  <si>
+    <t>waist top woman</t>
+  </si>
+  <si>
+    <t>top set woman</t>
+  </si>
+  <si>
+    <t>crop workout pant woman</t>
+  </si>
+  <si>
+    <t>high pant</t>
+  </si>
+  <si>
+    <t>fashionable pant woman</t>
+  </si>
+  <si>
+    <t>woman clothe pant</t>
+  </si>
+  <si>
+    <t>small pant</t>
+  </si>
+  <si>
+    <t>woman workout jogger high waist</t>
+  </si>
+  <si>
+    <t>woman black 2</t>
+  </si>
+  <si>
+    <t>black 2 piece set woman</t>
+  </si>
+  <si>
+    <t>high waist jogger pant woman</t>
+  </si>
+  <si>
+    <t>high woman</t>
+  </si>
+  <si>
+    <t>fashionable clothe</t>
+  </si>
+  <si>
+    <t>workout crop top set woman</t>
+  </si>
+  <si>
+    <t>black workout</t>
+  </si>
+  <si>
+    <t>waist pant</t>
+  </si>
+  <si>
+    <t>woman green</t>
+  </si>
+  <si>
+    <t>2 piece pant suit woman</t>
+  </si>
+  <si>
+    <t>green workout pant</t>
+  </si>
+  <si>
+    <t>green jogger pant woman</t>
+  </si>
+  <si>
+    <t>workout apparel woman set</t>
+  </si>
+  <si>
+    <t>fashionable top woman</t>
+  </si>
+  <si>
+    <t>piece woman</t>
+  </si>
+  <si>
+    <t>small clothe</t>
+  </si>
+  <si>
+    <t>clothe crop top</t>
+  </si>
+  <si>
+    <t>woman clothe 2 piece set</t>
+  </si>
+  <si>
+    <t>green black pant</t>
+  </si>
+  <si>
+    <t>woman small clothe</t>
+  </si>
+  <si>
+    <t>black crop pant</t>
+  </si>
+  <si>
+    <t>green black jogger</t>
+  </si>
+  <si>
+    <t>clothe top</t>
+  </si>
+  <si>
+    <t>clothe pant</t>
+  </si>
+  <si>
+    <t>workout crop woman</t>
+  </si>
+  <si>
+    <t>waist pant woman</t>
+  </si>
+  <si>
+    <t>black workout set woman</t>
+  </si>
+  <si>
+    <t>woman jogger pant set</t>
+  </si>
+  <si>
+    <t>small top woman</t>
+  </si>
+  <si>
+    <t>workout jogger pant woman</t>
+  </si>
+  <si>
+    <t>green pant suit woman</t>
+  </si>
+  <si>
+    <t>high waist workout pant</t>
+  </si>
+  <si>
+    <t>crop top pant</t>
+  </si>
+  <si>
+    <t>black workout crop top woman</t>
+  </si>
+  <si>
+    <t>workout suit woman 2 piece</t>
+  </si>
+  <si>
+    <t>black crop pant woman</t>
+  </si>
+  <si>
+    <t>2 piece jogger woman</t>
+  </si>
+  <si>
+    <t>clothe woman top</t>
+  </si>
+  <si>
+    <t>green workout top woman</t>
+  </si>
+  <si>
+    <t>fashionable clothe woman</t>
+  </si>
+  <si>
+    <t>woman jogger suit 2 piece</t>
+  </si>
+  <si>
+    <t>woman pant top set</t>
+  </si>
+  <si>
+    <t>black jogger set woman</t>
+  </si>
+  <si>
+    <t>crop jogger woman</t>
+  </si>
+  <si>
+    <t>woman workout pant set</t>
+  </si>
+  <si>
+    <t>workout 2 piece woman</t>
+  </si>
+  <si>
+    <t>green suit woman</t>
+  </si>
+  <si>
+    <t>woman 2 piece suit</t>
+  </si>
+  <si>
+    <t>crop top jogger set woman</t>
+  </si>
+  <si>
+    <t>high pant woman</t>
+  </si>
+  <si>
+    <t>black jogger pant woman</t>
+  </si>
+  <si>
+    <t>clothe set woman</t>
+  </si>
+  <si>
+    <t>crop woman</t>
+  </si>
+  <si>
+    <t>high waist black pant woman</t>
+  </si>
+  <si>
+    <t>black jogger woman high waist</t>
+  </si>
+  <si>
+    <t>green clothe woman</t>
+  </si>
+  <si>
+    <t>crop top pant set woman</t>
+  </si>
+  <si>
+    <t>workout apparel woman</t>
+  </si>
+  <si>
+    <t>black high top woman</t>
+  </si>
+  <si>
+    <t>workout clothe set</t>
+  </si>
+  <si>
+    <t>workout clothe woman 2 piece</t>
+  </si>
+  <si>
+    <t>high waist workout pant woman</t>
+  </si>
+  <si>
+    <t>jogger woman high waist set</t>
+  </si>
+  <si>
+    <t>workout top woman set</t>
+  </si>
+  <si>
+    <t>workout clothe woman top</t>
+  </si>
+  <si>
+    <t>black workout top woman</t>
+  </si>
+  <si>
+    <t>jogger suit woman</t>
+  </si>
+  <si>
+    <t>suit set woman</t>
+  </si>
+  <si>
+    <t>crop top set woman</t>
+  </si>
+  <si>
+    <t>green clothe</t>
+  </si>
+  <si>
+    <t>workout suit woman</t>
+  </si>
+  <si>
+    <t>pant set woman</t>
+  </si>
+  <si>
+    <t>black pant suit woman</t>
+  </si>
+  <si>
+    <t>black workout pant woman</t>
+  </si>
+  <si>
+    <t>crop pant woman</t>
+  </si>
+  <si>
+    <t>2 piece pant set woman</t>
+  </si>
+  <si>
+    <t>green crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger woman</t>
+  </si>
+  <si>
+    <t>workout jogger woman</t>
+  </si>
+  <si>
+    <t>jogger suit woman set</t>
+  </si>
+  <si>
+    <t>black clothe woman</t>
+  </si>
+  <si>
+    <t>green top woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman set</t>
+  </si>
+  <si>
+    <t>green pant woman</t>
+  </si>
+  <si>
+    <t>high waist pant woman</t>
+  </si>
+  <si>
+    <t>jogger woman set</t>
+  </si>
+  <si>
+    <t>workout set woman</t>
+  </si>
+  <si>
+    <t>jogger pant woman</t>
+  </si>
+  <si>
+    <t>black crop top woman</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB14DB-6CC1-45B1-B584-4556476ECCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F30BC4-3AC7-445D-8A66-8AF907DA0A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>workout suit woman set</t>
-  </si>
-  <si>
-    <t>jogger top woman</t>
-  </si>
-  <si>
-    <t>small jogger</t>
-  </si>
-  <si>
-    <t>waist top woman</t>
-  </si>
-  <si>
-    <t>top set woman</t>
-  </si>
-  <si>
-    <t>crop workout pant woman</t>
-  </si>
-  <si>
-    <t>high pant</t>
-  </si>
-  <si>
-    <t>fashionable pant woman</t>
-  </si>
-  <si>
-    <t>woman clothe pant</t>
-  </si>
-  <si>
-    <t>small pant</t>
-  </si>
-  <si>
-    <t>woman workout jogger high waist</t>
-  </si>
-  <si>
-    <t>woman black 2</t>
-  </si>
-  <si>
-    <t>black 2 piece set woman</t>
-  </si>
-  <si>
-    <t>high waist jogger pant woman</t>
-  </si>
-  <si>
-    <t>high woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe</t>
-  </si>
-  <si>
-    <t>workout crop top set woman</t>
-  </si>
-  <si>
-    <t>black workout</t>
-  </si>
-  <si>
-    <t>waist pant</t>
-  </si>
-  <si>
-    <t>woman green</t>
-  </si>
-  <si>
-    <t>2 piece pant suit woman</t>
-  </si>
-  <si>
-    <t>green workout pant</t>
-  </si>
-  <si>
-    <t>green jogger pant woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman set</t>
-  </si>
-  <si>
-    <t>fashionable top woman</t>
-  </si>
-  <si>
-    <t>piece woman</t>
-  </si>
-  <si>
-    <t>small clothe</t>
-  </si>
-  <si>
-    <t>clothe crop top</t>
-  </si>
-  <si>
-    <t>woman clothe 2 piece set</t>
-  </si>
-  <si>
-    <t>green black pant</t>
-  </si>
-  <si>
-    <t>woman small clothe</t>
-  </si>
-  <si>
-    <t>black crop pant</t>
-  </si>
-  <si>
-    <t>green black jogger</t>
-  </si>
-  <si>
-    <t>clothe top</t>
-  </si>
-  <si>
-    <t>clothe pant</t>
-  </si>
-  <si>
-    <t>workout crop woman</t>
-  </si>
-  <si>
-    <t>waist pant woman</t>
-  </si>
-  <si>
-    <t>black workout set woman</t>
-  </si>
-  <si>
-    <t>woman jogger pant set</t>
-  </si>
-  <si>
-    <t>small top woman</t>
-  </si>
-  <si>
-    <t>workout jogger pant woman</t>
-  </si>
-  <si>
-    <t>green pant suit woman</t>
-  </si>
-  <si>
-    <t>high waist workout pant</t>
-  </si>
-  <si>
-    <t>crop top pant</t>
-  </si>
-  <si>
-    <t>black workout crop top woman</t>
-  </si>
-  <si>
-    <t>workout suit woman 2 piece</t>
-  </si>
-  <si>
-    <t>black crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece jogger woman</t>
-  </si>
-  <si>
-    <t>clothe woman top</t>
-  </si>
-  <si>
-    <t>green workout top woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe woman</t>
-  </si>
-  <si>
-    <t>woman jogger suit 2 piece</t>
-  </si>
-  <si>
-    <t>woman pant top set</t>
-  </si>
-  <si>
-    <t>black jogger set woman</t>
-  </si>
-  <si>
-    <t>crop jogger woman</t>
-  </si>
-  <si>
-    <t>woman workout pant set</t>
-  </si>
-  <si>
-    <t>workout 2 piece woman</t>
-  </si>
-  <si>
-    <t>green suit woman</t>
-  </si>
-  <si>
-    <t>woman 2 piece suit</t>
-  </si>
-  <si>
-    <t>crop top jogger set woman</t>
-  </si>
-  <si>
-    <t>high pant woman</t>
-  </si>
-  <si>
-    <t>black jogger pant woman</t>
-  </si>
-  <si>
-    <t>clothe set woman</t>
-  </si>
-  <si>
-    <t>crop woman</t>
-  </si>
-  <si>
-    <t>high waist black pant woman</t>
-  </si>
-  <si>
-    <t>black jogger woman high waist</t>
-  </si>
-  <si>
-    <t>green clothe woman</t>
-  </si>
-  <si>
-    <t>crop top pant set woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman</t>
-  </si>
-  <si>
-    <t>black high top woman</t>
-  </si>
-  <si>
-    <t>workout clothe set</t>
-  </si>
-  <si>
-    <t>workout clothe woman 2 piece</t>
-  </si>
-  <si>
-    <t>high waist workout pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman high waist set</t>
-  </si>
-  <si>
-    <t>workout top woman set</t>
-  </si>
-  <si>
-    <t>workout clothe woman top</t>
-  </si>
-  <si>
-    <t>black workout top woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman</t>
-  </si>
-  <si>
-    <t>suit set woman</t>
-  </si>
-  <si>
-    <t>crop top set woman</t>
-  </si>
-  <si>
-    <t>green clothe</t>
-  </si>
-  <si>
-    <t>workout suit woman</t>
-  </si>
-  <si>
-    <t>pant set woman</t>
-  </si>
-  <si>
-    <t>black pant suit woman</t>
-  </si>
-  <si>
-    <t>black workout pant woman</t>
-  </si>
-  <si>
-    <t>crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece pant set woman</t>
-  </si>
-  <si>
-    <t>green crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger woman</t>
-  </si>
-  <si>
-    <t>workout jogger woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman set</t>
-  </si>
-  <si>
-    <t>black clothe woman</t>
-  </si>
-  <si>
-    <t>green top woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman set</t>
-  </si>
-  <si>
-    <t>green pant woman</t>
-  </si>
-  <si>
-    <t>high waist pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman set</t>
-  </si>
-  <si>
-    <t>workout set woman</t>
-  </si>
-  <si>
-    <t>jogger pant woman</t>
-  </si>
-  <si>
-    <t>black crop top woman</t>
+    <t>black sport</t>
+  </si>
+  <si>
+    <t>clothing set</t>
+  </si>
+  <si>
+    <t>seamless legging</t>
+  </si>
+  <si>
+    <t>seamless crop top</t>
+  </si>
+  <si>
+    <t>legging suit</t>
+  </si>
+  <si>
+    <t>legging top set</t>
+  </si>
+  <si>
+    <t>green apparel</t>
+  </si>
+  <si>
+    <t>small crop top</t>
+  </si>
+  <si>
+    <t>black compression</t>
+  </si>
+  <si>
+    <t>winter activewear</t>
+  </si>
+  <si>
+    <t>winter blue</t>
+  </si>
+  <si>
+    <t>winter tracksuit</t>
+  </si>
+  <si>
+    <t>pink work shirt</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>winter outfit</t>
+  </si>
+  <si>
+    <t>2 piece matching set</t>
+  </si>
+  <si>
+    <t>2 piece long sleeve</t>
+  </si>
+  <si>
+    <t>2 piece workout set</t>
+  </si>
+  <si>
+    <t>black pant suit</t>
+  </si>
+  <si>
+    <t>black pant set</t>
+  </si>
+  <si>
+    <t>black workout shirt</t>
+  </si>
+  <si>
+    <t>black workout top</t>
+  </si>
+  <si>
+    <t>seamless top</t>
+  </si>
+  <si>
+    <t>pink tight shirt</t>
+  </si>
+  <si>
+    <t>pink crop shirt</t>
+  </si>
+  <si>
+    <t>green high top</t>
+  </si>
+  <si>
+    <t>work out crop</t>
+  </si>
+  <si>
+    <t>two piece legging set</t>
+  </si>
+  <si>
+    <t>seamless workout top</t>
+  </si>
+  <si>
+    <t>seamless workout</t>
+  </si>
+  <si>
+    <t>black sport shirt</t>
+  </si>
+  <si>
+    <t>winter workout</t>
+  </si>
+  <si>
+    <t>long black top</t>
+  </si>
+  <si>
+    <t>tight long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>workout tracksuit</t>
+  </si>
+  <si>
+    <t>workout pant</t>
+  </si>
+  <si>
+    <t>2 piece jogger</t>
+  </si>
+  <si>
+    <t>2 piece woman</t>
+  </si>
+  <si>
+    <t>athletic legging</t>
+  </si>
+  <si>
+    <t>black tight top</t>
+  </si>
+  <si>
+    <t>black jogger</t>
+  </si>
+  <si>
+    <t>black long crop top</t>
+  </si>
+  <si>
+    <t>crop top woman</t>
+  </si>
+  <si>
+    <t>green black top</t>
+  </si>
+  <si>
+    <t>long sleeve winter shirt</t>
+  </si>
+  <si>
+    <t>2 piece pant set</t>
+  </si>
+  <si>
+    <t>2 piece pant suit</t>
+  </si>
+  <si>
+    <t>long sleeve work out shirt</t>
+  </si>
+  <si>
+    <t>long sleeve set</t>
+  </si>
+  <si>
+    <t>black top woman</t>
+  </si>
+  <si>
+    <t>long sleeve outfit</t>
+  </si>
+  <si>
+    <t>crop top pant set</t>
+  </si>
+  <si>
+    <t>long sleeve athletic top</t>
+  </si>
+  <si>
+    <t>long sleeve two piece set</t>
+  </si>
+  <si>
+    <t>pink workout set</t>
+  </si>
+  <si>
+    <t>black jogger set</t>
+  </si>
+  <si>
+    <t>tight workout top</t>
+  </si>
+  <si>
+    <t>long sleeve clothing</t>
+  </si>
+  <si>
+    <t>black athletic crop top</t>
+  </si>
+  <si>
+    <t>small black crop top</t>
+  </si>
+  <si>
+    <t>black athletic sleeve</t>
+  </si>
+  <si>
+    <t>matching legging set</t>
+  </si>
+  <si>
+    <t>long sleeve workout top</t>
+  </si>
+  <si>
+    <t>long sleeve crop top workout</t>
+  </si>
+  <si>
+    <t>pink long sleeve crop</t>
+  </si>
+  <si>
+    <t>black long sleeve crop</t>
+  </si>
+  <si>
+    <t>green long sleeve crop</t>
+  </si>
+  <si>
+    <t>long sleeve crop top set</t>
+  </si>
+  <si>
+    <t>long sleeve work</t>
+  </si>
+  <si>
+    <t>top pant set</t>
+  </si>
+  <si>
+    <t>pink outfit set</t>
+  </si>
+  <si>
+    <t>black crop</t>
+  </si>
+  <si>
+    <t>long black</t>
+  </si>
+  <si>
+    <t>work outfit</t>
+  </si>
+  <si>
+    <t>piece work</t>
+  </si>
+  <si>
+    <t>set two</t>
+  </si>
+  <si>
+    <t>fitness pant</t>
+  </si>
+  <si>
+    <t>winter shirt</t>
+  </si>
+  <si>
+    <t>workout tight</t>
+  </si>
+  <si>
+    <t>high top woman</t>
+  </si>
+  <si>
+    <t>matching pant set</t>
+  </si>
+  <si>
+    <t>gym tight</t>
+  </si>
+  <si>
+    <t>legging outfit</t>
+  </si>
+  <si>
+    <t>long green</t>
+  </si>
+  <si>
+    <t>crop legging</t>
+  </si>
+  <si>
+    <t>work set</t>
+  </si>
+  <si>
+    <t>seamless long sleeve workout top</t>
+  </si>
+  <si>
+    <t>two apparel</t>
+  </si>
+  <si>
+    <t>tracksuit pant</t>
+  </si>
+  <si>
+    <t>work out pink</t>
+  </si>
+  <si>
+    <t>workout track</t>
+  </si>
+  <si>
+    <t>black high top</t>
+  </si>
+  <si>
+    <t>fashionable top</t>
+  </si>
+  <si>
+    <t>winter top</t>
+  </si>
+  <si>
+    <t>2 small</t>
+  </si>
+  <si>
+    <t>seamless crop</t>
+  </si>
+  <si>
+    <t>yoga with</t>
+  </si>
+  <si>
+    <t>pink out shirt</t>
+  </si>
+  <si>
+    <t>pink crop</t>
+  </si>
+  <si>
+    <t>yoga jogger</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F30BC4-3AC7-445D-8A66-8AF907DA0A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B1A52-E028-4867-9753-8FEA89CC218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>black sport</t>
-  </si>
-  <si>
-    <t>clothing set</t>
-  </si>
-  <si>
-    <t>seamless legging</t>
-  </si>
-  <si>
-    <t>seamless crop top</t>
-  </si>
-  <si>
-    <t>legging suit</t>
-  </si>
-  <si>
-    <t>legging top set</t>
-  </si>
-  <si>
-    <t>green apparel</t>
-  </si>
-  <si>
-    <t>small crop top</t>
-  </si>
-  <si>
-    <t>black compression</t>
-  </si>
-  <si>
-    <t>winter activewear</t>
-  </si>
-  <si>
-    <t>winter blue</t>
-  </si>
-  <si>
-    <t>winter tracksuit</t>
-  </si>
-  <si>
-    <t>pink work shirt</t>
-  </si>
-  <si>
-    <t>work out outfit</t>
-  </si>
-  <si>
-    <t>winter outfit</t>
-  </si>
-  <si>
-    <t>2 piece matching set</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve</t>
-  </si>
-  <si>
-    <t>2 piece workout set</t>
-  </si>
-  <si>
-    <t>black pant suit</t>
-  </si>
-  <si>
-    <t>black pant set</t>
-  </si>
-  <si>
-    <t>black workout shirt</t>
-  </si>
-  <si>
-    <t>black workout top</t>
-  </si>
-  <si>
-    <t>seamless top</t>
-  </si>
-  <si>
-    <t>pink tight shirt</t>
-  </si>
-  <si>
-    <t>pink crop shirt</t>
-  </si>
-  <si>
-    <t>green high top</t>
-  </si>
-  <si>
-    <t>work out crop</t>
-  </si>
-  <si>
-    <t>two piece legging set</t>
-  </si>
-  <si>
-    <t>seamless workout top</t>
-  </si>
-  <si>
-    <t>seamless workout</t>
-  </si>
-  <si>
-    <t>black sport shirt</t>
-  </si>
-  <si>
-    <t>winter workout</t>
-  </si>
-  <si>
-    <t>long black top</t>
-  </si>
-  <si>
-    <t>tight long sleeve workout shirt</t>
-  </si>
-  <si>
-    <t>workout tracksuit</t>
-  </si>
-  <si>
-    <t>workout pant</t>
-  </si>
-  <si>
-    <t>2 piece jogger</t>
-  </si>
-  <si>
-    <t>2 piece woman</t>
-  </si>
-  <si>
-    <t>athletic legging</t>
-  </si>
-  <si>
-    <t>black tight top</t>
-  </si>
-  <si>
-    <t>black jogger</t>
-  </si>
-  <si>
-    <t>black long crop top</t>
-  </si>
-  <si>
-    <t>crop top woman</t>
-  </si>
-  <si>
-    <t>green black top</t>
-  </si>
-  <si>
-    <t>long sleeve winter shirt</t>
-  </si>
-  <si>
-    <t>2 piece pant set</t>
-  </si>
-  <si>
-    <t>2 piece pant suit</t>
-  </si>
-  <si>
-    <t>long sleeve work out shirt</t>
-  </si>
-  <si>
-    <t>long sleeve set</t>
-  </si>
-  <si>
-    <t>black top woman</t>
-  </si>
-  <si>
-    <t>long sleeve outfit</t>
-  </si>
-  <si>
-    <t>crop top pant set</t>
-  </si>
-  <si>
-    <t>long sleeve athletic top</t>
-  </si>
-  <si>
-    <t>long sleeve two piece set</t>
-  </si>
-  <si>
-    <t>pink workout set</t>
-  </si>
-  <si>
-    <t>black jogger set</t>
-  </si>
-  <si>
-    <t>tight workout top</t>
-  </si>
-  <si>
-    <t>long sleeve clothing</t>
-  </si>
-  <si>
-    <t>black athletic crop top</t>
-  </si>
-  <si>
-    <t>small black crop top</t>
-  </si>
-  <si>
-    <t>black athletic sleeve</t>
-  </si>
-  <si>
-    <t>matching legging set</t>
-  </si>
-  <si>
-    <t>long sleeve workout top</t>
-  </si>
-  <si>
-    <t>long sleeve crop top workout</t>
-  </si>
-  <si>
-    <t>pink long sleeve crop</t>
-  </si>
-  <si>
-    <t>black long sleeve crop</t>
-  </si>
-  <si>
-    <t>green long sleeve crop</t>
-  </si>
-  <si>
-    <t>long sleeve crop top set</t>
-  </si>
-  <si>
-    <t>long sleeve work</t>
-  </si>
-  <si>
-    <t>top pant set</t>
-  </si>
-  <si>
-    <t>pink outfit set</t>
-  </si>
-  <si>
-    <t>black crop</t>
-  </si>
-  <si>
-    <t>long black</t>
-  </si>
-  <si>
-    <t>work outfit</t>
-  </si>
-  <si>
-    <t>piece work</t>
-  </si>
-  <si>
-    <t>set two</t>
-  </si>
-  <si>
-    <t>fitness pant</t>
-  </si>
-  <si>
-    <t>winter shirt</t>
-  </si>
-  <si>
-    <t>workout tight</t>
-  </si>
-  <si>
-    <t>high top woman</t>
-  </si>
-  <si>
-    <t>matching pant set</t>
-  </si>
-  <si>
-    <t>gym tight</t>
-  </si>
-  <si>
-    <t>legging outfit</t>
-  </si>
-  <si>
-    <t>long green</t>
-  </si>
-  <si>
-    <t>crop legging</t>
-  </si>
-  <si>
-    <t>work set</t>
-  </si>
-  <si>
-    <t>seamless long sleeve workout top</t>
-  </si>
-  <si>
-    <t>two apparel</t>
-  </si>
-  <si>
-    <t>tracksuit pant</t>
-  </si>
-  <si>
-    <t>work out pink</t>
-  </si>
-  <si>
-    <t>workout track</t>
-  </si>
-  <si>
-    <t>black high top</t>
-  </si>
-  <si>
-    <t>fashionable top</t>
-  </si>
-  <si>
-    <t>winter top</t>
-  </si>
-  <si>
-    <t>2 small</t>
-  </si>
-  <si>
-    <t>seamless crop</t>
-  </si>
-  <si>
-    <t>yoga with</t>
-  </si>
-  <si>
-    <t>pink out shirt</t>
-  </si>
-  <si>
-    <t>pink crop</t>
-  </si>
-  <si>
-    <t>yoga jogger</t>
+    <t>ribbed crop top</t>
+  </si>
+  <si>
+    <t>athletic jogger</t>
+  </si>
+  <si>
+    <t>size 2</t>
+  </si>
+  <si>
+    <t>high waist workout</t>
+  </si>
+  <si>
+    <t>workout clothe</t>
+  </si>
+  <si>
+    <t>workout fitness</t>
+  </si>
+  <si>
+    <t>black yoga jacket</t>
+  </si>
+  <si>
+    <t>matching set</t>
+  </si>
+  <si>
+    <t>high waist jogger</t>
+  </si>
+  <si>
+    <t>black crop top</t>
+  </si>
+  <si>
+    <t>long sleeve crop top</t>
+  </si>
+  <si>
+    <t>2 piece winter outfit</t>
+  </si>
+  <si>
+    <t>black workout crop top</t>
+  </si>
+  <si>
+    <t>pink workout outfit</t>
+  </si>
+  <si>
+    <t>blue sport</t>
+  </si>
+  <si>
+    <t>black long sleeve crop top</t>
+  </si>
+  <si>
+    <t>green 2</t>
+  </si>
+  <si>
+    <t>pink top</t>
+  </si>
+  <si>
+    <t>blue top</t>
+  </si>
+  <si>
+    <t>small size</t>
+  </si>
+  <si>
+    <t>long shirt</t>
+  </si>
+  <si>
+    <t>out set</t>
+  </si>
+  <si>
+    <t>fitness outfit</t>
+  </si>
+  <si>
+    <t>exercise outfit</t>
+  </si>
+  <si>
+    <t>tight crop top</t>
+  </si>
+  <si>
+    <t>athletic crop top</t>
+  </si>
+  <si>
+    <t>athletic jacket</t>
+  </si>
+  <si>
+    <t>sleeve crop top</t>
+  </si>
+  <si>
+    <t>crop jacket</t>
+  </si>
+  <si>
+    <t>crop jogger</t>
+  </si>
+  <si>
+    <t>crop outfit</t>
+  </si>
+  <si>
+    <t>crop shirt</t>
+  </si>
+  <si>
+    <t>compression jacket</t>
+  </si>
+  <si>
+    <t>compression outfit</t>
+  </si>
+  <si>
+    <t>compression yoga</t>
+  </si>
+  <si>
+    <t>gym outfit</t>
+  </si>
+  <si>
+    <t>waist yoga</t>
+  </si>
+  <si>
+    <t>outfit set</t>
+  </si>
+  <si>
+    <t>seamless yoga</t>
+  </si>
+  <si>
+    <t>pant suit</t>
+  </si>
+  <si>
+    <t>blue crop top</t>
+  </si>
+  <si>
+    <t>long sleeve yoga</t>
+  </si>
+  <si>
+    <t>long sleeve yoga top</t>
+  </si>
+  <si>
+    <t>black tight crop top</t>
+  </si>
+  <si>
+    <t>black athletic jacket</t>
+  </si>
+  <si>
+    <t>black crop shirt</t>
+  </si>
+  <si>
+    <t>black crop jacket</t>
+  </si>
+  <si>
+    <t>high waist yoga</t>
+  </si>
+  <si>
+    <t>sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport legging</t>
+  </si>
+  <si>
+    <t>black shirt</t>
+  </si>
+  <si>
+    <t>tracksuit outfit</t>
+  </si>
+  <si>
+    <t>tracksuit set</t>
+  </si>
+  <si>
+    <t>tracksuit top</t>
+  </si>
+  <si>
+    <t>ribbed top</t>
+  </si>
+  <si>
+    <t>long sleeve top</t>
+  </si>
+  <si>
+    <t>two piece crop top set</t>
+  </si>
+  <si>
+    <t>two piece jogger set</t>
+  </si>
+  <si>
+    <t>two piece outfit</t>
+  </si>
+  <si>
+    <t>two piece set</t>
+  </si>
+  <si>
+    <t>two piece tracksuit</t>
+  </si>
+  <si>
+    <t>small black</t>
+  </si>
+  <si>
+    <t>crop top set</t>
+  </si>
+  <si>
+    <t>black legging set</t>
+  </si>
+  <si>
+    <t>black suit top</t>
+  </si>
+  <si>
+    <t>matching set outfit</t>
+  </si>
+  <si>
+    <t>green 2 piece</t>
+  </si>
+  <si>
+    <t>sport set</t>
+  </si>
+  <si>
+    <t>pant suit set</t>
+  </si>
+  <si>
+    <t>black outfit</t>
+  </si>
+  <si>
+    <t>green 2 piece set</t>
+  </si>
+  <si>
+    <t>green 2 piece outfit</t>
+  </si>
+  <si>
+    <t>long sleeve crop</t>
+  </si>
+  <si>
+    <t>high waist</t>
+  </si>
+  <si>
+    <t>jogging suit</t>
+  </si>
+  <si>
+    <t>jogger tracksuit</t>
+  </si>
+  <si>
+    <t>athletic apparel</t>
+  </si>
+  <si>
+    <t>athletic clothing</t>
+  </si>
+  <si>
+    <t>activewear set</t>
+  </si>
+  <si>
+    <t>suit set</t>
+  </si>
+  <si>
+    <t>pink shirt</t>
+  </si>
+  <si>
+    <t>pink suit</t>
+  </si>
+  <si>
+    <t>skinny shirt</t>
+  </si>
+  <si>
+    <t>jogging suit set</t>
+  </si>
+  <si>
+    <t>black top</t>
+  </si>
+  <si>
+    <t>gym set</t>
+  </si>
+  <si>
+    <t>sweatsuit outfit</t>
+  </si>
+  <si>
+    <t>sweatsuit set</t>
+  </si>
+  <si>
+    <t>work shirt</t>
+  </si>
+  <si>
+    <t>fitness legging</t>
+  </si>
+  <si>
+    <t>tight pant</t>
+  </si>
+  <si>
+    <t>black 2 piece</t>
+  </si>
+  <si>
+    <t>crop top outfit</t>
+  </si>
+  <si>
+    <t>set 2</t>
+  </si>
+  <si>
+    <t>exercise set</t>
+  </si>
+  <si>
+    <t>athletic long sleeve</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>long set</t>
+  </si>
+  <si>
+    <t>pink set</t>
+  </si>
+  <si>
+    <t>exercise top</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B1A52-E028-4867-9753-8FEA89CC218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6F5A7-0F1C-4356-975C-41000CFF242D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>ribbed crop top</t>
-  </si>
-  <si>
-    <t>athletic jogger</t>
-  </si>
-  <si>
-    <t>size 2</t>
-  </si>
-  <si>
-    <t>high waist workout</t>
-  </si>
-  <si>
-    <t>workout clothe</t>
-  </si>
-  <si>
-    <t>workout fitness</t>
-  </si>
-  <si>
-    <t>black yoga jacket</t>
-  </si>
-  <si>
-    <t>matching set</t>
-  </si>
-  <si>
-    <t>high waist jogger</t>
-  </si>
-  <si>
-    <t>black crop top</t>
-  </si>
-  <si>
-    <t>long sleeve crop top</t>
-  </si>
-  <si>
-    <t>2 piece winter outfit</t>
-  </si>
-  <si>
-    <t>black workout crop top</t>
-  </si>
-  <si>
-    <t>pink workout outfit</t>
-  </si>
-  <si>
-    <t>blue sport</t>
-  </si>
-  <si>
-    <t>black long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green 2</t>
-  </si>
-  <si>
-    <t>pink top</t>
-  </si>
-  <si>
-    <t>blue top</t>
-  </si>
-  <si>
-    <t>small size</t>
-  </si>
-  <si>
-    <t>long shirt</t>
-  </si>
-  <si>
-    <t>out set</t>
-  </si>
-  <si>
-    <t>fitness outfit</t>
-  </si>
-  <si>
-    <t>exercise outfit</t>
-  </si>
-  <si>
-    <t>tight crop top</t>
-  </si>
-  <si>
-    <t>athletic crop top</t>
-  </si>
-  <si>
-    <t>athletic jacket</t>
-  </si>
-  <si>
-    <t>sleeve crop top</t>
-  </si>
-  <si>
-    <t>crop jacket</t>
-  </si>
-  <si>
-    <t>crop jogger</t>
-  </si>
-  <si>
-    <t>crop outfit</t>
-  </si>
-  <si>
-    <t>crop shirt</t>
-  </si>
-  <si>
-    <t>compression jacket</t>
-  </si>
-  <si>
-    <t>compression outfit</t>
-  </si>
-  <si>
-    <t>compression yoga</t>
-  </si>
-  <si>
-    <t>gym outfit</t>
-  </si>
-  <si>
-    <t>waist yoga</t>
-  </si>
-  <si>
-    <t>outfit set</t>
-  </si>
-  <si>
-    <t>seamless yoga</t>
-  </si>
-  <si>
-    <t>pant suit</t>
-  </si>
-  <si>
-    <t>blue crop top</t>
-  </si>
-  <si>
-    <t>long sleeve yoga</t>
-  </si>
-  <si>
-    <t>long sleeve yoga top</t>
-  </si>
-  <si>
-    <t>black tight crop top</t>
-  </si>
-  <si>
-    <t>black athletic jacket</t>
-  </si>
-  <si>
-    <t>black crop shirt</t>
-  </si>
-  <si>
-    <t>black crop jacket</t>
-  </si>
-  <si>
-    <t>high waist yoga</t>
-  </si>
-  <si>
-    <t>sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>black shirt</t>
-  </si>
-  <si>
-    <t>tracksuit outfit</t>
-  </si>
-  <si>
-    <t>tracksuit set</t>
-  </si>
-  <si>
-    <t>tracksuit top</t>
-  </si>
-  <si>
-    <t>ribbed top</t>
-  </si>
-  <si>
-    <t>long sleeve top</t>
-  </si>
-  <si>
-    <t>two piece crop top set</t>
-  </si>
-  <si>
-    <t>two piece jogger set</t>
-  </si>
-  <si>
-    <t>two piece outfit</t>
-  </si>
-  <si>
-    <t>two piece set</t>
-  </si>
-  <si>
-    <t>two piece tracksuit</t>
-  </si>
-  <si>
-    <t>small black</t>
-  </si>
-  <si>
-    <t>crop top set</t>
-  </si>
-  <si>
-    <t>black legging set</t>
-  </si>
-  <si>
-    <t>black suit top</t>
-  </si>
-  <si>
-    <t>matching set outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>pant suit set</t>
-  </si>
-  <si>
-    <t>black outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece set</t>
-  </si>
-  <si>
-    <t>green 2 piece outfit</t>
-  </si>
-  <si>
-    <t>long sleeve crop</t>
-  </si>
-  <si>
-    <t>high waist</t>
-  </si>
-  <si>
-    <t>jogging suit</t>
-  </si>
-  <si>
-    <t>jogger tracksuit</t>
-  </si>
-  <si>
-    <t>athletic apparel</t>
-  </si>
-  <si>
-    <t>athletic clothing</t>
-  </si>
-  <si>
-    <t>activewear set</t>
-  </si>
-  <si>
-    <t>suit set</t>
-  </si>
-  <si>
-    <t>pink shirt</t>
-  </si>
-  <si>
-    <t>pink suit</t>
-  </si>
-  <si>
-    <t>skinny shirt</t>
-  </si>
-  <si>
-    <t>jogging suit set</t>
-  </si>
-  <si>
-    <t>black top</t>
-  </si>
-  <si>
-    <t>gym set</t>
-  </si>
-  <si>
-    <t>sweatsuit outfit</t>
-  </si>
-  <si>
-    <t>sweatsuit set</t>
-  </si>
-  <si>
-    <t>work shirt</t>
-  </si>
-  <si>
-    <t>fitness legging</t>
-  </si>
-  <si>
-    <t>tight pant</t>
-  </si>
-  <si>
-    <t>black 2 piece</t>
-  </si>
-  <si>
-    <t>crop top outfit</t>
-  </si>
-  <si>
-    <t>set 2</t>
-  </si>
-  <si>
-    <t>exercise set</t>
-  </si>
-  <si>
-    <t>athletic long sleeve</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>long set</t>
-  </si>
-  <si>
-    <t>pink set</t>
-  </si>
-  <si>
-    <t>exercise top</t>
+    <t>bodybuilding clothe</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>blue workout legging</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>black workout legging</t>
+  </si>
+  <si>
+    <t>blue clothe</t>
+  </si>
+  <si>
+    <t>shirt legging</t>
+  </si>
+  <si>
+    <t>pink tight</t>
+  </si>
+  <si>
+    <t>skinny outfit</t>
+  </si>
+  <si>
+    <t>clothing set outfit</t>
+  </si>
+  <si>
+    <t>clothing outfit</t>
+  </si>
+  <si>
+    <t>blue pant</t>
+  </si>
+  <si>
+    <t>winter pant</t>
+  </si>
+  <si>
+    <t>legging with</t>
+  </si>
+  <si>
+    <t>black shirt legging</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>black blue legging</t>
+  </si>
+  <si>
+    <t>clothe shirt</t>
+  </si>
+  <si>
+    <t>work tight</t>
+  </si>
+  <si>
+    <t>track tight</t>
+  </si>
+  <si>
+    <t>pink 2 piece outfit</t>
+  </si>
+  <si>
+    <t>pink 2 piece set</t>
+  </si>
+  <si>
+    <t>long tight</t>
+  </si>
+  <si>
+    <t>work out tight</t>
+  </si>
+  <si>
+    <t>soft athletic legging</t>
+  </si>
+  <si>
+    <t>legging long sleeve top set</t>
+  </si>
+  <si>
+    <t>black top legging</t>
+  </si>
+  <si>
+    <t>black crop legging</t>
+  </si>
+  <si>
+    <t>long sleeve 2 piece set</t>
+  </si>
+  <si>
+    <t>green athletic legging</t>
+  </si>
+  <si>
+    <t>soft sleeve</t>
+  </si>
+  <si>
+    <t>long black legging</t>
+  </si>
+  <si>
+    <t>black green legging</t>
+  </si>
+  <si>
+    <t>matching legging</t>
+  </si>
+  <si>
+    <t>exercise black legging</t>
+  </si>
+  <si>
+    <t>soft black legging</t>
+  </si>
+  <si>
+    <t>soft black</t>
+  </si>
+  <si>
+    <t>blue black tight</t>
+  </si>
+  <si>
+    <t>blue workout pant</t>
+  </si>
+  <si>
+    <t>black workout tight</t>
+  </si>
+  <si>
+    <t>blue 2 piece set</t>
+  </si>
+  <si>
+    <t>matching crop top pant set</t>
+  </si>
+  <si>
+    <t>black winter outfit</t>
+  </si>
+  <si>
+    <t>winter workout pant</t>
+  </si>
+  <si>
+    <t>2 piece pant outfit</t>
+  </si>
+  <si>
+    <t>black tight set</t>
+  </si>
+  <si>
+    <t>black winter tight</t>
+  </si>
+  <si>
+    <t>black tight pant</t>
+  </si>
+  <si>
+    <t>2 piece matching pant set</t>
+  </si>
+  <si>
+    <t>size top</t>
+  </si>
+  <si>
+    <t>winter crop</t>
+  </si>
+  <si>
+    <t>winter yoga top</t>
+  </si>
+  <si>
+    <t>seamless ribbed crop top</t>
+  </si>
+  <si>
+    <t>top with legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless</t>
+  </si>
+  <si>
+    <t>legging size small</t>
+  </si>
+  <si>
+    <t>pink long</t>
+  </si>
+  <si>
+    <t>pink seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed workout top</t>
+  </si>
+  <si>
+    <t>small legging</t>
+  </si>
+  <si>
+    <t>pink 2 piece</t>
+  </si>
+  <si>
+    <t>ribbed workout legging</t>
+  </si>
+  <si>
+    <t>pink workout legging</t>
+  </si>
+  <si>
+    <t>pink yoga legging</t>
+  </si>
+  <si>
+    <t>fashionable pant</t>
+  </si>
+  <si>
+    <t>black suit set woman</t>
+  </si>
+  <si>
+    <t>woman clothe jogger</t>
+  </si>
+  <si>
+    <t>suit piece woman</t>
+  </si>
+  <si>
+    <t>clothe woman crop top</t>
+  </si>
+  <si>
+    <t>workout clothe woman pant</t>
+  </si>
+  <si>
+    <t>suit clothe</t>
+  </si>
+  <si>
+    <t>high top pant woman</t>
+  </si>
+  <si>
+    <t>black pant set woman</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
+  </si>
+  <si>
+    <t>2 piece pant woman</t>
+  </si>
+  <si>
+    <t>black apparel woman</t>
+  </si>
+  <si>
+    <t>green black clothe</t>
+  </si>
+  <si>
+    <t>crop top suit woman</t>
+  </si>
+  <si>
+    <t>waist black</t>
+  </si>
+  <si>
+    <t>suit top woman</t>
+  </si>
+  <si>
+    <t>black set woman</t>
+  </si>
+  <si>
+    <t>small pant woman</t>
+  </si>
+  <si>
+    <t>green pant woman high waist</t>
+  </si>
+  <si>
+    <t>green jogger set woman</t>
+  </si>
+  <si>
+    <t>workout pant set</t>
+  </si>
+  <si>
+    <t>workout jogger pant</t>
+  </si>
+  <si>
+    <t>fashionable jogger woman</t>
+  </si>
+  <si>
+    <t>crop workout pant</t>
+  </si>
+  <si>
+    <t>crop set woman</t>
+  </si>
+  <si>
+    <t>black jogger suit woman</t>
+  </si>
+  <si>
+    <t>woman apparel top</t>
+  </si>
+  <si>
+    <t>suit 2</t>
+  </si>
+  <si>
+    <t>small green</t>
+  </si>
+  <si>
+    <t>small crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger pant</t>
+  </si>
+  <si>
+    <t>black crop woman</t>
+  </si>
+  <si>
+    <t>2 piece pant</t>
+  </si>
+  <si>
+    <t>crop jogger set woman</t>
   </si>
 </sst>
 </file>
@@ -652,334 +652,334 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1160,5 +1160,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6F5A7-0F1C-4356-975C-41000CFF242D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8337DCEB-8DFC-451C-AE06-38981DB56FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>bodybuilding clothe</t>
-  </si>
-  <si>
-    <t>sport 2</t>
-  </si>
-  <si>
-    <t>blue workout legging</t>
-  </si>
-  <si>
-    <t>gym clothe</t>
-  </si>
-  <si>
-    <t>black workout legging</t>
-  </si>
-  <si>
-    <t>blue clothe</t>
-  </si>
-  <si>
-    <t>shirt legging</t>
-  </si>
-  <si>
-    <t>pink tight</t>
-  </si>
-  <si>
-    <t>skinny outfit</t>
-  </si>
-  <si>
-    <t>clothing set outfit</t>
-  </si>
-  <si>
-    <t>clothing outfit</t>
-  </si>
-  <si>
-    <t>blue pant</t>
-  </si>
-  <si>
-    <t>winter pant</t>
-  </si>
-  <si>
-    <t>legging with</t>
-  </si>
-  <si>
-    <t>black shirt legging</t>
-  </si>
-  <si>
-    <t>gym workout clothe</t>
-  </si>
-  <si>
-    <t>clothe legging</t>
-  </si>
-  <si>
-    <t>black blue legging</t>
-  </si>
-  <si>
-    <t>clothe shirt</t>
-  </si>
-  <si>
-    <t>work tight</t>
-  </si>
-  <si>
-    <t>track tight</t>
-  </si>
-  <si>
-    <t>pink 2 piece outfit</t>
-  </si>
-  <si>
-    <t>pink 2 piece set</t>
-  </si>
-  <si>
-    <t>long tight</t>
-  </si>
-  <si>
-    <t>work out tight</t>
-  </si>
-  <si>
-    <t>soft athletic legging</t>
-  </si>
-  <si>
-    <t>legging long sleeve top set</t>
-  </si>
-  <si>
-    <t>black top legging</t>
-  </si>
-  <si>
-    <t>black crop legging</t>
-  </si>
-  <si>
-    <t>long sleeve 2 piece set</t>
-  </si>
-  <si>
-    <t>green athletic legging</t>
-  </si>
-  <si>
-    <t>soft sleeve</t>
-  </si>
-  <si>
-    <t>long black legging</t>
-  </si>
-  <si>
-    <t>black green legging</t>
-  </si>
-  <si>
-    <t>matching legging</t>
-  </si>
-  <si>
-    <t>exercise black legging</t>
-  </si>
-  <si>
-    <t>soft black legging</t>
-  </si>
-  <si>
-    <t>soft black</t>
-  </si>
-  <si>
-    <t>blue black tight</t>
-  </si>
-  <si>
-    <t>blue workout pant</t>
-  </si>
-  <si>
-    <t>black workout tight</t>
-  </si>
-  <si>
-    <t>blue 2 piece set</t>
-  </si>
-  <si>
-    <t>matching crop top pant set</t>
-  </si>
-  <si>
-    <t>black winter outfit</t>
-  </si>
-  <si>
-    <t>winter workout pant</t>
-  </si>
-  <si>
-    <t>2 piece pant outfit</t>
-  </si>
-  <si>
-    <t>black tight set</t>
-  </si>
-  <si>
-    <t>black winter tight</t>
-  </si>
-  <si>
-    <t>black tight pant</t>
-  </si>
-  <si>
-    <t>2 piece matching pant set</t>
-  </si>
-  <si>
-    <t>size top</t>
-  </si>
-  <si>
-    <t>winter crop</t>
-  </si>
-  <si>
-    <t>winter yoga top</t>
-  </si>
-  <si>
-    <t>seamless ribbed crop top</t>
-  </si>
-  <si>
-    <t>top with legging</t>
-  </si>
-  <si>
-    <t>ribbed seamless</t>
-  </si>
-  <si>
-    <t>legging size small</t>
-  </si>
-  <si>
-    <t>pink long</t>
-  </si>
-  <si>
-    <t>pink seamless legging</t>
-  </si>
-  <si>
-    <t>ribbed seamless legging</t>
-  </si>
-  <si>
-    <t>ribbed workout top</t>
-  </si>
-  <si>
-    <t>small legging</t>
-  </si>
-  <si>
-    <t>pink 2 piece</t>
-  </si>
-  <si>
-    <t>ribbed workout legging</t>
-  </si>
-  <si>
-    <t>pink workout legging</t>
-  </si>
-  <si>
-    <t>pink yoga legging</t>
-  </si>
-  <si>
-    <t>fashionable pant</t>
-  </si>
-  <si>
-    <t>black suit set woman</t>
-  </si>
-  <si>
-    <t>woman clothe jogger</t>
-  </si>
-  <si>
-    <t>suit piece woman</t>
-  </si>
-  <si>
-    <t>clothe woman crop top</t>
-  </si>
-  <si>
-    <t>workout clothe woman pant</t>
-  </si>
-  <si>
-    <t>suit clothe</t>
-  </si>
-  <si>
-    <t>high top pant woman</t>
-  </si>
-  <si>
-    <t>black pant set woman</t>
-  </si>
-  <si>
-    <t>2 piece workout clothe</t>
-  </si>
-  <si>
-    <t>2 piece pant woman</t>
-  </si>
-  <si>
-    <t>black apparel woman</t>
-  </si>
-  <si>
-    <t>green black clothe</t>
-  </si>
-  <si>
-    <t>crop top suit woman</t>
-  </si>
-  <si>
-    <t>waist black</t>
-  </si>
-  <si>
-    <t>suit top woman</t>
-  </si>
-  <si>
-    <t>black set woman</t>
-  </si>
-  <si>
-    <t>small pant woman</t>
-  </si>
-  <si>
-    <t>green pant woman high waist</t>
-  </si>
-  <si>
-    <t>green jogger set woman</t>
-  </si>
-  <si>
-    <t>workout pant set</t>
-  </si>
-  <si>
-    <t>workout jogger pant</t>
-  </si>
-  <si>
-    <t>fashionable jogger woman</t>
-  </si>
-  <si>
-    <t>crop workout pant</t>
-  </si>
-  <si>
-    <t>crop set woman</t>
-  </si>
-  <si>
-    <t>black jogger suit woman</t>
-  </si>
-  <si>
-    <t>woman apparel top</t>
-  </si>
-  <si>
-    <t>suit 2</t>
-  </si>
-  <si>
-    <t>small green</t>
-  </si>
-  <si>
-    <t>small crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger pant</t>
-  </si>
-  <si>
-    <t>black crop woman</t>
-  </si>
-  <si>
-    <t>2 piece pant</t>
-  </si>
-  <si>
-    <t>crop jogger set woman</t>
+    <t>long sleeve crop shirt</t>
+  </si>
+  <si>
+    <t>black 2 piece outfit</t>
+  </si>
+  <si>
+    <t>black 2 piece set</t>
+  </si>
+  <si>
+    <t>jogger outfit</t>
+  </si>
+  <si>
+    <t>fashion legging</t>
+  </si>
+  <si>
+    <t>track outfit</t>
+  </si>
+  <si>
+    <t>fashion crop top</t>
+  </si>
+  <si>
+    <t>top legging</t>
+  </si>
+  <si>
+    <t>track shirt</t>
+  </si>
+  <si>
+    <t>long sleeve gym shirt</t>
+  </si>
+  <si>
+    <t>long sleeve activewear</t>
+  </si>
+  <si>
+    <t>long sleeve athletic crop top</t>
+  </si>
+  <si>
+    <t>long sleeve two piece</t>
+  </si>
+  <si>
+    <t>long sleeve legging set</t>
+  </si>
+  <si>
+    <t>work out long sleeve</t>
+  </si>
+  <si>
+    <t>two piece crop top</t>
+  </si>
+  <si>
+    <t>two piece suit</t>
+  </si>
+  <si>
+    <t>two piece jogger</t>
+  </si>
+  <si>
+    <t>two piece sweatsuit</t>
+  </si>
+  <si>
+    <t>2 piece outfit set</t>
+  </si>
+  <si>
+    <t>seamless long sleeve crop top</t>
+  </si>
+  <si>
+    <t>seamless long sleeve top</t>
+  </si>
+  <si>
+    <t>crop top fitness</t>
+  </si>
+  <si>
+    <t>2 piece legging set</t>
+  </si>
+  <si>
+    <t>2 piece crop top</t>
+  </si>
+  <si>
+    <t>2 piece suit</t>
+  </si>
+  <si>
+    <t>yoga sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt set</t>
+  </si>
+  <si>
+    <t>green long sleeve crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve top</t>
+  </si>
+  <si>
+    <t>long sleeve workout crop</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>high waist set</t>
+  </si>
+  <si>
+    <t>pink apparel</t>
+  </si>
+  <si>
+    <t>size workout</t>
+  </si>
+  <si>
+    <t>piece set</t>
+  </si>
+  <si>
+    <t>2 piece track suit</t>
+  </si>
+  <si>
+    <t>pant set</t>
+  </si>
+  <si>
+    <t>track suit</t>
+  </si>
+  <si>
+    <t>fitness top</t>
+  </si>
+  <si>
+    <t>gym long sleeve</t>
+  </si>
+  <si>
+    <t>two outfit</t>
+  </si>
+  <si>
+    <t>top track</t>
+  </si>
+  <si>
+    <t>green pant</t>
+  </si>
+  <si>
+    <t>work out shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve</t>
+  </si>
+  <si>
+    <t>blue outfit</t>
+  </si>
+  <si>
+    <t>work apparel</t>
+  </si>
+  <si>
+    <t>pant woman</t>
+  </si>
+  <si>
+    <t>matching tracksuit</t>
+  </si>
+  <si>
+    <t>pink out</t>
+  </si>
+  <si>
+    <t>high black</t>
+  </si>
+  <si>
+    <t>waist set</t>
+  </si>
+  <si>
+    <t>green tracksuit</t>
+  </si>
+  <si>
+    <t>long crop top</t>
+  </si>
+  <si>
+    <t>waist woman</t>
+  </si>
+  <si>
+    <t>suit fashion</t>
+  </si>
+  <si>
+    <t>pink track suit</t>
+  </si>
+  <si>
+    <t>long pink shirt</t>
+  </si>
+  <si>
+    <t>tight long sleeve</t>
+  </si>
+  <si>
+    <t>tight top</t>
+  </si>
+  <si>
+    <t>pink outfit</t>
+  </si>
+  <si>
+    <t>long winter</t>
+  </si>
+  <si>
+    <t>pink workout</t>
+  </si>
+  <si>
+    <t>green outfit</t>
+  </si>
+  <si>
+    <t>woman top</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>green workout top</t>
+  </si>
+  <si>
+    <t>long workout top</t>
+  </si>
+  <si>
+    <t>woman workout</t>
+  </si>
+  <si>
+    <t>sport fitness</t>
+  </si>
+  <si>
+    <t>black winter</t>
+  </si>
+  <si>
+    <t>black apparel</t>
+  </si>
+  <si>
+    <t>blue workout top</t>
+  </si>
+  <si>
+    <t>green black</t>
+  </si>
+  <si>
+    <t>winter legging</t>
+  </si>
+  <si>
+    <t>waist top</t>
+  </si>
+  <si>
+    <t>tight long sleeve shirt</t>
+  </si>
+  <si>
+    <t>tight set</t>
+  </si>
+  <si>
+    <t>work workout</t>
+  </si>
+  <si>
+    <t>sport fashion</t>
+  </si>
+  <si>
+    <t>sport crop</t>
+  </si>
+  <si>
+    <t>black athletic top</t>
+  </si>
+  <si>
+    <t>long workout shirt</t>
+  </si>
+  <si>
+    <t>waist sleeve</t>
+  </si>
+  <si>
+    <t>winter suit</t>
+  </si>
+  <si>
+    <t>sport jogger</t>
+  </si>
+  <si>
+    <t>black set</t>
+  </si>
+  <si>
+    <t>blue apparel</t>
+  </si>
+  <si>
+    <t>fitness jacket</t>
+  </si>
+  <si>
+    <t>black tracksuit</t>
+  </si>
+  <si>
+    <t>winter set</t>
+  </si>
+  <si>
+    <t>suit woman</t>
+  </si>
+  <si>
+    <t>winter crop top</t>
+  </si>
+  <si>
+    <t>pink winter</t>
+  </si>
+  <si>
+    <t>green pant suit</t>
+  </si>
+  <si>
+    <t>woman pant suit set</t>
+  </si>
+  <si>
+    <t>blue crop shirt</t>
+  </si>
+  <si>
+    <t>pink sleeve</t>
+  </si>
+  <si>
+    <t>black matching set</t>
   </si>
 </sst>
 </file>
@@ -652,334 +652,334 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1160,6 +1160,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8337DCEB-8DFC-451C-AE06-38981DB56FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>long sleeve crop shirt</t>
-  </si>
-  <si>
-    <t>black 2 piece outfit</t>
-  </si>
-  <si>
-    <t>black 2 piece set</t>
-  </si>
-  <si>
-    <t>jogger outfit</t>
-  </si>
-  <si>
-    <t>fashion legging</t>
-  </si>
-  <si>
-    <t>track outfit</t>
-  </si>
-  <si>
-    <t>fashion crop top</t>
-  </si>
-  <si>
-    <t>top legging</t>
-  </si>
-  <si>
-    <t>track shirt</t>
-  </si>
-  <si>
-    <t>long sleeve gym shirt</t>
-  </si>
-  <si>
-    <t>long sleeve activewear</t>
-  </si>
-  <si>
-    <t>long sleeve athletic crop top</t>
-  </si>
-  <si>
-    <t>long sleeve two piece</t>
-  </si>
-  <si>
-    <t>long sleeve legging set</t>
-  </si>
-  <si>
-    <t>work out long sleeve</t>
-  </si>
-  <si>
-    <t>two piece crop top</t>
-  </si>
-  <si>
-    <t>two piece suit</t>
-  </si>
-  <si>
-    <t>two piece jogger</t>
-  </si>
-  <si>
-    <t>two piece sweatsuit</t>
-  </si>
-  <si>
-    <t>2 piece outfit set</t>
-  </si>
-  <si>
-    <t>seamless long sleeve crop top</t>
-  </si>
-  <si>
-    <t>seamless long sleeve top</t>
-  </si>
-  <si>
-    <t>crop top fitness</t>
-  </si>
-  <si>
-    <t>2 piece legging set</t>
-  </si>
-  <si>
-    <t>2 piece crop top</t>
-  </si>
-  <si>
-    <t>2 piece suit</t>
-  </si>
-  <si>
-    <t>yoga sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt set</t>
-  </si>
-  <si>
-    <t>green long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green long sleeve top</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>high waist set</t>
-  </si>
-  <si>
-    <t>pink apparel</t>
-  </si>
-  <si>
-    <t>size workout</t>
-  </si>
-  <si>
-    <t>piece set</t>
-  </si>
-  <si>
-    <t>2 piece track suit</t>
-  </si>
-  <si>
-    <t>pant set</t>
-  </si>
-  <si>
-    <t>track suit</t>
-  </si>
-  <si>
-    <t>fitness top</t>
-  </si>
-  <si>
-    <t>gym long sleeve</t>
-  </si>
-  <si>
-    <t>two outfit</t>
-  </si>
-  <si>
-    <t>top track</t>
-  </si>
-  <si>
-    <t>green pant</t>
-  </si>
-  <si>
-    <t>work out shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve</t>
-  </si>
-  <si>
-    <t>blue outfit</t>
-  </si>
-  <si>
-    <t>work apparel</t>
-  </si>
-  <si>
-    <t>pant woman</t>
-  </si>
-  <si>
-    <t>matching tracksuit</t>
-  </si>
-  <si>
-    <t>pink out</t>
-  </si>
-  <si>
-    <t>high black</t>
-  </si>
-  <si>
-    <t>waist set</t>
-  </si>
-  <si>
-    <t>green tracksuit</t>
-  </si>
-  <si>
-    <t>long crop top</t>
-  </si>
-  <si>
-    <t>waist woman</t>
-  </si>
-  <si>
-    <t>suit fashion</t>
-  </si>
-  <si>
-    <t>pink track suit</t>
-  </si>
-  <si>
-    <t>long pink shirt</t>
-  </si>
-  <si>
-    <t>tight long sleeve</t>
-  </si>
-  <si>
-    <t>tight top</t>
-  </si>
-  <si>
-    <t>pink outfit</t>
-  </si>
-  <si>
-    <t>long winter</t>
-  </si>
-  <si>
-    <t>pink workout</t>
-  </si>
-  <si>
-    <t>green outfit</t>
-  </si>
-  <si>
-    <t>woman top</t>
-  </si>
-  <si>
-    <t>work out set</t>
-  </si>
-  <si>
-    <t>green workout top</t>
-  </si>
-  <si>
-    <t>long workout top</t>
-  </si>
-  <si>
-    <t>woman workout</t>
-  </si>
-  <si>
-    <t>sport fitness</t>
-  </si>
-  <si>
-    <t>black winter</t>
-  </si>
-  <si>
-    <t>black apparel</t>
-  </si>
-  <si>
-    <t>blue workout top</t>
-  </si>
-  <si>
-    <t>green black</t>
-  </si>
-  <si>
-    <t>winter legging</t>
-  </si>
-  <si>
-    <t>waist top</t>
-  </si>
-  <si>
-    <t>tight long sleeve shirt</t>
-  </si>
-  <si>
-    <t>tight set</t>
-  </si>
-  <si>
-    <t>work workout</t>
-  </si>
-  <si>
-    <t>sport fashion</t>
-  </si>
-  <si>
-    <t>sport crop</t>
-  </si>
-  <si>
-    <t>black athletic top</t>
-  </si>
-  <si>
-    <t>long workout shirt</t>
-  </si>
-  <si>
-    <t>waist sleeve</t>
-  </si>
-  <si>
-    <t>winter suit</t>
-  </si>
-  <si>
-    <t>sport jogger</t>
-  </si>
-  <si>
-    <t>black set</t>
-  </si>
-  <si>
-    <t>blue apparel</t>
-  </si>
-  <si>
-    <t>fitness jacket</t>
-  </si>
-  <si>
-    <t>black tracksuit</t>
-  </si>
-  <si>
-    <t>winter set</t>
-  </si>
-  <si>
-    <t>suit woman</t>
-  </si>
-  <si>
-    <t>winter crop top</t>
-  </si>
-  <si>
-    <t>pink winter</t>
-  </si>
-  <si>
-    <t>green pant suit</t>
-  </si>
-  <si>
-    <t>woman pant suit set</t>
-  </si>
-  <si>
-    <t>blue crop shirt</t>
-  </si>
-  <si>
-    <t>pink sleeve</t>
-  </si>
-  <si>
-    <t>black matching set</t>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064D93E-4DB9-4CEF-BF91-5734F129A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>jogger woman high waist</t>
-  </si>
-  <si>
-    <t>black jogger woman</t>
-  </si>
-  <si>
-    <t>workout crop top woman</t>
-  </si>
-  <si>
-    <t>jogger set woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant woman</t>
-  </si>
-  <si>
-    <t>workout set woman 2 piece</t>
-  </si>
-  <si>
-    <t>black pant woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman</t>
-  </si>
-  <si>
-    <t>workout top woman</t>
-  </si>
-  <si>
-    <t>crop athletic jacket</t>
-  </si>
-  <si>
-    <t>tight clothe</t>
-  </si>
-  <si>
-    <t>black yoga tight</t>
-  </si>
-  <si>
-    <t>black compression tight</t>
-  </si>
-  <si>
-    <t>turquoise clothe</t>
-  </si>
-  <si>
-    <t>turquoise piece</t>
-  </si>
-  <si>
-    <t>fitness tight</t>
-  </si>
-  <si>
-    <t>crop tight</t>
-  </si>
-  <si>
-    <t>clothe compression</t>
-  </si>
-  <si>
-    <t>turquoise tight</t>
-  </si>
-  <si>
-    <t>piece black</t>
-  </si>
-  <si>
-    <t>athletic tight</t>
-  </si>
-  <si>
-    <t>fitness clothe</t>
-  </si>
-  <si>
-    <t>compression yoga tight</t>
-  </si>
-  <si>
-    <t>clothe outfit</t>
-  </si>
-  <si>
-    <t>athletic clothe</t>
-  </si>
-  <si>
-    <t>black clothe</t>
-  </si>
-  <si>
-    <t>yoga clothe</t>
-  </si>
-  <si>
-    <t>athletic sport</t>
-  </si>
-  <si>
-    <t>fitness jogger</t>
-  </si>
-  <si>
-    <t>jogging legging</t>
-  </si>
-  <si>
-    <t>seamless athletic legging</t>
-  </si>
-  <si>
-    <t>two set top</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>long workout legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging high waist</t>
-  </si>
-  <si>
-    <t>2 piece seamless workout outfit</t>
-  </si>
-  <si>
-    <t>crop workout legging</t>
-  </si>
-  <si>
-    <t>yoga seamless outfit</t>
-  </si>
-  <si>
-    <t>2 piece outfit long sleeve</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout outfit</t>
-  </si>
-  <si>
-    <t>high waist crop legging</t>
-  </si>
-  <si>
-    <t>waist legging</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>high waist legging long</t>
-  </si>
-  <si>
-    <t>high legging</t>
-  </si>
-  <si>
-    <t>long sleeve crop top outfit</t>
-  </si>
-  <si>
-    <t>long sleeve top legging</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>jogger legging</t>
-  </si>
-  <si>
-    <t>seamless yoga legging</t>
-  </si>
-  <si>
-    <t>high waist yoga legging</t>
-  </si>
-  <si>
-    <t>high waist seamless legging</t>
-  </si>
-  <si>
-    <t>long top legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging</t>
-  </si>
-  <si>
-    <t>long sleeve</t>
-  </si>
-  <si>
-    <t>work out</t>
-  </si>
-  <si>
-    <t>fashion top</t>
-  </si>
-  <si>
-    <t>athletic sleeve</t>
-  </si>
-  <si>
-    <t>gym shirt</t>
-  </si>
-  <si>
-    <t>two piece</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>workout waist</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>track set</t>
-  </si>
-  <si>
-    <t>yoga fitness</t>
-  </si>
-  <si>
-    <t>yoga jacket</t>
-  </si>
-  <si>
-    <t>yoga outfit</t>
-  </si>
-  <si>
-    <t>bodybuilding shirt</t>
-  </si>
-  <si>
-    <t>turquoise jacket</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>high top</t>
-  </si>
-  <si>
-    <t>fitness apparel</t>
-  </si>
-  <si>
-    <t>crop top</t>
-  </si>
-  <si>
-    <t>sleeve top</t>
-  </si>
-  <si>
-    <t>fashion set</t>
-  </si>
-  <si>
-    <t>high waist black pant</t>
-  </si>
-  <si>
-    <t>legging crop top set</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout crop top</t>
-  </si>
-  <si>
-    <t>workout matching set</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout gym</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>gym workout set</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>workout shirt long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>black suit</t>
-  </si>
-  <si>
-    <t>black jacket</t>
-  </si>
-  <si>
-    <t>black legging</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>black long sleeve</t>
+    <t>small pink</t>
+  </si>
+  <si>
+    <t>winter work</t>
+  </si>
+  <si>
+    <t>pink legging</t>
+  </si>
+  <si>
+    <t>winter two piece outfit</t>
+  </si>
+  <si>
+    <t>crop pant</t>
+  </si>
+  <si>
+    <t>exercise legging</t>
+  </si>
+  <si>
+    <t>work out gym</t>
+  </si>
+  <si>
+    <t>matching top</t>
+  </si>
+  <si>
+    <t>matching pant</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>compression tight</t>
+  </si>
+  <si>
+    <t>small black top</t>
+  </si>
+  <si>
+    <t>winter work shirt</t>
+  </si>
+  <si>
+    <t>woman black</t>
+  </si>
+  <si>
+    <t>green jogger</t>
+  </si>
+  <si>
+    <t>black athletic</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>small woman</t>
+  </si>
+  <si>
+    <t>woman clothe</t>
+  </si>
+  <si>
+    <t>green sleeve</t>
+  </si>
+  <si>
+    <t>green crop</t>
+  </si>
+  <si>
+    <t>black tight</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>winter tight</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>small set</t>
+  </si>
+  <si>
+    <t>legging outfit set</t>
+  </si>
+  <si>
+    <t>2 woman</t>
+  </si>
+  <si>
+    <t>black sport legging</t>
+  </si>
+  <si>
+    <t>apparel size</t>
+  </si>
+  <si>
+    <t>long jogger</t>
+  </si>
+  <si>
+    <t>long legging</t>
+  </si>
+  <si>
+    <t>small piece</t>
+  </si>
+  <si>
+    <t>workout jogger</t>
+  </si>
+  <si>
+    <t>pant suit woman</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>blue legging</t>
+  </si>
+  <si>
+    <t>blue tight</t>
+  </si>
+  <si>
+    <t>woman high waist</t>
+  </si>
+  <si>
+    <t>workout sleeve</t>
+  </si>
+  <si>
+    <t>fashion jogger</t>
+  </si>
+  <si>
+    <t>yoga tight</t>
+  </si>
+  <si>
+    <t>long yoga top</t>
+  </si>
+  <si>
+    <t>woman set</t>
+  </si>
+  <si>
+    <t>long crop</t>
+  </si>
+  <si>
+    <t>small top</t>
+  </si>
+  <si>
+    <t>work sleeve</t>
+  </si>
+  <si>
+    <t>black jogger pant</t>
+  </si>
+  <si>
+    <t>black athletic legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>blue crop</t>
+  </si>
+  <si>
+    <t>black workout pant</t>
+  </si>
+  <si>
+    <t>ribbed legging</t>
+  </si>
+  <si>
+    <t>winter sleeve</t>
+  </si>
+  <si>
+    <t>soft set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfit</t>
+  </si>
+  <si>
+    <t>black suit woman</t>
+  </si>
+  <si>
+    <t>green black crop top</t>
+  </si>
+  <si>
+    <t>green matching set</t>
+  </si>
+  <si>
+    <t>long sleeve workout set</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>long sleeve matching set</t>
+  </si>
+  <si>
+    <t>workout crop top set</t>
+  </si>
+  <si>
+    <t>2 soft</t>
+  </si>
+  <si>
+    <t>crop jogger set</t>
+  </si>
+  <si>
+    <t>blue matching set</t>
+  </si>
+  <si>
+    <t>soft crop top</t>
+  </si>
+  <si>
+    <t>jogger crop top set</t>
+  </si>
+  <si>
+    <t>pink out outfit</t>
+  </si>
+  <si>
+    <t>soft long sleeve</t>
+  </si>
+  <si>
+    <t>jogger woman</t>
+  </si>
+  <si>
+    <t>black winter top</t>
+  </si>
+  <si>
+    <t>2 piece set woman</t>
+  </si>
+  <si>
+    <t>black fitness</t>
+  </si>
+  <si>
+    <t>soft legging</t>
+  </si>
+  <si>
+    <t>soft top</t>
+  </si>
+  <si>
+    <t>black pant</t>
+  </si>
+  <si>
+    <t>seamless crop top workout</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>blue workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>piece long</t>
+  </si>
+  <si>
+    <t>two piece athletic set</t>
+  </si>
+  <si>
+    <t>apparel clothing</t>
+  </si>
+  <si>
+    <t>outfit winter</t>
+  </si>
+  <si>
+    <t>long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>black yoga</t>
+  </si>
+  <si>
+    <t>shirt sleeve</t>
+  </si>
+  <si>
+    <t>top woman</t>
+  </si>
+  <si>
+    <t>turquoise leggings</t>
+  </si>
+  <si>
+    <t>ribbed leggings</t>
+  </si>
+  <si>
+    <t>workout clothes for women gym</t>
+  </si>
+  <si>
+    <t>ready set</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>workout clothes</t>
+  </si>
+  <si>
+    <t>workout shirts</t>
+  </si>
+  <si>
+    <t>gym clothes for women</t>
+  </si>
+  <si>
+    <t>gym outfits for women</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521F3D0-2C8D-4154-A301-0B404ED63F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>pink victoria secret</t>
-  </si>
-  <si>
-    <t>crop workout</t>
-  </si>
-  <si>
-    <t>2 pieces outfit for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -364,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -397,6 +682,481 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4669BC2E-EBCC-4C65-A1BC-ECFB6F1A85A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,51 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>pink victoria secret</t>
-  </si>
-  <si>
-    <t>crop workout</t>
-  </si>
-  <si>
-    <t>2 pieces outfit for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
-  </si>
-  <si>
-    <t>legging outfits</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>gym workout clothes women</t>
-  </si>
-  <si>
-    <t>workout clothes women plus size</t>
-  </si>
-  <si>
-    <t>crop leggings</t>
-  </si>
-  <si>
-    <t>retro workout clothes women</t>
-  </si>
-  <si>
-    <t>winter workout clothes for women</t>
-  </si>
-  <si>
-    <t>woman gym shirt</t>
-  </si>
-  <si>
-    <t>women bodybuilding clothes</t>
-  </si>
-  <si>
-    <t>womens yoga gym crop top compression</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -394,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,6 +732,431 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA536737-D937-426F-9AEF-C2B8C2783A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6F5A7-0F1C-4356-975C-41000CFF242D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,180 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t>sweatsuits sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>two piece workout outfits for women</t>
-  </si>
-  <si>
-    <t>sweat sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>active wear two piece sets for women</t>
-  </si>
-  <si>
-    <t>sweat outfits for women 2 pieces</t>
-  </si>
-  <si>
-    <t>womens workout sets</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>women tracksuit set</t>
-  </si>
-  <si>
-    <t>jogger suits for women set</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>yoga outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>joggers for women set</t>
-  </si>
-  <si>
-    <t>women's athletic clothing sets</t>
-  </si>
-  <si>
-    <t>gym sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>matching sweatsuit women</t>
-  </si>
-  <si>
-    <t>workout clothes for women sets</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>work outfits for women gym set</t>
-  </si>
-  <si>
-    <t>gym outfits for women set</t>
-  </si>
-  <si>
-    <t>womens sweat suits two piece</t>
-  </si>
-  <si>
-    <t>activewear sets for women</t>
-  </si>
-  <si>
-    <t>active wear outfits for women</t>
-  </si>
-  <si>
-    <t>jogger set for women</t>
-  </si>
-  <si>
-    <t>women track suits 2 piece set</t>
-  </si>
-  <si>
-    <t>women workout sets</t>
-  </si>
-  <si>
-    <t>sexy workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece high waist</t>
-  </si>
-  <si>
-    <t>workout sweaters for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits</t>
-  </si>
-  <si>
-    <t>athletic sets for women</t>
-  </si>
-  <si>
-    <t>matching workout sets for women</t>
-  </si>
-  <si>
-    <t>track suits for women sexy</t>
-  </si>
-  <si>
-    <t>sweat suits for women</t>
-  </si>
-  <si>
-    <t>two piece jogger sets for women</t>
-  </si>
-  <si>
-    <t>sweatsuits for women set</t>
-  </si>
-  <si>
-    <t>women sweat suits two piece set</t>
-  </si>
-  <si>
-    <t>gym sets for women</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit for women</t>
-  </si>
-  <si>
-    <t>workout clothes set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweat suits</t>
-  </si>
-  <si>
-    <t>workout top for women set</t>
-  </si>
-  <si>
-    <t>track suits for women set</t>
-  </si>
-  <si>
-    <t>sweat suits for women set</t>
-  </si>
-  <si>
-    <t>workout clothes for women</t>
-  </si>
-  <si>
-    <t>women sweatsuits sets</t>
-  </si>
-  <si>
-    <t>sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>jogging suits for women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets</t>
-  </si>
-  <si>
-    <t>jogger sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>tracksuit for women set</t>
-  </si>
-  <si>
-    <t>women jogging suit set</t>
-  </si>
-  <si>
-    <t>workout sets for women</t>
-  </si>
-  <si>
-    <t>womens jogging suits sets</t>
-  </si>
-  <si>
-    <t>womens tracksuit set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>bodybuilding clothe</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>blue workout legging</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>black workout legging</t>
+  </si>
+  <si>
+    <t>blue clothe</t>
+  </si>
+  <si>
+    <t>shirt legging</t>
+  </si>
+  <si>
+    <t>pink tight</t>
+  </si>
+  <si>
+    <t>skinny outfit</t>
+  </si>
+  <si>
+    <t>clothing set outfit</t>
+  </si>
+  <si>
+    <t>clothing outfit</t>
+  </si>
+  <si>
+    <t>blue pant</t>
+  </si>
+  <si>
+    <t>winter pant</t>
+  </si>
+  <si>
+    <t>legging with</t>
+  </si>
+  <si>
+    <t>black shirt legging</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>black blue legging</t>
+  </si>
+  <si>
+    <t>clothe shirt</t>
+  </si>
+  <si>
+    <t>work tight</t>
+  </si>
+  <si>
+    <t>track tight</t>
+  </si>
+  <si>
+    <t>pink 2 piece outfit</t>
+  </si>
+  <si>
+    <t>pink 2 piece set</t>
+  </si>
+  <si>
+    <t>long tight</t>
+  </si>
+  <si>
+    <t>work out tight</t>
+  </si>
+  <si>
+    <t>soft athletic legging</t>
+  </si>
+  <si>
+    <t>legging long sleeve top set</t>
+  </si>
+  <si>
+    <t>black top legging</t>
+  </si>
+  <si>
+    <t>black crop legging</t>
+  </si>
+  <si>
+    <t>long sleeve 2 piece set</t>
+  </si>
+  <si>
+    <t>green athletic legging</t>
+  </si>
+  <si>
+    <t>soft sleeve</t>
+  </si>
+  <si>
+    <t>long black legging</t>
+  </si>
+  <si>
+    <t>black green legging</t>
+  </si>
+  <si>
+    <t>matching legging</t>
+  </si>
+  <si>
+    <t>exercise black legging</t>
+  </si>
+  <si>
+    <t>soft black legging</t>
+  </si>
+  <si>
+    <t>soft black</t>
+  </si>
+  <si>
+    <t>blue black tight</t>
+  </si>
+  <si>
+    <t>blue workout pant</t>
+  </si>
+  <si>
+    <t>black workout tight</t>
+  </si>
+  <si>
+    <t>blue 2 piece set</t>
+  </si>
+  <si>
+    <t>matching crop top pant set</t>
+  </si>
+  <si>
+    <t>black winter outfit</t>
+  </si>
+  <si>
+    <t>winter workout pant</t>
+  </si>
+  <si>
+    <t>2 piece pant outfit</t>
+  </si>
+  <si>
+    <t>black tight set</t>
+  </si>
+  <si>
+    <t>black winter tight</t>
+  </si>
+  <si>
+    <t>black tight pant</t>
+  </si>
+  <si>
+    <t>2 piece matching pant set</t>
+  </si>
+  <si>
+    <t>size top</t>
+  </si>
+  <si>
+    <t>winter crop</t>
+  </si>
+  <si>
+    <t>winter yoga top</t>
+  </si>
+  <si>
+    <t>seamless ribbed crop top</t>
+  </si>
+  <si>
+    <t>top with legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless</t>
+  </si>
+  <si>
+    <t>legging size small</t>
+  </si>
+  <si>
+    <t>pink long</t>
+  </si>
+  <si>
+    <t>pink seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed workout top</t>
+  </si>
+  <si>
+    <t>small legging</t>
+  </si>
+  <si>
+    <t>pink 2 piece</t>
+  </si>
+  <si>
+    <t>ribbed workout legging</t>
+  </si>
+  <si>
+    <t>pink workout legging</t>
+  </si>
+  <si>
+    <t>pink yoga legging</t>
+  </si>
+  <si>
+    <t>fashionable pant</t>
+  </si>
+  <si>
+    <t>black suit set woman</t>
+  </si>
+  <si>
+    <t>woman clothe jogger</t>
+  </si>
+  <si>
+    <t>suit piece woman</t>
+  </si>
+  <si>
+    <t>clothe woman crop top</t>
+  </si>
+  <si>
+    <t>workout clothe woman pant</t>
+  </si>
+  <si>
+    <t>suit clothe</t>
+  </si>
+  <si>
+    <t>high top pant woman</t>
+  </si>
+  <si>
+    <t>black pant set woman</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
+  </si>
+  <si>
+    <t>2 piece pant woman</t>
+  </si>
+  <si>
+    <t>black apparel woman</t>
+  </si>
+  <si>
+    <t>green black clothe</t>
+  </si>
+  <si>
+    <t>crop top suit woman</t>
+  </si>
+  <si>
+    <t>waist black</t>
+  </si>
+  <si>
+    <t>suit top woman</t>
+  </si>
+  <si>
+    <t>black set woman</t>
+  </si>
+  <si>
+    <t>small pant woman</t>
+  </si>
+  <si>
+    <t>green pant woman high waist</t>
+  </si>
+  <si>
+    <t>green jogger set woman</t>
+  </si>
+  <si>
+    <t>workout pant set</t>
+  </si>
+  <si>
+    <t>workout jogger pant</t>
+  </si>
+  <si>
+    <t>fashionable jogger woman</t>
+  </si>
+  <si>
+    <t>crop workout pant</t>
+  </si>
+  <si>
+    <t>crop set woman</t>
+  </si>
+  <si>
+    <t>black jogger suit woman</t>
+  </si>
+  <si>
+    <t>woman apparel top</t>
+  </si>
+  <si>
+    <t>suit 2</t>
+  </si>
+  <si>
+    <t>small green</t>
+  </si>
+  <si>
+    <t>small crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger pant</t>
+  </si>
+  <si>
+    <t>black crop woman</t>
+  </si>
+  <si>
+    <t>2 piece pant</t>
+  </si>
+  <si>
+    <t>crop jogger set woman</t>
   </si>
 </sst>
 </file>
@@ -247,18 +373,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -534,306 +649,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064D93E-4DB9-4CEF-BF91-5734F129A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC48F86-7803-4840-BB6F-E217908D040C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,306 +25,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>small pink</t>
-  </si>
-  <si>
-    <t>winter work</t>
-  </si>
-  <si>
-    <t>pink legging</t>
-  </si>
-  <si>
-    <t>winter two piece outfit</t>
-  </si>
-  <si>
-    <t>crop pant</t>
-  </si>
-  <si>
-    <t>exercise legging</t>
-  </si>
-  <si>
-    <t>work out gym</t>
-  </si>
-  <si>
-    <t>matching top</t>
-  </si>
-  <si>
-    <t>matching pant</t>
-  </si>
-  <si>
-    <t>high waist black</t>
-  </si>
-  <si>
-    <t>compression tight</t>
-  </si>
-  <si>
-    <t>small black top</t>
-  </si>
-  <si>
-    <t>winter work shirt</t>
-  </si>
-  <si>
-    <t>woman black</t>
-  </si>
-  <si>
-    <t>green jogger</t>
-  </si>
-  <si>
-    <t>black athletic</t>
-  </si>
-  <si>
-    <t>sport clothe</t>
-  </si>
-  <si>
-    <t>small woman</t>
-  </si>
-  <si>
-    <t>woman clothe</t>
-  </si>
-  <si>
-    <t>green sleeve</t>
-  </si>
-  <si>
-    <t>green crop</t>
-  </si>
-  <si>
-    <t>black tight</t>
-  </si>
-  <si>
-    <t>green legging</t>
-  </si>
-  <si>
-    <t>winter tight</t>
-  </si>
-  <si>
-    <t>yoga waist legging</t>
-  </si>
-  <si>
-    <t>small set</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>2 woman</t>
-  </si>
-  <si>
-    <t>black sport legging</t>
-  </si>
-  <si>
-    <t>apparel size</t>
-  </si>
-  <si>
-    <t>long jogger</t>
-  </si>
-  <si>
-    <t>long legging</t>
-  </si>
-  <si>
-    <t>small piece</t>
-  </si>
-  <si>
-    <t>workout jogger</t>
-  </si>
-  <si>
-    <t>pant suit woman</t>
-  </si>
-  <si>
-    <t>gym legging</t>
-  </si>
-  <si>
-    <t>blue legging</t>
-  </si>
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>woman high waist</t>
-  </si>
-  <si>
-    <t>workout sleeve</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>long yoga top</t>
-  </si>
-  <si>
-    <t>woman set</t>
-  </si>
-  <si>
-    <t>long crop</t>
-  </si>
-  <si>
-    <t>small top</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black jogger pant</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>blue crop</t>
-  </si>
-  <si>
-    <t>black workout pant</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>winter sleeve</t>
-  </si>
-  <si>
-    <t>soft set</t>
-  </si>
-  <si>
-    <t>long sleeve two piece outfit</t>
-  </si>
-  <si>
-    <t>black suit woman</t>
-  </si>
-  <si>
-    <t>green black crop top</t>
-  </si>
-  <si>
-    <t>green matching set</t>
-  </si>
-  <si>
-    <t>long sleeve workout set</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>black workout set</t>
-  </si>
-  <si>
-    <t>long sleeve matching set</t>
-  </si>
-  <si>
-    <t>workout crop top set</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>crop jogger set</t>
-  </si>
-  <si>
-    <t>blue matching set</t>
-  </si>
-  <si>
-    <t>soft crop top</t>
-  </si>
-  <si>
-    <t>jogger crop top set</t>
-  </si>
-  <si>
-    <t>pink out outfit</t>
-  </si>
-  <si>
-    <t>soft long sleeve</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>black winter top</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>black fitness</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>blue workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>seamless set</t>
-  </si>
-  <si>
-    <t>piece long</t>
-  </si>
-  <si>
-    <t>two piece athletic set</t>
-  </si>
-  <si>
-    <t>apparel clothing</t>
-  </si>
-  <si>
-    <t>outfit winter</t>
-  </si>
-  <si>
-    <t>long sleeve workout shirt</t>
-  </si>
-  <si>
-    <t>black yoga</t>
-  </si>
-  <si>
-    <t>shirt sleeve</t>
-  </si>
-  <si>
-    <t>top woman</t>
-  </si>
-  <si>
-    <t>turquoise leggings</t>
-  </si>
-  <si>
-    <t>ribbed leggings</t>
-  </si>
-  <si>
-    <t>workout clothes for women gym</t>
-  </si>
-  <si>
-    <t>ready set</t>
-  </si>
-  <si>
-    <t>workout outfits for women</t>
-  </si>
-  <si>
-    <t>workout clothes</t>
-  </si>
-  <si>
-    <t>workout shirts</t>
-  </si>
-  <si>
-    <t>gym clothes for women</t>
-  </si>
-  <si>
-    <t>gym outfits for women</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>pink victoria secret</t>
+  </si>
+  <si>
+    <t>crop workout</t>
+  </si>
+  <si>
+    <t>2 pieces outfit for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits 2 piece</t>
+  </si>
+  <si>
+    <t>womens workout sets 2 piece</t>
+  </si>
+  <si>
+    <t>legging outfits</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>gym workout clothes women</t>
+  </si>
+  <si>
+    <t>workout clothes women plus size</t>
+  </si>
+  <si>
+    <t>crop leggings</t>
+  </si>
+  <si>
+    <t>retro workout clothes women</t>
+  </si>
+  <si>
+    <t>winter workout clothes for women</t>
+  </si>
+  <si>
+    <t>woman gym shirt</t>
+  </si>
+  <si>
+    <t>women bodybuilding clothes</t>
+  </si>
+  <si>
+    <t>womens yoga gym crop top compression</t>
+  </si>
+  <si>
+    <t>nike workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes women</t>
+  </si>
+  <si>
+    <t>gym clothes</t>
+  </si>
+  <si>
+    <t>bodybuilding clothes for women</t>
+  </si>
+  <si>
+    <t>nike workout clothes for women plus size</t>
+  </si>
+  <si>
+    <t>gym outfits for women 2 piece</t>
+  </si>
+  <si>
+    <t>woman gym clothes</t>
+  </si>
+  <si>
+    <t>ribbed yoga leggings</t>
+  </si>
+  <si>
+    <t>crossfit workout clothes women</t>
+  </si>
+  <si>
+    <t>2pc workout clothes for women</t>
+  </si>
+  <si>
+    <t>sports clothes</t>
+  </si>
+  <si>
+    <t>clothes sport</t>
+  </si>
+  <si>
+    <t>zella workout clothes womens</t>
+  </si>
+  <si>
+    <t>clothes for women gym</t>
+  </si>
+  <si>
+    <t>2 piece gym outfits for women</t>
+  </si>
+  <si>
+    <t>womens gym clothes</t>
+  </si>
+  <si>
+    <t>bodybuilding workout shirt</t>
+  </si>
+  <si>
+    <t>gap workout clothes for women</t>
+  </si>
+  <si>
+    <t>muslim workout clothes for women</t>
+  </si>
+  <si>
+    <t>women in clothes</t>
+  </si>
+  <si>
+    <t>gym body suit</t>
+  </si>
+  <si>
+    <t>disney workout clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece shirts</t>
+  </si>
+  <si>
+    <t>womens bodybuilding clothing</t>
+  </si>
+  <si>
+    <t>black workout clothes</t>
+  </si>
+  <si>
+    <t>womens sports clothes</t>
+  </si>
+  <si>
+    <t>womens sports outfits</t>
+  </si>
+  <si>
+    <t>new balance workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women xxl</t>
+  </si>
+  <si>
+    <t>asics workout clothes for women</t>
+  </si>
+  <si>
+    <t>halloween workout clothes women</t>
+  </si>
+  <si>
+    <t>calia workout clothes for women</t>
+  </si>
+  <si>
+    <t>second skin workout clothes women</t>
+  </si>
+  <si>
+    <t>clearence workout clothes for women</t>
+  </si>
+  <si>
+    <t>mission workout clothes for women</t>
+  </si>
+  <si>
+    <t>shirt for women leggings</t>
+  </si>
+  <si>
+    <t>turquoise tracksuit women</t>
+  </si>
+  <si>
+    <t>summer workout clothes for women</t>
+  </si>
+  <si>
+    <t>gym sets for women 2 piece</t>
   </si>
 </sst>
 </file>
@@ -649,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,236 +789,6 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC48F86-7803-4840-BB6F-E217908D040C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,168 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t>pink victoria secret</t>
-  </si>
-  <si>
-    <t>crop workout</t>
-  </si>
-  <si>
-    <t>2 pieces outfit for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
-  </si>
-  <si>
-    <t>legging outfits</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>gym workout clothes women</t>
-  </si>
-  <si>
-    <t>workout clothes women plus size</t>
-  </si>
-  <si>
-    <t>crop leggings</t>
-  </si>
-  <si>
-    <t>retro workout clothes women</t>
-  </si>
-  <si>
-    <t>winter workout clothes for women</t>
-  </si>
-  <si>
-    <t>woman gym shirt</t>
-  </si>
-  <si>
-    <t>women bodybuilding clothes</t>
-  </si>
-  <si>
-    <t>womens yoga gym crop top compression</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes women</t>
-  </si>
-  <si>
-    <t>gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding clothes for women</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women plus size</t>
-  </si>
-  <si>
-    <t>gym outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>woman gym clothes</t>
-  </si>
-  <si>
-    <t>ribbed yoga leggings</t>
-  </si>
-  <si>
-    <t>crossfit workout clothes women</t>
-  </si>
-  <si>
-    <t>2pc workout clothes for women</t>
-  </si>
-  <si>
-    <t>sports clothes</t>
-  </si>
-  <si>
-    <t>clothes sport</t>
-  </si>
-  <si>
-    <t>zella workout clothes womens</t>
-  </si>
-  <si>
-    <t>clothes for women gym</t>
-  </si>
-  <si>
-    <t>2 piece gym outfits for women</t>
-  </si>
-  <si>
-    <t>womens gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding workout shirt</t>
-  </si>
-  <si>
-    <t>gap workout clothes for women</t>
-  </si>
-  <si>
-    <t>muslim workout clothes for women</t>
-  </si>
-  <si>
-    <t>women in clothes</t>
-  </si>
-  <si>
-    <t>gym body suit</t>
-  </si>
-  <si>
-    <t>disney workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece shirts</t>
-  </si>
-  <si>
-    <t>womens bodybuilding clothing</t>
-  </si>
-  <si>
-    <t>black workout clothes</t>
-  </si>
-  <si>
-    <t>womens sports clothes</t>
-  </si>
-  <si>
-    <t>womens sports outfits</t>
-  </si>
-  <si>
-    <t>new balance workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women xxl</t>
-  </si>
-  <si>
-    <t>asics workout clothes for women</t>
-  </si>
-  <si>
-    <t>halloween workout clothes women</t>
-  </si>
-  <si>
-    <t>calia workout clothes for women</t>
-  </si>
-  <si>
-    <t>second skin workout clothes women</t>
-  </si>
-  <si>
-    <t>clearence workout clothes for women</t>
-  </si>
-  <si>
-    <t>mission workout clothes for women</t>
-  </si>
-  <si>
-    <t>shirt for women leggings</t>
-  </si>
-  <si>
-    <t>turquoise tracksuit women</t>
-  </si>
-  <si>
-    <t>summer workout clothes for women</t>
-  </si>
-  <si>
-    <t>gym sets for women 2 piece</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -511,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,6 +927,236 @@
         <v>53</v>
       </c>
     </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064D93E-4DB9-4CEF-BF91-5734F129A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009EF2A4-4455-49C2-BF6E-5BC34124A55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,306 +25,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>small pink</t>
-  </si>
-  <si>
-    <t>winter work</t>
-  </si>
-  <si>
-    <t>pink legging</t>
-  </si>
-  <si>
-    <t>winter two piece outfit</t>
-  </si>
-  <si>
-    <t>crop pant</t>
-  </si>
-  <si>
-    <t>exercise legging</t>
-  </si>
-  <si>
-    <t>work out gym</t>
-  </si>
-  <si>
-    <t>matching top</t>
-  </si>
-  <si>
-    <t>matching pant</t>
-  </si>
-  <si>
-    <t>high waist black</t>
-  </si>
-  <si>
-    <t>compression tight</t>
-  </si>
-  <si>
-    <t>small black top</t>
-  </si>
-  <si>
-    <t>winter work shirt</t>
-  </si>
-  <si>
-    <t>woman black</t>
-  </si>
-  <si>
-    <t>green jogger</t>
-  </si>
-  <si>
-    <t>black athletic</t>
-  </si>
-  <si>
-    <t>sport clothe</t>
-  </si>
-  <si>
-    <t>small woman</t>
-  </si>
-  <si>
-    <t>woman clothe</t>
-  </si>
-  <si>
-    <t>green sleeve</t>
-  </si>
-  <si>
-    <t>green crop</t>
-  </si>
-  <si>
-    <t>black tight</t>
-  </si>
-  <si>
-    <t>green legging</t>
-  </si>
-  <si>
-    <t>winter tight</t>
-  </si>
-  <si>
-    <t>yoga waist legging</t>
-  </si>
-  <si>
-    <t>small set</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>2 woman</t>
-  </si>
-  <si>
-    <t>black sport legging</t>
-  </si>
-  <si>
-    <t>apparel size</t>
-  </si>
-  <si>
-    <t>long jogger</t>
-  </si>
-  <si>
-    <t>long legging</t>
-  </si>
-  <si>
-    <t>small piece</t>
-  </si>
-  <si>
-    <t>workout jogger</t>
-  </si>
-  <si>
-    <t>pant suit woman</t>
-  </si>
-  <si>
-    <t>gym legging</t>
-  </si>
-  <si>
-    <t>blue legging</t>
-  </si>
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>woman high waist</t>
-  </si>
-  <si>
-    <t>workout sleeve</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>long yoga top</t>
-  </si>
-  <si>
-    <t>woman set</t>
-  </si>
-  <si>
-    <t>long crop</t>
-  </si>
-  <si>
-    <t>small top</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black jogger pant</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>blue crop</t>
-  </si>
-  <si>
-    <t>black workout pant</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>winter sleeve</t>
-  </si>
-  <si>
-    <t>soft set</t>
-  </si>
-  <si>
-    <t>long sleeve two piece outfit</t>
-  </si>
-  <si>
-    <t>black suit woman</t>
-  </si>
-  <si>
-    <t>green black crop top</t>
-  </si>
-  <si>
-    <t>green matching set</t>
-  </si>
-  <si>
-    <t>long sleeve workout set</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>black workout set</t>
-  </si>
-  <si>
-    <t>long sleeve matching set</t>
-  </si>
-  <si>
-    <t>workout crop top set</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>crop jogger set</t>
-  </si>
-  <si>
-    <t>blue matching set</t>
-  </si>
-  <si>
-    <t>soft crop top</t>
-  </si>
-  <si>
-    <t>jogger crop top set</t>
-  </si>
-  <si>
-    <t>pink out outfit</t>
-  </si>
-  <si>
-    <t>soft long sleeve</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>black winter top</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>black fitness</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>blue workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>seamless set</t>
-  </si>
-  <si>
-    <t>piece long</t>
-  </si>
-  <si>
-    <t>two piece athletic set</t>
-  </si>
-  <si>
-    <t>apparel clothing</t>
-  </si>
-  <si>
-    <t>outfit winter</t>
-  </si>
-  <si>
-    <t>long sleeve workout shirt</t>
-  </si>
-  <si>
-    <t>black yoga</t>
-  </si>
-  <si>
-    <t>shirt sleeve</t>
-  </si>
-  <si>
-    <t>top woman</t>
-  </si>
-  <si>
-    <t>turquoise leggings</t>
-  </si>
-  <si>
-    <t>ribbed leggings</t>
-  </si>
-  <si>
-    <t>workout clothes for women gym</t>
-  </si>
-  <si>
-    <t>ready set</t>
-  </si>
-  <si>
-    <t>workout outfits for women</t>
-  </si>
-  <si>
-    <t>workout clothes</t>
-  </si>
-  <si>
-    <t>workout shirts</t>
-  </si>
-  <si>
-    <t>gym clothes for women</t>
-  </si>
-  <si>
-    <t>gym outfits for women</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>pink victoria secret</t>
+  </si>
+  <si>
+    <t>crop workout</t>
+  </si>
+  <si>
+    <t>2 pieces outfit for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits 2 piece</t>
+  </si>
+  <si>
+    <t>womens workout sets 2 piece</t>
+  </si>
+  <si>
+    <t>legging outfits</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>gym workout clothes women</t>
+  </si>
+  <si>
+    <t>workout clothes women plus size</t>
+  </si>
+  <si>
+    <t>crop leggings</t>
+  </si>
+  <si>
+    <t>retro workout clothes women</t>
+  </si>
+  <si>
+    <t>winter workout clothes for women</t>
+  </si>
+  <si>
+    <t>woman gym shirt</t>
+  </si>
+  <si>
+    <t>women bodybuilding clothes</t>
+  </si>
+  <si>
+    <t>womens yoga gym crop top compression</t>
+  </si>
+  <si>
+    <t>nike workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes women</t>
+  </si>
+  <si>
+    <t>gym clothes</t>
+  </si>
+  <si>
+    <t>bodybuilding clothes for women</t>
+  </si>
+  <si>
+    <t>nike workout clothes for women plus size</t>
+  </si>
+  <si>
+    <t>gym outfits for women 2 piece</t>
+  </si>
+  <si>
+    <t>woman gym clothes</t>
+  </si>
+  <si>
+    <t>ribbed yoga leggings</t>
+  </si>
+  <si>
+    <t>crossfit workout clothes women</t>
+  </si>
+  <si>
+    <t>2pc workout clothes for women</t>
+  </si>
+  <si>
+    <t>sports clothes</t>
+  </si>
+  <si>
+    <t>clothes sport</t>
+  </si>
+  <si>
+    <t>zella workout clothes womens</t>
+  </si>
+  <si>
+    <t>clothes for women gym</t>
+  </si>
+  <si>
+    <t>2 piece gym outfits for women</t>
+  </si>
+  <si>
+    <t>womens gym clothes</t>
+  </si>
+  <si>
+    <t>bodybuilding workout shirt</t>
+  </si>
+  <si>
+    <t>gap workout clothes for women</t>
+  </si>
+  <si>
+    <t>muslim workout clothes for women</t>
+  </si>
+  <si>
+    <t>women in clothes</t>
+  </si>
+  <si>
+    <t>gym body suit</t>
+  </si>
+  <si>
+    <t>disney workout clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece shirts</t>
+  </si>
+  <si>
+    <t>womens bodybuilding clothing</t>
+  </si>
+  <si>
+    <t>black workout clothes</t>
+  </si>
+  <si>
+    <t>womens sports clothes</t>
+  </si>
+  <si>
+    <t>womens sports outfits</t>
+  </si>
+  <si>
+    <t>new balance workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women xxl</t>
+  </si>
+  <si>
+    <t>asics workout clothes for women</t>
+  </si>
+  <si>
+    <t>halloween workout clothes women</t>
+  </si>
+  <si>
+    <t>calia workout clothes for women</t>
+  </si>
+  <si>
+    <t>second skin workout clothes women</t>
+  </si>
+  <si>
+    <t>clearence workout clothes for women</t>
+  </si>
+  <si>
+    <t>mission workout clothes for women</t>
+  </si>
+  <si>
+    <t>shirt for women leggings</t>
+  </si>
+  <si>
+    <t>turquoise tracksuit women</t>
+  </si>
+  <si>
+    <t>summer workout clothes for women</t>
+  </si>
+  <si>
+    <t>gym sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>workout women clothes</t>
+  </si>
+  <si>
+    <t>black crop leggings for women</t>
+  </si>
+  <si>
+    <t>pink jogging suits for women</t>
+  </si>
+  <si>
+    <t>women clothes sport</t>
+  </si>
+  <si>
+    <t>black legging shirt</t>
+  </si>
+  <si>
+    <t>women gym shirts</t>
+  </si>
+  <si>
+    <t>super hero workout clothes for women</t>
+  </si>
+  <si>
+    <t>camo workout clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece workout sets for women</t>
+  </si>
+  <si>
+    <t>sport outfits</t>
+  </si>
+  <si>
+    <t>workout clothes for women mesh</t>
+  </si>
+  <si>
+    <t>workout clothes for women xl</t>
+  </si>
+  <si>
+    <t>maternity workout clothes for women</t>
+  </si>
+  <si>
+    <t>zip up body suits for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop top fitness</t>
+  </si>
+  <si>
+    <t>inspirational workout clothes for women</t>
+  </si>
+  <si>
+    <t>nike pro workout clothes for women</t>
+  </si>
+  <si>
+    <t>shop clothes for woman</t>
+  </si>
+  <si>
+    <t>matching workout clothes for women</t>
+  </si>
+  <si>
+    <t>work out tops</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece pants</t>
+  </si>
+  <si>
+    <t>workout clothes for women 2 piece</t>
   </si>
 </sst>
 </file>
@@ -649,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,126 +965,6 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009EF2A4-4455-49C2-BF6E-5BC34124A55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,234 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>pink victoria secret</t>
-  </si>
-  <si>
-    <t>crop workout</t>
-  </si>
-  <si>
-    <t>2 pieces outfit for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
-  </si>
-  <si>
-    <t>legging outfits</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>gym workout clothes women</t>
-  </si>
-  <si>
-    <t>workout clothes women plus size</t>
-  </si>
-  <si>
-    <t>crop leggings</t>
-  </si>
-  <si>
-    <t>retro workout clothes women</t>
-  </si>
-  <si>
-    <t>winter workout clothes for women</t>
-  </si>
-  <si>
-    <t>woman gym shirt</t>
-  </si>
-  <si>
-    <t>women bodybuilding clothes</t>
-  </si>
-  <si>
-    <t>womens yoga gym crop top compression</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes women</t>
-  </si>
-  <si>
-    <t>gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding clothes for women</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women plus size</t>
-  </si>
-  <si>
-    <t>gym outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>woman gym clothes</t>
-  </si>
-  <si>
-    <t>ribbed yoga leggings</t>
-  </si>
-  <si>
-    <t>crossfit workout clothes women</t>
-  </si>
-  <si>
-    <t>2pc workout clothes for women</t>
-  </si>
-  <si>
-    <t>sports clothes</t>
-  </si>
-  <si>
-    <t>clothes sport</t>
-  </si>
-  <si>
-    <t>zella workout clothes womens</t>
-  </si>
-  <si>
-    <t>clothes for women gym</t>
-  </si>
-  <si>
-    <t>2 piece gym outfits for women</t>
-  </si>
-  <si>
-    <t>womens gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding workout shirt</t>
-  </si>
-  <si>
-    <t>gap workout clothes for women</t>
-  </si>
-  <si>
-    <t>muslim workout clothes for women</t>
-  </si>
-  <si>
-    <t>women in clothes</t>
-  </si>
-  <si>
-    <t>gym body suit</t>
-  </si>
-  <si>
-    <t>disney workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece shirts</t>
-  </si>
-  <si>
-    <t>womens bodybuilding clothing</t>
-  </si>
-  <si>
-    <t>black workout clothes</t>
-  </si>
-  <si>
-    <t>womens sports clothes</t>
-  </si>
-  <si>
-    <t>womens sports outfits</t>
-  </si>
-  <si>
-    <t>new balance workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women xxl</t>
-  </si>
-  <si>
-    <t>asics workout clothes for women</t>
-  </si>
-  <si>
-    <t>halloween workout clothes women</t>
-  </si>
-  <si>
-    <t>calia workout clothes for women</t>
-  </si>
-  <si>
-    <t>second skin workout clothes women</t>
-  </si>
-  <si>
-    <t>clearence workout clothes for women</t>
-  </si>
-  <si>
-    <t>mission workout clothes for women</t>
-  </si>
-  <si>
-    <t>shirt for women leggings</t>
-  </si>
-  <si>
-    <t>turquoise tracksuit women</t>
-  </si>
-  <si>
-    <t>summer workout clothes for women</t>
-  </si>
-  <si>
-    <t>gym sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout women clothes</t>
-  </si>
-  <si>
-    <t>black crop leggings for women</t>
-  </si>
-  <si>
-    <t>pink jogging suits for women</t>
-  </si>
-  <si>
-    <t>women clothes sport</t>
-  </si>
-  <si>
-    <t>black legging shirt</t>
-  </si>
-  <si>
-    <t>women gym shirts</t>
-  </si>
-  <si>
-    <t>super hero workout clothes for women</t>
-  </si>
-  <si>
-    <t>camo workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>sport outfits</t>
-  </si>
-  <si>
-    <t>workout clothes for women mesh</t>
-  </si>
-  <si>
-    <t>workout clothes for women xl</t>
-  </si>
-  <si>
-    <t>maternity workout clothes for women</t>
-  </si>
-  <si>
-    <t>zip up body suits for women</t>
-  </si>
-  <si>
-    <t>long sleeve crop top fitness</t>
-  </si>
-  <si>
-    <t>inspirational workout clothes for women</t>
-  </si>
-  <si>
-    <t>nike pro workout clothes for women</t>
-  </si>
-  <si>
-    <t>shop clothes for woman</t>
-  </si>
-  <si>
-    <t>matching workout clothes for women</t>
-  </si>
-  <si>
-    <t>work out tops</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece pants</t>
-  </si>
-  <si>
-    <t>workout clothes for women 2 piece</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -577,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,6 +1037,126 @@
         <v>75</v>
       </c>
     </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235850D4-6BF2-4661-838F-3CFA81A34F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064D93E-4DB9-4CEF-BF91-5734F129A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,99 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>cheap clothes</t>
-  </si>
-  <si>
-    <t>sport women clothes</t>
-  </si>
-  <si>
-    <t>shirts for women clearance</t>
-  </si>
-  <si>
-    <t>black sweaters</t>
-  </si>
-  <si>
-    <t>work outfits for women gym set</t>
-  </si>
-  <si>
-    <t>joggers for women high waist set</t>
-  </si>
-  <si>
-    <t>black athletic leggings for women</t>
-  </si>
-  <si>
-    <t>workout sweater</t>
-  </si>
-  <si>
-    <t>2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>black shirt women</t>
-  </si>
-  <si>
-    <t>leggings set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweaters</t>
-  </si>
-  <si>
-    <t>black out contacts</t>
-  </si>
-  <si>
-    <t>tracksuit for women</t>
-  </si>
-  <si>
-    <t>women workout clothes</t>
-  </si>
-  <si>
-    <t>blue outfits for women</t>
-  </si>
-  <si>
-    <t>womens gym shirts</t>
-  </si>
-  <si>
-    <t>workout womens leggings</t>
-  </si>
-  <si>
-    <t>sexy leggings for women</t>
-  </si>
-  <si>
-    <t>sexy suit</t>
-  </si>
-  <si>
-    <t>exercise clothes for women</t>
-  </si>
-  <si>
-    <t>black 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>black sweater women</t>
-  </si>
-  <si>
-    <t>womens workout</t>
-  </si>
-  <si>
-    <t>blue body suit</t>
-  </si>
-  <si>
-    <t>black sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>turquoise tights</t>
-  </si>
-  <si>
-    <t>big black clothing</t>
-  </si>
-  <si>
-    <t>gym outfits for women set</t>
-  </si>
-  <si>
-    <t>ribbed workout set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>small pink</t>
+  </si>
+  <si>
+    <t>winter work</t>
+  </si>
+  <si>
+    <t>pink legging</t>
+  </si>
+  <si>
+    <t>winter two piece outfit</t>
+  </si>
+  <si>
+    <t>crop pant</t>
+  </si>
+  <si>
+    <t>exercise legging</t>
+  </si>
+  <si>
+    <t>work out gym</t>
+  </si>
+  <si>
+    <t>matching top</t>
+  </si>
+  <si>
+    <t>matching pant</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>compression tight</t>
+  </si>
+  <si>
+    <t>small black top</t>
+  </si>
+  <si>
+    <t>winter work shirt</t>
+  </si>
+  <si>
+    <t>woman black</t>
+  </si>
+  <si>
+    <t>green jogger</t>
+  </si>
+  <si>
+    <t>black athletic</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>small woman</t>
+  </si>
+  <si>
+    <t>woman clothe</t>
+  </si>
+  <si>
+    <t>green sleeve</t>
+  </si>
+  <si>
+    <t>green crop</t>
+  </si>
+  <si>
+    <t>black tight</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>winter tight</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>small set</t>
+  </si>
+  <si>
+    <t>legging outfit set</t>
+  </si>
+  <si>
+    <t>2 woman</t>
+  </si>
+  <si>
+    <t>black sport legging</t>
+  </si>
+  <si>
+    <t>apparel size</t>
+  </si>
+  <si>
+    <t>long jogger</t>
+  </si>
+  <si>
+    <t>long legging</t>
+  </si>
+  <si>
+    <t>small piece</t>
+  </si>
+  <si>
+    <t>workout jogger</t>
+  </si>
+  <si>
+    <t>pant suit woman</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>blue legging</t>
+  </si>
+  <si>
+    <t>blue tight</t>
+  </si>
+  <si>
+    <t>woman high waist</t>
+  </si>
+  <si>
+    <t>workout sleeve</t>
+  </si>
+  <si>
+    <t>fashion jogger</t>
+  </si>
+  <si>
+    <t>yoga tight</t>
+  </si>
+  <si>
+    <t>long yoga top</t>
+  </si>
+  <si>
+    <t>woman set</t>
+  </si>
+  <si>
+    <t>long crop</t>
+  </si>
+  <si>
+    <t>small top</t>
+  </si>
+  <si>
+    <t>work sleeve</t>
+  </si>
+  <si>
+    <t>black jogger pant</t>
+  </si>
+  <si>
+    <t>black athletic legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>blue crop</t>
+  </si>
+  <si>
+    <t>black workout pant</t>
+  </si>
+  <si>
+    <t>ribbed legging</t>
+  </si>
+  <si>
+    <t>winter sleeve</t>
+  </si>
+  <si>
+    <t>soft set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfit</t>
+  </si>
+  <si>
+    <t>black suit woman</t>
+  </si>
+  <si>
+    <t>green black crop top</t>
+  </si>
+  <si>
+    <t>green matching set</t>
+  </si>
+  <si>
+    <t>long sleeve workout set</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>long sleeve matching set</t>
+  </si>
+  <si>
+    <t>workout crop top set</t>
+  </si>
+  <si>
+    <t>2 soft</t>
+  </si>
+  <si>
+    <t>crop jogger set</t>
+  </si>
+  <si>
+    <t>blue matching set</t>
+  </si>
+  <si>
+    <t>soft crop top</t>
+  </si>
+  <si>
+    <t>jogger crop top set</t>
+  </si>
+  <si>
+    <t>pink out outfit</t>
+  </si>
+  <si>
+    <t>soft long sleeve</t>
+  </si>
+  <si>
+    <t>jogger woman</t>
+  </si>
+  <si>
+    <t>black winter top</t>
+  </si>
+  <si>
+    <t>2 piece set woman</t>
+  </si>
+  <si>
+    <t>black fitness</t>
+  </si>
+  <si>
+    <t>soft legging</t>
+  </si>
+  <si>
+    <t>soft top</t>
+  </si>
+  <si>
+    <t>black pant</t>
+  </si>
+  <si>
+    <t>seamless crop top workout</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>blue workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>piece long</t>
+  </si>
+  <si>
+    <t>two piece athletic set</t>
+  </si>
+  <si>
+    <t>apparel clothing</t>
+  </si>
+  <si>
+    <t>outfit winter</t>
+  </si>
+  <si>
+    <t>long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>black yoga</t>
+  </si>
+  <si>
+    <t>shirt sleeve</t>
+  </si>
+  <si>
+    <t>top woman</t>
+  </si>
+  <si>
+    <t>turquoise leggings</t>
+  </si>
+  <si>
+    <t>ribbed leggings</t>
+  </si>
+  <si>
+    <t>workout clothes for women gym</t>
+  </si>
+  <si>
+    <t>ready set</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>workout clothes</t>
+  </si>
+  <si>
+    <t>workout shirts</t>
+  </si>
+  <si>
+    <t>gym clothes for women</t>
+  </si>
+  <si>
+    <t>gym outfits for women</t>
   </si>
 </sst>
 </file>
@@ -442,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,6 +812,351 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064D93E-4DB9-4CEF-BF91-5734F129A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F0B1B-EA5B-46D9-851B-07F0DCEA4424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>small pink</t>
-  </si>
-  <si>
-    <t>winter work</t>
-  </si>
-  <si>
-    <t>pink legging</t>
-  </si>
-  <si>
-    <t>winter two piece outfit</t>
-  </si>
-  <si>
-    <t>crop pant</t>
-  </si>
-  <si>
-    <t>exercise legging</t>
-  </si>
-  <si>
-    <t>work out gym</t>
-  </si>
-  <si>
-    <t>matching top</t>
-  </si>
-  <si>
-    <t>matching pant</t>
-  </si>
-  <si>
-    <t>high waist black</t>
-  </si>
-  <si>
-    <t>compression tight</t>
-  </si>
-  <si>
-    <t>small black top</t>
-  </si>
-  <si>
-    <t>winter work shirt</t>
-  </si>
-  <si>
-    <t>woman black</t>
-  </si>
-  <si>
-    <t>green jogger</t>
-  </si>
-  <si>
-    <t>black athletic</t>
-  </si>
-  <si>
-    <t>sport clothe</t>
-  </si>
-  <si>
-    <t>small woman</t>
-  </si>
-  <si>
-    <t>woman clothe</t>
-  </si>
-  <si>
-    <t>green sleeve</t>
-  </si>
-  <si>
-    <t>green crop</t>
-  </si>
-  <si>
-    <t>black tight</t>
-  </si>
-  <si>
-    <t>green legging</t>
-  </si>
-  <si>
-    <t>winter tight</t>
-  </si>
-  <si>
-    <t>yoga waist legging</t>
-  </si>
-  <si>
-    <t>small set</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>2 woman</t>
-  </si>
-  <si>
-    <t>black sport legging</t>
-  </si>
-  <si>
-    <t>apparel size</t>
-  </si>
-  <si>
-    <t>long jogger</t>
-  </si>
-  <si>
-    <t>long legging</t>
-  </si>
-  <si>
-    <t>small piece</t>
-  </si>
-  <si>
-    <t>workout jogger</t>
-  </si>
-  <si>
-    <t>pant suit woman</t>
-  </si>
-  <si>
-    <t>gym legging</t>
-  </si>
-  <si>
-    <t>blue legging</t>
-  </si>
-  <si>
-    <t>blue tight</t>
-  </si>
-  <si>
-    <t>woman high waist</t>
-  </si>
-  <si>
-    <t>workout sleeve</t>
-  </si>
-  <si>
-    <t>fashion jogger</t>
-  </si>
-  <si>
-    <t>yoga tight</t>
-  </si>
-  <si>
-    <t>long yoga top</t>
-  </si>
-  <si>
-    <t>woman set</t>
-  </si>
-  <si>
-    <t>long crop</t>
-  </si>
-  <si>
-    <t>small top</t>
-  </si>
-  <si>
-    <t>work sleeve</t>
-  </si>
-  <si>
-    <t>black jogger pant</t>
-  </si>
-  <si>
-    <t>black athletic legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>blue crop</t>
-  </si>
-  <si>
-    <t>black workout pant</t>
-  </si>
-  <si>
-    <t>ribbed legging</t>
-  </si>
-  <si>
-    <t>winter sleeve</t>
-  </si>
-  <si>
-    <t>soft set</t>
-  </si>
-  <si>
-    <t>long sleeve two piece outfit</t>
-  </si>
-  <si>
-    <t>black suit woman</t>
-  </si>
-  <si>
-    <t>green black crop top</t>
-  </si>
-  <si>
-    <t>green matching set</t>
-  </si>
-  <si>
-    <t>long sleeve workout set</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>black workout set</t>
-  </si>
-  <si>
-    <t>long sleeve matching set</t>
-  </si>
-  <si>
-    <t>workout crop top set</t>
-  </si>
-  <si>
-    <t>2 soft</t>
-  </si>
-  <si>
-    <t>crop jogger set</t>
-  </si>
-  <si>
-    <t>blue matching set</t>
-  </si>
-  <si>
-    <t>soft crop top</t>
-  </si>
-  <si>
-    <t>jogger crop top set</t>
-  </si>
-  <si>
-    <t>pink out outfit</t>
-  </si>
-  <si>
-    <t>soft long sleeve</t>
-  </si>
-  <si>
-    <t>jogger woman</t>
-  </si>
-  <si>
-    <t>black winter top</t>
-  </si>
-  <si>
-    <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>black fitness</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>blue workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>seamless set</t>
-  </si>
-  <si>
-    <t>piece long</t>
-  </si>
-  <si>
-    <t>two piece athletic set</t>
-  </si>
-  <si>
-    <t>apparel clothing</t>
-  </si>
-  <si>
-    <t>outfit winter</t>
-  </si>
-  <si>
-    <t>long sleeve workout shirt</t>
-  </si>
-  <si>
-    <t>black yoga</t>
-  </si>
-  <si>
-    <t>shirt sleeve</t>
-  </si>
-  <si>
-    <t>top woman</t>
-  </si>
-  <si>
-    <t>turquoise leggings</t>
-  </si>
-  <si>
-    <t>ribbed leggings</t>
-  </si>
-  <si>
-    <t>workout clothes for women gym</t>
-  </si>
-  <si>
-    <t>ready set</t>
-  </si>
-  <si>
-    <t>workout outfits for women</t>
-  </si>
-  <si>
-    <t>workout clothes</t>
-  </si>
-  <si>
-    <t>workout shirts</t>
-  </si>
-  <si>
-    <t>gym clothes for women</t>
-  </si>
-  <si>
-    <t>gym outfits for women</t>
+    <t>pink victoria secret</t>
+  </si>
+  <si>
+    <t>crop workout</t>
+  </si>
+  <si>
+    <t>2 pieces outfit for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits 2 piece</t>
+  </si>
+  <si>
+    <t>womens workout sets 2 piece</t>
+  </si>
+  <si>
+    <t>legging outfits</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>gym workout clothes women</t>
+  </si>
+  <si>
+    <t>workout clothes women plus size</t>
+  </si>
+  <si>
+    <t>crop leggings</t>
+  </si>
+  <si>
+    <t>retro workout clothes women</t>
+  </si>
+  <si>
+    <t>winter workout clothes for women</t>
+  </si>
+  <si>
+    <t>woman gym shirt</t>
+  </si>
+  <si>
+    <t>women bodybuilding clothes</t>
+  </si>
+  <si>
+    <t>womens yoga gym crop top compression</t>
+  </si>
+  <si>
+    <t>nike workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes women</t>
+  </si>
+  <si>
+    <t>gym clothes</t>
+  </si>
+  <si>
+    <t>bodybuilding clothes for women</t>
+  </si>
+  <si>
+    <t>nike workout clothes for women plus size</t>
+  </si>
+  <si>
+    <t>gym outfits for women 2 piece</t>
+  </si>
+  <si>
+    <t>woman gym clothes</t>
+  </si>
+  <si>
+    <t>ribbed yoga leggings</t>
+  </si>
+  <si>
+    <t>crossfit workout clothes women</t>
+  </si>
+  <si>
+    <t>2pc workout clothes for women</t>
+  </si>
+  <si>
+    <t>sports clothes</t>
+  </si>
+  <si>
+    <t>clothes sport</t>
+  </si>
+  <si>
+    <t>zella workout clothes womens</t>
+  </si>
+  <si>
+    <t>clothes for women gym</t>
+  </si>
+  <si>
+    <t>2 piece gym outfits for women</t>
+  </si>
+  <si>
+    <t>womens gym clothes</t>
+  </si>
+  <si>
+    <t>bodybuilding workout shirt</t>
+  </si>
+  <si>
+    <t>gap workout clothes for women</t>
+  </si>
+  <si>
+    <t>muslim workout clothes for women</t>
+  </si>
+  <si>
+    <t>women in clothes</t>
+  </si>
+  <si>
+    <t>gym body suit</t>
+  </si>
+  <si>
+    <t>disney workout clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece shirts</t>
+  </si>
+  <si>
+    <t>womens bodybuilding clothing</t>
+  </si>
+  <si>
+    <t>black workout clothes</t>
+  </si>
+  <si>
+    <t>womens sports clothes</t>
+  </si>
+  <si>
+    <t>womens sports outfits</t>
+  </si>
+  <si>
+    <t>new balance workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women xxl</t>
+  </si>
+  <si>
+    <t>asics workout clothes for women</t>
+  </si>
+  <si>
+    <t>halloween workout clothes women</t>
+  </si>
+  <si>
+    <t>calia workout clothes for women</t>
+  </si>
+  <si>
+    <t>second skin workout clothes women</t>
+  </si>
+  <si>
+    <t>clearence workout clothes for women</t>
+  </si>
+  <si>
+    <t>mission workout clothes for women</t>
+  </si>
+  <si>
+    <t>shirt for women leggings</t>
+  </si>
+  <si>
+    <t>turquoise tracksuit women</t>
+  </si>
+  <si>
+    <t>summer workout clothes for women</t>
+  </si>
+  <si>
+    <t>gym sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>workout women clothes</t>
+  </si>
+  <si>
+    <t>black crop leggings for women</t>
+  </si>
+  <si>
+    <t>pink jogging suits for women</t>
+  </si>
+  <si>
+    <t>women clothes sport</t>
+  </si>
+  <si>
+    <t>black legging shirt</t>
+  </si>
+  <si>
+    <t>women gym shirts</t>
+  </si>
+  <si>
+    <t>super hero workout clothes for women</t>
+  </si>
+  <si>
+    <t>camo workout clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece workout sets for women</t>
+  </si>
+  <si>
+    <t>sport outfits</t>
+  </si>
+  <si>
+    <t>workout clothes for women mesh</t>
+  </si>
+  <si>
+    <t>workout clothes for women xl</t>
+  </si>
+  <si>
+    <t>maternity workout clothes for women</t>
+  </si>
+  <si>
+    <t>zip up body suits for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop top fitness</t>
+  </si>
+  <si>
+    <t>inspirational workout clothes for women</t>
+  </si>
+  <si>
+    <t>nike pro workout clothes for women</t>
+  </si>
+  <si>
+    <t>shop clothes for woman</t>
+  </si>
+  <si>
+    <t>matching workout clothes for women</t>
+  </si>
+  <si>
+    <t>work out tops</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece pants</t>
+  </si>
+  <si>
+    <t>workout clothes for women 2 piece</t>
+  </si>
+  <si>
+    <t>gym shirts for women</t>
+  </si>
+  <si>
+    <t>sexy workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women plus size</t>
+  </si>
+  <si>
+    <t>womens workout sets</t>
+  </si>
+  <si>
+    <t>blue shirts for women</t>
+  </si>
+  <si>
+    <t>women jogging suit set</t>
+  </si>
+  <si>
+    <t>colorful workout clothes for women</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>workout clothes for women plus</t>
+  </si>
+  <si>
+    <t>shirt and leggings set for women</t>
+  </si>
+  <si>
+    <t>gym clothing for women</t>
+  </si>
+  <si>
+    <t>black clothes</t>
+  </si>
+  <si>
+    <t>workout clothes for women sets</t>
+  </si>
+  <si>
+    <t>womens workout clothes</t>
+  </si>
+  <si>
+    <t>workout clothes set for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweaters for leggings</t>
+  </si>
+  <si>
+    <t>work outfits</t>
+  </si>
+  <si>
+    <t>blue sports leggings</t>
+  </si>
+  <si>
+    <t>gym sets for women</t>
+  </si>
+  <si>
+    <t>tall womens work out clothes</t>
+  </si>
+  <si>
+    <t>cloths set for women</t>
+  </si>
+  <si>
+    <t>blue womens shirt</t>
+  </si>
+  <si>
+    <t>black leggings for women fashion</t>
+  </si>
+  <si>
+    <t>sweater sets</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F0B1B-EA5B-46D9-851B-07F0DCEA4424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>pink victoria secret</t>
-  </si>
-  <si>
-    <t>crop workout</t>
-  </si>
-  <si>
-    <t>2 pieces outfit for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
-  </si>
-  <si>
-    <t>legging outfits</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>gym workout clothes women</t>
-  </si>
-  <si>
-    <t>workout clothes women plus size</t>
-  </si>
-  <si>
-    <t>crop leggings</t>
-  </si>
-  <si>
-    <t>retro workout clothes women</t>
-  </si>
-  <si>
-    <t>winter workout clothes for women</t>
-  </si>
-  <si>
-    <t>woman gym shirt</t>
-  </si>
-  <si>
-    <t>women bodybuilding clothes</t>
-  </si>
-  <si>
-    <t>womens yoga gym crop top compression</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes women</t>
-  </si>
-  <si>
-    <t>gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding clothes for women</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women plus size</t>
-  </si>
-  <si>
-    <t>gym outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>woman gym clothes</t>
-  </si>
-  <si>
-    <t>ribbed yoga leggings</t>
-  </si>
-  <si>
-    <t>crossfit workout clothes women</t>
-  </si>
-  <si>
-    <t>2pc workout clothes for women</t>
-  </si>
-  <si>
-    <t>sports clothes</t>
-  </si>
-  <si>
-    <t>clothes sport</t>
-  </si>
-  <si>
-    <t>zella workout clothes womens</t>
-  </si>
-  <si>
-    <t>clothes for women gym</t>
-  </si>
-  <si>
-    <t>2 piece gym outfits for women</t>
-  </si>
-  <si>
-    <t>womens gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding workout shirt</t>
-  </si>
-  <si>
-    <t>gap workout clothes for women</t>
-  </si>
-  <si>
-    <t>muslim workout clothes for women</t>
-  </si>
-  <si>
-    <t>women in clothes</t>
-  </si>
-  <si>
-    <t>gym body suit</t>
-  </si>
-  <si>
-    <t>disney workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece shirts</t>
-  </si>
-  <si>
-    <t>womens bodybuilding clothing</t>
-  </si>
-  <si>
-    <t>black workout clothes</t>
-  </si>
-  <si>
-    <t>womens sports clothes</t>
-  </si>
-  <si>
-    <t>womens sports outfits</t>
-  </si>
-  <si>
-    <t>new balance workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women xxl</t>
-  </si>
-  <si>
-    <t>asics workout clothes for women</t>
-  </si>
-  <si>
-    <t>halloween workout clothes women</t>
-  </si>
-  <si>
-    <t>calia workout clothes for women</t>
-  </si>
-  <si>
-    <t>second skin workout clothes women</t>
-  </si>
-  <si>
-    <t>clearence workout clothes for women</t>
-  </si>
-  <si>
-    <t>mission workout clothes for women</t>
-  </si>
-  <si>
-    <t>shirt for women leggings</t>
-  </si>
-  <si>
-    <t>turquoise tracksuit women</t>
-  </si>
-  <si>
-    <t>summer workout clothes for women</t>
-  </si>
-  <si>
-    <t>gym sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout women clothes</t>
-  </si>
-  <si>
-    <t>black crop leggings for women</t>
-  </si>
-  <si>
-    <t>pink jogging suits for women</t>
-  </si>
-  <si>
-    <t>women clothes sport</t>
-  </si>
-  <si>
-    <t>black legging shirt</t>
-  </si>
-  <si>
-    <t>women gym shirts</t>
-  </si>
-  <si>
-    <t>super hero workout clothes for women</t>
-  </si>
-  <si>
-    <t>camo workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>sport outfits</t>
-  </si>
-  <si>
-    <t>workout clothes for women mesh</t>
-  </si>
-  <si>
-    <t>workout clothes for women xl</t>
-  </si>
-  <si>
-    <t>maternity workout clothes for women</t>
-  </si>
-  <si>
-    <t>zip up body suits for women</t>
-  </si>
-  <si>
-    <t>long sleeve crop top fitness</t>
-  </si>
-  <si>
-    <t>inspirational workout clothes for women</t>
-  </si>
-  <si>
-    <t>nike pro workout clothes for women</t>
-  </si>
-  <si>
-    <t>shop clothes for woman</t>
-  </si>
-  <si>
-    <t>matching workout clothes for women</t>
-  </si>
-  <si>
-    <t>work out tops</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece pants</t>
-  </si>
-  <si>
-    <t>workout clothes for women 2 piece</t>
-  </si>
-  <si>
-    <t>gym shirts for women</t>
-  </si>
-  <si>
-    <t>sexy workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women plus size</t>
-  </si>
-  <si>
-    <t>womens workout sets</t>
-  </si>
-  <si>
-    <t>blue shirts for women</t>
-  </si>
-  <si>
-    <t>women jogging suit set</t>
-  </si>
-  <si>
-    <t>colorful workout clothes for women</t>
-  </si>
-  <si>
-    <t>women workout sets</t>
-  </si>
-  <si>
-    <t>workout clothes for women plus</t>
-  </si>
-  <si>
-    <t>shirt and leggings set for women</t>
-  </si>
-  <si>
-    <t>gym clothing for women</t>
-  </si>
-  <si>
-    <t>black clothes</t>
-  </si>
-  <si>
-    <t>workout clothes for women sets</t>
-  </si>
-  <si>
-    <t>womens workout clothes</t>
-  </si>
-  <si>
-    <t>workout clothes set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweaters for leggings</t>
-  </si>
-  <si>
-    <t>work outfits</t>
-  </si>
-  <si>
-    <t>blue sports leggings</t>
-  </si>
-  <si>
-    <t>gym sets for women</t>
-  </si>
-  <si>
-    <t>tall womens work out clothes</t>
-  </si>
-  <si>
-    <t>cloths set for women</t>
-  </si>
-  <si>
-    <t>blue womens shirt</t>
-  </si>
-  <si>
-    <t>black leggings for women fashion</t>
-  </si>
-  <si>
-    <t>sweater sets</t>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B1A52-E028-4867-9753-8FEA89CC218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FCA84-2B1F-446A-8D90-FD3F0857856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,306 +25,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>ribbed crop top</t>
-  </si>
-  <si>
-    <t>athletic jogger</t>
-  </si>
-  <si>
-    <t>size 2</t>
-  </si>
-  <si>
-    <t>high waist workout</t>
-  </si>
-  <si>
-    <t>workout clothe</t>
-  </si>
-  <si>
-    <t>workout fitness</t>
-  </si>
-  <si>
-    <t>black yoga jacket</t>
-  </si>
-  <si>
-    <t>matching set</t>
-  </si>
-  <si>
-    <t>high waist jogger</t>
-  </si>
-  <si>
-    <t>black crop top</t>
-  </si>
-  <si>
-    <t>long sleeve crop top</t>
-  </si>
-  <si>
-    <t>2 piece winter outfit</t>
-  </si>
-  <si>
-    <t>black workout crop top</t>
-  </si>
-  <si>
-    <t>pink workout outfit</t>
-  </si>
-  <si>
-    <t>blue sport</t>
-  </si>
-  <si>
-    <t>black long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green 2</t>
-  </si>
-  <si>
-    <t>pink top</t>
-  </si>
-  <si>
-    <t>blue top</t>
-  </si>
-  <si>
-    <t>small size</t>
-  </si>
-  <si>
-    <t>long shirt</t>
-  </si>
-  <si>
-    <t>out set</t>
-  </si>
-  <si>
-    <t>fitness outfit</t>
-  </si>
-  <si>
-    <t>exercise outfit</t>
-  </si>
-  <si>
-    <t>tight crop top</t>
-  </si>
-  <si>
-    <t>athletic crop top</t>
-  </si>
-  <si>
-    <t>athletic jacket</t>
-  </si>
-  <si>
-    <t>sleeve crop top</t>
-  </si>
-  <si>
-    <t>crop jacket</t>
-  </si>
-  <si>
-    <t>crop jogger</t>
-  </si>
-  <si>
-    <t>crop outfit</t>
-  </si>
-  <si>
-    <t>crop shirt</t>
-  </si>
-  <si>
-    <t>compression jacket</t>
-  </si>
-  <si>
-    <t>compression outfit</t>
-  </si>
-  <si>
-    <t>compression yoga</t>
-  </si>
-  <si>
-    <t>gym outfit</t>
-  </si>
-  <si>
-    <t>waist yoga</t>
-  </si>
-  <si>
-    <t>outfit set</t>
-  </si>
-  <si>
-    <t>seamless yoga</t>
-  </si>
-  <si>
-    <t>pant suit</t>
-  </si>
-  <si>
-    <t>blue crop top</t>
-  </si>
-  <si>
-    <t>long sleeve yoga</t>
-  </si>
-  <si>
-    <t>long sleeve yoga top</t>
-  </si>
-  <si>
-    <t>black tight crop top</t>
-  </si>
-  <si>
-    <t>black athletic jacket</t>
-  </si>
-  <si>
-    <t>black crop shirt</t>
-  </si>
-  <si>
-    <t>black crop jacket</t>
-  </si>
-  <si>
-    <t>high waist yoga</t>
-  </si>
-  <si>
-    <t>sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>black shirt</t>
-  </si>
-  <si>
-    <t>tracksuit outfit</t>
-  </si>
-  <si>
-    <t>tracksuit set</t>
-  </si>
-  <si>
-    <t>tracksuit top</t>
-  </si>
-  <si>
-    <t>ribbed top</t>
-  </si>
-  <si>
-    <t>long sleeve top</t>
-  </si>
-  <si>
-    <t>two piece crop top set</t>
-  </si>
-  <si>
-    <t>two piece jogger set</t>
-  </si>
-  <si>
-    <t>two piece outfit</t>
-  </si>
-  <si>
-    <t>two piece set</t>
-  </si>
-  <si>
-    <t>two piece tracksuit</t>
-  </si>
-  <si>
-    <t>small black</t>
-  </si>
-  <si>
-    <t>crop top set</t>
-  </si>
-  <si>
-    <t>black legging set</t>
-  </si>
-  <si>
-    <t>black suit top</t>
-  </si>
-  <si>
-    <t>matching set outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>pant suit set</t>
-  </si>
-  <si>
-    <t>black outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece set</t>
-  </si>
-  <si>
-    <t>green 2 piece outfit</t>
-  </si>
-  <si>
-    <t>long sleeve crop</t>
-  </si>
-  <si>
-    <t>high waist</t>
-  </si>
-  <si>
-    <t>jogging suit</t>
-  </si>
-  <si>
-    <t>jogger tracksuit</t>
-  </si>
-  <si>
-    <t>athletic apparel</t>
-  </si>
-  <si>
-    <t>athletic clothing</t>
-  </si>
-  <si>
-    <t>activewear set</t>
-  </si>
-  <si>
-    <t>suit set</t>
-  </si>
-  <si>
-    <t>pink shirt</t>
-  </si>
-  <si>
-    <t>pink suit</t>
-  </si>
-  <si>
-    <t>skinny shirt</t>
-  </si>
-  <si>
-    <t>jogging suit set</t>
-  </si>
-  <si>
-    <t>black top</t>
-  </si>
-  <si>
-    <t>gym set</t>
-  </si>
-  <si>
-    <t>sweatsuit outfit</t>
-  </si>
-  <si>
-    <t>sweatsuit set</t>
-  </si>
-  <si>
-    <t>work shirt</t>
-  </si>
-  <si>
-    <t>fitness legging</t>
-  </si>
-  <si>
-    <t>tight pant</t>
-  </si>
-  <si>
-    <t>black 2 piece</t>
-  </si>
-  <si>
-    <t>crop top outfit</t>
-  </si>
-  <si>
-    <t>set 2</t>
-  </si>
-  <si>
-    <t>exercise set</t>
-  </si>
-  <si>
-    <t>athletic long sleeve</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>long set</t>
-  </si>
-  <si>
-    <t>pink set</t>
-  </si>
-  <si>
-    <t>exercise top</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+  <si>
+    <t>sweatsuits sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>two piece workout outfits for women</t>
+  </si>
+  <si>
+    <t>sweat sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece workout sets for women</t>
+  </si>
+  <si>
+    <t>active wear two piece sets for women</t>
+  </si>
+  <si>
+    <t>sweat outfits for women 2 pieces</t>
+  </si>
+  <si>
+    <t>womens workout sets</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>women tracksuit set</t>
+  </si>
+  <si>
+    <t>jogger suits for women set</t>
+  </si>
+  <si>
+    <t>two piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>yoga outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>joggers for women set</t>
+  </si>
+  <si>
+    <t>women's athletic clothing sets</t>
+  </si>
+  <si>
+    <t>gym sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>matching sweatsuit women</t>
+  </si>
+  <si>
+    <t>workout clothes for women sets</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>work outfits for women gym set</t>
+  </si>
+  <si>
+    <t>gym outfits for women set</t>
+  </si>
+  <si>
+    <t>womens sweat suits two piece</t>
+  </si>
+  <si>
+    <t>activewear sets for women</t>
+  </si>
+  <si>
+    <t>active wear outfits for women</t>
+  </si>
+  <si>
+    <t>jogger set for women</t>
+  </si>
+  <si>
+    <t>women track suits 2 piece set</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>sexy workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece high waist</t>
+  </si>
+  <si>
+    <t>workout sweaters for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits</t>
+  </si>
+  <si>
+    <t>athletic sets for women</t>
+  </si>
+  <si>
+    <t>matching workout sets for women</t>
+  </si>
+  <si>
+    <t>track suits for women sexy</t>
+  </si>
+  <si>
+    <t>sweat suits for women</t>
+  </si>
+  <si>
+    <t>two piece jogger sets for women</t>
+  </si>
+  <si>
+    <t>sweatsuits for women set</t>
+  </si>
+  <si>
+    <t>women sweat suits two piece set</t>
+  </si>
+  <si>
+    <t>gym sets for women</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit for women</t>
+  </si>
+  <si>
+    <t>workout clothes set for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweat suits</t>
+  </si>
+  <si>
+    <t>workout top for women set</t>
+  </si>
+  <si>
+    <t>track suits for women set</t>
+  </si>
+  <si>
+    <t>sweat suits for women set</t>
+  </si>
+  <si>
+    <t>workout clothes for women</t>
+  </si>
+  <si>
+    <t>women sweatsuits sets</t>
+  </si>
+  <si>
+    <t>sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>jogging suits for women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweatsuits sets</t>
+  </si>
+  <si>
+    <t>jogger sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>tracksuit for women set</t>
+  </si>
+  <si>
+    <t>women jogging suit set</t>
+  </si>
+  <si>
+    <t>workout sets for women</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets</t>
+  </si>
+  <si>
+    <t>womens tracksuit set</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
   </si>
 </sst>
 </file>
@@ -649,232 +535,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
@@ -884,17 +770,17 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -904,257 +790,162 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FCA84-2B1F-446A-8D90-FD3F0857856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6F5A7-0F1C-4356-975C-41000CFF242D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,192 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
-  <si>
-    <t>sweatsuits sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>two piece workout outfits for women</t>
-  </si>
-  <si>
-    <t>sweat sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>active wear two piece sets for women</t>
-  </si>
-  <si>
-    <t>sweat outfits for women 2 pieces</t>
-  </si>
-  <si>
-    <t>womens workout sets</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>women tracksuit set</t>
-  </si>
-  <si>
-    <t>jogger suits for women set</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>yoga outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>joggers for women set</t>
-  </si>
-  <si>
-    <t>women's athletic clothing sets</t>
-  </si>
-  <si>
-    <t>gym sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>matching sweatsuit women</t>
-  </si>
-  <si>
-    <t>workout clothes for women sets</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>work outfits for women gym set</t>
-  </si>
-  <si>
-    <t>gym outfits for women set</t>
-  </si>
-  <si>
-    <t>womens sweat suits two piece</t>
-  </si>
-  <si>
-    <t>activewear sets for women</t>
-  </si>
-  <si>
-    <t>active wear outfits for women</t>
-  </si>
-  <si>
-    <t>jogger set for women</t>
-  </si>
-  <si>
-    <t>women track suits 2 piece set</t>
-  </si>
-  <si>
-    <t>women workout sets</t>
-  </si>
-  <si>
-    <t>sexy workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece high waist</t>
-  </si>
-  <si>
-    <t>workout sweaters for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits</t>
-  </si>
-  <si>
-    <t>athletic sets for women</t>
-  </si>
-  <si>
-    <t>matching workout sets for women</t>
-  </si>
-  <si>
-    <t>track suits for women sexy</t>
-  </si>
-  <si>
-    <t>sweat suits for women</t>
-  </si>
-  <si>
-    <t>two piece jogger sets for women</t>
-  </si>
-  <si>
-    <t>sweatsuits for women set</t>
-  </si>
-  <si>
-    <t>women sweat suits two piece set</t>
-  </si>
-  <si>
-    <t>gym sets for women</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit for women</t>
-  </si>
-  <si>
-    <t>workout clothes set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweat suits</t>
-  </si>
-  <si>
-    <t>workout top for women set</t>
-  </si>
-  <si>
-    <t>track suits for women set</t>
-  </si>
-  <si>
-    <t>sweat suits for women set</t>
-  </si>
-  <si>
-    <t>workout clothes for women</t>
-  </si>
-  <si>
-    <t>women sweatsuits sets</t>
-  </si>
-  <si>
-    <t>sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>jogging suits for women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets</t>
-  </si>
-  <si>
-    <t>jogger sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>tracksuit for women set</t>
-  </si>
-  <si>
-    <t>women jogging suit set</t>
-  </si>
-  <si>
-    <t>workout sets for women</t>
-  </si>
-  <si>
-    <t>womens jogging suits sets</t>
-  </si>
-  <si>
-    <t>womens tracksuit set</t>
-  </si>
-  <si>
-    <t>workout outfits for women</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>bodybuilding clothe</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>blue workout legging</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>black workout legging</t>
+  </si>
+  <si>
+    <t>blue clothe</t>
+  </si>
+  <si>
+    <t>shirt legging</t>
+  </si>
+  <si>
+    <t>pink tight</t>
+  </si>
+  <si>
+    <t>skinny outfit</t>
+  </si>
+  <si>
+    <t>clothing set outfit</t>
+  </si>
+  <si>
+    <t>clothing outfit</t>
+  </si>
+  <si>
+    <t>blue pant</t>
+  </si>
+  <si>
+    <t>winter pant</t>
+  </si>
+  <si>
+    <t>legging with</t>
+  </si>
+  <si>
+    <t>black shirt legging</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>black blue legging</t>
+  </si>
+  <si>
+    <t>clothe shirt</t>
+  </si>
+  <si>
+    <t>work tight</t>
+  </si>
+  <si>
+    <t>track tight</t>
+  </si>
+  <si>
+    <t>pink 2 piece outfit</t>
+  </si>
+  <si>
+    <t>pink 2 piece set</t>
+  </si>
+  <si>
+    <t>long tight</t>
+  </si>
+  <si>
+    <t>work out tight</t>
+  </si>
+  <si>
+    <t>soft athletic legging</t>
+  </si>
+  <si>
+    <t>legging long sleeve top set</t>
+  </si>
+  <si>
+    <t>black top legging</t>
+  </si>
+  <si>
+    <t>black crop legging</t>
+  </si>
+  <si>
+    <t>long sleeve 2 piece set</t>
+  </si>
+  <si>
+    <t>green athletic legging</t>
+  </si>
+  <si>
+    <t>soft sleeve</t>
+  </si>
+  <si>
+    <t>long black legging</t>
+  </si>
+  <si>
+    <t>black green legging</t>
+  </si>
+  <si>
+    <t>matching legging</t>
+  </si>
+  <si>
+    <t>exercise black legging</t>
+  </si>
+  <si>
+    <t>soft black legging</t>
+  </si>
+  <si>
+    <t>soft black</t>
+  </si>
+  <si>
+    <t>blue black tight</t>
+  </si>
+  <si>
+    <t>blue workout pant</t>
+  </si>
+  <si>
+    <t>black workout tight</t>
+  </si>
+  <si>
+    <t>blue 2 piece set</t>
+  </si>
+  <si>
+    <t>matching crop top pant set</t>
+  </si>
+  <si>
+    <t>black winter outfit</t>
+  </si>
+  <si>
+    <t>winter workout pant</t>
+  </si>
+  <si>
+    <t>2 piece pant outfit</t>
+  </si>
+  <si>
+    <t>black tight set</t>
+  </si>
+  <si>
+    <t>black winter tight</t>
+  </si>
+  <si>
+    <t>black tight pant</t>
+  </si>
+  <si>
+    <t>2 piece matching pant set</t>
+  </si>
+  <si>
+    <t>size top</t>
+  </si>
+  <si>
+    <t>winter crop</t>
+  </si>
+  <si>
+    <t>winter yoga top</t>
+  </si>
+  <si>
+    <t>seamless ribbed crop top</t>
+  </si>
+  <si>
+    <t>top with legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless</t>
+  </si>
+  <si>
+    <t>legging size small</t>
+  </si>
+  <si>
+    <t>pink long</t>
+  </si>
+  <si>
+    <t>pink seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed workout top</t>
+  </si>
+  <si>
+    <t>small legging</t>
+  </si>
+  <si>
+    <t>pink 2 piece</t>
+  </si>
+  <si>
+    <t>ribbed workout legging</t>
+  </si>
+  <si>
+    <t>pink workout legging</t>
+  </si>
+  <si>
+    <t>pink yoga legging</t>
+  </si>
+  <si>
+    <t>fashionable pant</t>
+  </si>
+  <si>
+    <t>black suit set woman</t>
+  </si>
+  <si>
+    <t>woman clothe jogger</t>
+  </si>
+  <si>
+    <t>suit piece woman</t>
+  </si>
+  <si>
+    <t>clothe woman crop top</t>
+  </si>
+  <si>
+    <t>workout clothe woman pant</t>
+  </si>
+  <si>
+    <t>suit clothe</t>
+  </si>
+  <si>
+    <t>high top pant woman</t>
+  </si>
+  <si>
+    <t>black pant set woman</t>
   </si>
   <si>
     <t>2 piece workout clothe</t>
+  </si>
+  <si>
+    <t>2 piece pant woman</t>
+  </si>
+  <si>
+    <t>black apparel woman</t>
+  </si>
+  <si>
+    <t>green black clothe</t>
+  </si>
+  <si>
+    <t>crop top suit woman</t>
+  </si>
+  <si>
+    <t>waist black</t>
+  </si>
+  <si>
+    <t>suit top woman</t>
+  </si>
+  <si>
+    <t>black set woman</t>
+  </si>
+  <si>
+    <t>small pant woman</t>
+  </si>
+  <si>
+    <t>green pant woman high waist</t>
+  </si>
+  <si>
+    <t>green jogger set woman</t>
+  </si>
+  <si>
+    <t>workout pant set</t>
+  </si>
+  <si>
+    <t>workout jogger pant</t>
+  </si>
+  <si>
+    <t>fashionable jogger woman</t>
+  </si>
+  <si>
+    <t>crop workout pant</t>
+  </si>
+  <si>
+    <t>crop set woman</t>
+  </si>
+  <si>
+    <t>black jogger suit woman</t>
+  </si>
+  <si>
+    <t>woman apparel top</t>
+  </si>
+  <si>
+    <t>suit 2</t>
+  </si>
+  <si>
+    <t>small green</t>
+  </si>
+  <si>
+    <t>small crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger pant</t>
+  </si>
+  <si>
+    <t>black crop woman</t>
+  </si>
+  <si>
+    <t>2 piece pant</t>
+  </si>
+  <si>
+    <t>crop jogger set woman</t>
   </si>
 </sst>
 </file>
@@ -535,421 +649,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22C44E0-53A1-450C-9B7B-FDAC7204245E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,306 +25,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>jogger woman high waist</t>
-  </si>
-  <si>
-    <t>black jogger woman</t>
-  </si>
-  <si>
-    <t>workout crop top woman</t>
-  </si>
-  <si>
-    <t>jogger set woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant woman</t>
-  </si>
-  <si>
-    <t>workout set woman 2 piece</t>
-  </si>
-  <si>
-    <t>black pant woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman</t>
-  </si>
-  <si>
-    <t>workout top woman</t>
-  </si>
-  <si>
-    <t>crop athletic jacket</t>
-  </si>
-  <si>
-    <t>tight clothe</t>
-  </si>
-  <si>
-    <t>black yoga tight</t>
-  </si>
-  <si>
-    <t>black compression tight</t>
-  </si>
-  <si>
-    <t>turquoise clothe</t>
-  </si>
-  <si>
-    <t>turquoise piece</t>
-  </si>
-  <si>
-    <t>fitness tight</t>
-  </si>
-  <si>
-    <t>crop tight</t>
-  </si>
-  <si>
-    <t>clothe compression</t>
-  </si>
-  <si>
-    <t>turquoise tight</t>
-  </si>
-  <si>
-    <t>piece black</t>
-  </si>
-  <si>
-    <t>athletic tight</t>
-  </si>
-  <si>
-    <t>fitness clothe</t>
-  </si>
-  <si>
-    <t>compression yoga tight</t>
-  </si>
-  <si>
-    <t>clothe outfit</t>
-  </si>
-  <si>
-    <t>athletic clothe</t>
-  </si>
-  <si>
-    <t>black clothe</t>
-  </si>
-  <si>
-    <t>yoga clothe</t>
-  </si>
-  <si>
-    <t>athletic sport</t>
-  </si>
-  <si>
-    <t>fitness jogger</t>
-  </si>
-  <si>
-    <t>jogging legging</t>
-  </si>
-  <si>
-    <t>seamless athletic legging</t>
-  </si>
-  <si>
-    <t>two set top</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>long workout legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging high waist</t>
-  </si>
-  <si>
-    <t>2 piece seamless workout outfit</t>
-  </si>
-  <si>
-    <t>crop workout legging</t>
-  </si>
-  <si>
-    <t>yoga seamless outfit</t>
-  </si>
-  <si>
-    <t>2 piece outfit long sleeve</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout outfit</t>
-  </si>
-  <si>
-    <t>high waist crop legging</t>
-  </si>
-  <si>
-    <t>waist legging</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>high waist legging long</t>
-  </si>
-  <si>
-    <t>high legging</t>
-  </si>
-  <si>
-    <t>long sleeve crop top outfit</t>
-  </si>
-  <si>
-    <t>long sleeve top legging</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>jogger legging</t>
-  </si>
-  <si>
-    <t>seamless yoga legging</t>
-  </si>
-  <si>
-    <t>high waist yoga legging</t>
-  </si>
-  <si>
-    <t>high waist seamless legging</t>
-  </si>
-  <si>
-    <t>long top legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging</t>
-  </si>
-  <si>
-    <t>long sleeve</t>
-  </si>
-  <si>
-    <t>work out</t>
-  </si>
-  <si>
-    <t>fashion top</t>
-  </si>
-  <si>
-    <t>athletic sleeve</t>
-  </si>
-  <si>
-    <t>gym shirt</t>
-  </si>
-  <si>
-    <t>two piece</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>workout waist</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>track set</t>
-  </si>
-  <si>
-    <t>yoga fitness</t>
-  </si>
-  <si>
-    <t>yoga jacket</t>
-  </si>
-  <si>
-    <t>yoga outfit</t>
-  </si>
-  <si>
-    <t>bodybuilding shirt</t>
-  </si>
-  <si>
-    <t>turquoise jacket</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>high top</t>
-  </si>
-  <si>
-    <t>fitness apparel</t>
-  </si>
-  <si>
-    <t>crop top</t>
-  </si>
-  <si>
-    <t>sleeve top</t>
-  </si>
-  <si>
-    <t>fashion set</t>
-  </si>
-  <si>
-    <t>high waist black pant</t>
-  </si>
-  <si>
-    <t>legging crop top set</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout crop top</t>
-  </si>
-  <si>
-    <t>workout matching set</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout gym</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>gym workout set</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>workout shirt long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>black suit</t>
-  </si>
-  <si>
-    <t>black jacket</t>
-  </si>
-  <si>
-    <t>black legging</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>black long sleeve</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>womens athletic jackets lightweight</t>
+  </si>
+  <si>
+    <t>tights and jacket set for women</t>
+  </si>
+  <si>
+    <t>black zipper sweaters for women</t>
+  </si>
+  <si>
+    <t>polyester spandex leggings for women</t>
+  </si>
+  <si>
+    <t>two piece legging set for women</t>
+  </si>
+  <si>
+    <t>cropped two piece</t>
+  </si>
+  <si>
+    <t>jogging sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>athletic crop tops</t>
+  </si>
+  <si>
+    <t>wide leg outfit for women</t>
+  </si>
+  <si>
+    <t>top womens sport</t>
+  </si>
+  <si>
+    <t>womens workout clothes winter</t>
+  </si>
+  <si>
+    <t>exercise sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>workout gym clothes women</t>
+  </si>
+  <si>
+    <t>light pink sweat suits for women</t>
+  </si>
+  <si>
+    <t>winter pants for ladies</t>
+  </si>
+  <si>
+    <t>workout set for women 2 piece</t>
+  </si>
+  <si>
+    <t>sweatsuits for women two piece</t>
+  </si>
+  <si>
+    <t>outfits for winter woman</t>
+  </si>
+  <si>
+    <t>crop top piece set</t>
+  </si>
+  <si>
+    <t>style and co leggings for women</t>
+  </si>
+  <si>
+    <t>matching sets for women outfit sexy</t>
+  </si>
+  <si>
+    <t>winter outfit sets for women</t>
+  </si>
+  <si>
+    <t>yoga pants suit</t>
+  </si>
+  <si>
+    <t>women tights suit</t>
+  </si>
+  <si>
+    <t>gym warm up suits</t>
+  </si>
+  <si>
+    <t>women three piece outfits sets</t>
+  </si>
+  <si>
+    <t>3 pack black leggings for women</t>
+  </si>
+  <si>
+    <t>2 piece joggers sets for women</t>
+  </si>
+  <si>
+    <t>winter running tight women</t>
+  </si>
+  <si>
+    <t>mono de yoga para mujer</t>
+  </si>
+  <si>
+    <t>bodybuilding track pants</t>
+  </si>
+  <si>
+    <t>croptops for womens</t>
+  </si>
+  <si>
+    <t>women 2 piece tracksuit sets</t>
+  </si>
+  <si>
+    <t>cute workout tops women</t>
+  </si>
+  <si>
+    <t>winter 2 piece outfit women</t>
+  </si>
+  <si>
+    <t>women legging sets outfits</t>
+  </si>
+  <si>
+    <t>sweat suits for women set workout</t>
+  </si>
+  <si>
+    <t>active wear two piece sets for women</t>
+  </si>
+  <si>
+    <t>3 piece lounge sets for women</t>
+  </si>
+  <si>
+    <t>womens sweat suits two piece</t>
+  </si>
+  <si>
+    <t>womens work outfits sets</t>
+  </si>
+  <si>
+    <t>womens 2 piece workout outfits</t>
+  </si>
+  <si>
+    <t>cropped athletic tops for women</t>
+  </si>
+  <si>
+    <t>tights sets women 2 piece outfits</t>
+  </si>
+  <si>
+    <t>hotexy womens workout sets 2 piece workout</t>
+  </si>
+  <si>
+    <t>gym set clothing</t>
+  </si>
+  <si>
+    <t>crop athletic tops for women</t>
+  </si>
+  <si>
+    <t>jet joy workout set</t>
+  </si>
+  <si>
+    <t>gym shark 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>leggings outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>professional clothes for women for work</t>
+  </si>
+  <si>
+    <t>2 pc track suits for women</t>
+  </si>
+  <si>
+    <t>prime clothes for women</t>
+  </si>
+  <si>
+    <t>womens sets 2 piece outfits</t>
+  </si>
+  <si>
+    <t>workout 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece legging workout set</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
   </si>
 </sst>
 </file>
@@ -649,11 +520,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -942,221 +811,6 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22C44E0-53A1-450C-9B7B-FDAC7204245E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A507A-771D-4038-8044-A2D9813AB9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,177 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t>womens athletic jackets lightweight</t>
-  </si>
-  <si>
-    <t>tights and jacket set for women</t>
-  </si>
-  <si>
-    <t>black zipper sweaters for women</t>
-  </si>
-  <si>
-    <t>polyester spandex leggings for women</t>
-  </si>
-  <si>
-    <t>two piece legging set for women</t>
-  </si>
-  <si>
-    <t>cropped two piece</t>
-  </si>
-  <si>
-    <t>jogging sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>athletic crop tops</t>
-  </si>
-  <si>
-    <t>wide leg outfit for women</t>
-  </si>
-  <si>
-    <t>top womens sport</t>
-  </si>
-  <si>
-    <t>womens workout clothes winter</t>
-  </si>
-  <si>
-    <t>exercise sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout gym clothes women</t>
-  </si>
-  <si>
-    <t>light pink sweat suits for women</t>
-  </si>
-  <si>
-    <t>winter pants for ladies</t>
-  </si>
-  <si>
-    <t>workout set for women 2 piece</t>
-  </si>
-  <si>
-    <t>sweatsuits for women two piece</t>
-  </si>
-  <si>
-    <t>outfits for winter woman</t>
-  </si>
-  <si>
-    <t>crop top piece set</t>
-  </si>
-  <si>
-    <t>style and co leggings for women</t>
-  </si>
-  <si>
-    <t>matching sets for women outfit sexy</t>
-  </si>
-  <si>
-    <t>winter outfit sets for women</t>
-  </si>
-  <si>
-    <t>yoga pants suit</t>
-  </si>
-  <si>
-    <t>women tights suit</t>
-  </si>
-  <si>
-    <t>gym warm up suits</t>
-  </si>
-  <si>
-    <t>women three piece outfits sets</t>
-  </si>
-  <si>
-    <t>3 pack black leggings for women</t>
-  </si>
-  <si>
-    <t>2 piece joggers sets for women</t>
-  </si>
-  <si>
-    <t>winter running tight women</t>
-  </si>
-  <si>
-    <t>mono de yoga para mujer</t>
-  </si>
-  <si>
-    <t>bodybuilding track pants</t>
-  </si>
-  <si>
-    <t>croptops for womens</t>
-  </si>
-  <si>
-    <t>women 2 piece tracksuit sets</t>
-  </si>
-  <si>
-    <t>cute workout tops women</t>
-  </si>
-  <si>
-    <t>winter 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>women legging sets outfits</t>
-  </si>
-  <si>
-    <t>sweat suits for women set workout</t>
-  </si>
-  <si>
-    <t>active wear two piece sets for women</t>
-  </si>
-  <si>
-    <t>3 piece lounge sets for women</t>
-  </si>
-  <si>
-    <t>womens sweat suits two piece</t>
-  </si>
-  <si>
-    <t>womens work outfits sets</t>
-  </si>
-  <si>
-    <t>womens 2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>cropped athletic tops for women</t>
-  </si>
-  <si>
-    <t>tights sets women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>hotexy womens workout sets 2 piece workout</t>
-  </si>
-  <si>
-    <t>gym set clothing</t>
-  </si>
-  <si>
-    <t>crop athletic tops for women</t>
-  </si>
-  <si>
-    <t>jet joy workout set</t>
-  </si>
-  <si>
-    <t>gym shark 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>leggings outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>professional clothes for women for work</t>
-  </si>
-  <si>
-    <t>2 pc track suits for women</t>
-  </si>
-  <si>
-    <t>prime clothes for women</t>
-  </si>
-  <si>
-    <t>womens sets 2 piece outfits</t>
-  </si>
-  <si>
-    <t>workout 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece legging workout set</t>
-  </si>
-  <si>
-    <t>seamless yoga set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>cheap clothes</t>
+  </si>
+  <si>
+    <t>sport women clothes</t>
+  </si>
+  <si>
+    <t>shirts for women clearance</t>
+  </si>
+  <si>
+    <t>black sweaters</t>
+  </si>
+  <si>
+    <t>work outfits for women gym set</t>
+  </si>
+  <si>
+    <t>joggers for women high waist set</t>
+  </si>
+  <si>
+    <t>black athletic leggings for women</t>
+  </si>
+  <si>
+    <t>workout sweater</t>
+  </si>
+  <si>
+    <t>2 piece workout outfits</t>
+  </si>
+  <si>
+    <t>black shirt women</t>
+  </si>
+  <si>
+    <t>leggings set for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweaters</t>
+  </si>
+  <si>
+    <t>black out contacts</t>
+  </si>
+  <si>
+    <t>tracksuit for women</t>
+  </si>
+  <si>
+    <t>women workout clothes</t>
+  </si>
+  <si>
+    <t>blue outfits for women</t>
+  </si>
+  <si>
+    <t>womens gym shirts</t>
+  </si>
+  <si>
+    <t>workout womens leggings</t>
+  </si>
+  <si>
+    <t>sexy leggings for women</t>
+  </si>
+  <si>
+    <t>sexy suit</t>
+  </si>
+  <si>
+    <t>exercise clothes for women</t>
+  </si>
+  <si>
+    <t>black 2 piece outfit women</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>black sweater women</t>
+  </si>
+  <si>
+    <t>womens workout</t>
+  </si>
+  <si>
+    <t>blue body suit</t>
+  </si>
+  <si>
+    <t>black sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>turquoise tights</t>
+  </si>
+  <si>
+    <t>big black clothing</t>
+  </si>
+  <si>
+    <t>gym outfits for women set</t>
+  </si>
+  <si>
+    <t>ribbed workout set</t>
+  </si>
+  <si>
+    <t>women body building</t>
+  </si>
+  <si>
+    <t>workout for women clothes</t>
+  </si>
+  <si>
+    <t>womens sports leggings</t>
+  </si>
+  <si>
+    <t>body tights</t>
+  </si>
+  <si>
+    <t>womens workout clothes clearance</t>
+  </si>
+  <si>
+    <t>womens black shirts</t>
+  </si>
+  <si>
+    <t>sexy womens leggings</t>
+  </si>
+  <si>
+    <t>amazon workout clothes women</t>
+  </si>
+  <si>
+    <t>women compression clothing</t>
+  </si>
+  <si>
+    <t>clothing cart</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>turquoise leggings for women</t>
+  </si>
+  <si>
+    <t>women tights</t>
+  </si>
+  <si>
+    <t>workout tops for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women</t>
+  </si>
+  <si>
+    <t>leggings set for women</t>
+  </si>
+  <si>
+    <t>sweater shirts for women</t>
+  </si>
+  <si>
+    <t>crop leggings for women athletic</t>
+  </si>
+  <si>
+    <t>yoga sets</t>
+  </si>
+  <si>
+    <t>womens crop top</t>
+  </si>
+  <si>
+    <t>cheap workout clothes for women</t>
+  </si>
+  <si>
+    <t>black workout leggings for women</t>
+  </si>
+  <si>
+    <t>leggings sport for women</t>
+  </si>
+  <si>
+    <t>matching sets</t>
+  </si>
+  <si>
+    <t>womens tracksuit set</t>
+  </si>
+  <si>
+    <t>matching sets for women</t>
+  </si>
+  <si>
+    <t>work outfits for women</t>
+  </si>
+  <si>
+    <t>winter outfits for women</t>
+  </si>
+  <si>
+    <t>matching outfits</t>
+  </si>
+  <si>
+    <t>cute outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece set for women outfit</t>
+  </si>
+  <si>
+    <t>long sleeve activewear for women</t>
+  </si>
+  <si>
+    <t>crop top and pants set for women</t>
+  </si>
+  <si>
+    <t>ribbed leggings women</t>
+  </si>
+  <si>
+    <t>workout set for women</t>
+  </si>
+  <si>
+    <t>workout gym clothes</t>
+  </si>
+  <si>
+    <t>2 piece outfits</t>
+  </si>
+  <si>
+    <t>crop top tracksuit womens</t>
+  </si>
+  <si>
+    <t>tops for leggings</t>
+  </si>
+  <si>
+    <t>colorful tights</t>
+  </si>
+  <si>
+    <t>lounge outfit</t>
+  </si>
+  <si>
+    <t>walking suits for women</t>
+  </si>
+  <si>
+    <t>sport crop tops for women</t>
+  </si>
+  <si>
+    <t>gym women</t>
+  </si>
+  <si>
+    <t>fitness suits for women</t>
+  </si>
+  <si>
+    <t>athletic sets for women</t>
+  </si>
+  <si>
+    <t>leggings and crop top set</t>
+  </si>
+  <si>
+    <t>matching gym outfits</t>
+  </si>
+  <si>
+    <t>matching top and pants</t>
+  </si>
+  <si>
+    <t>workout sleeves</t>
+  </si>
+  <si>
+    <t>workout sweaters for women</t>
+  </si>
+  <si>
+    <t>green spandex</t>
+  </si>
+  <si>
+    <t>womens sweater sets</t>
+  </si>
+  <si>
+    <t>to be in style pants</t>
+  </si>
+  <si>
+    <t>blue tracksuit women</t>
+  </si>
+  <si>
+    <t>yoga crop tops for women</t>
+  </si>
+  <si>
+    <t>all black suit</t>
+  </si>
+  <si>
+    <t>crop tops workout</t>
+  </si>
+  <si>
+    <t>sweat shirts</t>
+  </si>
+  <si>
+    <t>work sweaters for women</t>
+  </si>
+  <si>
+    <t>blue jogging pants</t>
+  </si>
+  <si>
+    <t>three piece outfits for women</t>
+  </si>
+  <si>
+    <t>winter sets for women</t>
+  </si>
+  <si>
+    <t>womens matching set outfits</t>
+  </si>
+  <si>
+    <t>womens yoga outfits</t>
+  </si>
+  <si>
+    <t>womens lounge sets</t>
+  </si>
+  <si>
+    <t>womens lounge set</t>
+  </si>
+  <si>
+    <t>2 piece sweater sets for women</t>
+  </si>
+  <si>
+    <t>leggings for women sport gym</t>
   </si>
 </sst>
 </file>
@@ -520,9 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -811,6 +942,221 @@
         <v>56</v>
       </c>
     </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A507A-771D-4038-8044-A2D9813AB9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069ED5E-D4F3-44A1-8D53-B7932C6F44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>cheap clothes</t>
-  </si>
-  <si>
-    <t>sport women clothes</t>
-  </si>
-  <si>
-    <t>shirts for women clearance</t>
-  </si>
-  <si>
-    <t>black sweaters</t>
-  </si>
-  <si>
-    <t>work outfits for women gym set</t>
-  </si>
-  <si>
-    <t>joggers for women high waist set</t>
-  </si>
-  <si>
-    <t>black athletic leggings for women</t>
-  </si>
-  <si>
-    <t>workout sweater</t>
-  </si>
-  <si>
-    <t>2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>black shirt women</t>
-  </si>
-  <si>
-    <t>leggings set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweaters</t>
-  </si>
-  <si>
-    <t>black out contacts</t>
-  </si>
-  <si>
-    <t>tracksuit for women</t>
-  </si>
-  <si>
-    <t>women workout clothes</t>
-  </si>
-  <si>
-    <t>blue outfits for women</t>
-  </si>
-  <si>
-    <t>womens gym shirts</t>
-  </si>
-  <si>
-    <t>workout womens leggings</t>
-  </si>
-  <si>
-    <t>sexy leggings for women</t>
-  </si>
-  <si>
-    <t>sexy suit</t>
-  </si>
-  <si>
-    <t>exercise clothes for women</t>
-  </si>
-  <si>
-    <t>black 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>black sweater women</t>
-  </si>
-  <si>
-    <t>womens workout</t>
-  </si>
-  <si>
-    <t>blue body suit</t>
-  </si>
-  <si>
-    <t>black sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>turquoise tights</t>
-  </si>
-  <si>
-    <t>big black clothing</t>
-  </si>
-  <si>
-    <t>gym outfits for women set</t>
-  </si>
-  <si>
-    <t>ribbed workout set</t>
-  </si>
-  <si>
-    <t>women body building</t>
-  </si>
-  <si>
-    <t>workout for women clothes</t>
-  </si>
-  <si>
-    <t>womens sports leggings</t>
-  </si>
-  <si>
-    <t>body tights</t>
-  </si>
-  <si>
-    <t>womens workout clothes clearance</t>
-  </si>
-  <si>
-    <t>womens black shirts</t>
-  </si>
-  <si>
-    <t>sexy womens leggings</t>
-  </si>
-  <si>
-    <t>amazon workout clothes women</t>
-  </si>
-  <si>
-    <t>women compression clothing</t>
-  </si>
-  <si>
-    <t>clothing cart</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>turquoise leggings for women</t>
-  </si>
-  <si>
-    <t>women tights</t>
-  </si>
-  <si>
-    <t>workout tops for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women</t>
-  </si>
-  <si>
-    <t>leggings set for women</t>
-  </si>
-  <si>
-    <t>sweater shirts for women</t>
-  </si>
-  <si>
-    <t>crop leggings for women athletic</t>
-  </si>
-  <si>
-    <t>yoga sets</t>
-  </si>
-  <si>
-    <t>womens crop top</t>
-  </si>
-  <si>
-    <t>cheap workout clothes for women</t>
-  </si>
-  <si>
-    <t>black workout leggings for women</t>
-  </si>
-  <si>
-    <t>leggings sport for women</t>
-  </si>
-  <si>
-    <t>matching sets</t>
-  </si>
-  <si>
-    <t>womens tracksuit set</t>
-  </si>
-  <si>
-    <t>matching sets for women</t>
-  </si>
-  <si>
-    <t>work outfits for women</t>
-  </si>
-  <si>
-    <t>winter outfits for women</t>
-  </si>
-  <si>
-    <t>matching outfits</t>
-  </si>
-  <si>
-    <t>cute outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece set for women outfit</t>
-  </si>
-  <si>
-    <t>long sleeve activewear for women</t>
-  </si>
-  <si>
-    <t>crop top and pants set for women</t>
-  </si>
-  <si>
-    <t>ribbed leggings women</t>
-  </si>
-  <si>
-    <t>workout set for women</t>
-  </si>
-  <si>
-    <t>workout gym clothes</t>
-  </si>
-  <si>
-    <t>2 piece outfits</t>
-  </si>
-  <si>
-    <t>crop top tracksuit womens</t>
-  </si>
-  <si>
-    <t>tops for leggings</t>
-  </si>
-  <si>
-    <t>colorful tights</t>
-  </si>
-  <si>
-    <t>lounge outfit</t>
-  </si>
-  <si>
-    <t>walking suits for women</t>
-  </si>
-  <si>
-    <t>sport crop tops for women</t>
-  </si>
-  <si>
-    <t>gym women</t>
-  </si>
-  <si>
-    <t>fitness suits for women</t>
-  </si>
-  <si>
-    <t>athletic sets for women</t>
-  </si>
-  <si>
-    <t>leggings and crop top set</t>
-  </si>
-  <si>
-    <t>matching gym outfits</t>
-  </si>
-  <si>
-    <t>matching top and pants</t>
-  </si>
-  <si>
-    <t>workout sleeves</t>
-  </si>
-  <si>
-    <t>workout sweaters for women</t>
-  </si>
-  <si>
-    <t>green spandex</t>
-  </si>
-  <si>
-    <t>womens sweater sets</t>
-  </si>
-  <si>
-    <t>to be in style pants</t>
-  </si>
-  <si>
-    <t>blue tracksuit women</t>
-  </si>
-  <si>
-    <t>yoga crop tops for women</t>
-  </si>
-  <si>
-    <t>all black suit</t>
-  </si>
-  <si>
-    <t>crop tops workout</t>
-  </si>
-  <si>
-    <t>sweat shirts</t>
-  </si>
-  <si>
-    <t>work sweaters for women</t>
-  </si>
-  <si>
-    <t>blue jogging pants</t>
-  </si>
-  <si>
-    <t>three piece outfits for women</t>
-  </si>
-  <si>
-    <t>winter sets for women</t>
-  </si>
-  <si>
-    <t>womens matching set outfits</t>
-  </si>
-  <si>
-    <t>womens yoga outfits</t>
-  </si>
-  <si>
-    <t>womens lounge sets</t>
-  </si>
-  <si>
-    <t>womens lounge set</t>
-  </si>
-  <si>
-    <t>2 piece sweater sets for women</t>
-  </si>
-  <si>
-    <t>leggings for women sport gym</t>
+    <t>compression suit</t>
+  </si>
+  <si>
+    <t>colorful joggers</t>
+  </si>
+  <si>
+    <t>woman workout clothes</t>
+  </si>
+  <si>
+    <t>blue crop tops</t>
+  </si>
+  <si>
+    <t>womens winter pants</t>
+  </si>
+  <si>
+    <t>gym set for women</t>
+  </si>
+  <si>
+    <t>blue tights for women</t>
+  </si>
+  <si>
+    <t>winter clothes women</t>
+  </si>
+  <si>
+    <t>style co tops for women</t>
+  </si>
+  <si>
+    <t>long sleeve compression bodysuit</t>
+  </si>
+  <si>
+    <t>leggings for women set</t>
+  </si>
+  <si>
+    <t>shirts for leggings for women</t>
+  </si>
+  <si>
+    <t>workout crop tops</t>
+  </si>
+  <si>
+    <t>womens crop top set</t>
+  </si>
+  <si>
+    <t>cute tights</t>
+  </si>
+  <si>
+    <t>sports crop tops for women</t>
+  </si>
+  <si>
+    <t>running crop leggings</t>
+  </si>
+  <si>
+    <t>fitness chart</t>
+  </si>
+  <si>
+    <t>sexy workout clothes</t>
+  </si>
+  <si>
+    <t>tight suit</t>
+  </si>
+  <si>
+    <t>bowling cloth</t>
+  </si>
+  <si>
+    <t>colorful joggers for women</t>
+  </si>
+  <si>
+    <t>colorful outfits for women</t>
+  </si>
+  <si>
+    <t>matching leggings</t>
+  </si>
+  <si>
+    <t>tights suit</t>
+  </si>
+  <si>
+    <t>crop workout pants</t>
+  </si>
+  <si>
+    <t>ropa abrigada de mujer</t>
+  </si>
+  <si>
+    <t>workout suits for women</t>
+  </si>
+  <si>
+    <t>workout spandex for women</t>
+  </si>
+  <si>
+    <t>workout black leggings</t>
+  </si>
+  <si>
+    <t>women sexy winter clothes</t>
+  </si>
+  <si>
+    <t>women sexy yoga pants</t>
+  </si>
+  <si>
+    <t>lightweight workout jacket</t>
+  </si>
+  <si>
+    <t>tracksuit women</t>
+  </si>
+  <si>
+    <t>2 piece black outfits for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout shirts for women</t>
+  </si>
+  <si>
+    <t>green and black leggings</t>
+  </si>
+  <si>
+    <t>running crop pants</t>
+  </si>
+  <si>
+    <t>track bowling</t>
+  </si>
+  <si>
+    <t>track sweater</t>
+  </si>
+  <si>
+    <t>fashion track pants</t>
+  </si>
+  <si>
+    <t>fashion tracksuit for women</t>
+  </si>
+  <si>
+    <t>women tracksuit</t>
+  </si>
+  <si>
+    <t>women sets outfits</t>
+  </si>
+  <si>
+    <t>two piece black outfits for women</t>
+  </si>
+  <si>
+    <t>two piece lounge outfits for women</t>
+  </si>
+  <si>
+    <t>crop top matching set</t>
+  </si>
+  <si>
+    <t>leggings athletic for women</t>
+  </si>
+  <si>
+    <t>2 piece crop top outfits for women</t>
+  </si>
+  <si>
+    <t>workout crop tops women</t>
+  </si>
+  <si>
+    <t>matching workout clothes</t>
+  </si>
+  <si>
+    <t>two piece sweater outfits for women</t>
+  </si>
+  <si>
+    <t>black legging sets for women</t>
+  </si>
+  <si>
+    <t>womens workout clothing</t>
+  </si>
+  <si>
+    <t>sweat bodysuit for women</t>
+  </si>
+  <si>
+    <t>big and tall womens clothing</t>
+  </si>
+  <si>
+    <t>cute sweatsuits for women</t>
+  </si>
+  <si>
+    <t>simply be clothing</t>
+  </si>
+  <si>
+    <t>black sweatsuit</t>
+  </si>
+  <si>
+    <t>black sweats</t>
+  </si>
+  <si>
+    <t>female gym leggings</t>
+  </si>
+  <si>
+    <t>tennis warm up jacket</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing for kids</t>
+  </si>
+  <si>
+    <t>wide leg two piece set</t>
+  </si>
+  <si>
+    <t>womens crop jacket</t>
+  </si>
+  <si>
+    <t>pans para mujer deportivos</t>
+  </si>
+  <si>
+    <t>black long leggings for women</t>
+  </si>
+  <si>
+    <t>womans workout clothing</t>
+  </si>
+  <si>
+    <t>womens cropped leggings</t>
+  </si>
+  <si>
+    <t>womens pink jogging suits</t>
+  </si>
+  <si>
+    <t>bowling thumb sleeve</t>
+  </si>
+  <si>
+    <t>cute crop top sweaters</t>
+  </si>
+  <si>
+    <t>tall workout tops</t>
+  </si>
+  <si>
+    <t>women winter outfits sets</t>
+  </si>
+  <si>
+    <t>ladies sports leggings</t>
+  </si>
+  <si>
+    <t>compression tops for women</t>
+  </si>
+  <si>
+    <t>womens tennis sweater</t>
+  </si>
+  <si>
+    <t>crop tops for workout</t>
+  </si>
+  <si>
+    <t>womens work out set</t>
+  </si>
+  <si>
+    <t>pink victoria secret headband</t>
+  </si>
+  <si>
+    <t>workout clothes for women clearance</t>
+  </si>
+  <si>
+    <t>women two piece outfits sets winter</t>
+  </si>
+  <si>
+    <t>fitness top for women</t>
+  </si>
+  <si>
+    <t>gym sweater women</t>
+  </si>
+  <si>
+    <t>winter joggers for women</t>
+  </si>
+  <si>
+    <t>womens sexy winter outfits</t>
+  </si>
+  <si>
+    <t>joggers with jacket for women</t>
+  </si>
+  <si>
+    <t>matching activewear sets for women</t>
+  </si>
+  <si>
+    <t>top leggings set</t>
+  </si>
+  <si>
+    <t>matching crop top and pants set</t>
+  </si>
+  <si>
+    <t>tight crop tops</t>
+  </si>
+  <si>
+    <t>black tall leggings for women</t>
+  </si>
+  <si>
+    <t>workout top for women long sleeve</t>
+  </si>
+  <si>
+    <t>turquoise women jacket</t>
+  </si>
+  <si>
+    <t>tights for women athletic</t>
+  </si>
+  <si>
+    <t>victoria secret legging set</t>
+  </si>
+  <si>
+    <t>lounge set sexy</t>
+  </si>
+  <si>
+    <t>black tight crop</t>
+  </si>
+  <si>
+    <t>sexy work out clothes</t>
+  </si>
+  <si>
+    <t>compression body women</t>
   </si>
 </sst>
 </file>
@@ -651,9 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069ED5E-D4F3-44A1-8D53-B7932C6F44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064D93E-4DB9-4CEF-BF91-5734F129A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>compression suit</t>
-  </si>
-  <si>
-    <t>colorful joggers</t>
-  </si>
-  <si>
-    <t>woman workout clothes</t>
-  </si>
-  <si>
-    <t>blue crop tops</t>
-  </si>
-  <si>
-    <t>womens winter pants</t>
-  </si>
-  <si>
-    <t>gym set for women</t>
-  </si>
-  <si>
-    <t>blue tights for women</t>
-  </si>
-  <si>
-    <t>winter clothes women</t>
-  </si>
-  <si>
-    <t>style co tops for women</t>
-  </si>
-  <si>
-    <t>long sleeve compression bodysuit</t>
-  </si>
-  <si>
-    <t>leggings for women set</t>
-  </si>
-  <si>
-    <t>shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>workout crop tops</t>
-  </si>
-  <si>
-    <t>womens crop top set</t>
-  </si>
-  <si>
-    <t>cute tights</t>
-  </si>
-  <si>
-    <t>sports crop tops for women</t>
-  </si>
-  <si>
-    <t>running crop leggings</t>
-  </si>
-  <si>
-    <t>fitness chart</t>
-  </si>
-  <si>
-    <t>sexy workout clothes</t>
-  </si>
-  <si>
-    <t>tight suit</t>
-  </si>
-  <si>
-    <t>bowling cloth</t>
-  </si>
-  <si>
-    <t>colorful joggers for women</t>
-  </si>
-  <si>
-    <t>colorful outfits for women</t>
-  </si>
-  <si>
-    <t>matching leggings</t>
-  </si>
-  <si>
-    <t>tights suit</t>
-  </si>
-  <si>
-    <t>crop workout pants</t>
-  </si>
-  <si>
-    <t>ropa abrigada de mujer</t>
-  </si>
-  <si>
-    <t>workout suits for women</t>
-  </si>
-  <si>
-    <t>workout spandex for women</t>
-  </si>
-  <si>
-    <t>workout black leggings</t>
-  </si>
-  <si>
-    <t>women sexy winter clothes</t>
-  </si>
-  <si>
-    <t>women sexy yoga pants</t>
-  </si>
-  <si>
-    <t>lightweight workout jacket</t>
-  </si>
-  <si>
-    <t>tracksuit women</t>
-  </si>
-  <si>
-    <t>2 piece black outfits for women</t>
-  </si>
-  <si>
-    <t>long sleeve crop workout shirts for women</t>
-  </si>
-  <si>
-    <t>green and black leggings</t>
-  </si>
-  <si>
-    <t>running crop pants</t>
-  </si>
-  <si>
-    <t>track bowling</t>
-  </si>
-  <si>
-    <t>track sweater</t>
-  </si>
-  <si>
-    <t>fashion track pants</t>
-  </si>
-  <si>
-    <t>fashion tracksuit for women</t>
-  </si>
-  <si>
-    <t>women tracksuit</t>
-  </si>
-  <si>
-    <t>women sets outfits</t>
-  </si>
-  <si>
-    <t>two piece black outfits for women</t>
-  </si>
-  <si>
-    <t>two piece lounge outfits for women</t>
-  </si>
-  <si>
-    <t>crop top matching set</t>
-  </si>
-  <si>
-    <t>leggings athletic for women</t>
-  </si>
-  <si>
-    <t>2 piece crop top outfits for women</t>
-  </si>
-  <si>
-    <t>workout crop tops women</t>
-  </si>
-  <si>
-    <t>matching workout clothes</t>
-  </si>
-  <si>
-    <t>two piece sweater outfits for women</t>
-  </si>
-  <si>
-    <t>black legging sets for women</t>
-  </si>
-  <si>
-    <t>womens workout clothing</t>
-  </si>
-  <si>
-    <t>sweat bodysuit for women</t>
-  </si>
-  <si>
-    <t>big and tall womens clothing</t>
-  </si>
-  <si>
-    <t>cute sweatsuits for women</t>
-  </si>
-  <si>
-    <t>simply be clothing</t>
-  </si>
-  <si>
-    <t>black sweatsuit</t>
-  </si>
-  <si>
-    <t>black sweats</t>
-  </si>
-  <si>
-    <t>female gym leggings</t>
-  </si>
-  <si>
-    <t>tennis warm up jacket</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing for kids</t>
-  </si>
-  <si>
-    <t>wide leg two piece set</t>
-  </si>
-  <si>
-    <t>womens crop jacket</t>
-  </si>
-  <si>
-    <t>pans para mujer deportivos</t>
-  </si>
-  <si>
-    <t>black long leggings for women</t>
-  </si>
-  <si>
-    <t>womans workout clothing</t>
-  </si>
-  <si>
-    <t>womens cropped leggings</t>
-  </si>
-  <si>
-    <t>womens pink jogging suits</t>
-  </si>
-  <si>
-    <t>bowling thumb sleeve</t>
-  </si>
-  <si>
-    <t>cute crop top sweaters</t>
-  </si>
-  <si>
-    <t>tall workout tops</t>
-  </si>
-  <si>
-    <t>women winter outfits sets</t>
-  </si>
-  <si>
-    <t>ladies sports leggings</t>
-  </si>
-  <si>
-    <t>compression tops for women</t>
-  </si>
-  <si>
-    <t>womens tennis sweater</t>
-  </si>
-  <si>
-    <t>crop tops for workout</t>
-  </si>
-  <si>
-    <t>womens work out set</t>
-  </si>
-  <si>
-    <t>pink victoria secret headband</t>
-  </si>
-  <si>
-    <t>workout clothes for women clearance</t>
-  </si>
-  <si>
-    <t>women two piece outfits sets winter</t>
-  </si>
-  <si>
-    <t>fitness top for women</t>
-  </si>
-  <si>
-    <t>gym sweater women</t>
-  </si>
-  <si>
-    <t>winter joggers for women</t>
-  </si>
-  <si>
-    <t>womens sexy winter outfits</t>
-  </si>
-  <si>
-    <t>joggers with jacket for women</t>
-  </si>
-  <si>
-    <t>matching activewear sets for women</t>
-  </si>
-  <si>
-    <t>top leggings set</t>
-  </si>
-  <si>
-    <t>matching crop top and pants set</t>
-  </si>
-  <si>
-    <t>tight crop tops</t>
-  </si>
-  <si>
-    <t>black tall leggings for women</t>
-  </si>
-  <si>
-    <t>workout top for women long sleeve</t>
-  </si>
-  <si>
-    <t>turquoise women jacket</t>
-  </si>
-  <si>
-    <t>tights for women athletic</t>
-  </si>
-  <si>
-    <t>victoria secret legging set</t>
-  </si>
-  <si>
-    <t>lounge set sexy</t>
-  </si>
-  <si>
-    <t>black tight crop</t>
-  </si>
-  <si>
-    <t>sexy work out clothes</t>
-  </si>
-  <si>
-    <t>compression body women</t>
+    <t>small pink</t>
+  </si>
+  <si>
+    <t>winter work</t>
+  </si>
+  <si>
+    <t>pink legging</t>
+  </si>
+  <si>
+    <t>winter two piece outfit</t>
+  </si>
+  <si>
+    <t>crop pant</t>
+  </si>
+  <si>
+    <t>exercise legging</t>
+  </si>
+  <si>
+    <t>work out gym</t>
+  </si>
+  <si>
+    <t>matching top</t>
+  </si>
+  <si>
+    <t>matching pant</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>compression tight</t>
+  </si>
+  <si>
+    <t>small black top</t>
+  </si>
+  <si>
+    <t>winter work shirt</t>
+  </si>
+  <si>
+    <t>woman black</t>
+  </si>
+  <si>
+    <t>green jogger</t>
+  </si>
+  <si>
+    <t>black athletic</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>small woman</t>
+  </si>
+  <si>
+    <t>woman clothe</t>
+  </si>
+  <si>
+    <t>green sleeve</t>
+  </si>
+  <si>
+    <t>green crop</t>
+  </si>
+  <si>
+    <t>black tight</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>winter tight</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>small set</t>
+  </si>
+  <si>
+    <t>legging outfit set</t>
+  </si>
+  <si>
+    <t>2 woman</t>
+  </si>
+  <si>
+    <t>black sport legging</t>
+  </si>
+  <si>
+    <t>apparel size</t>
+  </si>
+  <si>
+    <t>long jogger</t>
+  </si>
+  <si>
+    <t>long legging</t>
+  </si>
+  <si>
+    <t>small piece</t>
+  </si>
+  <si>
+    <t>workout jogger</t>
+  </si>
+  <si>
+    <t>pant suit woman</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>blue legging</t>
+  </si>
+  <si>
+    <t>blue tight</t>
+  </si>
+  <si>
+    <t>woman high waist</t>
+  </si>
+  <si>
+    <t>workout sleeve</t>
+  </si>
+  <si>
+    <t>fashion jogger</t>
+  </si>
+  <si>
+    <t>yoga tight</t>
+  </si>
+  <si>
+    <t>long yoga top</t>
+  </si>
+  <si>
+    <t>woman set</t>
+  </si>
+  <si>
+    <t>long crop</t>
+  </si>
+  <si>
+    <t>small top</t>
+  </si>
+  <si>
+    <t>work sleeve</t>
+  </si>
+  <si>
+    <t>black jogger pant</t>
+  </si>
+  <si>
+    <t>black athletic legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>blue crop</t>
+  </si>
+  <si>
+    <t>black workout pant</t>
+  </si>
+  <si>
+    <t>ribbed legging</t>
+  </si>
+  <si>
+    <t>winter sleeve</t>
+  </si>
+  <si>
+    <t>soft set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfit</t>
+  </si>
+  <si>
+    <t>black suit woman</t>
+  </si>
+  <si>
+    <t>green black crop top</t>
+  </si>
+  <si>
+    <t>green matching set</t>
+  </si>
+  <si>
+    <t>long sleeve workout set</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>long sleeve matching set</t>
+  </si>
+  <si>
+    <t>workout crop top set</t>
+  </si>
+  <si>
+    <t>2 soft</t>
+  </si>
+  <si>
+    <t>crop jogger set</t>
+  </si>
+  <si>
+    <t>blue matching set</t>
+  </si>
+  <si>
+    <t>soft crop top</t>
+  </si>
+  <si>
+    <t>jogger crop top set</t>
+  </si>
+  <si>
+    <t>pink out outfit</t>
+  </si>
+  <si>
+    <t>soft long sleeve</t>
+  </si>
+  <si>
+    <t>jogger woman</t>
+  </si>
+  <si>
+    <t>black winter top</t>
+  </si>
+  <si>
+    <t>2 piece set woman</t>
+  </si>
+  <si>
+    <t>black fitness</t>
+  </si>
+  <si>
+    <t>soft legging</t>
+  </si>
+  <si>
+    <t>soft top</t>
+  </si>
+  <si>
+    <t>black pant</t>
+  </si>
+  <si>
+    <t>seamless crop top workout</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>blue workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>piece long</t>
+  </si>
+  <si>
+    <t>two piece athletic set</t>
+  </si>
+  <si>
+    <t>apparel clothing</t>
+  </si>
+  <si>
+    <t>outfit winter</t>
+  </si>
+  <si>
+    <t>long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>black yoga</t>
+  </si>
+  <si>
+    <t>shirt sleeve</t>
+  </si>
+  <si>
+    <t>top woman</t>
+  </si>
+  <si>
+    <t>turquoise leggings</t>
+  </si>
+  <si>
+    <t>ribbed leggings</t>
+  </si>
+  <si>
+    <t>workout clothes for women gym</t>
+  </si>
+  <si>
+    <t>ready set</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>workout clothes</t>
+  </si>
+  <si>
+    <t>workout shirts</t>
+  </si>
+  <si>
+    <t>gym clothes for women</t>
+  </si>
+  <si>
+    <t>gym outfits for women</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CBE9F-6B7C-4024-B8D9-95D97E192A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,306 +25,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>jogger woman high waist</t>
-  </si>
-  <si>
-    <t>black jogger woman</t>
-  </si>
-  <si>
-    <t>workout crop top woman</t>
-  </si>
-  <si>
-    <t>jogger set woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant woman</t>
-  </si>
-  <si>
-    <t>workout set woman 2 piece</t>
-  </si>
-  <si>
-    <t>black pant woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman</t>
-  </si>
-  <si>
-    <t>workout top woman</t>
-  </si>
-  <si>
-    <t>crop athletic jacket</t>
-  </si>
-  <si>
-    <t>tight clothe</t>
-  </si>
-  <si>
-    <t>black yoga tight</t>
-  </si>
-  <si>
-    <t>black compression tight</t>
-  </si>
-  <si>
-    <t>turquoise clothe</t>
-  </si>
-  <si>
-    <t>turquoise piece</t>
-  </si>
-  <si>
-    <t>fitness tight</t>
-  </si>
-  <si>
-    <t>crop tight</t>
-  </si>
-  <si>
-    <t>clothe compression</t>
-  </si>
-  <si>
-    <t>turquoise tight</t>
-  </si>
-  <si>
-    <t>piece black</t>
-  </si>
-  <si>
-    <t>athletic tight</t>
-  </si>
-  <si>
-    <t>fitness clothe</t>
-  </si>
-  <si>
-    <t>compression yoga tight</t>
-  </si>
-  <si>
-    <t>clothe outfit</t>
-  </si>
-  <si>
-    <t>athletic clothe</t>
-  </si>
-  <si>
-    <t>black clothe</t>
-  </si>
-  <si>
-    <t>yoga clothe</t>
-  </si>
-  <si>
-    <t>athletic sport</t>
-  </si>
-  <si>
-    <t>fitness jogger</t>
-  </si>
-  <si>
-    <t>jogging legging</t>
-  </si>
-  <si>
-    <t>seamless athletic legging</t>
-  </si>
-  <si>
-    <t>two set top</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>long workout legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging high waist</t>
-  </si>
-  <si>
-    <t>2 piece seamless workout outfit</t>
-  </si>
-  <si>
-    <t>crop workout legging</t>
-  </si>
-  <si>
-    <t>yoga seamless outfit</t>
-  </si>
-  <si>
-    <t>2 piece outfit long sleeve</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout outfit</t>
-  </si>
-  <si>
-    <t>high waist crop legging</t>
-  </si>
-  <si>
-    <t>waist legging</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>high waist legging long</t>
-  </si>
-  <si>
-    <t>high legging</t>
-  </si>
-  <si>
-    <t>long sleeve crop top outfit</t>
-  </si>
-  <si>
-    <t>long sleeve top legging</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>jogger legging</t>
-  </si>
-  <si>
-    <t>seamless yoga legging</t>
-  </si>
-  <si>
-    <t>high waist yoga legging</t>
-  </si>
-  <si>
-    <t>high waist seamless legging</t>
-  </si>
-  <si>
-    <t>long top legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging</t>
-  </si>
-  <si>
-    <t>long sleeve</t>
-  </si>
-  <si>
-    <t>work out</t>
-  </si>
-  <si>
-    <t>fashion top</t>
-  </si>
-  <si>
-    <t>athletic sleeve</t>
-  </si>
-  <si>
-    <t>gym shirt</t>
-  </si>
-  <si>
-    <t>two piece</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>workout waist</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>track set</t>
-  </si>
-  <si>
-    <t>yoga fitness</t>
-  </si>
-  <si>
-    <t>yoga jacket</t>
-  </si>
-  <si>
-    <t>yoga outfit</t>
-  </si>
-  <si>
-    <t>bodybuilding shirt</t>
-  </si>
-  <si>
-    <t>turquoise jacket</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>high top</t>
-  </si>
-  <si>
-    <t>fitness apparel</t>
-  </si>
-  <si>
-    <t>crop top</t>
-  </si>
-  <si>
-    <t>sleeve top</t>
-  </si>
-  <si>
-    <t>fashion set</t>
-  </si>
-  <si>
-    <t>high waist black pant</t>
-  </si>
-  <si>
-    <t>legging crop top set</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout crop top</t>
-  </si>
-  <si>
-    <t>workout matching set</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout gym</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>gym workout set</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>workout shirt long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>black suit</t>
-  </si>
-  <si>
-    <t>black jacket</t>
-  </si>
-  <si>
-    <t>black legging</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>black long sleeve</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>womens athletic jackets lightweight</t>
+  </si>
+  <si>
+    <t>tights and jacket set for women</t>
+  </si>
+  <si>
+    <t>black zipper sweaters for women</t>
+  </si>
+  <si>
+    <t>polyester spandex leggings for women</t>
+  </si>
+  <si>
+    <t>two piece legging set for women</t>
+  </si>
+  <si>
+    <t>cropped two piece</t>
+  </si>
+  <si>
+    <t>jogging sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>athletic crop tops</t>
+  </si>
+  <si>
+    <t>wide leg outfit for women</t>
+  </si>
+  <si>
+    <t>top womens sport</t>
+  </si>
+  <si>
+    <t>womens workout clothes winter</t>
+  </si>
+  <si>
+    <t>exercise sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>workout gym clothes women</t>
+  </si>
+  <si>
+    <t>light pink sweat suits for women</t>
+  </si>
+  <si>
+    <t>winter pants for ladies</t>
+  </si>
+  <si>
+    <t>workout set for women 2 piece</t>
+  </si>
+  <si>
+    <t>sweatsuits for women two piece</t>
+  </si>
+  <si>
+    <t>outfits for winter woman</t>
+  </si>
+  <si>
+    <t>crop top piece set</t>
+  </si>
+  <si>
+    <t>style and co leggings for women</t>
+  </si>
+  <si>
+    <t>matching sets for women outfit sexy</t>
+  </si>
+  <si>
+    <t>winter outfit sets for women</t>
+  </si>
+  <si>
+    <t>yoga pants suit</t>
+  </si>
+  <si>
+    <t>women tights suit</t>
+  </si>
+  <si>
+    <t>gym warm up suits</t>
+  </si>
+  <si>
+    <t>women three piece outfits sets</t>
+  </si>
+  <si>
+    <t>3 pack black leggings for women</t>
+  </si>
+  <si>
+    <t>2 piece joggers sets for women</t>
+  </si>
+  <si>
+    <t>winter running tight women</t>
+  </si>
+  <si>
+    <t>mono de yoga para mujer</t>
+  </si>
+  <si>
+    <t>bodybuilding track pants</t>
+  </si>
+  <si>
+    <t>croptops for womens</t>
+  </si>
+  <si>
+    <t>women 2 piece tracksuit sets</t>
+  </si>
+  <si>
+    <t>cute workout tops women</t>
+  </si>
+  <si>
+    <t>winter 2 piece outfit women</t>
+  </si>
+  <si>
+    <t>women legging sets outfits</t>
+  </si>
+  <si>
+    <t>sweat suits for women set workout</t>
+  </si>
+  <si>
+    <t>active wear two piece sets for women</t>
+  </si>
+  <si>
+    <t>3 piece lounge sets for women</t>
+  </si>
+  <si>
+    <t>womens sweat suits two piece</t>
+  </si>
+  <si>
+    <t>womens work outfits sets</t>
+  </si>
+  <si>
+    <t>womens 2 piece workout outfits</t>
+  </si>
+  <si>
+    <t>cropped athletic tops for women</t>
+  </si>
+  <si>
+    <t>tights sets women 2 piece outfits</t>
+  </si>
+  <si>
+    <t>hotexy womens workout sets 2 piece workout</t>
+  </si>
+  <si>
+    <t>gym set clothing</t>
+  </si>
+  <si>
+    <t>crop athletic tops for women</t>
+  </si>
+  <si>
+    <t>jet joy workout set</t>
+  </si>
+  <si>
+    <t>gym shark 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>leggings outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>professional clothes for women for work</t>
+  </si>
+  <si>
+    <t>2 pc track suits for women</t>
+  </si>
+  <si>
+    <t>prime clothes for women</t>
+  </si>
+  <si>
+    <t>womens sets 2 piece outfits</t>
+  </si>
+  <si>
+    <t>workout 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece legging workout set</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>tennis clothes for women</t>
+  </si>
+  <si>
+    <t>women jogger outfits sets</t>
+  </si>
+  <si>
+    <t>sweater leggings for women</t>
+  </si>
+  <si>
+    <t>yoga sets for women</t>
+  </si>
+  <si>
+    <t>outfits for women</t>
+  </si>
+  <si>
+    <t>tracksuit womens</t>
+  </si>
+  <si>
+    <t>women compression shirt</t>
+  </si>
+  <si>
+    <t>long sleeve sport shirt women</t>
+  </si>
+  <si>
+    <t>crop long sleeve top</t>
+  </si>
+  <si>
+    <t>zumba outfits for women</t>
+  </si>
+  <si>
+    <t>long sleeve green shirt women</t>
+  </si>
+  <si>
+    <t>compression top women long sleeve</t>
+  </si>
+  <si>
+    <t>two piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>cropped long sleeve</t>
+  </si>
+  <si>
+    <t>womens blue shirt</t>
+  </si>
+  <si>
+    <t>womens winter clothing</t>
+  </si>
+  <si>
+    <t>fitness sweaters for women</t>
+  </si>
+  <si>
+    <t>finger sports</t>
+  </si>
+  <si>
+    <t>spandex 2 piece</t>
+  </si>
+  <si>
+    <t>cheap suit</t>
+  </si>
+  <si>
+    <t>womens sweats</t>
+  </si>
+  <si>
+    <t>green crop tops for women</t>
+  </si>
+  <si>
+    <t>work out set women</t>
+  </si>
+  <si>
+    <t>2 piece long sleeve outfits for women</t>
+  </si>
+  <si>
+    <t>pink body suit</t>
+  </si>
+  <si>
+    <t>black outfits for women</t>
+  </si>
+  <si>
+    <t>womens exercise</t>
+  </si>
+  <si>
+    <t>sexy workout sets for women</t>
+  </si>
+  <si>
+    <t>leggings sets</t>
+  </si>
+  <si>
+    <t>track suit for women</t>
+  </si>
+  <si>
+    <t>purple sweat suit for women</t>
+  </si>
+  <si>
+    <t>women workout set</t>
+  </si>
+  <si>
+    <t>womens sports crop top</t>
+  </si>
+  <si>
+    <t>womens cropped shirts</t>
+  </si>
+  <si>
+    <t>long sleeve shirts for leggings for women</t>
+  </si>
+  <si>
+    <t>ropa deportiva sexy para mujer</t>
+  </si>
+  <si>
+    <t>sweat sleeve</t>
+  </si>
+  <si>
+    <t>women 2 piece outfits sets</t>
+  </si>
+  <si>
+    <t>sportswear womens gym</t>
   </si>
 </sst>
 </file>
@@ -649,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1137,26 +1125,6 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CBE9F-6B7C-4024-B8D9-95D97E192A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A507A-771D-4038-8044-A2D9813AB9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,294 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
-  <si>
-    <t>womens athletic jackets lightweight</t>
-  </si>
-  <si>
-    <t>tights and jacket set for women</t>
-  </si>
-  <si>
-    <t>black zipper sweaters for women</t>
-  </si>
-  <si>
-    <t>polyester spandex leggings for women</t>
-  </si>
-  <si>
-    <t>two piece legging set for women</t>
-  </si>
-  <si>
-    <t>cropped two piece</t>
-  </si>
-  <si>
-    <t>jogging sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>athletic crop tops</t>
-  </si>
-  <si>
-    <t>wide leg outfit for women</t>
-  </si>
-  <si>
-    <t>top womens sport</t>
-  </si>
-  <si>
-    <t>womens workout clothes winter</t>
-  </si>
-  <si>
-    <t>exercise sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout gym clothes women</t>
-  </si>
-  <si>
-    <t>light pink sweat suits for women</t>
-  </si>
-  <si>
-    <t>winter pants for ladies</t>
-  </si>
-  <si>
-    <t>workout set for women 2 piece</t>
-  </si>
-  <si>
-    <t>sweatsuits for women two piece</t>
-  </si>
-  <si>
-    <t>outfits for winter woman</t>
-  </si>
-  <si>
-    <t>crop top piece set</t>
-  </si>
-  <si>
-    <t>style and co leggings for women</t>
-  </si>
-  <si>
-    <t>matching sets for women outfit sexy</t>
-  </si>
-  <si>
-    <t>winter outfit sets for women</t>
-  </si>
-  <si>
-    <t>yoga pants suit</t>
-  </si>
-  <si>
-    <t>women tights suit</t>
-  </si>
-  <si>
-    <t>gym warm up suits</t>
-  </si>
-  <si>
-    <t>women three piece outfits sets</t>
-  </si>
-  <si>
-    <t>3 pack black leggings for women</t>
-  </si>
-  <si>
-    <t>2 piece joggers sets for women</t>
-  </si>
-  <si>
-    <t>winter running tight women</t>
-  </si>
-  <si>
-    <t>mono de yoga para mujer</t>
-  </si>
-  <si>
-    <t>bodybuilding track pants</t>
-  </si>
-  <si>
-    <t>croptops for womens</t>
-  </si>
-  <si>
-    <t>women 2 piece tracksuit sets</t>
-  </si>
-  <si>
-    <t>cute workout tops women</t>
-  </si>
-  <si>
-    <t>winter 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>women legging sets outfits</t>
-  </si>
-  <si>
-    <t>sweat suits for women set workout</t>
-  </si>
-  <si>
-    <t>active wear two piece sets for women</t>
-  </si>
-  <si>
-    <t>3 piece lounge sets for women</t>
-  </si>
-  <si>
-    <t>womens sweat suits two piece</t>
-  </si>
-  <si>
-    <t>womens work outfits sets</t>
-  </si>
-  <si>
-    <t>womens 2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>cropped athletic tops for women</t>
-  </si>
-  <si>
-    <t>tights sets women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>hotexy womens workout sets 2 piece workout</t>
-  </si>
-  <si>
-    <t>gym set clothing</t>
-  </si>
-  <si>
-    <t>crop athletic tops for women</t>
-  </si>
-  <si>
-    <t>jet joy workout set</t>
-  </si>
-  <si>
-    <t>gym shark 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>leggings outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>professional clothes for women for work</t>
-  </si>
-  <si>
-    <t>2 pc track suits for women</t>
-  </si>
-  <si>
-    <t>prime clothes for women</t>
-  </si>
-  <si>
-    <t>womens sets 2 piece outfits</t>
-  </si>
-  <si>
-    <t>workout 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece legging workout set</t>
-  </si>
-  <si>
-    <t>seamless yoga set</t>
-  </si>
-  <si>
-    <t>tennis clothes for women</t>
-  </si>
-  <si>
-    <t>women jogger outfits sets</t>
-  </si>
-  <si>
-    <t>sweater leggings for women</t>
-  </si>
-  <si>
-    <t>yoga sets for women</t>
-  </si>
-  <si>
-    <t>outfits for women</t>
-  </si>
-  <si>
-    <t>tracksuit womens</t>
-  </si>
-  <si>
-    <t>women compression shirt</t>
-  </si>
-  <si>
-    <t>long sleeve sport shirt women</t>
-  </si>
-  <si>
-    <t>crop long sleeve top</t>
-  </si>
-  <si>
-    <t>zumba outfits for women</t>
-  </si>
-  <si>
-    <t>long sleeve green shirt women</t>
-  </si>
-  <si>
-    <t>compression top women long sleeve</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>cropped long sleeve</t>
-  </si>
-  <si>
-    <t>womens blue shirt</t>
-  </si>
-  <si>
-    <t>womens winter clothing</t>
-  </si>
-  <si>
-    <t>fitness sweaters for women</t>
-  </si>
-  <si>
-    <t>finger sports</t>
-  </si>
-  <si>
-    <t>spandex 2 piece</t>
-  </si>
-  <si>
-    <t>cheap suit</t>
-  </si>
-  <si>
-    <t>womens sweats</t>
-  </si>
-  <si>
-    <t>green crop tops for women</t>
-  </si>
-  <si>
-    <t>work out set women</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve outfits for women</t>
-  </si>
-  <si>
-    <t>pink body suit</t>
-  </si>
-  <si>
-    <t>black outfits for women</t>
-  </si>
-  <si>
-    <t>womens exercise</t>
-  </si>
-  <si>
-    <t>sexy workout sets for women</t>
-  </si>
-  <si>
-    <t>leggings sets</t>
-  </si>
-  <si>
-    <t>track suit for women</t>
-  </si>
-  <si>
-    <t>purple sweat suit for women</t>
-  </si>
-  <si>
-    <t>women workout set</t>
-  </si>
-  <si>
-    <t>womens sports crop top</t>
-  </si>
-  <si>
-    <t>womens cropped shirts</t>
-  </si>
-  <si>
-    <t>long sleeve shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>ropa deportiva sexy para mujer</t>
-  </si>
-  <si>
-    <t>sweat sleeve</t>
-  </si>
-  <si>
-    <t>women 2 piece outfits sets</t>
-  </si>
-  <si>
-    <t>sportswear womens gym</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>cheap clothes</t>
+  </si>
+  <si>
+    <t>sport women clothes</t>
+  </si>
+  <si>
+    <t>shirts for women clearance</t>
+  </si>
+  <si>
+    <t>black sweaters</t>
+  </si>
+  <si>
+    <t>work outfits for women gym set</t>
+  </si>
+  <si>
+    <t>joggers for women high waist set</t>
+  </si>
+  <si>
+    <t>black athletic leggings for women</t>
+  </si>
+  <si>
+    <t>workout sweater</t>
+  </si>
+  <si>
+    <t>2 piece workout outfits</t>
+  </si>
+  <si>
+    <t>black shirt women</t>
+  </si>
+  <si>
+    <t>leggings set for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweaters</t>
+  </si>
+  <si>
+    <t>black out contacts</t>
+  </si>
+  <si>
+    <t>tracksuit for women</t>
+  </si>
+  <si>
+    <t>women workout clothes</t>
+  </si>
+  <si>
+    <t>blue outfits for women</t>
+  </si>
+  <si>
+    <t>womens gym shirts</t>
+  </si>
+  <si>
+    <t>workout womens leggings</t>
+  </si>
+  <si>
+    <t>sexy leggings for women</t>
+  </si>
+  <si>
+    <t>sexy suit</t>
+  </si>
+  <si>
+    <t>exercise clothes for women</t>
+  </si>
+  <si>
+    <t>black 2 piece outfit women</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>black sweater women</t>
+  </si>
+  <si>
+    <t>womens workout</t>
+  </si>
+  <si>
+    <t>blue body suit</t>
+  </si>
+  <si>
+    <t>black sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>turquoise tights</t>
+  </si>
+  <si>
+    <t>big black clothing</t>
+  </si>
+  <si>
+    <t>gym outfits for women set</t>
+  </si>
+  <si>
+    <t>ribbed workout set</t>
+  </si>
+  <si>
+    <t>women body building</t>
+  </si>
+  <si>
+    <t>workout for women clothes</t>
+  </si>
+  <si>
+    <t>womens sports leggings</t>
+  </si>
+  <si>
+    <t>body tights</t>
+  </si>
+  <si>
+    <t>womens workout clothes clearance</t>
+  </si>
+  <si>
+    <t>womens black shirts</t>
+  </si>
+  <si>
+    <t>sexy womens leggings</t>
+  </si>
+  <si>
+    <t>amazon workout clothes women</t>
+  </si>
+  <si>
+    <t>women compression clothing</t>
+  </si>
+  <si>
+    <t>clothing cart</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>turquoise leggings for women</t>
+  </si>
+  <si>
+    <t>women tights</t>
+  </si>
+  <si>
+    <t>workout tops for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women</t>
+  </si>
+  <si>
+    <t>leggings set for women</t>
+  </si>
+  <si>
+    <t>sweater shirts for women</t>
+  </si>
+  <si>
+    <t>crop leggings for women athletic</t>
+  </si>
+  <si>
+    <t>yoga sets</t>
+  </si>
+  <si>
+    <t>womens crop top</t>
+  </si>
+  <si>
+    <t>cheap workout clothes for women</t>
+  </si>
+  <si>
+    <t>black workout leggings for women</t>
+  </si>
+  <si>
+    <t>leggings sport for women</t>
+  </si>
+  <si>
+    <t>matching sets</t>
+  </si>
+  <si>
+    <t>womens tracksuit set</t>
+  </si>
+  <si>
+    <t>matching sets for women</t>
+  </si>
+  <si>
+    <t>work outfits for women</t>
+  </si>
+  <si>
+    <t>winter outfits for women</t>
+  </si>
+  <si>
+    <t>matching outfits</t>
+  </si>
+  <si>
+    <t>cute outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece set for women outfit</t>
+  </si>
+  <si>
+    <t>long sleeve activewear for women</t>
+  </si>
+  <si>
+    <t>crop top and pants set for women</t>
+  </si>
+  <si>
+    <t>ribbed leggings women</t>
+  </si>
+  <si>
+    <t>workout set for women</t>
+  </si>
+  <si>
+    <t>workout gym clothes</t>
+  </si>
+  <si>
+    <t>2 piece outfits</t>
+  </si>
+  <si>
+    <t>crop top tracksuit womens</t>
+  </si>
+  <si>
+    <t>tops for leggings</t>
+  </si>
+  <si>
+    <t>colorful tights</t>
+  </si>
+  <si>
+    <t>lounge outfit</t>
+  </si>
+  <si>
+    <t>walking suits for women</t>
+  </si>
+  <si>
+    <t>sport crop tops for women</t>
+  </si>
+  <si>
+    <t>gym women</t>
+  </si>
+  <si>
+    <t>fitness suits for women</t>
+  </si>
+  <si>
+    <t>athletic sets for women</t>
+  </si>
+  <si>
+    <t>leggings and crop top set</t>
+  </si>
+  <si>
+    <t>matching gym outfits</t>
+  </si>
+  <si>
+    <t>matching top and pants</t>
+  </si>
+  <si>
+    <t>workout sleeves</t>
+  </si>
+  <si>
+    <t>workout sweaters for women</t>
+  </si>
+  <si>
+    <t>green spandex</t>
+  </si>
+  <si>
+    <t>womens sweater sets</t>
+  </si>
+  <si>
+    <t>to be in style pants</t>
+  </si>
+  <si>
+    <t>blue tracksuit women</t>
+  </si>
+  <si>
+    <t>yoga crop tops for women</t>
+  </si>
+  <si>
+    <t>all black suit</t>
+  </si>
+  <si>
+    <t>crop tops workout</t>
+  </si>
+  <si>
+    <t>sweat shirts</t>
+  </si>
+  <si>
+    <t>work sweaters for women</t>
+  </si>
+  <si>
+    <t>blue jogging pants</t>
+  </si>
+  <si>
+    <t>three piece outfits for women</t>
+  </si>
+  <si>
+    <t>winter sets for women</t>
+  </si>
+  <si>
+    <t>womens matching set outfits</t>
+  </si>
+  <si>
+    <t>womens yoga outfits</t>
+  </si>
+  <si>
+    <t>womens lounge sets</t>
+  </si>
+  <si>
+    <t>womens lounge set</t>
+  </si>
+  <si>
+    <t>2 piece sweater sets for women</t>
+  </si>
+  <si>
+    <t>leggings for women sport gym</t>
   </si>
 </sst>
 </file>
@@ -637,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,6 +1137,26 @@
         <v>95</v>
       </c>
     </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8337DCEB-8DFC-451C-AE06-38981DB56FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784785B-172B-4E09-B9D7-F941160C669A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>long sleeve crop shirt</t>
-  </si>
-  <si>
-    <t>black 2 piece outfit</t>
-  </si>
-  <si>
-    <t>black 2 piece set</t>
-  </si>
-  <si>
-    <t>jogger outfit</t>
-  </si>
-  <si>
-    <t>fashion legging</t>
-  </si>
-  <si>
-    <t>track outfit</t>
-  </si>
-  <si>
-    <t>fashion crop top</t>
-  </si>
-  <si>
-    <t>top legging</t>
-  </si>
-  <si>
-    <t>track shirt</t>
-  </si>
-  <si>
-    <t>long sleeve gym shirt</t>
-  </si>
-  <si>
-    <t>long sleeve activewear</t>
-  </si>
-  <si>
-    <t>long sleeve athletic crop top</t>
-  </si>
-  <si>
-    <t>long sleeve two piece</t>
-  </si>
-  <si>
-    <t>long sleeve legging set</t>
-  </si>
-  <si>
-    <t>work out long sleeve</t>
-  </si>
-  <si>
-    <t>two piece crop top</t>
-  </si>
-  <si>
-    <t>two piece suit</t>
-  </si>
-  <si>
-    <t>two piece jogger</t>
-  </si>
-  <si>
-    <t>two piece sweatsuit</t>
-  </si>
-  <si>
-    <t>2 piece outfit set</t>
-  </si>
-  <si>
-    <t>seamless long sleeve crop top</t>
-  </si>
-  <si>
-    <t>seamless long sleeve top</t>
-  </si>
-  <si>
-    <t>crop top fitness</t>
-  </si>
-  <si>
-    <t>2 piece legging set</t>
-  </si>
-  <si>
-    <t>2 piece crop top</t>
-  </si>
-  <si>
-    <t>2 piece suit</t>
-  </si>
-  <si>
-    <t>yoga sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt set</t>
-  </si>
-  <si>
-    <t>green long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green long sleeve top</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>high waist set</t>
-  </si>
-  <si>
-    <t>pink apparel</t>
-  </si>
-  <si>
-    <t>size workout</t>
-  </si>
-  <si>
-    <t>piece set</t>
-  </si>
-  <si>
-    <t>2 piece track suit</t>
-  </si>
-  <si>
-    <t>pant set</t>
-  </si>
-  <si>
-    <t>track suit</t>
-  </si>
-  <si>
-    <t>fitness top</t>
-  </si>
-  <si>
-    <t>gym long sleeve</t>
-  </si>
-  <si>
-    <t>two outfit</t>
-  </si>
-  <si>
-    <t>top track</t>
-  </si>
-  <si>
-    <t>green pant</t>
-  </si>
-  <si>
-    <t>work out shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve</t>
-  </si>
-  <si>
-    <t>blue outfit</t>
-  </si>
-  <si>
-    <t>work apparel</t>
-  </si>
-  <si>
-    <t>pant woman</t>
-  </si>
-  <si>
-    <t>matching tracksuit</t>
-  </si>
-  <si>
-    <t>pink out</t>
-  </si>
-  <si>
-    <t>high black</t>
-  </si>
-  <si>
-    <t>waist set</t>
-  </si>
-  <si>
-    <t>green tracksuit</t>
-  </si>
-  <si>
-    <t>long crop top</t>
-  </si>
-  <si>
-    <t>waist woman</t>
-  </si>
-  <si>
-    <t>suit fashion</t>
-  </si>
-  <si>
-    <t>pink track suit</t>
-  </si>
-  <si>
-    <t>long pink shirt</t>
-  </si>
-  <si>
-    <t>tight long sleeve</t>
-  </si>
-  <si>
-    <t>tight top</t>
-  </si>
-  <si>
-    <t>pink outfit</t>
-  </si>
-  <si>
-    <t>long winter</t>
-  </si>
-  <si>
-    <t>pink workout</t>
-  </si>
-  <si>
-    <t>green outfit</t>
-  </si>
-  <si>
-    <t>woman top</t>
-  </si>
-  <si>
-    <t>work out set</t>
-  </si>
-  <si>
-    <t>green workout top</t>
-  </si>
-  <si>
-    <t>long workout top</t>
-  </si>
-  <si>
-    <t>woman workout</t>
-  </si>
-  <si>
-    <t>sport fitness</t>
-  </si>
-  <si>
-    <t>black winter</t>
-  </si>
-  <si>
-    <t>black apparel</t>
-  </si>
-  <si>
-    <t>blue workout top</t>
-  </si>
-  <si>
-    <t>green black</t>
-  </si>
-  <si>
-    <t>winter legging</t>
-  </si>
-  <si>
-    <t>waist top</t>
-  </si>
-  <si>
-    <t>tight long sleeve shirt</t>
-  </si>
-  <si>
-    <t>tight set</t>
-  </si>
-  <si>
-    <t>work workout</t>
-  </si>
-  <si>
-    <t>sport fashion</t>
-  </si>
-  <si>
-    <t>sport crop</t>
-  </si>
-  <si>
-    <t>black athletic top</t>
-  </si>
-  <si>
-    <t>long workout shirt</t>
-  </si>
-  <si>
-    <t>waist sleeve</t>
-  </si>
-  <si>
-    <t>winter suit</t>
-  </si>
-  <si>
-    <t>sport jogger</t>
-  </si>
-  <si>
-    <t>black set</t>
-  </si>
-  <si>
-    <t>blue apparel</t>
-  </si>
-  <si>
-    <t>fitness jacket</t>
-  </si>
-  <si>
-    <t>black tracksuit</t>
-  </si>
-  <si>
-    <t>winter set</t>
-  </si>
-  <si>
-    <t>suit woman</t>
-  </si>
-  <si>
-    <t>winter crop top</t>
-  </si>
-  <si>
-    <t>pink winter</t>
-  </si>
-  <si>
-    <t>green pant suit</t>
-  </si>
-  <si>
-    <t>woman pant suit set</t>
-  </si>
-  <si>
-    <t>blue crop shirt</t>
-  </si>
-  <si>
-    <t>pink sleeve</t>
-  </si>
-  <si>
-    <t>black matching set</t>
+    <t>gym for women clothing</t>
+  </si>
+  <si>
+    <t>long sleeve women</t>
+  </si>
+  <si>
+    <t>yoga pants set</t>
+  </si>
+  <si>
+    <t>womens fitness tops</t>
+  </si>
+  <si>
+    <t>long shirts for leggings</t>
+  </si>
+  <si>
+    <t>female compression shirt</t>
+  </si>
+  <si>
+    <t>fitness crop tops for women</t>
+  </si>
+  <si>
+    <t>fitness joggers women</t>
+  </si>
+  <si>
+    <t>women gym clothes set</t>
+  </si>
+  <si>
+    <t>women outfits sets</t>
+  </si>
+  <si>
+    <t>women activewear suits</t>
+  </si>
+  <si>
+    <t>leggings outfits for women with top</t>
+  </si>
+  <si>
+    <t>long sleeve workout crop top</t>
+  </si>
+  <si>
+    <t>womens workout set</t>
+  </si>
+  <si>
+    <t>workout yoga tops for women</t>
+  </si>
+  <si>
+    <t>gym clothes for women sets</t>
+  </si>
+  <si>
+    <t>womens long workout tops</t>
+  </si>
+  <si>
+    <t>workout outfit for women set</t>
+  </si>
+  <si>
+    <t>womens yoga sets</t>
+  </si>
+  <si>
+    <t>2 piece sets for women</t>
+  </si>
+  <si>
+    <t>workout sets clothes for women</t>
+  </si>
+  <si>
+    <t>gym crop tops for women long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve crop tops for women workout</t>
+  </si>
+  <si>
+    <t>matching set outfit women sexy</t>
+  </si>
+  <si>
+    <t>sports tops for women</t>
+  </si>
+  <si>
+    <t>the limited clothing women</t>
+  </si>
+  <si>
+    <t>sexy leggings</t>
+  </si>
+  <si>
+    <t>winter for women clothing</t>
+  </si>
+  <si>
+    <t>suits for women</t>
+  </si>
+  <si>
+    <t>exercise outfits for women set</t>
+  </si>
+  <si>
+    <t>tennis outfit</t>
+  </si>
+  <si>
+    <t>tracks for women</t>
+  </si>
+  <si>
+    <t>suit women</t>
+  </si>
+  <si>
+    <t>athletic clothes for women</t>
+  </si>
+  <si>
+    <t>crop zip up</t>
+  </si>
+  <si>
+    <t>compression jacket women</t>
+  </si>
+  <si>
+    <t>bride yoga outfit</t>
+  </si>
+  <si>
+    <t>sweat suit</t>
+  </si>
+  <si>
+    <t>outfit for women</t>
+  </si>
+  <si>
+    <t>sweat suits</t>
+  </si>
+  <si>
+    <t>tights set for women</t>
+  </si>
+  <si>
+    <t>woman sport clothes</t>
+  </si>
+  <si>
+    <t>woman outfits sets</t>
+  </si>
+  <si>
+    <t>sexy leggings for women exercise</t>
+  </si>
+  <si>
+    <t>cute winter outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece winter outfits for women</t>
+  </si>
+  <si>
+    <t>athletic crop tops for women</t>
+  </si>
+  <si>
+    <t>adidas sweat suits women</t>
+  </si>
+  <si>
+    <t>sweat for women set</t>
+  </si>
+  <si>
+    <t>womens sweat suit</t>
+  </si>
+  <si>
+    <t>women sweat suits</t>
+  </si>
+  <si>
+    <t>woman sport clothes set</t>
+  </si>
+  <si>
+    <t>black sexy leggings for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits sets</t>
+  </si>
+  <si>
+    <t>jogging suits for women</t>
+  </si>
+  <si>
+    <t>tracksuit green</t>
+  </si>
+  <si>
+    <t>two piece outfits for women sexy</t>
+  </si>
+  <si>
+    <t>yoga legging set</t>
+  </si>
+  <si>
+    <t>athletic leggings green</t>
+  </si>
+  <si>
+    <t>yoga tops long sleeve</t>
+  </si>
+  <si>
+    <t>yoga outfit set</t>
+  </si>
+  <si>
+    <t>workout shirts women</t>
+  </si>
+  <si>
+    <t>workout tops women long sleeve</t>
+  </si>
+  <si>
+    <t>black clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit for women</t>
+  </si>
+  <si>
+    <t>women tracksuit set</t>
+  </si>
+  <si>
+    <t>women clothing sets</t>
+  </si>
+  <si>
+    <t>crop top black</t>
+  </si>
+  <si>
+    <t>crop top long sleeve for women</t>
+  </si>
+  <si>
+    <t>crop top set for women</t>
+  </si>
+  <si>
+    <t>womens long sleeve workout tops</t>
+  </si>
+  <si>
+    <t>workout set clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes sexy</t>
+  </si>
+  <si>
+    <t>leggings outfit for women</t>
+  </si>
+  <si>
+    <t>gym clothes set for women</t>
+  </si>
+  <si>
+    <t>black suit for women</t>
+  </si>
+  <si>
+    <t>workout leggings set for women</t>
+  </si>
+  <si>
+    <t>matching set women</t>
+  </si>
+  <si>
+    <t>zip up top</t>
+  </si>
+  <si>
+    <t>exercise outfit for women</t>
+  </si>
+  <si>
+    <t>crop tops exercise</t>
+  </si>
+  <si>
+    <t>crop tops gym</t>
+  </si>
+  <si>
+    <t>crop tops long sleeve</t>
+  </si>
+  <si>
+    <t>crop tops outfits for women</t>
+  </si>
+  <si>
+    <t>sweat suit set</t>
+  </si>
+  <si>
+    <t>sweatsuits for women</t>
+  </si>
+  <si>
+    <t>crop tops women clothing</t>
+  </si>
+  <si>
+    <t>legging shirt</t>
+  </si>
+  <si>
+    <t>sweats for women</t>
+  </si>
+  <si>
+    <t>sweats sets for women</t>
+  </si>
+  <si>
+    <t>sweats suits for women</t>
+  </si>
+  <si>
+    <t>jogging suit for women</t>
+  </si>
+  <si>
+    <t>sweatsuit for women</t>
+  </si>
+  <si>
+    <t>sweatsuit women</t>
+  </si>
+  <si>
+    <t>two piece sets</t>
+  </si>
+  <si>
+    <t>women suits</t>
+  </si>
+  <si>
+    <t>athletic clothes women</t>
+  </si>
+  <si>
+    <t>leggings for gym</t>
+  </si>
+  <si>
+    <t>leggins pink victoria secret</t>
+  </si>
+  <si>
+    <t>2 piece athletic outfits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -652,7 +680,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,27 +1166,30 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784785B-172B-4E09-B9D7-F941160C669A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0FC3C-D5E5-413C-AD5F-6A8D3244CC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>gym for women clothing</t>
-  </si>
-  <si>
-    <t>long sleeve women</t>
-  </si>
-  <si>
-    <t>yoga pants set</t>
-  </si>
-  <si>
-    <t>womens fitness tops</t>
-  </si>
-  <si>
-    <t>long shirts for leggings</t>
-  </si>
-  <si>
-    <t>female compression shirt</t>
-  </si>
-  <si>
-    <t>fitness crop tops for women</t>
-  </si>
-  <si>
-    <t>fitness joggers women</t>
-  </si>
-  <si>
-    <t>women gym clothes set</t>
-  </si>
-  <si>
-    <t>women outfits sets</t>
-  </si>
-  <si>
-    <t>women activewear suits</t>
-  </si>
-  <si>
-    <t>leggings outfits for women with top</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop top</t>
-  </si>
-  <si>
-    <t>womens workout set</t>
-  </si>
-  <si>
-    <t>workout yoga tops for women</t>
-  </si>
-  <si>
-    <t>gym clothes for women sets</t>
-  </si>
-  <si>
-    <t>womens long workout tops</t>
-  </si>
-  <si>
-    <t>workout outfit for women set</t>
-  </si>
-  <si>
-    <t>womens yoga sets</t>
-  </si>
-  <si>
-    <t>2 piece sets for women</t>
-  </si>
-  <si>
-    <t>workout sets clothes for women</t>
-  </si>
-  <si>
-    <t>gym crop tops for women long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve crop tops for women workout</t>
-  </si>
-  <si>
-    <t>matching set outfit women sexy</t>
-  </si>
-  <si>
-    <t>sports tops for women</t>
-  </si>
-  <si>
-    <t>the limited clothing women</t>
-  </si>
-  <si>
-    <t>sexy leggings</t>
-  </si>
-  <si>
-    <t>winter for women clothing</t>
-  </si>
-  <si>
-    <t>suits for women</t>
-  </si>
-  <si>
-    <t>exercise outfits for women set</t>
-  </si>
-  <si>
-    <t>tennis outfit</t>
-  </si>
-  <si>
-    <t>tracks for women</t>
-  </si>
-  <si>
-    <t>suit women</t>
-  </si>
-  <si>
-    <t>athletic clothes for women</t>
-  </si>
-  <si>
-    <t>crop zip up</t>
-  </si>
-  <si>
-    <t>compression jacket women</t>
-  </si>
-  <si>
-    <t>bride yoga outfit</t>
-  </si>
-  <si>
-    <t>sweat suit</t>
-  </si>
-  <si>
-    <t>outfit for women</t>
-  </si>
-  <si>
-    <t>sweat suits</t>
-  </si>
-  <si>
-    <t>tights set for women</t>
-  </si>
-  <si>
-    <t>woman sport clothes</t>
-  </si>
-  <si>
-    <t>woman outfits sets</t>
-  </si>
-  <si>
-    <t>sexy leggings for women exercise</t>
-  </si>
-  <si>
-    <t>cute winter outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece winter outfits for women</t>
-  </si>
-  <si>
-    <t>athletic crop tops for women</t>
-  </si>
-  <si>
-    <t>adidas sweat suits women</t>
-  </si>
-  <si>
-    <t>sweat for women set</t>
-  </si>
-  <si>
-    <t>womens sweat suit</t>
-  </si>
-  <si>
-    <t>women sweat suits</t>
-  </si>
-  <si>
-    <t>woman sport clothes set</t>
-  </si>
-  <si>
-    <t>black sexy leggings for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets</t>
-  </si>
-  <si>
-    <t>jogging suits for women</t>
-  </si>
-  <si>
-    <t>tracksuit green</t>
-  </si>
-  <si>
-    <t>two piece outfits for women sexy</t>
-  </si>
-  <si>
-    <t>yoga legging set</t>
-  </si>
-  <si>
-    <t>athletic leggings green</t>
-  </si>
-  <si>
-    <t>yoga tops long sleeve</t>
-  </si>
-  <si>
-    <t>yoga outfit set</t>
-  </si>
-  <si>
-    <t>workout shirts women</t>
-  </si>
-  <si>
-    <t>workout tops women long sleeve</t>
-  </si>
-  <si>
-    <t>black clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit for women</t>
-  </si>
-  <si>
-    <t>women tracksuit set</t>
-  </si>
-  <si>
-    <t>women clothing sets</t>
-  </si>
-  <si>
-    <t>crop top black</t>
-  </si>
-  <si>
-    <t>crop top long sleeve for women</t>
-  </si>
-  <si>
-    <t>crop top set for women</t>
-  </si>
-  <si>
-    <t>womens long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>workout set clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes sexy</t>
-  </si>
-  <si>
-    <t>leggings outfit for women</t>
-  </si>
-  <si>
-    <t>gym clothes set for women</t>
-  </si>
-  <si>
-    <t>black suit for women</t>
-  </si>
-  <si>
-    <t>workout leggings set for women</t>
-  </si>
-  <si>
-    <t>matching set women</t>
-  </si>
-  <si>
-    <t>zip up top</t>
-  </si>
-  <si>
-    <t>exercise outfit for women</t>
-  </si>
-  <si>
-    <t>crop tops exercise</t>
-  </si>
-  <si>
-    <t>crop tops gym</t>
-  </si>
-  <si>
-    <t>crop tops long sleeve</t>
-  </si>
-  <si>
-    <t>crop tops outfits for women</t>
-  </si>
-  <si>
-    <t>sweat suit set</t>
-  </si>
-  <si>
-    <t>sweatsuits for women</t>
-  </si>
-  <si>
-    <t>crop tops women clothing</t>
-  </si>
-  <si>
-    <t>legging shirt</t>
-  </si>
-  <si>
-    <t>sweats for women</t>
-  </si>
-  <si>
-    <t>sweats sets for women</t>
-  </si>
-  <si>
-    <t>sweats suits for women</t>
-  </si>
-  <si>
-    <t>jogging suit for women</t>
-  </si>
-  <si>
-    <t>sweatsuit for women</t>
-  </si>
-  <si>
-    <t>sweatsuit women</t>
-  </si>
-  <si>
-    <t>two piece sets</t>
-  </si>
-  <si>
-    <t>women suits</t>
-  </si>
-  <si>
-    <t>athletic clothes women</t>
-  </si>
-  <si>
-    <t>leggings for gym</t>
-  </si>
-  <si>
-    <t>leggins pink victoria secret</t>
-  </si>
-  <si>
-    <t>2 piece athletic outfits</t>
+    <t>two piece outfit for women</t>
+  </si>
+  <si>
+    <t>blue black leggings</t>
+  </si>
+  <si>
+    <t>womens high tops</t>
+  </si>
+  <si>
+    <t>women exercise tops long sleeve</t>
+  </si>
+  <si>
+    <t>2peice sets for women</t>
+  </si>
+  <si>
+    <t>jogging suit womens</t>
+  </si>
+  <si>
+    <t>deportivos para mujer</t>
+  </si>
+  <si>
+    <t>gym set clothes</t>
+  </si>
+  <si>
+    <t>sweats set</t>
+  </si>
+  <si>
+    <t>sweatsuit set for women</t>
+  </si>
+  <si>
+    <t>black clothing</t>
+  </si>
+  <si>
+    <t>womens suits</t>
+  </si>
+  <si>
+    <t>woman suit</t>
+  </si>
+  <si>
+    <t>outfit clothes</t>
+  </si>
+  <si>
+    <t>woman exercise clothes</t>
+  </si>
+  <si>
+    <t>workout zip up for women</t>
+  </si>
+  <si>
+    <t>womens long sleeve athletic tops</t>
+  </si>
+  <si>
+    <t>black long sleeve crop top for women</t>
+  </si>
+  <si>
+    <t>mommy and me workout clothes</t>
+  </si>
+  <si>
+    <t>exercise womens clothing</t>
+  </si>
+  <si>
+    <t>pink jogging suit</t>
+  </si>
+  <si>
+    <t>womens two piece outfits</t>
+  </si>
+  <si>
+    <t>winter active wear for women</t>
+  </si>
+  <si>
+    <t>sport suit for women</t>
+  </si>
+  <si>
+    <t>set long</t>
+  </si>
+  <si>
+    <t>winter athletic wear women</t>
+  </si>
+  <si>
+    <t>fitness long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>shirt suits for women</t>
+  </si>
+  <si>
+    <t>compression athletic leggings women</t>
+  </si>
+  <si>
+    <t>woman crop top</t>
+  </si>
+  <si>
+    <t>tops black</t>
+  </si>
+  <si>
+    <t>athletic two piece outfits for women</t>
+  </si>
+  <si>
+    <t>athletic long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>clothing sets for women</t>
+  </si>
+  <si>
+    <t>bowling clothes for women</t>
+  </si>
+  <si>
+    <t>female suit</t>
+  </si>
+  <si>
+    <t>warm workout clothes</t>
+  </si>
+  <si>
+    <t>leggings suits for women</t>
+  </si>
+  <si>
+    <t>matching 2 piece outfits</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets</t>
+  </si>
+  <si>
+    <t>suits set for women</t>
+  </si>
+  <si>
+    <t>victory secret pink clothing</t>
+  </si>
+  <si>
+    <t>exercise sweat suits</t>
+  </si>
+  <si>
+    <t>cropped black shirt</t>
+  </si>
+  <si>
+    <t>seamless shirts</t>
+  </si>
+  <si>
+    <t>womens suit</t>
+  </si>
+  <si>
+    <t>womens sweatsuits</t>
+  </si>
+  <si>
+    <t>womens outfits for winter</t>
+  </si>
+  <si>
+    <t>two piece outfit women</t>
+  </si>
+  <si>
+    <t>green two piece</t>
+  </si>
+  <si>
+    <t>2 piece women clothes</t>
+  </si>
+  <si>
+    <t>women suit set</t>
+  </si>
+  <si>
+    <t>shirts with leggings</t>
+  </si>
+  <si>
+    <t>shirts with leggings for women</t>
+  </si>
+  <si>
+    <t>outfit winter for women</t>
+  </si>
+  <si>
+    <t>green suit for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop athletic</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout top</t>
+  </si>
+  <si>
+    <t>blue track suit</t>
+  </si>
+  <si>
+    <t>high waist pants and crop top set</t>
+  </si>
+  <si>
+    <t>zipper crop top</t>
+  </si>
+  <si>
+    <t>clothes gym women</t>
+  </si>
+  <si>
+    <t>women crop top</t>
+  </si>
+  <si>
+    <t>sweat exercise suit</t>
+  </si>
+  <si>
+    <t>fashion jogging suits for women</t>
+  </si>
+  <si>
+    <t>clothes shirts</t>
+  </si>
+  <si>
+    <t>sweat sleeves</t>
+  </si>
+  <si>
+    <t>top sets for women</t>
+  </si>
+  <si>
+    <t>women exercise shirts</t>
+  </si>
+  <si>
+    <t>women sweatsuits set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens compression suit</t>
+  </si>
+  <si>
+    <t>black leggings outfit</t>
+  </si>
+  <si>
+    <t>two piece long sleeve outfits for women</t>
+  </si>
+  <si>
+    <t>two piece active wear</t>
+  </si>
+  <si>
+    <t>two piece track suit</t>
+  </si>
+  <si>
+    <t>womens athletic sets</t>
+  </si>
+  <si>
+    <t>womens athletic suits</t>
+  </si>
+  <si>
+    <t>sexy athletic tops for women</t>
+  </si>
+  <si>
+    <t>black cropped leggings for women</t>
+  </si>
+  <si>
+    <t>womens fashion sweat suits</t>
+  </si>
+  <si>
+    <t>2 piece high waist outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece sports outfits for women</t>
+  </si>
+  <si>
+    <t>shirt and leggings set</t>
+  </si>
+  <si>
+    <t>workout long sleeve crop top</t>
+  </si>
+  <si>
+    <t>woman sweat suits sets</t>
+  </si>
+  <si>
+    <t>matching leggings and top women</t>
+  </si>
+  <si>
+    <t>pack of crop tops for women</t>
+  </si>
+  <si>
+    <t>zip up bodysuit for women</t>
+  </si>
+  <si>
+    <t>crop tops activewear</t>
+  </si>
+  <si>
+    <t>green two piece set for women</t>
+  </si>
+  <si>
+    <t>blue clothing for women</t>
+  </si>
+  <si>
+    <t>blue 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens sweats set</t>
+  </si>
+  <si>
+    <t>women yoga jacket</t>
+  </si>
+  <si>
+    <t>womens gym outfit set</t>
+  </si>
+  <si>
+    <t>athletics 2</t>
+  </si>
+  <si>
+    <t>sweat shirt</t>
+  </si>
+  <si>
+    <t>two pieces</t>
+  </si>
+  <si>
+    <t>green womens top</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0FC3C-D5E5-413C-AD5F-6A8D3244CC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EC798E-EC53-48BF-838B-2882B5C0330E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>two piece outfit for women</t>
-  </si>
-  <si>
-    <t>blue black leggings</t>
-  </si>
-  <si>
-    <t>womens high tops</t>
-  </si>
-  <si>
-    <t>women exercise tops long sleeve</t>
-  </si>
-  <si>
-    <t>2peice sets for women</t>
-  </si>
-  <si>
-    <t>jogging suit womens</t>
-  </si>
-  <si>
-    <t>deportivos para mujer</t>
-  </si>
-  <si>
-    <t>gym set clothes</t>
-  </si>
-  <si>
-    <t>sweats set</t>
-  </si>
-  <si>
-    <t>sweatsuit set for women</t>
-  </si>
-  <si>
-    <t>black clothing</t>
-  </si>
-  <si>
-    <t>womens suits</t>
-  </si>
-  <si>
-    <t>woman suit</t>
-  </si>
-  <si>
-    <t>outfit clothes</t>
-  </si>
-  <si>
-    <t>woman exercise clothes</t>
-  </si>
-  <si>
-    <t>workout zip up for women</t>
-  </si>
-  <si>
-    <t>womens long sleeve athletic tops</t>
-  </si>
-  <si>
-    <t>black long sleeve crop top for women</t>
-  </si>
-  <si>
-    <t>mommy and me workout clothes</t>
-  </si>
-  <si>
-    <t>exercise womens clothing</t>
-  </si>
-  <si>
-    <t>pink jogging suit</t>
-  </si>
-  <si>
-    <t>womens two piece outfits</t>
-  </si>
-  <si>
-    <t>winter active wear for women</t>
-  </si>
-  <si>
-    <t>sport suit for women</t>
-  </si>
-  <si>
-    <t>set long</t>
-  </si>
-  <si>
-    <t>winter athletic wear women</t>
-  </si>
-  <si>
-    <t>fitness long sleeve tops for women</t>
-  </si>
-  <si>
-    <t>shirt suits for women</t>
-  </si>
-  <si>
-    <t>compression athletic leggings women</t>
-  </si>
-  <si>
-    <t>woman crop top</t>
-  </si>
-  <si>
-    <t>tops black</t>
-  </si>
-  <si>
-    <t>athletic two piece outfits for women</t>
-  </si>
-  <si>
-    <t>athletic long sleeve tops for women</t>
-  </si>
-  <si>
-    <t>clothing sets for women</t>
-  </si>
-  <si>
-    <t>bowling clothes for women</t>
-  </si>
-  <si>
-    <t>female suit</t>
-  </si>
-  <si>
-    <t>warm workout clothes</t>
-  </si>
-  <si>
-    <t>leggings suits for women</t>
-  </si>
-  <si>
-    <t>matching 2 piece outfits</t>
-  </si>
-  <si>
-    <t>womens jogging suits sets</t>
-  </si>
-  <si>
-    <t>suits set for women</t>
-  </si>
-  <si>
-    <t>victory secret pink clothing</t>
-  </si>
-  <si>
-    <t>exercise sweat suits</t>
-  </si>
-  <si>
-    <t>cropped black shirt</t>
-  </si>
-  <si>
-    <t>seamless shirts</t>
-  </si>
-  <si>
-    <t>womens suit</t>
-  </si>
-  <si>
-    <t>womens sweatsuits</t>
-  </si>
-  <si>
-    <t>womens outfits for winter</t>
-  </si>
-  <si>
-    <t>two piece outfit women</t>
-  </si>
-  <si>
-    <t>green two piece</t>
-  </si>
-  <si>
-    <t>2 piece women clothes</t>
-  </si>
-  <si>
-    <t>women suit set</t>
-  </si>
-  <si>
-    <t>shirts with leggings</t>
-  </si>
-  <si>
-    <t>shirts with leggings for women</t>
-  </si>
-  <si>
-    <t>outfit winter for women</t>
-  </si>
-  <si>
-    <t>green suit for women</t>
-  </si>
-  <si>
-    <t>long sleeve crop athletic</t>
-  </si>
-  <si>
-    <t>long sleeve crop workout top</t>
-  </si>
-  <si>
-    <t>blue track suit</t>
-  </si>
-  <si>
-    <t>high waist pants and crop top set</t>
-  </si>
-  <si>
-    <t>zipper crop top</t>
-  </si>
-  <si>
-    <t>clothes gym women</t>
-  </si>
-  <si>
-    <t>women crop top</t>
-  </si>
-  <si>
-    <t>sweat exercise suit</t>
-  </si>
-  <si>
-    <t>fashion jogging suits for women</t>
-  </si>
-  <si>
-    <t>clothes shirts</t>
-  </si>
-  <si>
-    <t>sweat sleeves</t>
-  </si>
-  <si>
-    <t>top sets for women</t>
-  </si>
-  <si>
-    <t>women exercise shirts</t>
-  </si>
-  <si>
-    <t>women sweatsuits set</t>
-  </si>
-  <si>
-    <t>long sleeve two piece outfits for women</t>
-  </si>
-  <si>
-    <t>womens compression suit</t>
-  </si>
-  <si>
-    <t>black leggings outfit</t>
-  </si>
-  <si>
-    <t>two piece long sleeve outfits for women</t>
-  </si>
-  <si>
-    <t>two piece active wear</t>
-  </si>
-  <si>
-    <t>two piece track suit</t>
-  </si>
-  <si>
-    <t>womens athletic sets</t>
-  </si>
-  <si>
-    <t>womens athletic suits</t>
-  </si>
-  <si>
-    <t>sexy athletic tops for women</t>
-  </si>
-  <si>
-    <t>black cropped leggings for women</t>
-  </si>
-  <si>
-    <t>womens fashion sweat suits</t>
-  </si>
-  <si>
-    <t>2 piece high waist outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece sports outfits for women</t>
-  </si>
-  <si>
-    <t>shirt and leggings set</t>
-  </si>
-  <si>
-    <t>workout long sleeve crop top</t>
-  </si>
-  <si>
-    <t>woman sweat suits sets</t>
-  </si>
-  <si>
-    <t>matching leggings and top women</t>
-  </si>
-  <si>
-    <t>pack of crop tops for women</t>
-  </si>
-  <si>
-    <t>zip up bodysuit for women</t>
-  </si>
-  <si>
-    <t>crop tops activewear</t>
-  </si>
-  <si>
-    <t>green two piece set for women</t>
-  </si>
-  <si>
-    <t>blue clothing for women</t>
-  </si>
-  <si>
-    <t>blue 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>womens sweats set</t>
-  </si>
-  <si>
-    <t>women yoga jacket</t>
-  </si>
-  <si>
-    <t>womens gym outfit set</t>
-  </si>
-  <si>
-    <t>athletics 2</t>
-  </si>
-  <si>
-    <t>sweat shirt</t>
-  </si>
-  <si>
-    <t>two pieces</t>
-  </si>
-  <si>
-    <t>green womens top</t>
+    <t>women body suit</t>
+  </si>
+  <si>
+    <t>workout leggings black</t>
+  </si>
+  <si>
+    <t>legging sets for women</t>
+  </si>
+  <si>
+    <t>workout clothes set</t>
+  </si>
+  <si>
+    <t>gym crop top</t>
+  </si>
+  <si>
+    <t>leggings sport</t>
+  </si>
+  <si>
+    <t>matching sweaters</t>
+  </si>
+  <si>
+    <t>long sleeve shirt women black</t>
+  </si>
+  <si>
+    <t>green leggings for women</t>
+  </si>
+  <si>
+    <t>workout crop tops for women</t>
+  </si>
+  <si>
+    <t>sexy gym clothes for women</t>
+  </si>
+  <si>
+    <t>2 pieces outfits</t>
+  </si>
+  <si>
+    <t>sweater crop tops for women</t>
+  </si>
+  <si>
+    <t>exercise clothes</t>
+  </si>
+  <si>
+    <t>finger workout</t>
+  </si>
+  <si>
+    <t>modest workout clothes for women</t>
+  </si>
+  <si>
+    <t>3 piece outfits for women</t>
+  </si>
+  <si>
+    <t>womans workout clothes</t>
+  </si>
+  <si>
+    <t>two piece sets for women</t>
+  </si>
+  <si>
+    <t>crop top and leggings set</t>
+  </si>
+  <si>
+    <t>black crop top women</t>
+  </si>
+  <si>
+    <t>green shirt women</t>
+  </si>
+  <si>
+    <t>2 pcs set for women</t>
+  </si>
+  <si>
+    <t>pink victoria secret headbands</t>
+  </si>
+  <si>
+    <t>clothes for gym</t>
+  </si>
+  <si>
+    <t>exercise set for women</t>
+  </si>
+  <si>
+    <t>sport sweaters for women</t>
+  </si>
+  <si>
+    <t>compression tops for women exercise</t>
+  </si>
+  <si>
+    <t>female gym clothes</t>
+  </si>
+  <si>
+    <t>joggers fitness</t>
+  </si>
+  <si>
+    <t>black crop sweater</t>
+  </si>
+  <si>
+    <t>womens outfits sets</t>
+  </si>
+  <si>
+    <t>green two piece outfits for women</t>
+  </si>
+  <si>
+    <t>hole top</t>
+  </si>
+  <si>
+    <t>sweat suits for women</t>
+  </si>
+  <si>
+    <t>dark green outfit</t>
+  </si>
+  <si>
+    <t>sweats suits</t>
+  </si>
+  <si>
+    <t>victoris secret pink clothing</t>
+  </si>
+  <si>
+    <t>green outfits for women</t>
+  </si>
+  <si>
+    <t>shirt workout</t>
+  </si>
+  <si>
+    <t>2 outfit</t>
+  </si>
+  <si>
+    <t>track suit women</t>
+  </si>
+  <si>
+    <t>women two piece outfits</t>
+  </si>
+  <si>
+    <t>zero to sexy</t>
+  </si>
+  <si>
+    <t>long green shirts for women</t>
+  </si>
+  <si>
+    <t>seamless tops for women</t>
+  </si>
+  <si>
+    <t>leggings sets for women</t>
+  </si>
+  <si>
+    <t>workout cloth for women</t>
+  </si>
+  <si>
+    <t>women black crop top</t>
+  </si>
+  <si>
+    <t>black cropped long sleeve</t>
+  </si>
+  <si>
+    <t>winter sports suit</t>
+  </si>
+  <si>
+    <t>womens winter outfits</t>
+  </si>
+  <si>
+    <t>big and tall sweat suits</t>
+  </si>
+  <si>
+    <t>black exercise shirt women</t>
+  </si>
+  <si>
+    <t>black and green leggings for women</t>
+  </si>
+  <si>
+    <t>green and black top</t>
+  </si>
+  <si>
+    <t>long sleeve black women</t>
+  </si>
+  <si>
+    <t>long sleeve body suits womens</t>
+  </si>
+  <si>
+    <t>womens sweater set</t>
+  </si>
+  <si>
+    <t>adidas sweat suits for women set</t>
+  </si>
+  <si>
+    <t>green crop tops</t>
+  </si>
+  <si>
+    <t>sexy workout clothes for women set</t>
+  </si>
+  <si>
+    <t>yoga sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece black set for women</t>
+  </si>
+  <si>
+    <t>dark green tops</t>
+  </si>
+  <si>
+    <t>matching jogger sets women clothing</t>
+  </si>
+  <si>
+    <t>2 piece long sleeve sets for women</t>
+  </si>
+  <si>
+    <t>tights for track</t>
+  </si>
+  <si>
+    <t>womens winter outfits sets</t>
+  </si>
+  <si>
+    <t>green 2 piece outfit for women</t>
+  </si>
+  <si>
+    <t>workout tops for women set</t>
+  </si>
+  <si>
+    <t>seamless workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens matching lounge set</t>
+  </si>
+  <si>
+    <t>longsleeve crop top</t>
+  </si>
+  <si>
+    <t>crop fitness top for women</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>seamless leggings</t>
+  </si>
+  <si>
+    <t>shirts for leggings</t>
+  </si>
+  <si>
+    <t>yoga clothes for women</t>
+  </si>
+  <si>
+    <t>womens yoga suits</t>
+  </si>
+  <si>
+    <t>women athletic clothes</t>
+  </si>
+  <si>
+    <t>track set women</t>
+  </si>
+  <si>
+    <t>track sets</t>
+  </si>
+  <si>
+    <t>bodybuilding jacket</t>
+  </si>
+  <si>
+    <t>cute womens jogging suits</t>
+  </si>
+  <si>
+    <t>womens athletic fashion</t>
+  </si>
+  <si>
+    <t>fitness clothes</t>
+  </si>
+  <si>
+    <t>matching workout set</t>
+  </si>
+  <si>
+    <t>women fitness clothes</t>
+  </si>
+  <si>
+    <t>set clothes for women</t>
+  </si>
+  <si>
+    <t>two piece outfits for women</t>
+  </si>
+  <si>
+    <t>legging and crop top set</t>
+  </si>
+  <si>
+    <t>legging shirts</t>
+  </si>
+  <si>
+    <t>female clothes</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece</t>
+  </si>
+  <si>
+    <t>workout tops</t>
+  </si>
+  <si>
+    <t>exercise leggings for women</t>
+  </si>
+  <si>
+    <t>exercise leggings set</t>
+  </si>
+  <si>
+    <t>legging outfits for women</t>
+  </si>
+  <si>
+    <t>bodybuilding workout clothes</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA6DD0B-9333-40B1-AA6A-0F8BD3158CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,55 +25,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>bodybuilding clothing</t>
-  </si>
-  <si>
-    <t>womens workout crop top</t>
-  </si>
-  <si>
-    <t>matching set for women</t>
-  </si>
-  <si>
-    <t>sweat suit for women</t>
-  </si>
-  <si>
-    <t>tracksuits women</t>
-  </si>
-  <si>
-    <t>exercise sets for women</t>
-  </si>
-  <si>
-    <t>matching workout sets</t>
-  </si>
-  <si>
-    <t>women exercise</t>
-  </si>
-  <si>
-    <t>sexy workout leggings for women</t>
-  </si>
-  <si>
-    <t>sports suits for women</t>
-  </si>
-  <si>
-    <t>women winter workout clothes</t>
-  </si>
-  <si>
-    <t>track suit for women two piece</t>
-  </si>
-  <si>
-    <t>2 pc track suits</t>
-  </si>
-  <si>
-    <t>sweatsuits sets for women 2 piece</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -422,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,23 +727,438 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069ED5E-D4F3-44A1-8D53-B7932C6F44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>jogger woman high waist</t>
-  </si>
-  <si>
-    <t>black jogger woman</t>
-  </si>
-  <si>
-    <t>workout crop top woman</t>
-  </si>
-  <si>
-    <t>jogger set woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant woman</t>
-  </si>
-  <si>
-    <t>workout set woman 2 piece</t>
-  </si>
-  <si>
-    <t>black pant woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman</t>
-  </si>
-  <si>
-    <t>workout top woman</t>
-  </si>
-  <si>
-    <t>crop athletic jacket</t>
-  </si>
-  <si>
-    <t>tight clothe</t>
-  </si>
-  <si>
-    <t>black yoga tight</t>
-  </si>
-  <si>
-    <t>black compression tight</t>
-  </si>
-  <si>
-    <t>turquoise clothe</t>
-  </si>
-  <si>
-    <t>turquoise piece</t>
-  </si>
-  <si>
-    <t>fitness tight</t>
-  </si>
-  <si>
-    <t>crop tight</t>
-  </si>
-  <si>
-    <t>clothe compression</t>
-  </si>
-  <si>
-    <t>turquoise tight</t>
-  </si>
-  <si>
-    <t>piece black</t>
-  </si>
-  <si>
-    <t>athletic tight</t>
-  </si>
-  <si>
-    <t>fitness clothe</t>
-  </si>
-  <si>
-    <t>compression yoga tight</t>
-  </si>
-  <si>
-    <t>clothe outfit</t>
-  </si>
-  <si>
-    <t>athletic clothe</t>
-  </si>
-  <si>
-    <t>black clothe</t>
-  </si>
-  <si>
-    <t>yoga clothe</t>
-  </si>
-  <si>
-    <t>athletic sport</t>
-  </si>
-  <si>
-    <t>fitness jogger</t>
-  </si>
-  <si>
-    <t>jogging legging</t>
-  </si>
-  <si>
-    <t>seamless athletic legging</t>
-  </si>
-  <si>
-    <t>two set top</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>long workout legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging high waist</t>
-  </si>
-  <si>
-    <t>2 piece seamless workout outfit</t>
-  </si>
-  <si>
-    <t>crop workout legging</t>
-  </si>
-  <si>
-    <t>yoga seamless outfit</t>
-  </si>
-  <si>
-    <t>2 piece outfit long sleeve</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout outfit</t>
-  </si>
-  <si>
-    <t>high waist crop legging</t>
-  </si>
-  <si>
-    <t>waist legging</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>high waist legging long</t>
-  </si>
-  <si>
-    <t>high legging</t>
-  </si>
-  <si>
-    <t>long sleeve crop top outfit</t>
-  </si>
-  <si>
-    <t>long sleeve top legging</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>jogger legging</t>
-  </si>
-  <si>
-    <t>seamless yoga legging</t>
-  </si>
-  <si>
-    <t>high waist yoga legging</t>
-  </si>
-  <si>
-    <t>high waist seamless legging</t>
-  </si>
-  <si>
-    <t>long top legging</t>
-  </si>
-  <si>
-    <t>seamless workout legging</t>
-  </si>
-  <si>
-    <t>long sleeve</t>
-  </si>
-  <si>
-    <t>work out</t>
-  </si>
-  <si>
-    <t>fashion top</t>
-  </si>
-  <si>
-    <t>athletic sleeve</t>
-  </si>
-  <si>
-    <t>gym shirt</t>
-  </si>
-  <si>
-    <t>two piece</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>workout waist</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>track set</t>
-  </si>
-  <si>
-    <t>yoga fitness</t>
-  </si>
-  <si>
-    <t>yoga jacket</t>
-  </si>
-  <si>
-    <t>yoga outfit</t>
-  </si>
-  <si>
-    <t>bodybuilding shirt</t>
-  </si>
-  <si>
-    <t>turquoise jacket</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>high top</t>
-  </si>
-  <si>
-    <t>fitness apparel</t>
-  </si>
-  <si>
-    <t>crop top</t>
-  </si>
-  <si>
-    <t>sleeve top</t>
-  </si>
-  <si>
-    <t>fashion set</t>
-  </si>
-  <si>
-    <t>high waist black pant</t>
-  </si>
-  <si>
-    <t>legging crop top set</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout crop top</t>
-  </si>
-  <si>
-    <t>workout matching set</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout gym</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>gym workout set</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>workout shirt long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve shirt</t>
-  </si>
-  <si>
-    <t>pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>black suit</t>
-  </si>
-  <si>
-    <t>black jacket</t>
-  </si>
-  <si>
-    <t>black legging</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>black long sleeve</t>
+    <t>compression suit</t>
+  </si>
+  <si>
+    <t>colorful joggers</t>
+  </si>
+  <si>
+    <t>woman workout clothes</t>
+  </si>
+  <si>
+    <t>blue crop tops</t>
+  </si>
+  <si>
+    <t>womens winter pants</t>
+  </si>
+  <si>
+    <t>gym set for women</t>
+  </si>
+  <si>
+    <t>blue tights for women</t>
+  </si>
+  <si>
+    <t>winter clothes women</t>
+  </si>
+  <si>
+    <t>style co tops for women</t>
+  </si>
+  <si>
+    <t>long sleeve compression bodysuit</t>
+  </si>
+  <si>
+    <t>leggings for women set</t>
+  </si>
+  <si>
+    <t>shirts for leggings for women</t>
+  </si>
+  <si>
+    <t>workout crop tops</t>
+  </si>
+  <si>
+    <t>womens crop top set</t>
+  </si>
+  <si>
+    <t>cute tights</t>
+  </si>
+  <si>
+    <t>sports crop tops for women</t>
+  </si>
+  <si>
+    <t>running crop leggings</t>
+  </si>
+  <si>
+    <t>fitness chart</t>
+  </si>
+  <si>
+    <t>sexy workout clothes</t>
+  </si>
+  <si>
+    <t>tight suit</t>
+  </si>
+  <si>
+    <t>bowling cloth</t>
+  </si>
+  <si>
+    <t>colorful joggers for women</t>
+  </si>
+  <si>
+    <t>colorful outfits for women</t>
+  </si>
+  <si>
+    <t>matching leggings</t>
+  </si>
+  <si>
+    <t>tights suit</t>
+  </si>
+  <si>
+    <t>crop workout pants</t>
+  </si>
+  <si>
+    <t>ropa abrigada de mujer</t>
+  </si>
+  <si>
+    <t>workout suits for women</t>
+  </si>
+  <si>
+    <t>workout spandex for women</t>
+  </si>
+  <si>
+    <t>workout black leggings</t>
+  </si>
+  <si>
+    <t>women sexy winter clothes</t>
+  </si>
+  <si>
+    <t>women sexy yoga pants</t>
+  </si>
+  <si>
+    <t>lightweight workout jacket</t>
+  </si>
+  <si>
+    <t>tracksuit women</t>
+  </si>
+  <si>
+    <t>2 piece black outfits for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout shirts for women</t>
+  </si>
+  <si>
+    <t>green and black leggings</t>
+  </si>
+  <si>
+    <t>running crop pants</t>
+  </si>
+  <si>
+    <t>track bowling</t>
+  </si>
+  <si>
+    <t>track sweater</t>
+  </si>
+  <si>
+    <t>fashion track pants</t>
+  </si>
+  <si>
+    <t>fashion tracksuit for women</t>
+  </si>
+  <si>
+    <t>women tracksuit</t>
+  </si>
+  <si>
+    <t>women sets outfits</t>
+  </si>
+  <si>
+    <t>two piece black outfits for women</t>
+  </si>
+  <si>
+    <t>two piece lounge outfits for women</t>
+  </si>
+  <si>
+    <t>crop top matching set</t>
+  </si>
+  <si>
+    <t>leggings athletic for women</t>
+  </si>
+  <si>
+    <t>2 piece crop top outfits for women</t>
+  </si>
+  <si>
+    <t>workout crop tops women</t>
+  </si>
+  <si>
+    <t>matching workout clothes</t>
+  </si>
+  <si>
+    <t>two piece sweater outfits for women</t>
+  </si>
+  <si>
+    <t>black legging sets for women</t>
+  </si>
+  <si>
+    <t>womens workout clothing</t>
+  </si>
+  <si>
+    <t>sweat bodysuit for women</t>
+  </si>
+  <si>
+    <t>big and tall womens clothing</t>
+  </si>
+  <si>
+    <t>cute sweatsuits for women</t>
+  </si>
+  <si>
+    <t>simply be clothing</t>
+  </si>
+  <si>
+    <t>black sweatsuit</t>
+  </si>
+  <si>
+    <t>black sweats</t>
+  </si>
+  <si>
+    <t>female gym leggings</t>
+  </si>
+  <si>
+    <t>tennis warm up jacket</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing for kids</t>
+  </si>
+  <si>
+    <t>wide leg two piece set</t>
+  </si>
+  <si>
+    <t>womens crop jacket</t>
+  </si>
+  <si>
+    <t>pans para mujer deportivos</t>
+  </si>
+  <si>
+    <t>black long leggings for women</t>
+  </si>
+  <si>
+    <t>womans workout clothing</t>
+  </si>
+  <si>
+    <t>womens cropped leggings</t>
+  </si>
+  <si>
+    <t>womens pink jogging suits</t>
+  </si>
+  <si>
+    <t>bowling thumb sleeve</t>
+  </si>
+  <si>
+    <t>cute crop top sweaters</t>
+  </si>
+  <si>
+    <t>tall workout tops</t>
+  </si>
+  <si>
+    <t>women winter outfits sets</t>
+  </si>
+  <si>
+    <t>ladies sports leggings</t>
+  </si>
+  <si>
+    <t>compression tops for women</t>
+  </si>
+  <si>
+    <t>womens tennis sweater</t>
+  </si>
+  <si>
+    <t>crop tops for workout</t>
+  </si>
+  <si>
+    <t>womens work out set</t>
+  </si>
+  <si>
+    <t>pink victoria secret headband</t>
+  </si>
+  <si>
+    <t>workout clothes for women clearance</t>
+  </si>
+  <si>
+    <t>women two piece outfits sets winter</t>
+  </si>
+  <si>
+    <t>fitness top for women</t>
+  </si>
+  <si>
+    <t>gym sweater women</t>
+  </si>
+  <si>
+    <t>winter joggers for women</t>
+  </si>
+  <si>
+    <t>womens sexy winter outfits</t>
+  </si>
+  <si>
+    <t>joggers with jacket for women</t>
+  </si>
+  <si>
+    <t>matching activewear sets for women</t>
+  </si>
+  <si>
+    <t>top leggings set</t>
+  </si>
+  <si>
+    <t>matching crop top and pants set</t>
+  </si>
+  <si>
+    <t>tight crop tops</t>
+  </si>
+  <si>
+    <t>black tall leggings for women</t>
+  </si>
+  <si>
+    <t>workout top for women long sleeve</t>
+  </si>
+  <si>
+    <t>turquoise women jacket</t>
+  </si>
+  <si>
+    <t>tights for women athletic</t>
+  </si>
+  <si>
+    <t>victoria secret legging set</t>
+  </si>
+  <si>
+    <t>lounge set sexy</t>
+  </si>
+  <si>
+    <t>black tight crop</t>
+  </si>
+  <si>
+    <t>sexy work out clothes</t>
+  </si>
+  <si>
+    <t>compression body women</t>
   </si>
 </sst>
 </file>
@@ -651,9 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069ED5E-D4F3-44A1-8D53-B7932C6F44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A507A-771D-4038-8044-A2D9813AB9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>compression suit</t>
-  </si>
-  <si>
-    <t>colorful joggers</t>
-  </si>
-  <si>
-    <t>woman workout clothes</t>
-  </si>
-  <si>
-    <t>blue crop tops</t>
-  </si>
-  <si>
-    <t>womens winter pants</t>
-  </si>
-  <si>
-    <t>gym set for women</t>
-  </si>
-  <si>
-    <t>blue tights for women</t>
-  </si>
-  <si>
-    <t>winter clothes women</t>
-  </si>
-  <si>
-    <t>style co tops for women</t>
-  </si>
-  <si>
-    <t>long sleeve compression bodysuit</t>
-  </si>
-  <si>
-    <t>leggings for women set</t>
-  </si>
-  <si>
-    <t>shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>workout crop tops</t>
-  </si>
-  <si>
-    <t>womens crop top set</t>
-  </si>
-  <si>
-    <t>cute tights</t>
-  </si>
-  <si>
-    <t>sports crop tops for women</t>
-  </si>
-  <si>
-    <t>running crop leggings</t>
-  </si>
-  <si>
-    <t>fitness chart</t>
-  </si>
-  <si>
-    <t>sexy workout clothes</t>
-  </si>
-  <si>
-    <t>tight suit</t>
-  </si>
-  <si>
-    <t>bowling cloth</t>
-  </si>
-  <si>
-    <t>colorful joggers for women</t>
-  </si>
-  <si>
-    <t>colorful outfits for women</t>
-  </si>
-  <si>
-    <t>matching leggings</t>
-  </si>
-  <si>
-    <t>tights suit</t>
-  </si>
-  <si>
-    <t>crop workout pants</t>
-  </si>
-  <si>
-    <t>ropa abrigada de mujer</t>
-  </si>
-  <si>
-    <t>workout suits for women</t>
-  </si>
-  <si>
-    <t>workout spandex for women</t>
-  </si>
-  <si>
-    <t>workout black leggings</t>
-  </si>
-  <si>
-    <t>women sexy winter clothes</t>
-  </si>
-  <si>
-    <t>women sexy yoga pants</t>
-  </si>
-  <si>
-    <t>lightweight workout jacket</t>
-  </si>
-  <si>
-    <t>tracksuit women</t>
-  </si>
-  <si>
-    <t>2 piece black outfits for women</t>
-  </si>
-  <si>
-    <t>long sleeve crop workout shirts for women</t>
-  </si>
-  <si>
-    <t>green and black leggings</t>
-  </si>
-  <si>
-    <t>running crop pants</t>
-  </si>
-  <si>
-    <t>track bowling</t>
-  </si>
-  <si>
-    <t>track sweater</t>
-  </si>
-  <si>
-    <t>fashion track pants</t>
-  </si>
-  <si>
-    <t>fashion tracksuit for women</t>
-  </si>
-  <si>
-    <t>women tracksuit</t>
-  </si>
-  <si>
-    <t>women sets outfits</t>
-  </si>
-  <si>
-    <t>two piece black outfits for women</t>
-  </si>
-  <si>
-    <t>two piece lounge outfits for women</t>
-  </si>
-  <si>
-    <t>crop top matching set</t>
-  </si>
-  <si>
-    <t>leggings athletic for women</t>
-  </si>
-  <si>
-    <t>2 piece crop top outfits for women</t>
-  </si>
-  <si>
-    <t>workout crop tops women</t>
-  </si>
-  <si>
-    <t>matching workout clothes</t>
-  </si>
-  <si>
-    <t>two piece sweater outfits for women</t>
-  </si>
-  <si>
-    <t>black legging sets for women</t>
-  </si>
-  <si>
-    <t>womens workout clothing</t>
-  </si>
-  <si>
-    <t>sweat bodysuit for women</t>
-  </si>
-  <si>
-    <t>big and tall womens clothing</t>
-  </si>
-  <si>
-    <t>cute sweatsuits for women</t>
-  </si>
-  <si>
-    <t>simply be clothing</t>
-  </si>
-  <si>
-    <t>black sweatsuit</t>
-  </si>
-  <si>
-    <t>black sweats</t>
-  </si>
-  <si>
-    <t>female gym leggings</t>
-  </si>
-  <si>
-    <t>tennis warm up jacket</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing for kids</t>
-  </si>
-  <si>
-    <t>wide leg two piece set</t>
-  </si>
-  <si>
-    <t>womens crop jacket</t>
-  </si>
-  <si>
-    <t>pans para mujer deportivos</t>
-  </si>
-  <si>
-    <t>black long leggings for women</t>
-  </si>
-  <si>
-    <t>womans workout clothing</t>
-  </si>
-  <si>
-    <t>womens cropped leggings</t>
-  </si>
-  <si>
-    <t>womens pink jogging suits</t>
-  </si>
-  <si>
-    <t>bowling thumb sleeve</t>
-  </si>
-  <si>
-    <t>cute crop top sweaters</t>
-  </si>
-  <si>
-    <t>tall workout tops</t>
-  </si>
-  <si>
-    <t>women winter outfits sets</t>
-  </si>
-  <si>
-    <t>ladies sports leggings</t>
-  </si>
-  <si>
-    <t>compression tops for women</t>
-  </si>
-  <si>
-    <t>womens tennis sweater</t>
-  </si>
-  <si>
-    <t>crop tops for workout</t>
-  </si>
-  <si>
-    <t>womens work out set</t>
-  </si>
-  <si>
-    <t>pink victoria secret headband</t>
-  </si>
-  <si>
-    <t>workout clothes for women clearance</t>
-  </si>
-  <si>
-    <t>women two piece outfits sets winter</t>
-  </si>
-  <si>
-    <t>fitness top for women</t>
-  </si>
-  <si>
-    <t>gym sweater women</t>
-  </si>
-  <si>
-    <t>winter joggers for women</t>
-  </si>
-  <si>
-    <t>womens sexy winter outfits</t>
-  </si>
-  <si>
-    <t>joggers with jacket for women</t>
-  </si>
-  <si>
-    <t>matching activewear sets for women</t>
-  </si>
-  <si>
-    <t>top leggings set</t>
-  </si>
-  <si>
-    <t>matching crop top and pants set</t>
-  </si>
-  <si>
-    <t>tight crop tops</t>
-  </si>
-  <si>
-    <t>black tall leggings for women</t>
-  </si>
-  <si>
-    <t>workout top for women long sleeve</t>
-  </si>
-  <si>
-    <t>turquoise women jacket</t>
-  </si>
-  <si>
-    <t>tights for women athletic</t>
-  </si>
-  <si>
-    <t>victoria secret legging set</t>
-  </si>
-  <si>
-    <t>lounge set sexy</t>
-  </si>
-  <si>
-    <t>black tight crop</t>
-  </si>
-  <si>
-    <t>sexy work out clothes</t>
-  </si>
-  <si>
-    <t>compression body women</t>
+    <t>cheap clothes</t>
+  </si>
+  <si>
+    <t>sport women clothes</t>
+  </si>
+  <si>
+    <t>shirts for women clearance</t>
+  </si>
+  <si>
+    <t>black sweaters</t>
+  </si>
+  <si>
+    <t>work outfits for women gym set</t>
+  </si>
+  <si>
+    <t>joggers for women high waist set</t>
+  </si>
+  <si>
+    <t>black athletic leggings for women</t>
+  </si>
+  <si>
+    <t>workout sweater</t>
+  </si>
+  <si>
+    <t>2 piece workout outfits</t>
+  </si>
+  <si>
+    <t>black shirt women</t>
+  </si>
+  <si>
+    <t>leggings set for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweaters</t>
+  </si>
+  <si>
+    <t>black out contacts</t>
+  </si>
+  <si>
+    <t>tracksuit for women</t>
+  </si>
+  <si>
+    <t>women workout clothes</t>
+  </si>
+  <si>
+    <t>blue outfits for women</t>
+  </si>
+  <si>
+    <t>womens gym shirts</t>
+  </si>
+  <si>
+    <t>workout womens leggings</t>
+  </si>
+  <si>
+    <t>sexy leggings for women</t>
+  </si>
+  <si>
+    <t>sexy suit</t>
+  </si>
+  <si>
+    <t>exercise clothes for women</t>
+  </si>
+  <si>
+    <t>black 2 piece outfit women</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>black sweater women</t>
+  </si>
+  <si>
+    <t>womens workout</t>
+  </si>
+  <si>
+    <t>blue body suit</t>
+  </si>
+  <si>
+    <t>black sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>turquoise tights</t>
+  </si>
+  <si>
+    <t>big black clothing</t>
+  </si>
+  <si>
+    <t>gym outfits for women set</t>
+  </si>
+  <si>
+    <t>ribbed workout set</t>
+  </si>
+  <si>
+    <t>women body building</t>
+  </si>
+  <si>
+    <t>workout for women clothes</t>
+  </si>
+  <si>
+    <t>womens sports leggings</t>
+  </si>
+  <si>
+    <t>body tights</t>
+  </si>
+  <si>
+    <t>womens workout clothes clearance</t>
+  </si>
+  <si>
+    <t>womens black shirts</t>
+  </si>
+  <si>
+    <t>sexy womens leggings</t>
+  </si>
+  <si>
+    <t>amazon workout clothes women</t>
+  </si>
+  <si>
+    <t>women compression clothing</t>
+  </si>
+  <si>
+    <t>clothing cart</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>turquoise leggings for women</t>
+  </si>
+  <si>
+    <t>women tights</t>
+  </si>
+  <si>
+    <t>workout tops for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women</t>
+  </si>
+  <si>
+    <t>leggings set for women</t>
+  </si>
+  <si>
+    <t>sweater shirts for women</t>
+  </si>
+  <si>
+    <t>crop leggings for women athletic</t>
+  </si>
+  <si>
+    <t>yoga sets</t>
+  </si>
+  <si>
+    <t>womens crop top</t>
+  </si>
+  <si>
+    <t>cheap workout clothes for women</t>
+  </si>
+  <si>
+    <t>black workout leggings for women</t>
+  </si>
+  <si>
+    <t>leggings sport for women</t>
+  </si>
+  <si>
+    <t>matching sets</t>
+  </si>
+  <si>
+    <t>womens tracksuit set</t>
+  </si>
+  <si>
+    <t>matching sets for women</t>
+  </si>
+  <si>
+    <t>work outfits for women</t>
+  </si>
+  <si>
+    <t>winter outfits for women</t>
+  </si>
+  <si>
+    <t>matching outfits</t>
+  </si>
+  <si>
+    <t>cute outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece set for women outfit</t>
+  </si>
+  <si>
+    <t>long sleeve activewear for women</t>
+  </si>
+  <si>
+    <t>crop top and pants set for women</t>
+  </si>
+  <si>
+    <t>ribbed leggings women</t>
+  </si>
+  <si>
+    <t>workout set for women</t>
+  </si>
+  <si>
+    <t>workout gym clothes</t>
+  </si>
+  <si>
+    <t>2 piece outfits</t>
+  </si>
+  <si>
+    <t>crop top tracksuit womens</t>
+  </si>
+  <si>
+    <t>tops for leggings</t>
+  </si>
+  <si>
+    <t>colorful tights</t>
+  </si>
+  <si>
+    <t>lounge outfit</t>
+  </si>
+  <si>
+    <t>walking suits for women</t>
+  </si>
+  <si>
+    <t>sport crop tops for women</t>
+  </si>
+  <si>
+    <t>gym women</t>
+  </si>
+  <si>
+    <t>fitness suits for women</t>
+  </si>
+  <si>
+    <t>athletic sets for women</t>
+  </si>
+  <si>
+    <t>leggings and crop top set</t>
+  </si>
+  <si>
+    <t>matching gym outfits</t>
+  </si>
+  <si>
+    <t>matching top and pants</t>
+  </si>
+  <si>
+    <t>workout sleeves</t>
+  </si>
+  <si>
+    <t>workout sweaters for women</t>
+  </si>
+  <si>
+    <t>green spandex</t>
+  </si>
+  <si>
+    <t>womens sweater sets</t>
+  </si>
+  <si>
+    <t>to be in style pants</t>
+  </si>
+  <si>
+    <t>blue tracksuit women</t>
+  </si>
+  <si>
+    <t>yoga crop tops for women</t>
+  </si>
+  <si>
+    <t>all black suit</t>
+  </si>
+  <si>
+    <t>crop tops workout</t>
+  </si>
+  <si>
+    <t>sweat shirts</t>
+  </si>
+  <si>
+    <t>work sweaters for women</t>
+  </si>
+  <si>
+    <t>blue jogging pants</t>
+  </si>
+  <si>
+    <t>three piece outfits for women</t>
+  </si>
+  <si>
+    <t>winter sets for women</t>
+  </si>
+  <si>
+    <t>womens matching set outfits</t>
+  </si>
+  <si>
+    <t>womens yoga outfits</t>
+  </si>
+  <si>
+    <t>womens lounge sets</t>
+  </si>
+  <si>
+    <t>womens lounge set</t>
+  </si>
+  <si>
+    <t>2 piece sweater sets for women</t>
+  </si>
+  <si>
+    <t>leggings for women sport gym</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A507A-771D-4038-8044-A2D9813AB9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A426D7-D653-4F8D-AA47-6BEDD87F8CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>cheap clothes</t>
-  </si>
-  <si>
-    <t>sport women clothes</t>
-  </si>
-  <si>
-    <t>shirts for women clearance</t>
-  </si>
-  <si>
-    <t>black sweaters</t>
-  </si>
-  <si>
-    <t>work outfits for women gym set</t>
-  </si>
-  <si>
-    <t>joggers for women high waist set</t>
-  </si>
-  <si>
-    <t>black athletic leggings for women</t>
-  </si>
-  <si>
-    <t>workout sweater</t>
-  </si>
-  <si>
-    <t>2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>black shirt women</t>
-  </si>
-  <si>
-    <t>leggings set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweaters</t>
-  </si>
-  <si>
-    <t>black out contacts</t>
-  </si>
-  <si>
-    <t>tracksuit for women</t>
-  </si>
-  <si>
-    <t>women workout clothes</t>
-  </si>
-  <si>
-    <t>blue outfits for women</t>
-  </si>
-  <si>
-    <t>womens gym shirts</t>
-  </si>
-  <si>
-    <t>workout womens leggings</t>
-  </si>
-  <si>
-    <t>sexy leggings for women</t>
-  </si>
-  <si>
-    <t>sexy suit</t>
-  </si>
-  <si>
-    <t>exercise clothes for women</t>
-  </si>
-  <si>
-    <t>black 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>black sweater women</t>
-  </si>
-  <si>
-    <t>womens workout</t>
-  </si>
-  <si>
-    <t>blue body suit</t>
-  </si>
-  <si>
-    <t>black sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>turquoise tights</t>
-  </si>
-  <si>
-    <t>big black clothing</t>
-  </si>
-  <si>
-    <t>gym outfits for women set</t>
-  </si>
-  <si>
-    <t>ribbed workout set</t>
-  </si>
-  <si>
-    <t>women body building</t>
-  </si>
-  <si>
-    <t>workout for women clothes</t>
-  </si>
-  <si>
-    <t>womens sports leggings</t>
-  </si>
-  <si>
-    <t>body tights</t>
-  </si>
-  <si>
-    <t>womens workout clothes clearance</t>
-  </si>
-  <si>
-    <t>womens black shirts</t>
-  </si>
-  <si>
-    <t>sexy womens leggings</t>
-  </si>
-  <si>
-    <t>amazon workout clothes women</t>
-  </si>
-  <si>
-    <t>women compression clothing</t>
-  </si>
-  <si>
-    <t>clothing cart</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>turquoise leggings for women</t>
-  </si>
-  <si>
-    <t>women tights</t>
-  </si>
-  <si>
-    <t>workout tops for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women</t>
-  </si>
-  <si>
-    <t>leggings set for women</t>
-  </si>
-  <si>
-    <t>sweater shirts for women</t>
-  </si>
-  <si>
-    <t>crop leggings for women athletic</t>
-  </si>
-  <si>
-    <t>yoga sets</t>
-  </si>
-  <si>
-    <t>womens crop top</t>
-  </si>
-  <si>
-    <t>cheap workout clothes for women</t>
-  </si>
-  <si>
-    <t>black workout leggings for women</t>
-  </si>
-  <si>
-    <t>leggings sport for women</t>
-  </si>
-  <si>
-    <t>matching sets</t>
-  </si>
-  <si>
-    <t>womens tracksuit set</t>
-  </si>
-  <si>
-    <t>matching sets for women</t>
-  </si>
-  <si>
-    <t>work outfits for women</t>
-  </si>
-  <si>
-    <t>winter outfits for women</t>
-  </si>
-  <si>
-    <t>matching outfits</t>
-  </si>
-  <si>
-    <t>cute outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece set for women outfit</t>
-  </si>
-  <si>
-    <t>long sleeve activewear for women</t>
-  </si>
-  <si>
-    <t>crop top and pants set for women</t>
-  </si>
-  <si>
-    <t>ribbed leggings women</t>
-  </si>
-  <si>
-    <t>workout set for women</t>
-  </si>
-  <si>
-    <t>workout gym clothes</t>
-  </si>
-  <si>
-    <t>2 piece outfits</t>
-  </si>
-  <si>
-    <t>crop top tracksuit womens</t>
-  </si>
-  <si>
-    <t>tops for leggings</t>
-  </si>
-  <si>
-    <t>colorful tights</t>
-  </si>
-  <si>
-    <t>lounge outfit</t>
-  </si>
-  <si>
-    <t>walking suits for women</t>
-  </si>
-  <si>
-    <t>sport crop tops for women</t>
-  </si>
-  <si>
-    <t>gym women</t>
-  </si>
-  <si>
-    <t>fitness suits for women</t>
-  </si>
-  <si>
-    <t>athletic sets for women</t>
-  </si>
-  <si>
-    <t>leggings and crop top set</t>
-  </si>
-  <si>
-    <t>matching gym outfits</t>
-  </si>
-  <si>
-    <t>matching top and pants</t>
-  </si>
-  <si>
-    <t>workout sleeves</t>
-  </si>
-  <si>
-    <t>workout sweaters for women</t>
-  </si>
-  <si>
-    <t>green spandex</t>
-  </si>
-  <si>
-    <t>womens sweater sets</t>
-  </si>
-  <si>
-    <t>to be in style pants</t>
-  </si>
-  <si>
-    <t>blue tracksuit women</t>
-  </si>
-  <si>
-    <t>yoga crop tops for women</t>
-  </si>
-  <si>
-    <t>all black suit</t>
-  </si>
-  <si>
-    <t>crop tops workout</t>
-  </si>
-  <si>
-    <t>sweat shirts</t>
-  </si>
-  <si>
-    <t>work sweaters for women</t>
-  </si>
-  <si>
-    <t>blue jogging pants</t>
-  </si>
-  <si>
-    <t>three piece outfits for women</t>
-  </si>
-  <si>
-    <t>winter sets for women</t>
-  </si>
-  <si>
-    <t>womens matching set outfits</t>
-  </si>
-  <si>
-    <t>womens yoga outfits</t>
-  </si>
-  <si>
-    <t>womens lounge sets</t>
-  </si>
-  <si>
-    <t>womens lounge set</t>
-  </si>
-  <si>
-    <t>2 piece sweater sets for women</t>
-  </si>
-  <si>
-    <t>leggings for women sport gym</t>
+    <t>long sleeve crop tops</t>
+  </si>
+  <si>
+    <t>womans sweats</t>
+  </si>
+  <si>
+    <t>green sweat suit</t>
+  </si>
+  <si>
+    <t>black sweat shirt</t>
+  </si>
+  <si>
+    <t>womens green shirt</t>
+  </si>
+  <si>
+    <t>black yoga top</t>
+  </si>
+  <si>
+    <t>track shirts</t>
+  </si>
+  <si>
+    <t>blue clothes for women</t>
+  </si>
+  <si>
+    <t>bowling outfits</t>
+  </si>
+  <si>
+    <t>green body suit</t>
+  </si>
+  <si>
+    <t>sexy bowling</t>
+  </si>
+  <si>
+    <t>green jogging suits for women</t>
+  </si>
+  <si>
+    <t>winter suits for women</t>
+  </si>
+  <si>
+    <t>sport tracksuit women</t>
+  </si>
+  <si>
+    <t>yoga woman clothes</t>
+  </si>
+  <si>
+    <t>ladies bowling shirts</t>
+  </si>
+  <si>
+    <t>cropped track suit</t>
+  </si>
+  <si>
+    <t>sexy gym shirts for women</t>
+  </si>
+  <si>
+    <t>matching outfits for women</t>
+  </si>
+  <si>
+    <t>winter track suit</t>
+  </si>
+  <si>
+    <t>womans sweat suit sets</t>
+  </si>
+  <si>
+    <t>womans two piece</t>
+  </si>
+  <si>
+    <t>womens sports tops</t>
+  </si>
+  <si>
+    <t>woman track suits</t>
+  </si>
+  <si>
+    <t>yoga for women clothing set</t>
+  </si>
+  <si>
+    <t>ropa de deporte mujer</t>
+  </si>
+  <si>
+    <t>2 piece high waist</t>
+  </si>
+  <si>
+    <t>pink jogging suits for women victoria secret</t>
+  </si>
+  <si>
+    <t>bowling pants women</t>
+  </si>
+  <si>
+    <t>big tall sweat suit</t>
+  </si>
+  <si>
+    <t>blue crop leggings</t>
+  </si>
+  <si>
+    <t>black two piece outfits for women sexy</t>
+  </si>
+  <si>
+    <t>crop tops with holes</t>
+  </si>
+  <si>
+    <t>seamless cropped leggings</t>
+  </si>
+  <si>
+    <t>women gym suits</t>
+  </si>
+  <si>
+    <t>women workout outfits</t>
+  </si>
+  <si>
+    <t>womens sweat shirts</t>
+  </si>
+  <si>
+    <t>women sweat suit</t>
+  </si>
+  <si>
+    <t>two piece long sleeve</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>two piece outfits for women long sleeve</t>
+  </si>
+  <si>
+    <t>black track tights</t>
+  </si>
+  <si>
+    <t>fitness top women</t>
+  </si>
+  <si>
+    <t>sport cloth women</t>
+  </si>
+  <si>
+    <t>exercise clothes for women clearance</t>
+  </si>
+  <si>
+    <t>shirts for sports</t>
+  </si>
+  <si>
+    <t>track suit outfit</t>
+  </si>
+  <si>
+    <t>womens suit sets</t>
+  </si>
+  <si>
+    <t>sweat shirts for women</t>
+  </si>
+  <si>
+    <t>women sport suit set</t>
+  </si>
+  <si>
+    <t>black and green leggings</t>
+  </si>
+  <si>
+    <t>sexy womens workout clothes</t>
+  </si>
+  <si>
+    <t>green sweat suit women</t>
+  </si>
+  <si>
+    <t>long black sleeve shirt women</t>
+  </si>
+  <si>
+    <t>womans sweatsuit sets</t>
+  </si>
+  <si>
+    <t>women sweat sets</t>
+  </si>
+  <si>
+    <t>best womens workout clothes</t>
+  </si>
+  <si>
+    <t>fashionable workout clothes for women</t>
+  </si>
+  <si>
+    <t>cute workout outfits for women</t>
+  </si>
+  <si>
+    <t>leggings and shirt set for women</t>
+  </si>
+  <si>
+    <t>sexy womens sweatsuits</t>
+  </si>
+  <si>
+    <t>womens long athletic tops</t>
+  </si>
+  <si>
+    <t>cheap workout outfits for women</t>
+  </si>
+  <si>
+    <t>black womens suit set</t>
+  </si>
+  <si>
+    <t>black cropped shirt</t>
+  </si>
+  <si>
+    <t>matching clothing sets for women</t>
+  </si>
+  <si>
+    <t>tracksuit for women set</t>
+  </si>
+  <si>
+    <t>womans winter outfits</t>
+  </si>
+  <si>
+    <t>womens black suit</t>
+  </si>
+  <si>
+    <t>womens black outfits</t>
+  </si>
+  <si>
+    <t>green sweatsuits</t>
+  </si>
+  <si>
+    <t>outfits for woman</t>
+  </si>
+  <si>
+    <t>workout clothes for women petite</t>
+  </si>
+  <si>
+    <t>black sweat suits for women</t>
+  </si>
+  <si>
+    <t>womens exercise outfits</t>
+  </si>
+  <si>
+    <t>black sweat suit for women</t>
+  </si>
+  <si>
+    <t>ladies athletic suits</t>
+  </si>
+  <si>
+    <t>shirts for women exercise</t>
+  </si>
+  <si>
+    <t>womens black crop jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding cloths</t>
+  </si>
+  <si>
+    <t>womens black sweat suit</t>
+  </si>
+  <si>
+    <t>workout shirt womens</t>
+  </si>
+  <si>
+    <t>long sleeve shirt woman</t>
+  </si>
+  <si>
+    <t>victoria secret pink sweatsuit</t>
+  </si>
+  <si>
+    <t>long sleeve green shirts for women</t>
+  </si>
+  <si>
+    <t>workout shirts for women crop</t>
+  </si>
+  <si>
+    <t>2 piece outfits for women winter</t>
+  </si>
+  <si>
+    <t>long sleeve black shirt woman</t>
+  </si>
+  <si>
+    <t>pink victoria secret shirts for teen girls</t>
+  </si>
+  <si>
+    <t>two piece outfits for women green</t>
+  </si>
+  <si>
+    <t>women workout outfits sets</t>
+  </si>
+  <si>
+    <t>fitness jacket for women</t>
+  </si>
+  <si>
+    <t>black sweat suits women</t>
+  </si>
+  <si>
+    <t>long sleeve cropped workout shirts for women</t>
+  </si>
+  <si>
+    <t>sweat leggins</t>
+  </si>
+  <si>
+    <t>legging and shirt sets</t>
+  </si>
+  <si>
+    <t>crop tops gym for women</t>
+  </si>
+  <si>
+    <t>green track suit for women</t>
+  </si>
+  <si>
+    <t>matching track suits</t>
+  </si>
+  <si>
+    <t>athletic long sleeve crop tops for women</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1138,27 +1166,30 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A426D7-D653-4F8D-AA47-6BEDD87F8CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069ED5E-D4F3-44A1-8D53-B7932C6F44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>long sleeve crop tops</t>
-  </si>
-  <si>
-    <t>womans sweats</t>
-  </si>
-  <si>
-    <t>green sweat suit</t>
-  </si>
-  <si>
-    <t>black sweat shirt</t>
-  </si>
-  <si>
-    <t>womens green shirt</t>
-  </si>
-  <si>
-    <t>black yoga top</t>
-  </si>
-  <si>
-    <t>track shirts</t>
-  </si>
-  <si>
-    <t>blue clothes for women</t>
-  </si>
-  <si>
-    <t>bowling outfits</t>
-  </si>
-  <si>
-    <t>green body suit</t>
-  </si>
-  <si>
-    <t>sexy bowling</t>
-  </si>
-  <si>
-    <t>green jogging suits for women</t>
-  </si>
-  <si>
-    <t>winter suits for women</t>
-  </si>
-  <si>
-    <t>sport tracksuit women</t>
-  </si>
-  <si>
-    <t>yoga woman clothes</t>
-  </si>
-  <si>
-    <t>ladies bowling shirts</t>
-  </si>
-  <si>
-    <t>cropped track suit</t>
-  </si>
-  <si>
-    <t>sexy gym shirts for women</t>
-  </si>
-  <si>
-    <t>matching outfits for women</t>
-  </si>
-  <si>
-    <t>winter track suit</t>
-  </si>
-  <si>
-    <t>womans sweat suit sets</t>
-  </si>
-  <si>
-    <t>womans two piece</t>
-  </si>
-  <si>
-    <t>womens sports tops</t>
-  </si>
-  <si>
-    <t>woman track suits</t>
-  </si>
-  <si>
-    <t>yoga for women clothing set</t>
-  </si>
-  <si>
-    <t>ropa de deporte mujer</t>
-  </si>
-  <si>
-    <t>2 piece high waist</t>
-  </si>
-  <si>
-    <t>pink jogging suits for women victoria secret</t>
-  </si>
-  <si>
-    <t>bowling pants women</t>
-  </si>
-  <si>
-    <t>big tall sweat suit</t>
-  </si>
-  <si>
-    <t>blue crop leggings</t>
-  </si>
-  <si>
-    <t>black two piece outfits for women sexy</t>
-  </si>
-  <si>
-    <t>crop tops with holes</t>
-  </si>
-  <si>
-    <t>seamless cropped leggings</t>
-  </si>
-  <si>
-    <t>women gym suits</t>
-  </si>
-  <si>
-    <t>women workout outfits</t>
-  </si>
-  <si>
-    <t>womens sweat shirts</t>
-  </si>
-  <si>
-    <t>women sweat suit</t>
-  </si>
-  <si>
-    <t>two piece long sleeve</t>
-  </si>
-  <si>
-    <t>yoga work out set</t>
-  </si>
-  <si>
-    <t>two piece outfits for women long sleeve</t>
-  </si>
-  <si>
-    <t>black track tights</t>
-  </si>
-  <si>
-    <t>fitness top women</t>
-  </si>
-  <si>
-    <t>sport cloth women</t>
-  </si>
-  <si>
-    <t>exercise clothes for women clearance</t>
-  </si>
-  <si>
-    <t>shirts for sports</t>
-  </si>
-  <si>
-    <t>track suit outfit</t>
-  </si>
-  <si>
-    <t>womens suit sets</t>
-  </si>
-  <si>
-    <t>sweat shirts for women</t>
-  </si>
-  <si>
-    <t>women sport suit set</t>
-  </si>
-  <si>
-    <t>black and green leggings</t>
-  </si>
-  <si>
-    <t>sexy womens workout clothes</t>
-  </si>
-  <si>
-    <t>green sweat suit women</t>
-  </si>
-  <si>
-    <t>long black sleeve shirt women</t>
-  </si>
-  <si>
-    <t>womans sweatsuit sets</t>
-  </si>
-  <si>
-    <t>women sweat sets</t>
-  </si>
-  <si>
-    <t>best womens workout clothes</t>
-  </si>
-  <si>
-    <t>fashionable workout clothes for women</t>
-  </si>
-  <si>
-    <t>cute workout outfits for women</t>
-  </si>
-  <si>
-    <t>leggings and shirt set for women</t>
-  </si>
-  <si>
-    <t>sexy womens sweatsuits</t>
-  </si>
-  <si>
-    <t>womens long athletic tops</t>
-  </si>
-  <si>
-    <t>cheap workout outfits for women</t>
-  </si>
-  <si>
-    <t>black womens suit set</t>
-  </si>
-  <si>
-    <t>black cropped shirt</t>
-  </si>
-  <si>
-    <t>matching clothing sets for women</t>
-  </si>
-  <si>
-    <t>tracksuit for women set</t>
-  </si>
-  <si>
-    <t>womans winter outfits</t>
-  </si>
-  <si>
-    <t>womens black suit</t>
-  </si>
-  <si>
-    <t>womens black outfits</t>
-  </si>
-  <si>
-    <t>green sweatsuits</t>
-  </si>
-  <si>
-    <t>outfits for woman</t>
-  </si>
-  <si>
-    <t>workout clothes for women petite</t>
-  </si>
-  <si>
-    <t>black sweat suits for women</t>
-  </si>
-  <si>
-    <t>womens exercise outfits</t>
-  </si>
-  <si>
-    <t>black sweat suit for women</t>
-  </si>
-  <si>
-    <t>ladies athletic suits</t>
-  </si>
-  <si>
-    <t>shirts for women exercise</t>
-  </si>
-  <si>
-    <t>womens black crop jacket</t>
-  </si>
-  <si>
-    <t>bodybuilding cloths</t>
-  </si>
-  <si>
-    <t>womens black sweat suit</t>
-  </si>
-  <si>
-    <t>workout shirt womens</t>
-  </si>
-  <si>
-    <t>long sleeve shirt woman</t>
-  </si>
-  <si>
-    <t>victoria secret pink sweatsuit</t>
-  </si>
-  <si>
-    <t>long sleeve green shirts for women</t>
-  </si>
-  <si>
-    <t>workout shirts for women crop</t>
-  </si>
-  <si>
-    <t>2 piece outfits for women winter</t>
-  </si>
-  <si>
-    <t>long sleeve black shirt woman</t>
-  </si>
-  <si>
-    <t>pink victoria secret shirts for teen girls</t>
-  </si>
-  <si>
-    <t>two piece outfits for women green</t>
-  </si>
-  <si>
-    <t>women workout outfits sets</t>
-  </si>
-  <si>
-    <t>fitness jacket for women</t>
-  </si>
-  <si>
-    <t>black sweat suits women</t>
-  </si>
-  <si>
-    <t>long sleeve cropped workout shirts for women</t>
-  </si>
-  <si>
-    <t>sweat leggins</t>
-  </si>
-  <si>
-    <t>legging and shirt sets</t>
-  </si>
-  <si>
-    <t>crop tops gym for women</t>
-  </si>
-  <si>
-    <t>green track suit for women</t>
-  </si>
-  <si>
-    <t>matching track suits</t>
-  </si>
-  <si>
-    <t>athletic long sleeve crop tops for women</t>
+    <t>compression suit</t>
+  </si>
+  <si>
+    <t>colorful joggers</t>
+  </si>
+  <si>
+    <t>woman workout clothes</t>
+  </si>
+  <si>
+    <t>blue crop tops</t>
+  </si>
+  <si>
+    <t>womens winter pants</t>
+  </si>
+  <si>
+    <t>gym set for women</t>
+  </si>
+  <si>
+    <t>blue tights for women</t>
+  </si>
+  <si>
+    <t>winter clothes women</t>
+  </si>
+  <si>
+    <t>style co tops for women</t>
+  </si>
+  <si>
+    <t>long sleeve compression bodysuit</t>
+  </si>
+  <si>
+    <t>leggings for women set</t>
+  </si>
+  <si>
+    <t>shirts for leggings for women</t>
+  </si>
+  <si>
+    <t>workout crop tops</t>
+  </si>
+  <si>
+    <t>womens crop top set</t>
+  </si>
+  <si>
+    <t>cute tights</t>
+  </si>
+  <si>
+    <t>sports crop tops for women</t>
+  </si>
+  <si>
+    <t>running crop leggings</t>
+  </si>
+  <si>
+    <t>fitness chart</t>
+  </si>
+  <si>
+    <t>sexy workout clothes</t>
+  </si>
+  <si>
+    <t>tight suit</t>
+  </si>
+  <si>
+    <t>bowling cloth</t>
+  </si>
+  <si>
+    <t>colorful joggers for women</t>
+  </si>
+  <si>
+    <t>colorful outfits for women</t>
+  </si>
+  <si>
+    <t>matching leggings</t>
+  </si>
+  <si>
+    <t>tights suit</t>
+  </si>
+  <si>
+    <t>crop workout pants</t>
+  </si>
+  <si>
+    <t>ropa abrigada de mujer</t>
+  </si>
+  <si>
+    <t>workout suits for women</t>
+  </si>
+  <si>
+    <t>workout spandex for women</t>
+  </si>
+  <si>
+    <t>workout black leggings</t>
+  </si>
+  <si>
+    <t>women sexy winter clothes</t>
+  </si>
+  <si>
+    <t>women sexy yoga pants</t>
+  </si>
+  <si>
+    <t>lightweight workout jacket</t>
+  </si>
+  <si>
+    <t>tracksuit women</t>
+  </si>
+  <si>
+    <t>2 piece black outfits for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout shirts for women</t>
+  </si>
+  <si>
+    <t>green and black leggings</t>
+  </si>
+  <si>
+    <t>running crop pants</t>
+  </si>
+  <si>
+    <t>track bowling</t>
+  </si>
+  <si>
+    <t>track sweater</t>
+  </si>
+  <si>
+    <t>fashion track pants</t>
+  </si>
+  <si>
+    <t>fashion tracksuit for women</t>
+  </si>
+  <si>
+    <t>women tracksuit</t>
+  </si>
+  <si>
+    <t>women sets outfits</t>
+  </si>
+  <si>
+    <t>two piece black outfits for women</t>
+  </si>
+  <si>
+    <t>two piece lounge outfits for women</t>
+  </si>
+  <si>
+    <t>crop top matching set</t>
+  </si>
+  <si>
+    <t>leggings athletic for women</t>
+  </si>
+  <si>
+    <t>2 piece crop top outfits for women</t>
+  </si>
+  <si>
+    <t>workout crop tops women</t>
+  </si>
+  <si>
+    <t>matching workout clothes</t>
+  </si>
+  <si>
+    <t>two piece sweater outfits for women</t>
+  </si>
+  <si>
+    <t>black legging sets for women</t>
+  </si>
+  <si>
+    <t>womens workout clothing</t>
+  </si>
+  <si>
+    <t>sweat bodysuit for women</t>
+  </si>
+  <si>
+    <t>big and tall womens clothing</t>
+  </si>
+  <si>
+    <t>cute sweatsuits for women</t>
+  </si>
+  <si>
+    <t>simply be clothing</t>
+  </si>
+  <si>
+    <t>black sweatsuit</t>
+  </si>
+  <si>
+    <t>black sweats</t>
+  </si>
+  <si>
+    <t>female gym leggings</t>
+  </si>
+  <si>
+    <t>tennis warm up jacket</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing for kids</t>
+  </si>
+  <si>
+    <t>wide leg two piece set</t>
+  </si>
+  <si>
+    <t>womens crop jacket</t>
+  </si>
+  <si>
+    <t>pans para mujer deportivos</t>
+  </si>
+  <si>
+    <t>black long leggings for women</t>
+  </si>
+  <si>
+    <t>womans workout clothing</t>
+  </si>
+  <si>
+    <t>womens cropped leggings</t>
+  </si>
+  <si>
+    <t>womens pink jogging suits</t>
+  </si>
+  <si>
+    <t>bowling thumb sleeve</t>
+  </si>
+  <si>
+    <t>cute crop top sweaters</t>
+  </si>
+  <si>
+    <t>tall workout tops</t>
+  </si>
+  <si>
+    <t>women winter outfits sets</t>
+  </si>
+  <si>
+    <t>ladies sports leggings</t>
+  </si>
+  <si>
+    <t>compression tops for women</t>
+  </si>
+  <si>
+    <t>womens tennis sweater</t>
+  </si>
+  <si>
+    <t>crop tops for workout</t>
+  </si>
+  <si>
+    <t>womens work out set</t>
+  </si>
+  <si>
+    <t>pink victoria secret headband</t>
+  </si>
+  <si>
+    <t>workout clothes for women clearance</t>
+  </si>
+  <si>
+    <t>women two piece outfits sets winter</t>
+  </si>
+  <si>
+    <t>fitness top for women</t>
+  </si>
+  <si>
+    <t>gym sweater women</t>
+  </si>
+  <si>
+    <t>winter joggers for women</t>
+  </si>
+  <si>
+    <t>womens sexy winter outfits</t>
+  </si>
+  <si>
+    <t>joggers with jacket for women</t>
+  </si>
+  <si>
+    <t>matching activewear sets for women</t>
+  </si>
+  <si>
+    <t>top leggings set</t>
+  </si>
+  <si>
+    <t>matching crop top and pants set</t>
+  </si>
+  <si>
+    <t>tight crop tops</t>
+  </si>
+  <si>
+    <t>black tall leggings for women</t>
+  </si>
+  <si>
+    <t>workout top for women long sleeve</t>
+  </si>
+  <si>
+    <t>turquoise women jacket</t>
+  </si>
+  <si>
+    <t>tights for women athletic</t>
+  </si>
+  <si>
+    <t>victoria secret legging set</t>
+  </si>
+  <si>
+    <t>lounge set sexy</t>
+  </si>
+  <si>
+    <t>black tight crop</t>
+  </si>
+  <si>
+    <t>sexy work out clothes</t>
+  </si>
+  <si>
+    <t>compression body women</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -679,9 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1166,30 +1136,27 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069ED5E-D4F3-44A1-8D53-B7932C6F44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61413293-5BD2-4740-A634-64B19DE72954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>compression suit</t>
-  </si>
-  <si>
-    <t>colorful joggers</t>
-  </si>
-  <si>
-    <t>woman workout clothes</t>
-  </si>
-  <si>
-    <t>blue crop tops</t>
-  </si>
-  <si>
-    <t>womens winter pants</t>
-  </si>
-  <si>
-    <t>gym set for women</t>
-  </si>
-  <si>
-    <t>blue tights for women</t>
-  </si>
-  <si>
-    <t>winter clothes women</t>
-  </si>
-  <si>
-    <t>style co tops for women</t>
-  </si>
-  <si>
-    <t>long sleeve compression bodysuit</t>
-  </si>
-  <si>
-    <t>leggings for women set</t>
-  </si>
-  <si>
-    <t>shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>workout crop tops</t>
-  </si>
-  <si>
-    <t>womens crop top set</t>
-  </si>
-  <si>
-    <t>cute tights</t>
-  </si>
-  <si>
-    <t>sports crop tops for women</t>
-  </si>
-  <si>
-    <t>running crop leggings</t>
-  </si>
-  <si>
-    <t>fitness chart</t>
-  </si>
-  <si>
-    <t>sexy workout clothes</t>
-  </si>
-  <si>
-    <t>tight suit</t>
-  </si>
-  <si>
-    <t>bowling cloth</t>
-  </si>
-  <si>
-    <t>colorful joggers for women</t>
-  </si>
-  <si>
-    <t>colorful outfits for women</t>
-  </si>
-  <si>
-    <t>matching leggings</t>
-  </si>
-  <si>
-    <t>tights suit</t>
-  </si>
-  <si>
-    <t>crop workout pants</t>
-  </si>
-  <si>
-    <t>ropa abrigada de mujer</t>
-  </si>
-  <si>
-    <t>workout suits for women</t>
-  </si>
-  <si>
-    <t>workout spandex for women</t>
-  </si>
-  <si>
-    <t>workout black leggings</t>
-  </si>
-  <si>
-    <t>women sexy winter clothes</t>
-  </si>
-  <si>
-    <t>women sexy yoga pants</t>
-  </si>
-  <si>
-    <t>lightweight workout jacket</t>
-  </si>
-  <si>
-    <t>tracksuit women</t>
-  </si>
-  <si>
-    <t>2 piece black outfits for women</t>
-  </si>
-  <si>
-    <t>long sleeve crop workout shirts for women</t>
-  </si>
-  <si>
-    <t>green and black leggings</t>
-  </si>
-  <si>
-    <t>running crop pants</t>
-  </si>
-  <si>
-    <t>track bowling</t>
-  </si>
-  <si>
-    <t>track sweater</t>
-  </si>
-  <si>
-    <t>fashion track pants</t>
-  </si>
-  <si>
-    <t>fashion tracksuit for women</t>
-  </si>
-  <si>
-    <t>women tracksuit</t>
-  </si>
-  <si>
-    <t>women sets outfits</t>
-  </si>
-  <si>
-    <t>two piece black outfits for women</t>
-  </si>
-  <si>
-    <t>two piece lounge outfits for women</t>
-  </si>
-  <si>
-    <t>crop top matching set</t>
-  </si>
-  <si>
-    <t>leggings athletic for women</t>
-  </si>
-  <si>
-    <t>2 piece crop top outfits for women</t>
-  </si>
-  <si>
-    <t>workout crop tops women</t>
-  </si>
-  <si>
-    <t>matching workout clothes</t>
-  </si>
-  <si>
-    <t>two piece sweater outfits for women</t>
-  </si>
-  <si>
-    <t>black legging sets for women</t>
-  </si>
-  <si>
-    <t>womens workout clothing</t>
-  </si>
-  <si>
-    <t>sweat bodysuit for women</t>
-  </si>
-  <si>
-    <t>big and tall womens clothing</t>
-  </si>
-  <si>
-    <t>cute sweatsuits for women</t>
-  </si>
-  <si>
-    <t>simply be clothing</t>
-  </si>
-  <si>
-    <t>black sweatsuit</t>
-  </si>
-  <si>
-    <t>black sweats</t>
-  </si>
-  <si>
-    <t>female gym leggings</t>
-  </si>
-  <si>
-    <t>tennis warm up jacket</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing for kids</t>
-  </si>
-  <si>
-    <t>wide leg two piece set</t>
-  </si>
-  <si>
-    <t>womens crop jacket</t>
-  </si>
-  <si>
-    <t>pans para mujer deportivos</t>
-  </si>
-  <si>
-    <t>black long leggings for women</t>
-  </si>
-  <si>
-    <t>womans workout clothing</t>
-  </si>
-  <si>
-    <t>womens cropped leggings</t>
-  </si>
-  <si>
-    <t>womens pink jogging suits</t>
-  </si>
-  <si>
-    <t>bowling thumb sleeve</t>
-  </si>
-  <si>
-    <t>cute crop top sweaters</t>
-  </si>
-  <si>
-    <t>tall workout tops</t>
-  </si>
-  <si>
-    <t>women winter outfits sets</t>
-  </si>
-  <si>
-    <t>ladies sports leggings</t>
-  </si>
-  <si>
-    <t>compression tops for women</t>
-  </si>
-  <si>
-    <t>womens tennis sweater</t>
-  </si>
-  <si>
-    <t>crop tops for workout</t>
-  </si>
-  <si>
-    <t>womens work out set</t>
-  </si>
-  <si>
-    <t>pink victoria secret headband</t>
-  </si>
-  <si>
-    <t>workout clothes for women clearance</t>
-  </si>
-  <si>
-    <t>women two piece outfits sets winter</t>
-  </si>
-  <si>
-    <t>fitness top for women</t>
-  </si>
-  <si>
-    <t>gym sweater women</t>
-  </si>
-  <si>
-    <t>winter joggers for women</t>
-  </si>
-  <si>
-    <t>womens sexy winter outfits</t>
-  </si>
-  <si>
-    <t>joggers with jacket for women</t>
-  </si>
-  <si>
-    <t>matching activewear sets for women</t>
-  </si>
-  <si>
-    <t>top leggings set</t>
-  </si>
-  <si>
-    <t>matching crop top and pants set</t>
-  </si>
-  <si>
-    <t>tight crop tops</t>
-  </si>
-  <si>
-    <t>black tall leggings for women</t>
-  </si>
-  <si>
-    <t>workout top for women long sleeve</t>
-  </si>
-  <si>
-    <t>turquoise women jacket</t>
-  </si>
-  <si>
-    <t>tights for women athletic</t>
-  </si>
-  <si>
-    <t>victoria secret legging set</t>
-  </si>
-  <si>
-    <t>lounge set sexy</t>
-  </si>
-  <si>
-    <t>black tight crop</t>
-  </si>
-  <si>
-    <t>sexy work out clothes</t>
-  </si>
-  <si>
-    <t>compression body women</t>
+    <t>turquoise sweater</t>
+  </si>
+  <si>
+    <t>fitness clothes for women</t>
+  </si>
+  <si>
+    <t>exercise clothing</t>
+  </si>
+  <si>
+    <t>colorful compression leggings women</t>
+  </si>
+  <si>
+    <t>compression long sleeve shirt women</t>
+  </si>
+  <si>
+    <t>matching sets women clothing</t>
+  </si>
+  <si>
+    <t>yoga outfits for women set</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing xxl</t>
+  </si>
+  <si>
+    <t>two piece workout outfits for women</t>
+  </si>
+  <si>
+    <t>track suits for women set</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>top and leggings set for women</t>
+  </si>
+  <si>
+    <t>long sleeve exercise shirt women</t>
+  </si>
+  <si>
+    <t>yoga sets for women clothing</t>
+  </si>
+  <si>
+    <t>compression shirt women long sleeve</t>
+  </si>
+  <si>
+    <t>womens workout clothes sets</t>
+  </si>
+  <si>
+    <t>matching sets for women outfit</t>
+  </si>
+  <si>
+    <t>sports clothes for women</t>
+  </si>
+  <si>
+    <t>zip up</t>
+  </si>
+  <si>
+    <t>fitness yoga set</t>
+  </si>
+  <si>
+    <t>winter womens clothing</t>
+  </si>
+  <si>
+    <t>warm up suits for women</t>
+  </si>
+  <si>
+    <t>suit for women</t>
+  </si>
+  <si>
+    <t>winter tights for women</t>
+  </si>
+  <si>
+    <t>exercise clothes for women set</t>
+  </si>
+  <si>
+    <t>athletic compression leggings women</t>
+  </si>
+  <si>
+    <t>pink tracksuit for women</t>
+  </si>
+  <si>
+    <t>womens 2 piece outfits</t>
+  </si>
+  <si>
+    <t>black two piece</t>
+  </si>
+  <si>
+    <t>yoga outfits</t>
+  </si>
+  <si>
+    <t>gym clothing</t>
+  </si>
+  <si>
+    <t>legging sets</t>
+  </si>
+  <si>
+    <t>pink sweater</t>
+  </si>
+  <si>
+    <t>2 piece womens outfit</t>
+  </si>
+  <si>
+    <t>women suit</t>
+  </si>
+  <si>
+    <t>cropped shirts</t>
+  </si>
+  <si>
+    <t>blue sweater for women</t>
+  </si>
+  <si>
+    <t>blue two piece set</t>
+  </si>
+  <si>
+    <t>big sweaters for women</t>
+  </si>
+  <si>
+    <t>crop long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>neon workout clothes for women</t>
+  </si>
+  <si>
+    <t>finger top</t>
+  </si>
+  <si>
+    <t>black two piece set</t>
+  </si>
+  <si>
+    <t>leggings with holes for women</t>
+  </si>
+  <si>
+    <t>winter outfits women</t>
+  </si>
+  <si>
+    <t>sweat set</t>
+  </si>
+  <si>
+    <t>3 piece womens outfit</t>
+  </si>
+  <si>
+    <t>yoga fingers</t>
+  </si>
+  <si>
+    <t>green two piece outfit</t>
+  </si>
+  <si>
+    <t>sweat set for women</t>
+  </si>
+  <si>
+    <t>track suits</t>
+  </si>
+  <si>
+    <t>track suits for women</t>
+  </si>
+  <si>
+    <t>gym sweaters for women</t>
+  </si>
+  <si>
+    <t>pink zip up</t>
+  </si>
+  <si>
+    <t>the super suit</t>
+  </si>
+  <si>
+    <t>women sweatsuit</t>
+  </si>
+  <si>
+    <t>green two piece set</t>
+  </si>
+  <si>
+    <t>sweat sets</t>
+  </si>
+  <si>
+    <t>green sweatsuit</t>
+  </si>
+  <si>
+    <t>green sweats</t>
+  </si>
+  <si>
+    <t>womens track suit</t>
+  </si>
+  <si>
+    <t>womens track suits</t>
+  </si>
+  <si>
+    <t>clothing bodybuilding</t>
+  </si>
+  <si>
+    <t>sport cloths</t>
+  </si>
+  <si>
+    <t>womens gym shirt</t>
+  </si>
+  <si>
+    <t>womens track suits sets</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing yoga pants</t>
+  </si>
+  <si>
+    <t>pink victoria secret bikini</t>
+  </si>
+  <si>
+    <t>pink victoria secret cool and bright</t>
+  </si>
+  <si>
+    <t>womens sweat set</t>
+  </si>
+  <si>
+    <t>compression jackets</t>
+  </si>
+  <si>
+    <t>matching workout sets for women</t>
+  </si>
+  <si>
+    <t>track suit for women set</t>
+  </si>
+  <si>
+    <t>winter running leggings for women</t>
+  </si>
+  <si>
+    <t>women sweatsuits</t>
+  </si>
+  <si>
+    <t>sweat suit womens</t>
+  </si>
+  <si>
+    <t>womens workout clothing set</t>
+  </si>
+  <si>
+    <t>sexy matching sets women clothing crop top and pants</t>
+  </si>
+  <si>
+    <t>two piece outfits for women sexy in winter</t>
+  </si>
+  <si>
+    <t>3 piece set womens clothing sexy</t>
+  </si>
+  <si>
+    <t>women sets outfits for winter</t>
+  </si>
+  <si>
+    <t>pink cotton sweat suits for women</t>
+  </si>
+  <si>
+    <t>black cropped long sleeve shirt</t>
+  </si>
+  <si>
+    <t>women warm up suits sets</t>
+  </si>
+  <si>
+    <t>gym crop sweaters</t>
+  </si>
+  <si>
+    <t>body suits women clothing long sleeve</t>
+  </si>
+  <si>
+    <t>sweat suit exercise</t>
+  </si>
+  <si>
+    <t>women’s sweaters</t>
+  </si>
+  <si>
+    <t>track suit for female</t>
+  </si>
+  <si>
+    <t>sweat suits for women set weight loss</t>
+  </si>
+  <si>
+    <t>two piece jogger sets for women</t>
+  </si>
+  <si>
+    <t>matching lounge sets for women</t>
+  </si>
+  <si>
+    <t>jet joy yoga outfit</t>
+  </si>
+  <si>
+    <t>exercise &amp; fitness apparel</t>
+  </si>
+  <si>
+    <t>jet joy</t>
+  </si>
+  <si>
+    <t>jet joy set</t>
+  </si>
+  <si>
+    <t>women jogger set 2 piece</t>
+  </si>
+  <si>
+    <t>leggings for women 2 pack</t>
+  </si>
+  <si>
+    <t>yoga clothing</t>
+  </si>
+  <si>
+    <t>high tops for women</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -651,7 +679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1136,27 +1166,30 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61413293-5BD2-4740-A634-64B19DE72954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064D93E-4DB9-4CEF-BF91-5734F129A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>turquoise sweater</t>
-  </si>
-  <si>
-    <t>fitness clothes for women</t>
-  </si>
-  <si>
-    <t>exercise clothing</t>
-  </si>
-  <si>
-    <t>colorful compression leggings women</t>
-  </si>
-  <si>
-    <t>compression long sleeve shirt women</t>
-  </si>
-  <si>
-    <t>matching sets women clothing</t>
-  </si>
-  <si>
-    <t>yoga outfits for women set</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing xxl</t>
-  </si>
-  <si>
-    <t>two piece workout outfits for women</t>
-  </si>
-  <si>
-    <t>track suits for women set</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>top and leggings set for women</t>
-  </si>
-  <si>
-    <t>long sleeve exercise shirt women</t>
-  </si>
-  <si>
-    <t>yoga sets for women clothing</t>
-  </si>
-  <si>
-    <t>compression shirt women long sleeve</t>
-  </si>
-  <si>
-    <t>womens workout clothes sets</t>
-  </si>
-  <si>
-    <t>matching sets for women outfit</t>
-  </si>
-  <si>
-    <t>sports clothes for women</t>
-  </si>
-  <si>
-    <t>zip up</t>
-  </si>
-  <si>
-    <t>fitness yoga set</t>
-  </si>
-  <si>
-    <t>winter womens clothing</t>
-  </si>
-  <si>
-    <t>warm up suits for women</t>
-  </si>
-  <si>
-    <t>suit for women</t>
-  </si>
-  <si>
-    <t>winter tights for women</t>
-  </si>
-  <si>
-    <t>exercise clothes for women set</t>
-  </si>
-  <si>
-    <t>athletic compression leggings women</t>
-  </si>
-  <si>
-    <t>pink tracksuit for women</t>
-  </si>
-  <si>
-    <t>womens 2 piece outfits</t>
-  </si>
-  <si>
-    <t>black two piece</t>
-  </si>
-  <si>
-    <t>yoga outfits</t>
-  </si>
-  <si>
-    <t>gym clothing</t>
-  </si>
-  <si>
-    <t>legging sets</t>
-  </si>
-  <si>
-    <t>pink sweater</t>
-  </si>
-  <si>
-    <t>2 piece womens outfit</t>
-  </si>
-  <si>
-    <t>women suit</t>
-  </si>
-  <si>
-    <t>cropped shirts</t>
-  </si>
-  <si>
-    <t>blue sweater for women</t>
-  </si>
-  <si>
-    <t>blue two piece set</t>
-  </si>
-  <si>
-    <t>big sweaters for women</t>
-  </si>
-  <si>
-    <t>crop long sleeve tops for women</t>
-  </si>
-  <si>
-    <t>neon workout clothes for women</t>
-  </si>
-  <si>
-    <t>finger top</t>
-  </si>
-  <si>
-    <t>black two piece set</t>
-  </si>
-  <si>
-    <t>leggings with holes for women</t>
-  </si>
-  <si>
-    <t>winter outfits women</t>
-  </si>
-  <si>
-    <t>sweat set</t>
-  </si>
-  <si>
-    <t>3 piece womens outfit</t>
-  </si>
-  <si>
-    <t>yoga fingers</t>
-  </si>
-  <si>
-    <t>green two piece outfit</t>
-  </si>
-  <si>
-    <t>sweat set for women</t>
-  </si>
-  <si>
-    <t>track suits</t>
-  </si>
-  <si>
-    <t>track suits for women</t>
-  </si>
-  <si>
-    <t>gym sweaters for women</t>
-  </si>
-  <si>
-    <t>pink zip up</t>
-  </si>
-  <si>
-    <t>the super suit</t>
-  </si>
-  <si>
-    <t>women sweatsuit</t>
-  </si>
-  <si>
-    <t>green two piece set</t>
-  </si>
-  <si>
-    <t>sweat sets</t>
-  </si>
-  <si>
-    <t>green sweatsuit</t>
-  </si>
-  <si>
-    <t>green sweats</t>
-  </si>
-  <si>
-    <t>womens track suit</t>
-  </si>
-  <si>
-    <t>womens track suits</t>
-  </si>
-  <si>
-    <t>clothing bodybuilding</t>
-  </si>
-  <si>
-    <t>sport cloths</t>
-  </si>
-  <si>
-    <t>womens gym shirt</t>
-  </si>
-  <si>
-    <t>womens track suits sets</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing yoga pants</t>
-  </si>
-  <si>
-    <t>pink victoria secret bikini</t>
-  </si>
-  <si>
-    <t>pink victoria secret cool and bright</t>
-  </si>
-  <si>
-    <t>womens sweat set</t>
-  </si>
-  <si>
-    <t>compression jackets</t>
-  </si>
-  <si>
-    <t>matching workout sets for women</t>
-  </si>
-  <si>
-    <t>track suit for women set</t>
-  </si>
-  <si>
-    <t>winter running leggings for women</t>
-  </si>
-  <si>
-    <t>women sweatsuits</t>
-  </si>
-  <si>
-    <t>sweat suit womens</t>
-  </si>
-  <si>
-    <t>womens workout clothing set</t>
-  </si>
-  <si>
-    <t>sexy matching sets women clothing crop top and pants</t>
-  </si>
-  <si>
-    <t>two piece outfits for women sexy in winter</t>
-  </si>
-  <si>
-    <t>3 piece set womens clothing sexy</t>
-  </si>
-  <si>
-    <t>women sets outfits for winter</t>
-  </si>
-  <si>
-    <t>pink cotton sweat suits for women</t>
-  </si>
-  <si>
-    <t>black cropped long sleeve shirt</t>
-  </si>
-  <si>
-    <t>women warm up suits sets</t>
-  </si>
-  <si>
-    <t>gym crop sweaters</t>
-  </si>
-  <si>
-    <t>body suits women clothing long sleeve</t>
-  </si>
-  <si>
-    <t>sweat suit exercise</t>
-  </si>
-  <si>
-    <t>women’s sweaters</t>
-  </si>
-  <si>
-    <t>track suit for female</t>
-  </si>
-  <si>
-    <t>sweat suits for women set weight loss</t>
-  </si>
-  <si>
-    <t>two piece jogger sets for women</t>
-  </si>
-  <si>
-    <t>matching lounge sets for women</t>
-  </si>
-  <si>
-    <t>jet joy yoga outfit</t>
-  </si>
-  <si>
-    <t>exercise &amp; fitness apparel</t>
-  </si>
-  <si>
-    <t>jet joy</t>
-  </si>
-  <si>
-    <t>jet joy set</t>
-  </si>
-  <si>
-    <t>women jogger set 2 piece</t>
-  </si>
-  <si>
-    <t>leggings for women 2 pack</t>
-  </si>
-  <si>
-    <t>yoga clothing</t>
-  </si>
-  <si>
-    <t>high tops for women</t>
+    <t>small pink</t>
+  </si>
+  <si>
+    <t>winter work</t>
+  </si>
+  <si>
+    <t>pink legging</t>
+  </si>
+  <si>
+    <t>winter two piece outfit</t>
+  </si>
+  <si>
+    <t>crop pant</t>
+  </si>
+  <si>
+    <t>exercise legging</t>
+  </si>
+  <si>
+    <t>work out gym</t>
+  </si>
+  <si>
+    <t>matching top</t>
+  </si>
+  <si>
+    <t>matching pant</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>compression tight</t>
+  </si>
+  <si>
+    <t>small black top</t>
+  </si>
+  <si>
+    <t>winter work shirt</t>
+  </si>
+  <si>
+    <t>woman black</t>
+  </si>
+  <si>
+    <t>green jogger</t>
+  </si>
+  <si>
+    <t>black athletic</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>small woman</t>
+  </si>
+  <si>
+    <t>woman clothe</t>
+  </si>
+  <si>
+    <t>green sleeve</t>
+  </si>
+  <si>
+    <t>green crop</t>
+  </si>
+  <si>
+    <t>black tight</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>winter tight</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>small set</t>
+  </si>
+  <si>
+    <t>legging outfit set</t>
+  </si>
+  <si>
+    <t>2 woman</t>
+  </si>
+  <si>
+    <t>black sport legging</t>
+  </si>
+  <si>
+    <t>apparel size</t>
+  </si>
+  <si>
+    <t>long jogger</t>
+  </si>
+  <si>
+    <t>long legging</t>
+  </si>
+  <si>
+    <t>small piece</t>
+  </si>
+  <si>
+    <t>workout jogger</t>
+  </si>
+  <si>
+    <t>pant suit woman</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>blue legging</t>
+  </si>
+  <si>
+    <t>blue tight</t>
+  </si>
+  <si>
+    <t>woman high waist</t>
+  </si>
+  <si>
+    <t>workout sleeve</t>
+  </si>
+  <si>
+    <t>fashion jogger</t>
+  </si>
+  <si>
+    <t>yoga tight</t>
+  </si>
+  <si>
+    <t>long yoga top</t>
+  </si>
+  <si>
+    <t>woman set</t>
+  </si>
+  <si>
+    <t>long crop</t>
+  </si>
+  <si>
+    <t>small top</t>
+  </si>
+  <si>
+    <t>work sleeve</t>
+  </si>
+  <si>
+    <t>black jogger pant</t>
+  </si>
+  <si>
+    <t>black athletic legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>blue crop</t>
+  </si>
+  <si>
+    <t>black workout pant</t>
+  </si>
+  <si>
+    <t>ribbed legging</t>
+  </si>
+  <si>
+    <t>winter sleeve</t>
+  </si>
+  <si>
+    <t>soft set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfit</t>
+  </si>
+  <si>
+    <t>black suit woman</t>
+  </si>
+  <si>
+    <t>green black crop top</t>
+  </si>
+  <si>
+    <t>green matching set</t>
+  </si>
+  <si>
+    <t>long sleeve workout set</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>long sleeve matching set</t>
+  </si>
+  <si>
+    <t>workout crop top set</t>
+  </si>
+  <si>
+    <t>2 soft</t>
+  </si>
+  <si>
+    <t>crop jogger set</t>
+  </si>
+  <si>
+    <t>blue matching set</t>
+  </si>
+  <si>
+    <t>soft crop top</t>
+  </si>
+  <si>
+    <t>jogger crop top set</t>
+  </si>
+  <si>
+    <t>pink out outfit</t>
+  </si>
+  <si>
+    <t>soft long sleeve</t>
+  </si>
+  <si>
+    <t>jogger woman</t>
+  </si>
+  <si>
+    <t>black winter top</t>
+  </si>
+  <si>
+    <t>2 piece set woman</t>
+  </si>
+  <si>
+    <t>black fitness</t>
+  </si>
+  <si>
+    <t>soft legging</t>
+  </si>
+  <si>
+    <t>soft top</t>
+  </si>
+  <si>
+    <t>black pant</t>
+  </si>
+  <si>
+    <t>seamless crop top workout</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>blue workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>piece long</t>
+  </si>
+  <si>
+    <t>two piece athletic set</t>
+  </si>
+  <si>
+    <t>apparel clothing</t>
+  </si>
+  <si>
+    <t>outfit winter</t>
+  </si>
+  <si>
+    <t>long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>black yoga</t>
+  </si>
+  <si>
+    <t>shirt sleeve</t>
+  </si>
+  <si>
+    <t>top woman</t>
+  </si>
+  <si>
+    <t>turquoise leggings</t>
+  </si>
+  <si>
+    <t>ribbed leggings</t>
+  </si>
+  <si>
+    <t>workout clothes for women gym</t>
+  </si>
+  <si>
+    <t>ready set</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>workout clothes</t>
+  </si>
+  <si>
+    <t>workout shirts</t>
+  </si>
+  <si>
+    <t>gym clothes for women</t>
+  </si>
+  <si>
+    <t>gym outfits for women</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -679,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,30 +1138,27 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F0B1B-EA5B-46D9-851B-07F0DCEA4424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC4F60-7DB7-4D6F-BAA1-33A07BAB88E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>pink victoria secret</t>
-  </si>
-  <si>
-    <t>crop workout</t>
-  </si>
-  <si>
-    <t>2 pieces outfit for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
-  </si>
-  <si>
-    <t>legging outfits</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>gym workout clothes women</t>
-  </si>
-  <si>
-    <t>workout clothes women plus size</t>
-  </si>
-  <si>
-    <t>crop leggings</t>
-  </si>
-  <si>
-    <t>retro workout clothes women</t>
-  </si>
-  <si>
-    <t>winter workout clothes for women</t>
-  </si>
-  <si>
-    <t>woman gym shirt</t>
-  </si>
-  <si>
-    <t>women bodybuilding clothes</t>
-  </si>
-  <si>
-    <t>womens yoga gym crop top compression</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes women</t>
-  </si>
-  <si>
-    <t>gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding clothes for women</t>
-  </si>
-  <si>
-    <t>nike workout clothes for women plus size</t>
-  </si>
-  <si>
-    <t>gym outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>woman gym clothes</t>
-  </si>
-  <si>
-    <t>ribbed yoga leggings</t>
-  </si>
-  <si>
-    <t>crossfit workout clothes women</t>
-  </si>
-  <si>
-    <t>2pc workout clothes for women</t>
-  </si>
-  <si>
-    <t>sports clothes</t>
-  </si>
-  <si>
-    <t>clothes sport</t>
-  </si>
-  <si>
-    <t>zella workout clothes womens</t>
-  </si>
-  <si>
-    <t>clothes for women gym</t>
-  </si>
-  <si>
-    <t>2 piece gym outfits for women</t>
-  </si>
-  <si>
-    <t>womens gym clothes</t>
-  </si>
-  <si>
-    <t>bodybuilding workout shirt</t>
-  </si>
-  <si>
-    <t>gap workout clothes for women</t>
-  </si>
-  <si>
-    <t>muslim workout clothes for women</t>
-  </si>
-  <si>
-    <t>women in clothes</t>
-  </si>
-  <si>
-    <t>gym body suit</t>
-  </si>
-  <si>
-    <t>disney workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece shirts</t>
-  </si>
-  <si>
-    <t>womens bodybuilding clothing</t>
-  </si>
-  <si>
-    <t>black workout clothes</t>
-  </si>
-  <si>
-    <t>womens sports clothes</t>
-  </si>
-  <si>
-    <t>womens sports outfits</t>
-  </si>
-  <si>
-    <t>new balance workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women xxl</t>
-  </si>
-  <si>
-    <t>asics workout clothes for women</t>
-  </si>
-  <si>
-    <t>halloween workout clothes women</t>
-  </si>
-  <si>
-    <t>calia workout clothes for women</t>
-  </si>
-  <si>
-    <t>second skin workout clothes women</t>
-  </si>
-  <si>
-    <t>clearence workout clothes for women</t>
-  </si>
-  <si>
-    <t>mission workout clothes for women</t>
-  </si>
-  <si>
-    <t>shirt for women leggings</t>
-  </si>
-  <si>
-    <t>turquoise tracksuit women</t>
-  </si>
-  <si>
-    <t>summer workout clothes for women</t>
-  </si>
-  <si>
-    <t>gym sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout women clothes</t>
-  </si>
-  <si>
-    <t>black crop leggings for women</t>
-  </si>
-  <si>
-    <t>pink jogging suits for women</t>
-  </si>
-  <si>
-    <t>women clothes sport</t>
-  </si>
-  <si>
-    <t>black legging shirt</t>
-  </si>
-  <si>
-    <t>women gym shirts</t>
-  </si>
-  <si>
-    <t>super hero workout clothes for women</t>
-  </si>
-  <si>
-    <t>camo workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>sport outfits</t>
-  </si>
-  <si>
-    <t>workout clothes for women mesh</t>
-  </si>
-  <si>
-    <t>workout clothes for women xl</t>
-  </si>
-  <si>
-    <t>maternity workout clothes for women</t>
-  </si>
-  <si>
-    <t>zip up body suits for women</t>
-  </si>
-  <si>
-    <t>long sleeve crop top fitness</t>
-  </si>
-  <si>
-    <t>inspirational workout clothes for women</t>
-  </si>
-  <si>
-    <t>nike pro workout clothes for women</t>
-  </si>
-  <si>
-    <t>shop clothes for woman</t>
-  </si>
-  <si>
-    <t>matching workout clothes for women</t>
-  </si>
-  <si>
-    <t>work out tops</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece pants</t>
-  </si>
-  <si>
-    <t>workout clothes for women 2 piece</t>
-  </si>
-  <si>
-    <t>gym shirts for women</t>
-  </si>
-  <si>
-    <t>sexy workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women plus size</t>
-  </si>
-  <si>
-    <t>womens workout sets</t>
-  </si>
-  <si>
-    <t>blue shirts for women</t>
-  </si>
-  <si>
-    <t>women jogging suit set</t>
-  </si>
-  <si>
-    <t>colorful workout clothes for women</t>
-  </si>
-  <si>
-    <t>women workout sets</t>
-  </si>
-  <si>
-    <t>workout clothes for women plus</t>
-  </si>
-  <si>
-    <t>shirt and leggings set for women</t>
-  </si>
-  <si>
-    <t>gym clothing for women</t>
-  </si>
-  <si>
-    <t>black clothes</t>
-  </si>
-  <si>
-    <t>workout clothes for women sets</t>
-  </si>
-  <si>
-    <t>womens workout clothes</t>
-  </si>
-  <si>
-    <t>workout clothes set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweaters for leggings</t>
-  </si>
-  <si>
-    <t>work outfits</t>
-  </si>
-  <si>
-    <t>blue sports leggings</t>
-  </si>
-  <si>
-    <t>gym sets for women</t>
-  </si>
-  <si>
-    <t>tall womens work out clothes</t>
-  </si>
-  <si>
-    <t>cloths set for women</t>
-  </si>
-  <si>
-    <t>blue womens shirt</t>
-  </si>
-  <si>
-    <t>black leggings for women fashion</t>
-  </si>
-  <si>
-    <t>sweater sets</t>
+    <t>green track suits</t>
+  </si>
+  <si>
+    <t>sexy yoga sets</t>
+  </si>
+  <si>
+    <t>sexy jogger set for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuit</t>
+  </si>
+  <si>
+    <t>thick sweat suits</t>
+  </si>
+  <si>
+    <t>jogging sweat suit</t>
+  </si>
+  <si>
+    <t>workout sweat suits</t>
+  </si>
+  <si>
+    <t>sweat suits for women set</t>
+  </si>
+  <si>
+    <t>green and black outfit</t>
+  </si>
+  <si>
+    <t>compression workout tops for women</t>
+  </si>
+  <si>
+    <t>sweat suit for woman</t>
+  </si>
+  <si>
+    <t>womens professional suit set</t>
+  </si>
+  <si>
+    <t>activewear jackets</t>
+  </si>
+  <si>
+    <t>exercise sets</t>
+  </si>
+  <si>
+    <t>womans track</t>
+  </si>
+  <si>
+    <t>woman suits set</t>
+  </si>
+  <si>
+    <t>womens winter set</t>
+  </si>
+  <si>
+    <t>suit shirts</t>
+  </si>
+  <si>
+    <t>clothes for yoga women</t>
+  </si>
+  <si>
+    <t>yoga suits for women 2 pieces</t>
+  </si>
+  <si>
+    <t>2 piece exercise outfits</t>
+  </si>
+  <si>
+    <t>long sleeve seamless top workout</t>
+  </si>
+  <si>
+    <t>cropped workout long sleeve</t>
+  </si>
+  <si>
+    <t>womens athletic set</t>
+  </si>
+  <si>
+    <t>women compression shirts long sleeve</t>
+  </si>
+  <si>
+    <t>womens woven joggers</t>
+  </si>
+  <si>
+    <t>gym cloth</t>
+  </si>
+  <si>
+    <t>blue shirts for leggings</t>
+  </si>
+  <si>
+    <t>womens seamless crop top</t>
+  </si>
+  <si>
+    <t>athletics green</t>
+  </si>
+  <si>
+    <t>clothes for women top</t>
+  </si>
+  <si>
+    <t>finger outfits</t>
+  </si>
+  <si>
+    <t>sweats set for women</t>
+  </si>
+  <si>
+    <t>sports cloth</t>
+  </si>
+  <si>
+    <t>womans sweat suits sets</t>
+  </si>
+  <si>
+    <t>pink sweat suits women</t>
+  </si>
+  <si>
+    <t>sports outfits</t>
+  </si>
+  <si>
+    <t>compression suits</t>
+  </si>
+  <si>
+    <t>track suit womens</t>
+  </si>
+  <si>
+    <t>gym crop tops</t>
+  </si>
+  <si>
+    <t>athletic outfits for women 2 piece</t>
+  </si>
+  <si>
+    <t>conjuntos para trabajar</t>
+  </si>
+  <si>
+    <t>long sleves crop top</t>
+  </si>
+  <si>
+    <t>ladies track suits sets</t>
+  </si>
+  <si>
+    <t>shorts sweat suit for women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece high waist</t>
+  </si>
+  <si>
+    <t>sexy matching set outfits</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing shorts sets</t>
+  </si>
+  <si>
+    <t>outfits women two piece</t>
+  </si>
+  <si>
+    <t>winter running tights for women</t>
+  </si>
+  <si>
+    <t>calia by carrie underwood cardigan</t>
+  </si>
+  <si>
+    <t>workout clothes for women modest</t>
+  </si>
+  <si>
+    <t>tights suits for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens two piece track suits</t>
+  </si>
+  <si>
+    <t>green jogging suit for women</t>
+  </si>
+  <si>
+    <t>exercise women outfits</t>
+  </si>
+  <si>
+    <t>matching gym sets for women</t>
+  </si>
+  <si>
+    <t>conjunto de ropa deportiva para mujer</t>
+  </si>
+  <si>
+    <t>women jogging suit set with zipper</t>
+  </si>
+  <si>
+    <t>black sports leggings women</t>
+  </si>
+  <si>
+    <t>sexy black two piece set</t>
+  </si>
+  <si>
+    <t>winter sweat sets for women</t>
+  </si>
+  <si>
+    <t>womens crop tops workout</t>
+  </si>
+  <si>
+    <t>long sleeve jogging suits for women</t>
+  </si>
+  <si>
+    <t>matching set womens outfit</t>
+  </si>
+  <si>
+    <t>sweat suit for women set</t>
+  </si>
+  <si>
+    <t>womens black spandex suit</t>
+  </si>
+  <si>
+    <t>green and black leggings women</t>
+  </si>
+  <si>
+    <t>clearance womens workout clothing</t>
+  </si>
+  <si>
+    <t>two piece black outfits for women sexy</t>
+  </si>
+  <si>
+    <t>two piece suits women</t>
+  </si>
+  <si>
+    <t>womens matching pant set</t>
+  </si>
+  <si>
+    <t>womens winter fashion tops</t>
+  </si>
+  <si>
+    <t>long sleeve sexy two piece sets</t>
+  </si>
+  <si>
+    <t>leg compression sleeve with zipper</t>
+  </si>
+  <si>
+    <t>two piece workout sets for women</t>
+  </si>
+  <si>
+    <t>two piece crop top outfits for women</t>
+  </si>
+  <si>
+    <t>two piece sets for women sexy</t>
+  </si>
+  <si>
+    <t>cropped longsleeve</t>
+  </si>
+  <si>
+    <t>cropped long sleeve shirt women</t>
+  </si>
+  <si>
+    <t>blue leggings and shirt for women</t>
+  </si>
+  <si>
+    <t>compression workout tops women</t>
+  </si>
+  <si>
+    <t>cropped tennis shirt</t>
+  </si>
+  <si>
+    <t>womens sexy workout leggings</t>
+  </si>
+  <si>
+    <t>womens winter athletic apparel</t>
+  </si>
+  <si>
+    <t>women sexy jogging suit set</t>
+  </si>
+  <si>
+    <t>yoga leggings set for women</t>
+  </si>
+  <si>
+    <t>yoga leggings and top set</t>
+  </si>
+  <si>
+    <t>jogging suits for women set</t>
+  </si>
+  <si>
+    <t>womens jogging suit</t>
+  </si>
+  <si>
+    <t>womens winter clothing outfits</t>
+  </si>
+  <si>
+    <t>descuentos de hoy ropa para mujer</t>
+  </si>
+  <si>
+    <t>gym sets clothes for women</t>
+  </si>
+  <si>
+    <t>leggings outfit set for women</t>
+  </si>
+  <si>
+    <t>ropa entrenamiento mujer</t>
+  </si>
+  <si>
+    <t>leggings for women turquoise</t>
+  </si>
+  <si>
+    <t>fashion leggings for women sexy</t>
+  </si>
+  <si>
+    <t>2 piece yoga sets for women</t>
+  </si>
+  <si>
+    <t>gym sweat suits for women</t>
+  </si>
+  <si>
+    <t>legging shirts for women long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -651,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,27 +1166,30 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC4F60-7DB7-4D6F-BAA1-33A07BAB88E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896E849-DC97-4109-AF6C-90A9E31122D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>green track suits</t>
-  </si>
-  <si>
-    <t>sexy yoga sets</t>
-  </si>
-  <si>
-    <t>sexy jogger set for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuit</t>
-  </si>
-  <si>
-    <t>thick sweat suits</t>
-  </si>
-  <si>
-    <t>jogging sweat suit</t>
-  </si>
-  <si>
-    <t>workout sweat suits</t>
-  </si>
-  <si>
-    <t>sweat suits for women set</t>
-  </si>
-  <si>
-    <t>green and black outfit</t>
-  </si>
-  <si>
-    <t>compression workout tops for women</t>
-  </si>
-  <si>
-    <t>sweat suit for woman</t>
-  </si>
-  <si>
-    <t>womens professional suit set</t>
-  </si>
-  <si>
-    <t>activewear jackets</t>
-  </si>
-  <si>
-    <t>exercise sets</t>
-  </si>
-  <si>
-    <t>womans track</t>
-  </si>
-  <si>
-    <t>woman suits set</t>
-  </si>
-  <si>
-    <t>womens winter set</t>
-  </si>
-  <si>
-    <t>suit shirts</t>
-  </si>
-  <si>
-    <t>clothes for yoga women</t>
-  </si>
-  <si>
-    <t>yoga suits for women 2 pieces</t>
-  </si>
-  <si>
-    <t>2 piece exercise outfits</t>
-  </si>
-  <si>
-    <t>long sleeve seamless top workout</t>
-  </si>
-  <si>
-    <t>cropped workout long sleeve</t>
-  </si>
-  <si>
-    <t>womens athletic set</t>
-  </si>
-  <si>
-    <t>women compression shirts long sleeve</t>
-  </si>
-  <si>
-    <t>womens woven joggers</t>
-  </si>
-  <si>
-    <t>gym cloth</t>
-  </si>
-  <si>
-    <t>blue shirts for leggings</t>
-  </si>
-  <si>
-    <t>womens seamless crop top</t>
-  </si>
-  <si>
-    <t>athletics green</t>
-  </si>
-  <si>
-    <t>clothes for women top</t>
-  </si>
-  <si>
-    <t>finger outfits</t>
-  </si>
-  <si>
-    <t>sweats set for women</t>
-  </si>
-  <si>
-    <t>sports cloth</t>
-  </si>
-  <si>
-    <t>womans sweat suits sets</t>
-  </si>
-  <si>
-    <t>pink sweat suits women</t>
-  </si>
-  <si>
-    <t>sports outfits</t>
-  </si>
-  <si>
-    <t>compression suits</t>
-  </si>
-  <si>
-    <t>track suit womens</t>
-  </si>
-  <si>
-    <t>gym crop tops</t>
-  </si>
-  <si>
-    <t>athletic outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>conjuntos para trabajar</t>
-  </si>
-  <si>
-    <t>long sleves crop top</t>
-  </si>
-  <si>
-    <t>ladies track suits sets</t>
-  </si>
-  <si>
-    <t>shorts sweat suit for women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece high waist</t>
-  </si>
-  <si>
-    <t>sexy matching set outfits</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing shorts sets</t>
-  </si>
-  <si>
-    <t>outfits women two piece</t>
-  </si>
-  <si>
-    <t>winter running tights for women</t>
-  </si>
-  <si>
-    <t>calia by carrie underwood cardigan</t>
-  </si>
-  <si>
-    <t>workout clothes for women modest</t>
-  </si>
-  <si>
-    <t>tights suits for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens two piece track suits</t>
-  </si>
-  <si>
-    <t>green jogging suit for women</t>
-  </si>
-  <si>
-    <t>exercise women outfits</t>
-  </si>
-  <si>
-    <t>matching gym sets for women</t>
-  </si>
-  <si>
-    <t>conjunto de ropa deportiva para mujer</t>
-  </si>
-  <si>
-    <t>women jogging suit set with zipper</t>
-  </si>
-  <si>
-    <t>black sports leggings women</t>
-  </si>
-  <si>
-    <t>sexy black two piece set</t>
-  </si>
-  <si>
-    <t>winter sweat sets for women</t>
-  </si>
-  <si>
-    <t>womens crop tops workout</t>
-  </si>
-  <si>
-    <t>long sleeve jogging suits for women</t>
-  </si>
-  <si>
-    <t>matching set womens outfit</t>
-  </si>
-  <si>
-    <t>sweat suit for women set</t>
-  </si>
-  <si>
-    <t>womens black spandex suit</t>
-  </si>
-  <si>
-    <t>green and black leggings women</t>
-  </si>
-  <si>
-    <t>clearance womens workout clothing</t>
-  </si>
-  <si>
-    <t>two piece black outfits for women sexy</t>
-  </si>
-  <si>
-    <t>two piece suits women</t>
-  </si>
-  <si>
-    <t>womens matching pant set</t>
-  </si>
-  <si>
-    <t>womens winter fashion tops</t>
-  </si>
-  <si>
-    <t>long sleeve sexy two piece sets</t>
-  </si>
-  <si>
-    <t>leg compression sleeve with zipper</t>
-  </si>
-  <si>
-    <t>two piece workout sets for women</t>
-  </si>
-  <si>
-    <t>two piece crop top outfits for women</t>
-  </si>
-  <si>
-    <t>two piece sets for women sexy</t>
-  </si>
-  <si>
-    <t>cropped longsleeve</t>
-  </si>
-  <si>
-    <t>cropped long sleeve shirt women</t>
-  </si>
-  <si>
-    <t>blue leggings and shirt for women</t>
-  </si>
-  <si>
-    <t>compression workout tops women</t>
-  </si>
-  <si>
-    <t>cropped tennis shirt</t>
-  </si>
-  <si>
-    <t>womens sexy workout leggings</t>
-  </si>
-  <si>
-    <t>womens winter athletic apparel</t>
-  </si>
-  <si>
-    <t>women sexy jogging suit set</t>
-  </si>
-  <si>
-    <t>yoga leggings set for women</t>
-  </si>
-  <si>
-    <t>yoga leggings and top set</t>
-  </si>
-  <si>
-    <t>jogging suits for women set</t>
-  </si>
-  <si>
-    <t>womens jogging suit</t>
-  </si>
-  <si>
-    <t>womens winter clothing outfits</t>
-  </si>
-  <si>
-    <t>descuentos de hoy ropa para mujer</t>
-  </si>
-  <si>
-    <t>gym sets clothes for women</t>
-  </si>
-  <si>
-    <t>leggings outfit set for women</t>
-  </si>
-  <si>
-    <t>ropa entrenamiento mujer</t>
-  </si>
-  <si>
-    <t>leggings for women turquoise</t>
-  </si>
-  <si>
-    <t>fashion leggings for women sexy</t>
-  </si>
-  <si>
-    <t>2 piece yoga sets for women</t>
-  </si>
-  <si>
-    <t>gym sweat suits for women</t>
-  </si>
-  <si>
-    <t>legging shirts for women long sleeve</t>
+    <t>black sleeve</t>
+  </si>
+  <si>
+    <t>high waist legging</t>
+  </si>
+  <si>
+    <t>yoga suit</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>out shirt</t>
+  </si>
+  <si>
+    <t>tight shirt</t>
+  </si>
+  <si>
+    <t>athletic yoga</t>
+  </si>
+  <si>
+    <t>pink crop top</t>
+  </si>
+  <si>
+    <t>high waist pant</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>jogger pant</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece jogger set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>seamless long sleeve</t>
+  </si>
+  <si>
+    <t>long top</t>
+  </si>
+  <si>
+    <t>jogger set</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>athletic top</t>
+  </si>
+  <si>
+    <t>exercise apparel</t>
+  </si>
+  <si>
+    <t>green suit</t>
+  </si>
+  <si>
+    <t>matching outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>athletic outfit</t>
+  </si>
+  <si>
+    <t>pant outfit</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>green top</t>
+  </si>
+  <si>
+    <t>athletic green</t>
+  </si>
+  <si>
+    <t>black blue shirt</t>
+  </si>
+  <si>
+    <t>black long sleeve top</t>
+  </si>
+  <si>
+    <t>black sleeve crop top</t>
+  </si>
+  <si>
+    <t>black crop top set</t>
+  </si>
+  <si>
+    <t>exercise crop top</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>pink workout shirt</t>
+  </si>
+  <si>
+    <t>small waist</t>
+  </si>
+  <si>
+    <t>blue set</t>
+  </si>
+  <si>
+    <t>blue tracksuit</t>
+  </si>
+  <si>
+    <t>black blue</t>
+  </si>
+  <si>
+    <t>pink workout top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>long suit</t>
+  </si>
+  <si>
+    <t>workout crop</t>
+  </si>
+  <si>
+    <t>workout long sleeve</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>gym crop</t>
+  </si>
+  <si>
+    <t>sport crop top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>winter apparel</t>
+  </si>
+  <si>
+    <t>sport suit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>jacket outfit</t>
+  </si>
+  <si>
+    <t>fitness set</t>
+  </si>
+  <si>
+    <t>fitness suit</t>
+  </si>
+  <si>
+    <t>high crop top</t>
+  </si>
+  <si>
+    <t>woman apparel</t>
+  </si>
+  <si>
+    <t>black 2</t>
+  </si>
+  <si>
+    <t>yoga crop top</t>
+  </si>
+  <si>
+    <t>yoga crop</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>athletic set</t>
+  </si>
+  <si>
+    <t>athletic crop</t>
+  </si>
+  <si>
+    <t>athletic suit</t>
+  </si>
+  <si>
+    <t>athletic fashion</t>
+  </si>
+  <si>
+    <t>tight sleeve</t>
+  </si>
+  <si>
+    <t>tight jacket</t>
+  </si>
+  <si>
+    <t>bodybuilding workout</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>suit top</t>
+  </si>
+  <si>
+    <t>jogger suit</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>ribbed crop</t>
+  </si>
+  <si>
+    <t>2 shirt</t>
+  </si>
+  <si>
+    <t>winter clothing</t>
+  </si>
+  <si>
+    <t>crop workout shirt</t>
+  </si>
+  <si>
+    <t>crop set</t>
+  </si>
+  <si>
+    <t>crop tracksuit</t>
+  </si>
+  <si>
+    <t>jogging set</t>
+  </si>
+  <si>
+    <t>green set</t>
+  </si>
+  <si>
+    <t>long sleeve work shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>crop top tracksuit</t>
+  </si>
+  <si>
+    <t>long sleeve yoga crop top</t>
+  </si>
+  <si>
+    <t>workout suit</t>
+  </si>
+  <si>
+    <t>blue 2</t>
+  </si>
+  <si>
+    <t>pink tracksuit</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>two piece outfit set</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>green crop top</t>
+  </si>
+  <si>
+    <t>green long sleeve</t>
+  </si>
+  <si>
+    <t>green piece</t>
+  </si>
+  <si>
+    <t>jogger pant set</t>
+  </si>
+  <si>
+    <t>high waist pant set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -680,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,30 +1138,27 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B1A52-E028-4867-9753-8FEA89CC218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A2FEA-AD0F-439C-B373-7CAA2B764E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>ribbed crop top</t>
-  </si>
-  <si>
-    <t>athletic jogger</t>
-  </si>
-  <si>
-    <t>size 2</t>
-  </si>
-  <si>
-    <t>high waist workout</t>
-  </si>
-  <si>
-    <t>workout clothe</t>
-  </si>
-  <si>
-    <t>workout fitness</t>
-  </si>
-  <si>
-    <t>black yoga jacket</t>
-  </si>
-  <si>
-    <t>matching set</t>
-  </si>
-  <si>
-    <t>high waist jogger</t>
-  </si>
-  <si>
-    <t>black crop top</t>
-  </si>
-  <si>
-    <t>long sleeve crop top</t>
-  </si>
-  <si>
-    <t>2 piece winter outfit</t>
-  </si>
-  <si>
-    <t>black workout crop top</t>
-  </si>
-  <si>
-    <t>pink workout outfit</t>
-  </si>
-  <si>
-    <t>blue sport</t>
-  </si>
-  <si>
-    <t>black long sleeve crop top</t>
-  </si>
-  <si>
-    <t>green 2</t>
-  </si>
-  <si>
-    <t>pink top</t>
-  </si>
-  <si>
-    <t>blue top</t>
-  </si>
-  <si>
-    <t>small size</t>
-  </si>
-  <si>
-    <t>long shirt</t>
-  </si>
-  <si>
-    <t>out set</t>
-  </si>
-  <si>
-    <t>fitness outfit</t>
-  </si>
-  <si>
-    <t>exercise outfit</t>
-  </si>
-  <si>
-    <t>tight crop top</t>
-  </si>
-  <si>
-    <t>athletic crop top</t>
-  </si>
-  <si>
-    <t>athletic jacket</t>
-  </si>
-  <si>
-    <t>sleeve crop top</t>
-  </si>
-  <si>
-    <t>crop jacket</t>
-  </si>
-  <si>
-    <t>crop jogger</t>
-  </si>
-  <si>
-    <t>crop outfit</t>
-  </si>
-  <si>
-    <t>crop shirt</t>
-  </si>
-  <si>
-    <t>compression jacket</t>
-  </si>
-  <si>
-    <t>compression outfit</t>
-  </si>
-  <si>
-    <t>compression yoga</t>
-  </si>
-  <si>
-    <t>gym outfit</t>
-  </si>
-  <si>
-    <t>waist yoga</t>
-  </si>
-  <si>
-    <t>outfit set</t>
-  </si>
-  <si>
-    <t>seamless yoga</t>
-  </si>
-  <si>
-    <t>pant suit</t>
-  </si>
-  <si>
-    <t>blue crop top</t>
-  </si>
-  <si>
-    <t>long sleeve yoga</t>
-  </si>
-  <si>
-    <t>long sleeve yoga top</t>
-  </si>
-  <si>
-    <t>black tight crop top</t>
-  </si>
-  <si>
-    <t>black athletic jacket</t>
-  </si>
-  <si>
-    <t>black crop shirt</t>
-  </si>
-  <si>
-    <t>black crop jacket</t>
-  </si>
-  <si>
-    <t>high waist yoga</t>
-  </si>
-  <si>
-    <t>sleeve shirt</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>black shirt</t>
-  </si>
-  <si>
-    <t>tracksuit outfit</t>
-  </si>
-  <si>
-    <t>tracksuit set</t>
-  </si>
-  <si>
-    <t>tracksuit top</t>
-  </si>
-  <si>
-    <t>ribbed top</t>
-  </si>
-  <si>
-    <t>long sleeve top</t>
-  </si>
-  <si>
-    <t>two piece crop top set</t>
-  </si>
-  <si>
-    <t>two piece jogger set</t>
-  </si>
-  <si>
-    <t>two piece outfit</t>
-  </si>
-  <si>
-    <t>two piece set</t>
-  </si>
-  <si>
-    <t>two piece tracksuit</t>
-  </si>
-  <si>
-    <t>small black</t>
-  </si>
-  <si>
-    <t>crop top set</t>
-  </si>
-  <si>
-    <t>black legging set</t>
-  </si>
-  <si>
-    <t>black suit top</t>
-  </si>
-  <si>
-    <t>matching set outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>pant suit set</t>
-  </si>
-  <si>
-    <t>black outfit</t>
-  </si>
-  <si>
-    <t>green 2 piece set</t>
-  </si>
-  <si>
-    <t>green 2 piece outfit</t>
-  </si>
-  <si>
-    <t>long sleeve crop</t>
-  </si>
-  <si>
-    <t>high waist</t>
-  </si>
-  <si>
-    <t>jogging suit</t>
-  </si>
-  <si>
-    <t>jogger tracksuit</t>
-  </si>
-  <si>
-    <t>athletic apparel</t>
-  </si>
-  <si>
-    <t>athletic clothing</t>
-  </si>
-  <si>
-    <t>activewear set</t>
-  </si>
-  <si>
-    <t>suit set</t>
-  </si>
-  <si>
-    <t>pink shirt</t>
-  </si>
-  <si>
-    <t>pink suit</t>
-  </si>
-  <si>
-    <t>skinny shirt</t>
-  </si>
-  <si>
-    <t>jogging suit set</t>
-  </si>
-  <si>
-    <t>black top</t>
-  </si>
-  <si>
-    <t>gym set</t>
-  </si>
-  <si>
-    <t>sweatsuit outfit</t>
-  </si>
-  <si>
-    <t>sweatsuit set</t>
-  </si>
-  <si>
-    <t>work shirt</t>
-  </si>
-  <si>
-    <t>fitness legging</t>
-  </si>
-  <si>
-    <t>tight pant</t>
-  </si>
-  <si>
-    <t>black 2 piece</t>
-  </si>
-  <si>
-    <t>crop top outfit</t>
-  </si>
-  <si>
-    <t>set 2</t>
-  </si>
-  <si>
-    <t>exercise set</t>
-  </si>
-  <si>
-    <t>athletic long sleeve</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>long set</t>
-  </si>
-  <si>
-    <t>pink set</t>
-  </si>
-  <si>
-    <t>exercise top</t>
+    <t>womens athletic jackets lightweight</t>
+  </si>
+  <si>
+    <t>tights and jacket set for women</t>
+  </si>
+  <si>
+    <t>black zipper sweaters for women</t>
+  </si>
+  <si>
+    <t>polyester spandex leggings for women</t>
+  </si>
+  <si>
+    <t>two piece legging set for women</t>
+  </si>
+  <si>
+    <t>cropped two piece</t>
+  </si>
+  <si>
+    <t>jogging sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>athletic crop tops</t>
+  </si>
+  <si>
+    <t>wide leg outfit for women</t>
+  </si>
+  <si>
+    <t>top womens sport</t>
+  </si>
+  <si>
+    <t>womens workout clothes winter</t>
+  </si>
+  <si>
+    <t>exercise sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>workout gym clothes women</t>
+  </si>
+  <si>
+    <t>light pink sweat suits for women</t>
+  </si>
+  <si>
+    <t>winter pants for ladies</t>
+  </si>
+  <si>
+    <t>workout set for women 2 piece</t>
+  </si>
+  <si>
+    <t>sweatsuits for women two piece</t>
+  </si>
+  <si>
+    <t>outfits for winter woman</t>
+  </si>
+  <si>
+    <t>crop top piece set</t>
+  </si>
+  <si>
+    <t>style and co leggings for women</t>
+  </si>
+  <si>
+    <t>matching sets for women outfit sexy</t>
+  </si>
+  <si>
+    <t>winter outfit sets for women</t>
+  </si>
+  <si>
+    <t>yoga pants suit</t>
+  </si>
+  <si>
+    <t>women tights suit</t>
+  </si>
+  <si>
+    <t>gym warm up suits</t>
+  </si>
+  <si>
+    <t>women three piece outfits sets</t>
+  </si>
+  <si>
+    <t>3 pack black leggings for women</t>
+  </si>
+  <si>
+    <t>2 piece joggers sets for women</t>
+  </si>
+  <si>
+    <t>winter running tight women</t>
+  </si>
+  <si>
+    <t>mono de yoga para mujer</t>
+  </si>
+  <si>
+    <t>bodybuilding track pants</t>
+  </si>
+  <si>
+    <t>croptops for womens</t>
+  </si>
+  <si>
+    <t>women 2 piece tracksuit sets</t>
+  </si>
+  <si>
+    <t>cute workout tops women</t>
+  </si>
+  <si>
+    <t>winter 2 piece outfit women</t>
+  </si>
+  <si>
+    <t>women legging sets outfits</t>
+  </si>
+  <si>
+    <t>sweat suits for women set workout</t>
+  </si>
+  <si>
+    <t>active wear two piece sets for women</t>
+  </si>
+  <si>
+    <t>3 piece lounge sets for women</t>
+  </si>
+  <si>
+    <t>womens sweat suits two piece</t>
+  </si>
+  <si>
+    <t>womens work outfits sets</t>
+  </si>
+  <si>
+    <t>womens 2 piece workout outfits</t>
+  </si>
+  <si>
+    <t>cropped athletic tops for women</t>
+  </si>
+  <si>
+    <t>tights sets women 2 piece outfits</t>
+  </si>
+  <si>
+    <t>hotexy womens workout sets 2 piece workout</t>
+  </si>
+  <si>
+    <t>gym set clothing</t>
+  </si>
+  <si>
+    <t>crop athletic tops for women</t>
+  </si>
+  <si>
+    <t>jet joy workout set</t>
+  </si>
+  <si>
+    <t>gym shark 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>leggings outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>professional clothes for women for work</t>
+  </si>
+  <si>
+    <t>2 pc track suits for women</t>
+  </si>
+  <si>
+    <t>prime clothes for women</t>
+  </si>
+  <si>
+    <t>womens sets 2 piece outfits</t>
+  </si>
+  <si>
+    <t>workout 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece legging workout set</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>tennis clothes for women</t>
+  </si>
+  <si>
+    <t>women jogger outfits sets</t>
+  </si>
+  <si>
+    <t>sweater leggings for women</t>
+  </si>
+  <si>
+    <t>yoga sets for women</t>
+  </si>
+  <si>
+    <t>outfits for women</t>
+  </si>
+  <si>
+    <t>tracksuit womens</t>
+  </si>
+  <si>
+    <t>women compression shirt</t>
+  </si>
+  <si>
+    <t>long sleeve sport shirt women</t>
+  </si>
+  <si>
+    <t>crop long sleeve top</t>
+  </si>
+  <si>
+    <t>zumba outfits for women</t>
+  </si>
+  <si>
+    <t>long sleeve green shirt women</t>
+  </si>
+  <si>
+    <t>compression top women long sleeve</t>
+  </si>
+  <si>
+    <t>two piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>cropped long sleeve</t>
+  </si>
+  <si>
+    <t>womens blue shirt</t>
+  </si>
+  <si>
+    <t>womens winter clothing</t>
+  </si>
+  <si>
+    <t>fitness sweaters for women</t>
+  </si>
+  <si>
+    <t>finger sports</t>
+  </si>
+  <si>
+    <t>spandex 2 piece</t>
+  </si>
+  <si>
+    <t>cheap suit</t>
+  </si>
+  <si>
+    <t>womens sweats</t>
+  </si>
+  <si>
+    <t>green crop tops for women</t>
+  </si>
+  <si>
+    <t>work out set women</t>
+  </si>
+  <si>
+    <t>2 piece long sleeve outfits for women</t>
+  </si>
+  <si>
+    <t>pink body suit</t>
+  </si>
+  <si>
+    <t>black outfits for women</t>
+  </si>
+  <si>
+    <t>womens exercise</t>
+  </si>
+  <si>
+    <t>sexy workout sets for women</t>
+  </si>
+  <si>
+    <t>leggings sets</t>
+  </si>
+  <si>
+    <t>track suit for women</t>
+  </si>
+  <si>
+    <t>purple sweat suit for women</t>
+  </si>
+  <si>
+    <t>women workout set</t>
+  </si>
+  <si>
+    <t>womens sports crop top</t>
+  </si>
+  <si>
+    <t>womens cropped shirts</t>
+  </si>
+  <si>
+    <t>long sleeve shirts for leggings for women</t>
+  </si>
+  <si>
+    <t>ropa deportiva sexy para mujer</t>
+  </si>
+  <si>
+    <t>sweat sleeve</t>
+  </si>
+  <si>
+    <t>women 2 piece outfits sets</t>
+  </si>
+  <si>
+    <t>sportswear womens gym</t>
+  </si>
+  <si>
+    <t>womens compression shirt</t>
+  </si>
+  <si>
+    <t>gym shirt women</t>
+  </si>
+  <si>
+    <t>womens compression tights</t>
+  </si>
+  <si>
+    <t>track tights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -652,7 +680,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,27 +1166,30 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A2FEA-AD0F-439C-B373-7CAA2B764E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FCA84-2B1F-446A-8D90-FD3F0857856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,313 +25,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>womens athletic jackets lightweight</t>
-  </si>
-  <si>
-    <t>tights and jacket set for women</t>
-  </si>
-  <si>
-    <t>black zipper sweaters for women</t>
-  </si>
-  <si>
-    <t>polyester spandex leggings for women</t>
-  </si>
-  <si>
-    <t>two piece legging set for women</t>
-  </si>
-  <si>
-    <t>cropped two piece</t>
-  </si>
-  <si>
-    <t>jogging sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>athletic crop tops</t>
-  </si>
-  <si>
-    <t>wide leg outfit for women</t>
-  </si>
-  <si>
-    <t>top womens sport</t>
-  </si>
-  <si>
-    <t>womens workout clothes winter</t>
-  </si>
-  <si>
-    <t>exercise sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout gym clothes women</t>
-  </si>
-  <si>
-    <t>light pink sweat suits for women</t>
-  </si>
-  <si>
-    <t>winter pants for ladies</t>
-  </si>
-  <si>
-    <t>workout set for women 2 piece</t>
-  </si>
-  <si>
-    <t>sweatsuits for women two piece</t>
-  </si>
-  <si>
-    <t>outfits for winter woman</t>
-  </si>
-  <si>
-    <t>crop top piece set</t>
-  </si>
-  <si>
-    <t>style and co leggings for women</t>
-  </si>
-  <si>
-    <t>matching sets for women outfit sexy</t>
-  </si>
-  <si>
-    <t>winter outfit sets for women</t>
-  </si>
-  <si>
-    <t>yoga pants suit</t>
-  </si>
-  <si>
-    <t>women tights suit</t>
-  </si>
-  <si>
-    <t>gym warm up suits</t>
-  </si>
-  <si>
-    <t>women three piece outfits sets</t>
-  </si>
-  <si>
-    <t>3 pack black leggings for women</t>
-  </si>
-  <si>
-    <t>2 piece joggers sets for women</t>
-  </si>
-  <si>
-    <t>winter running tight women</t>
-  </si>
-  <si>
-    <t>mono de yoga para mujer</t>
-  </si>
-  <si>
-    <t>bodybuilding track pants</t>
-  </si>
-  <si>
-    <t>croptops for womens</t>
-  </si>
-  <si>
-    <t>women 2 piece tracksuit sets</t>
-  </si>
-  <si>
-    <t>cute workout tops women</t>
-  </si>
-  <si>
-    <t>winter 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>women legging sets outfits</t>
-  </si>
-  <si>
-    <t>sweat suits for women set workout</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+  <si>
+    <t>sweatsuits sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>two piece workout outfits for women</t>
+  </si>
+  <si>
+    <t>sweat sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece workout sets for women</t>
   </si>
   <si>
     <t>active wear two piece sets for women</t>
   </si>
   <si>
-    <t>3 piece lounge sets for women</t>
+    <t>sweat outfits for women 2 pieces</t>
+  </si>
+  <si>
+    <t>womens workout sets</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>women tracksuit set</t>
+  </si>
+  <si>
+    <t>jogger suits for women set</t>
+  </si>
+  <si>
+    <t>two piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>yoga outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>joggers for women set</t>
+  </si>
+  <si>
+    <t>women's athletic clothing sets</t>
+  </si>
+  <si>
+    <t>gym sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>matching sweatsuit women</t>
+  </si>
+  <si>
+    <t>workout clothes for women sets</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>work outfits for women gym set</t>
+  </si>
+  <si>
+    <t>gym outfits for women set</t>
   </si>
   <si>
     <t>womens sweat suits two piece</t>
   </si>
   <si>
-    <t>womens work outfits sets</t>
-  </si>
-  <si>
-    <t>womens 2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>cropped athletic tops for women</t>
-  </si>
-  <si>
-    <t>tights sets women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>hotexy womens workout sets 2 piece workout</t>
-  </si>
-  <si>
-    <t>gym set clothing</t>
-  </si>
-  <si>
-    <t>crop athletic tops for women</t>
-  </si>
-  <si>
-    <t>jet joy workout set</t>
-  </si>
-  <si>
-    <t>gym shark 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>leggings outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>professional clothes for women for work</t>
-  </si>
-  <si>
-    <t>2 pc track suits for women</t>
-  </si>
-  <si>
-    <t>prime clothes for women</t>
-  </si>
-  <si>
-    <t>womens sets 2 piece outfits</t>
-  </si>
-  <si>
-    <t>workout 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece legging workout set</t>
-  </si>
-  <si>
-    <t>seamless yoga set</t>
-  </si>
-  <si>
-    <t>tennis clothes for women</t>
-  </si>
-  <si>
-    <t>women jogger outfits sets</t>
-  </si>
-  <si>
-    <t>sweater leggings for women</t>
-  </si>
-  <si>
-    <t>yoga sets for women</t>
-  </si>
-  <si>
-    <t>outfits for women</t>
-  </si>
-  <si>
-    <t>tracksuit womens</t>
-  </si>
-  <si>
-    <t>women compression shirt</t>
-  </si>
-  <si>
-    <t>long sleeve sport shirt women</t>
-  </si>
-  <si>
-    <t>crop long sleeve top</t>
-  </si>
-  <si>
-    <t>zumba outfits for women</t>
-  </si>
-  <si>
-    <t>long sleeve green shirt women</t>
-  </si>
-  <si>
-    <t>compression top women long sleeve</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>cropped long sleeve</t>
-  </si>
-  <si>
-    <t>womens blue shirt</t>
-  </si>
-  <si>
-    <t>womens winter clothing</t>
-  </si>
-  <si>
-    <t>fitness sweaters for women</t>
-  </si>
-  <si>
-    <t>finger sports</t>
-  </si>
-  <si>
-    <t>spandex 2 piece</t>
-  </si>
-  <si>
-    <t>cheap suit</t>
-  </si>
-  <si>
-    <t>womens sweats</t>
-  </si>
-  <si>
-    <t>green crop tops for women</t>
-  </si>
-  <si>
-    <t>work out set women</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve outfits for women</t>
-  </si>
-  <si>
-    <t>pink body suit</t>
-  </si>
-  <si>
-    <t>black outfits for women</t>
-  </si>
-  <si>
-    <t>womens exercise</t>
-  </si>
-  <si>
-    <t>sexy workout sets for women</t>
-  </si>
-  <si>
-    <t>leggings sets</t>
-  </si>
-  <si>
-    <t>track suit for women</t>
-  </si>
-  <si>
-    <t>purple sweat suit for women</t>
-  </si>
-  <si>
-    <t>women workout set</t>
-  </si>
-  <si>
-    <t>womens sports crop top</t>
-  </si>
-  <si>
-    <t>womens cropped shirts</t>
-  </si>
-  <si>
-    <t>long sleeve shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>ropa deportiva sexy para mujer</t>
-  </si>
-  <si>
-    <t>sweat sleeve</t>
-  </si>
-  <si>
-    <t>women 2 piece outfits sets</t>
-  </si>
-  <si>
-    <t>sportswear womens gym</t>
-  </si>
-  <si>
-    <t>womens compression shirt</t>
-  </si>
-  <si>
-    <t>gym shirt women</t>
-  </si>
-  <si>
-    <t>womens compression tights</t>
-  </si>
-  <si>
-    <t>track tights</t>
+    <t>activewear sets for women</t>
+  </si>
+  <si>
+    <t>active wear outfits for women</t>
+  </si>
+  <si>
+    <t>jogger set for women</t>
+  </si>
+  <si>
+    <t>women track suits 2 piece set</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>sexy workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece high waist</t>
+  </si>
+  <si>
+    <t>workout sweaters for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits</t>
+  </si>
+  <si>
+    <t>athletic sets for women</t>
+  </si>
+  <si>
+    <t>matching workout sets for women</t>
+  </si>
+  <si>
+    <t>track suits for women sexy</t>
+  </si>
+  <si>
+    <t>sweat suits for women</t>
+  </si>
+  <si>
+    <t>two piece jogger sets for women</t>
+  </si>
+  <si>
+    <t>sweatsuits for women set</t>
+  </si>
+  <si>
+    <t>women sweat suits two piece set</t>
+  </si>
+  <si>
+    <t>gym sets for women</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit for women</t>
+  </si>
+  <si>
+    <t>workout clothes set for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweat suits</t>
+  </si>
+  <si>
+    <t>workout top for women set</t>
+  </si>
+  <si>
+    <t>track suits for women set</t>
+  </si>
+  <si>
+    <t>sweat suits for women set</t>
+  </si>
+  <si>
+    <t>workout clothes for women</t>
+  </si>
+  <si>
+    <t>women sweatsuits sets</t>
+  </si>
+  <si>
+    <t>sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>jogging suits for women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweatsuits sets</t>
+  </si>
+  <si>
+    <t>jogger sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>tracksuit for women set</t>
+  </si>
+  <si>
+    <t>women jogging suit set</t>
+  </si>
+  <si>
+    <t>workout sets for women</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets</t>
+  </si>
+  <si>
+    <t>womens tracksuit set</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +232,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +250,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -677,232 +535,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
@@ -912,17 +770,17 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -932,264 +790,166 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FCA84-2B1F-446A-8D90-FD3F0857856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB851ED-2713-4040-97FA-44CD563858B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,199 +25,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
-  <si>
-    <t>sweatsuits sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>two piece workout outfits for women</t>
-  </si>
-  <si>
-    <t>sweat sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>active wear two piece sets for women</t>
-  </si>
-  <si>
-    <t>sweat outfits for women 2 pieces</t>
-  </si>
-  <si>
-    <t>womens workout sets</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>women tracksuit set</t>
-  </si>
-  <si>
-    <t>jogger suits for women set</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>yoga outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>joggers for women set</t>
-  </si>
-  <si>
-    <t>women's athletic clothing sets</t>
-  </si>
-  <si>
-    <t>gym sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>matching sweatsuit women</t>
-  </si>
-  <si>
-    <t>workout clothes for women sets</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>work outfits for women gym set</t>
-  </si>
-  <si>
-    <t>gym outfits for women set</t>
-  </si>
-  <si>
-    <t>womens sweat suits two piece</t>
-  </si>
-  <si>
-    <t>activewear sets for women</t>
-  </si>
-  <si>
-    <t>active wear outfits for women</t>
-  </si>
-  <si>
-    <t>jogger set for women</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>matching jogger sets for women</t>
+  </si>
+  <si>
+    <t>sweat women suit</t>
+  </si>
+  <si>
+    <t>matching tracksuit women</t>
+  </si>
+  <si>
+    <t>sexy tennis shirts women</t>
+  </si>
+  <si>
+    <t>fashion joggers sets for women</t>
+  </si>
+  <si>
+    <t>womans sweatsuit</t>
+  </si>
+  <si>
+    <t>leggings for women shirt outfit</t>
+  </si>
+  <si>
+    <t>2piece women outfit</t>
+  </si>
+  <si>
+    <t>womans legging set</t>
+  </si>
+  <si>
+    <t>womens sweat suits</t>
+  </si>
+  <si>
+    <t>long sleeve 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>women sweat shirts</t>
+  </si>
+  <si>
+    <t>womans jogging suits sets</t>
+  </si>
+  <si>
+    <t>valour sweat suits for women</t>
+  </si>
+  <si>
+    <t>fashion tops for women sexy</t>
+  </si>
+  <si>
+    <t>green long sleeve crop top women</t>
+  </si>
+  <si>
+    <t>white sweat suits for women set</t>
+  </si>
+  <si>
+    <t>track suits outfits for women</t>
+  </si>
+  <si>
+    <t>legging outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>workout sweat suits for women set</t>
   </si>
   <si>
     <t>women track suits 2 piece set</t>
   </si>
   <si>
-    <t>women workout sets</t>
-  </si>
-  <si>
-    <t>sexy workout clothes for women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece high waist</t>
-  </si>
-  <si>
-    <t>workout sweaters for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits</t>
-  </si>
-  <si>
-    <t>athletic sets for women</t>
-  </si>
-  <si>
-    <t>matching workout sets for women</t>
-  </si>
-  <si>
-    <t>track suits for women sexy</t>
-  </si>
-  <si>
-    <t>sweat suits for women</t>
-  </si>
-  <si>
-    <t>two piece jogger sets for women</t>
-  </si>
-  <si>
-    <t>sweatsuits for women set</t>
+    <t>tie dye sweat suits for women set</t>
+  </si>
+  <si>
+    <t>2 piece outfit sets</t>
+  </si>
+  <si>
+    <t>women's 2 piece sets</t>
+  </si>
+  <si>
+    <t>cute black outfits</t>
   </si>
   <si>
     <t>women sweat suits two piece set</t>
   </si>
   <si>
-    <t>gym sets for women</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit for women</t>
-  </si>
-  <si>
-    <t>workout clothes set for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweat suits</t>
-  </si>
-  <si>
-    <t>workout top for women set</t>
-  </si>
-  <si>
-    <t>track suits for women set</t>
-  </si>
-  <si>
-    <t>sweat suits for women set</t>
-  </si>
-  <si>
-    <t>workout clothes for women</t>
+    <t>women clothes sets outfits</t>
+  </si>
+  <si>
+    <t>jogging suit for women two piece</t>
+  </si>
+  <si>
+    <t>workout outfits for women gym set</t>
+  </si>
+  <si>
+    <t>black sweat suits for women set</t>
+  </si>
+  <si>
+    <t>long sleeve workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>outfits for women 2 piece sets sexy</t>
+  </si>
+  <si>
+    <t>womens track suits 2 piece with zipper</t>
+  </si>
+  <si>
+    <t>sweatsuits for women set weight loss</t>
+  </si>
+  <si>
+    <t>sweat suits for women 2 piece</t>
+  </si>
+  <si>
+    <t>haodian womens workout sets 2 piece seamless</t>
+  </si>
+  <si>
+    <t>black sets women 2 piece outfits</t>
+  </si>
+  <si>
+    <t>long sleeve cropped shirts for women</t>
+  </si>
+  <si>
+    <t>womens tracksuit set two piece outfit</t>
+  </si>
+  <si>
+    <t>workout gym leggings</t>
+  </si>
+  <si>
+    <t>work out cloth for women set</t>
+  </si>
+  <si>
+    <t>womens matching sets clothing</t>
+  </si>
+  <si>
+    <t>womens workout outfits 2 piece</t>
+  </si>
+  <si>
+    <t>gym outfits for women set cheap</t>
+  </si>
+  <si>
+    <t>sport tops for women</t>
+  </si>
+  <si>
+    <t>sweat suits women</t>
+  </si>
+  <si>
+    <t>fashionable outfits for women</t>
+  </si>
+  <si>
+    <t>two piece matching set outfit for women</t>
+  </si>
+  <si>
+    <t>two piece matching set</t>
+  </si>
+  <si>
+    <t>fitness clothes set for women</t>
+  </si>
+  <si>
+    <t>activewear outfits</t>
+  </si>
+  <si>
+    <t>2 pc tracksuit for women</t>
+  </si>
+  <si>
+    <t>suit shirt for women</t>
+  </si>
+  <si>
+    <t>cropped leggings for women</t>
+  </si>
+  <si>
+    <t>suit set for women</t>
+  </si>
+  <si>
+    <t>leggings workout set</t>
+  </si>
+  <si>
+    <t>set clothing women sport</t>
+  </si>
+  <si>
+    <t>sport woman clothes</t>
+  </si>
+  <si>
+    <t>seamless athletic leggings</t>
+  </si>
+  <si>
+    <t>winter crop tops for women</t>
+  </si>
+  <si>
+    <t>compression crop top women</t>
+  </si>
+  <si>
+    <t>black clothing for women</t>
+  </si>
+  <si>
+    <t>shirt for leggings</t>
+  </si>
+  <si>
+    <t>women two piece jogging suit</t>
+  </si>
+  <si>
+    <t>women two piece suits</t>
+  </si>
+  <si>
+    <t>track sweats</t>
+  </si>
+  <si>
+    <t>womens leggings workout set</t>
+  </si>
+  <si>
+    <t>zip up waist</t>
+  </si>
+  <si>
+    <t>sweat suits sets</t>
+  </si>
+  <si>
+    <t>workout compression tops</t>
+  </si>
+  <si>
+    <t>sexy compression leggings</t>
+  </si>
+  <si>
+    <t>cropped sweats</t>
+  </si>
+  <si>
+    <t>black jogging suits for women</t>
+  </si>
+  <si>
+    <t>clothes for sport women</t>
+  </si>
+  <si>
+    <t>pink victoria secret decor</t>
+  </si>
+  <si>
+    <t>workout shirts for women set</t>
+  </si>
+  <si>
+    <t>2 piece shirts for women</t>
   </si>
   <si>
     <t>women sweatsuits sets</t>
   </si>
   <si>
-    <t>sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>jogging suits for women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets</t>
-  </si>
-  <si>
-    <t>jogger sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>tracksuit for women set</t>
-  </si>
-  <si>
-    <t>women jogging suit set</t>
-  </si>
-  <si>
-    <t>workout sets for women</t>
-  </si>
-  <si>
-    <t>womens jogging suits sets</t>
-  </si>
-  <si>
-    <t>womens tracksuit set</t>
-  </si>
-  <si>
-    <t>workout outfits for women</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>2 piece workout clothe</t>
+    <t>bowling compression sleeves</t>
+  </si>
+  <si>
+    <t>pink yoga sets</t>
+  </si>
+  <si>
+    <t>cute gym outfits for women</t>
+  </si>
+  <si>
+    <t>women track suits 2 piece</t>
+  </si>
+  <si>
+    <t>womens outfits two piece</t>
+  </si>
+  <si>
+    <t>womens matching sets top and pants</t>
+  </si>
+  <si>
+    <t>ropa de deporte para mujer sexy</t>
+  </si>
+  <si>
+    <t>women two piece jogging suits</t>
+  </si>
+  <si>
+    <t>style and co active wear</t>
+  </si>
+  <si>
+    <t>women black two piece outfits sets</t>
+  </si>
+  <si>
+    <t>leggings for women sport gym sexy</t>
+  </si>
+  <si>
+    <t>alo workout clothes for women</t>
+  </si>
+  <si>
+    <t>licras victoria secret pink</t>
+  </si>
+  <si>
+    <t>super soft leggings</t>
+  </si>
+  <si>
+    <t>tights suit set for women</t>
+  </si>
+  <si>
+    <t>3 piece set outfit for women</t>
+  </si>
+  <si>
+    <t>womens running tights winter</t>
+  </si>
+  <si>
+    <t>women's suit</t>
+  </si>
+  <si>
+    <t>seamless tops for women workout</t>
+  </si>
+  <si>
+    <t>sets for women clothing sexy</t>
+  </si>
+  <si>
+    <t>cropped long sleeve workout tops for women</t>
+  </si>
+  <si>
+    <t>workout clothes set for women gym</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -535,232 +677,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
@@ -770,17 +912,17 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -790,166 +932,264 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB851ED-2713-4040-97FA-44CD563858B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF51F35A-5D89-4D80-BA7D-9E3C6544BF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>matching jogger sets for women</t>
-  </si>
-  <si>
-    <t>sweat women suit</t>
-  </si>
-  <si>
-    <t>matching tracksuit women</t>
-  </si>
-  <si>
-    <t>sexy tennis shirts women</t>
-  </si>
-  <si>
-    <t>fashion joggers sets for women</t>
-  </si>
-  <si>
-    <t>womans sweatsuit</t>
-  </si>
-  <si>
-    <t>leggings for women shirt outfit</t>
-  </si>
-  <si>
-    <t>2piece women outfit</t>
-  </si>
-  <si>
-    <t>womans legging set</t>
-  </si>
-  <si>
-    <t>womens sweat suits</t>
-  </si>
-  <si>
-    <t>long sleeve 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>women sweat shirts</t>
-  </si>
-  <si>
-    <t>womans jogging suits sets</t>
-  </si>
-  <si>
-    <t>valour sweat suits for women</t>
-  </si>
-  <si>
-    <t>fashion tops for women sexy</t>
-  </si>
-  <si>
-    <t>green long sleeve crop top women</t>
-  </si>
-  <si>
-    <t>white sweat suits for women set</t>
-  </si>
-  <si>
-    <t>track suits outfits for women</t>
-  </si>
-  <si>
-    <t>legging outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>workout sweat suits for women set</t>
-  </si>
-  <si>
-    <t>women track suits 2 piece set</t>
-  </si>
-  <si>
-    <t>tie dye sweat suits for women set</t>
-  </si>
-  <si>
-    <t>2 piece outfit sets</t>
-  </si>
-  <si>
-    <t>women's 2 piece sets</t>
-  </si>
-  <si>
-    <t>cute black outfits</t>
-  </si>
-  <si>
-    <t>women sweat suits two piece set</t>
-  </si>
-  <si>
-    <t>women clothes sets outfits</t>
-  </si>
-  <si>
-    <t>jogging suit for women two piece</t>
-  </si>
-  <si>
-    <t>workout outfits for women gym set</t>
-  </si>
-  <si>
-    <t>black sweat suits for women set</t>
-  </si>
-  <si>
-    <t>long sleeve workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>outfits for women 2 piece sets sexy</t>
-  </si>
-  <si>
-    <t>womens track suits 2 piece with zipper</t>
-  </si>
-  <si>
-    <t>sweatsuits for women set weight loss</t>
-  </si>
-  <si>
-    <t>sweat suits for women 2 piece</t>
-  </si>
-  <si>
-    <t>haodian womens workout sets 2 piece seamless</t>
-  </si>
-  <si>
-    <t>black sets women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>long sleeve cropped shirts for women</t>
-  </si>
-  <si>
-    <t>womens tracksuit set two piece outfit</t>
-  </si>
-  <si>
-    <t>workout gym leggings</t>
-  </si>
-  <si>
-    <t>work out cloth for women set</t>
-  </si>
-  <si>
-    <t>womens matching sets clothing</t>
-  </si>
-  <si>
-    <t>womens workout outfits 2 piece</t>
-  </si>
-  <si>
-    <t>gym outfits for women set cheap</t>
-  </si>
-  <si>
-    <t>sport tops for women</t>
-  </si>
-  <si>
-    <t>sweat suits women</t>
-  </si>
-  <si>
-    <t>fashionable outfits for women</t>
-  </si>
-  <si>
-    <t>two piece matching set outfit for women</t>
-  </si>
-  <si>
-    <t>two piece matching set</t>
-  </si>
-  <si>
-    <t>fitness clothes set for women</t>
-  </si>
-  <si>
-    <t>activewear outfits</t>
-  </si>
-  <si>
-    <t>2 pc tracksuit for women</t>
-  </si>
-  <si>
-    <t>suit shirt for women</t>
-  </si>
-  <si>
-    <t>cropped leggings for women</t>
-  </si>
-  <si>
-    <t>suit set for women</t>
-  </si>
-  <si>
-    <t>leggings workout set</t>
-  </si>
-  <si>
-    <t>set clothing women sport</t>
-  </si>
-  <si>
-    <t>sport woman clothes</t>
-  </si>
-  <si>
-    <t>seamless athletic leggings</t>
-  </si>
-  <si>
-    <t>winter crop tops for women</t>
-  </si>
-  <si>
-    <t>compression crop top women</t>
-  </si>
-  <si>
-    <t>black clothing for women</t>
-  </si>
-  <si>
-    <t>shirt for leggings</t>
-  </si>
-  <si>
-    <t>women two piece jogging suit</t>
-  </si>
-  <si>
-    <t>women two piece suits</t>
-  </si>
-  <si>
-    <t>track sweats</t>
-  </si>
-  <si>
-    <t>womens leggings workout set</t>
-  </si>
-  <si>
-    <t>zip up waist</t>
-  </si>
-  <si>
-    <t>sweat suits sets</t>
-  </si>
-  <si>
-    <t>workout compression tops</t>
-  </si>
-  <si>
-    <t>sexy compression leggings</t>
-  </si>
-  <si>
-    <t>cropped sweats</t>
-  </si>
-  <si>
-    <t>black jogging suits for women</t>
-  </si>
-  <si>
-    <t>clothes for sport women</t>
-  </si>
-  <si>
-    <t>pink victoria secret decor</t>
-  </si>
-  <si>
-    <t>workout shirts for women set</t>
-  </si>
-  <si>
-    <t>2 piece shirts for women</t>
-  </si>
-  <si>
-    <t>women sweatsuits sets</t>
-  </si>
-  <si>
-    <t>bowling compression sleeves</t>
-  </si>
-  <si>
-    <t>pink yoga sets</t>
-  </si>
-  <si>
-    <t>cute gym outfits for women</t>
-  </si>
-  <si>
-    <t>women track suits 2 piece</t>
-  </si>
-  <si>
-    <t>womens outfits two piece</t>
-  </si>
-  <si>
-    <t>womens matching sets top and pants</t>
-  </si>
-  <si>
-    <t>ropa de deporte para mujer sexy</t>
-  </si>
-  <si>
-    <t>women two piece jogging suits</t>
-  </si>
-  <si>
-    <t>style and co active wear</t>
-  </si>
-  <si>
-    <t>women black two piece outfits sets</t>
-  </si>
-  <si>
-    <t>leggings for women sport gym sexy</t>
-  </si>
-  <si>
-    <t>alo workout clothes for women</t>
-  </si>
-  <si>
-    <t>licras victoria secret pink</t>
-  </si>
-  <si>
-    <t>super soft leggings</t>
-  </si>
-  <si>
-    <t>tights suit set for women</t>
-  </si>
-  <si>
-    <t>3 piece set outfit for women</t>
-  </si>
-  <si>
-    <t>womens running tights winter</t>
-  </si>
-  <si>
-    <t>women's suit</t>
-  </si>
-  <si>
-    <t>seamless tops for women workout</t>
-  </si>
-  <si>
-    <t>sets for women clothing sexy</t>
-  </si>
-  <si>
-    <t>cropped long sleeve workout tops for women</t>
-  </si>
-  <si>
-    <t>workout clothes set for women gym</t>
+    <t>womens track suit set</t>
+  </si>
+  <si>
+    <t>black legging shirts</t>
+  </si>
+  <si>
+    <t>workout clothes for women tees</t>
+  </si>
+  <si>
+    <t>workout two piece sets for women</t>
+  </si>
+  <si>
+    <t>matching sweatsuit women</t>
+  </si>
+  <si>
+    <t>exercise outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>modern goods shop</t>
+  </si>
+  <si>
+    <t>2 piece jogger suits for women</t>
+  </si>
+  <si>
+    <t>women tight joggers</t>
+  </si>
+  <si>
+    <t>cute work out pants</t>
+  </si>
+  <si>
+    <t>2 piece legging sets for women</t>
+  </si>
+  <si>
+    <t>work outfits for women gym</t>
+  </si>
+  <si>
+    <t>outfits for women 2 piece sets</t>
+  </si>
+  <si>
+    <t>joggers set for women 2 piece</t>
+  </si>
+  <si>
+    <t>warm up suits for women 2 pieces</t>
+  </si>
+  <si>
+    <t>blue track suits for women set</t>
+  </si>
+  <si>
+    <t>bowling compression sleeve</t>
+  </si>
+  <si>
+    <t>yoga outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>llaveros pink victoria secret</t>
+  </si>
+  <si>
+    <t>sports legging</t>
+  </si>
+  <si>
+    <t>yoga outfits for women</t>
+  </si>
+  <si>
+    <t>tennis outfits for women</t>
+  </si>
+  <si>
+    <t>bodybuilding women</t>
+  </si>
+  <si>
+    <t>turquoise crop top</t>
+  </si>
+  <si>
+    <t>leg compression sleeves women</t>
+  </si>
+  <si>
+    <t>woman tracksuits</t>
+  </si>
+  <si>
+    <t>womens athletic jacket</t>
+  </si>
+  <si>
+    <t>fitness outfits for women set</t>
+  </si>
+  <si>
+    <t>women 2 piece outfits</t>
+  </si>
+  <si>
+    <t>womens shirts for leggings</t>
+  </si>
+  <si>
+    <t>womens legging sets</t>
+  </si>
+  <si>
+    <t>leggings sexy</t>
+  </si>
+  <si>
+    <t>womens leggings shirts</t>
+  </si>
+  <si>
+    <t>female outfits</t>
+  </si>
+  <si>
+    <t>workout sets for women</t>
+  </si>
+  <si>
+    <t>workout clothing</t>
+  </si>
+  <si>
+    <t>workout clothing for women</t>
+  </si>
+  <si>
+    <t>gym outfits</t>
+  </si>
+  <si>
+    <t>leggings and top set for women</t>
+  </si>
+  <si>
+    <t>exercise shirts for women</t>
+  </si>
+  <si>
+    <t>fitness clothing</t>
+  </si>
+  <si>
+    <t>workout shirt women</t>
+  </si>
+  <si>
+    <t>exercise shirt for women</t>
+  </si>
+  <si>
+    <t>sweater crop top</t>
+  </si>
+  <si>
+    <t>blue two piece outfits for women</t>
+  </si>
+  <si>
+    <t>running leg compression sleeves</t>
+  </si>
+  <si>
+    <t>exercise charts for women</t>
+  </si>
+  <si>
+    <t>womens yoga clothes</t>
+  </si>
+  <si>
+    <t>2 piece workout outfits for women</t>
+  </si>
+  <si>
+    <t>legging shirts for women</t>
+  </si>
+  <si>
+    <t>workout bodysuit for women</t>
+  </si>
+  <si>
+    <t>bowling shirts for women</t>
+  </si>
+  <si>
+    <t>black sweater crop top</t>
+  </si>
+  <si>
+    <t>two piece sweater sets for women</t>
+  </si>
+  <si>
+    <t>plus size victoria secret pink clothing</t>
+  </si>
+  <si>
+    <t>ribbed crop tops for women</t>
+  </si>
+  <si>
+    <t>seamless leggings for women workout</t>
+  </si>
+  <si>
+    <t>womens tracksuit</t>
+  </si>
+  <si>
+    <t>2 piece sets</t>
+  </si>
+  <si>
+    <t>long sleeve workout crop tops for women</t>
+  </si>
+  <si>
+    <t>compression tights for women</t>
+  </si>
+  <si>
+    <t>women matching sets outfits</t>
+  </si>
+  <si>
+    <t>woman outfits</t>
+  </si>
+  <si>
+    <t>exercise outfits for women</t>
+  </si>
+  <si>
+    <t>athletic jacket women</t>
+  </si>
+  <si>
+    <t>athletic outfits for women</t>
+  </si>
+  <si>
+    <t>crop jackets for women</t>
+  </si>
+  <si>
+    <t>compression yoga leggings</t>
+  </si>
+  <si>
+    <t>gym zip up</t>
+  </si>
+  <si>
+    <t>colorful jackets for women</t>
+  </si>
+  <si>
+    <t>outfit sets for women</t>
+  </si>
+  <si>
+    <t>seamless workout leggings</t>
+  </si>
+  <si>
+    <t>misses tops</t>
+  </si>
+  <si>
+    <t>fashionable sweaters for women</t>
+  </si>
+  <si>
+    <t>bodybuilding long sleeve shirts</t>
+  </si>
+  <si>
+    <t>sport clothes for women</t>
+  </si>
+  <si>
+    <t>women sport leggings</t>
+  </si>
+  <si>
+    <t>womens winter tops</t>
+  </si>
+  <si>
+    <t>cute crop tops for women</t>
+  </si>
+  <si>
+    <t>crop workout tops for women</t>
+  </si>
+  <si>
+    <t>compression leg warmers</t>
+  </si>
+  <si>
+    <t>leggings set</t>
+  </si>
+  <si>
+    <t>womans clothing</t>
+  </si>
+  <si>
+    <t>two piece activewear for women</t>
+  </si>
+  <si>
+    <t>sexy jogging suits for women</t>
+  </si>
+  <si>
+    <t>workout set women</t>
+  </si>
+  <si>
+    <t>womens clothing sets</t>
+  </si>
+  <si>
+    <t>women clothing outfits</t>
+  </si>
+  <si>
+    <t>womens clothes winter</t>
+  </si>
+  <si>
+    <t>exercise gym suit</t>
+  </si>
+  <si>
+    <t>compression top for women</t>
+  </si>
+  <si>
+    <t>sexy yoga set</t>
+  </si>
+  <si>
+    <t>crop jacket women</t>
+  </si>
+  <si>
+    <t>crop tops workout for women</t>
+  </si>
+  <si>
+    <t>outfit set women</t>
+  </si>
+  <si>
+    <t>black out</t>
+  </si>
+  <si>
+    <t>legging sport</t>
+  </si>
+  <si>
+    <t>cropped leggings</t>
+  </si>
+  <si>
+    <t>with leggings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -680,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,30 +1138,27 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF51F35A-5D89-4D80-BA7D-9E3C6544BF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6F5A7-0F1C-4356-975C-41000CFF242D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>womens track suit set</t>
-  </si>
-  <si>
-    <t>black legging shirts</t>
-  </si>
-  <si>
-    <t>workout clothes for women tees</t>
-  </si>
-  <si>
-    <t>workout two piece sets for women</t>
-  </si>
-  <si>
-    <t>matching sweatsuit women</t>
-  </si>
-  <si>
-    <t>exercise outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>modern goods shop</t>
-  </si>
-  <si>
-    <t>2 piece jogger suits for women</t>
-  </si>
-  <si>
-    <t>women tight joggers</t>
-  </si>
-  <si>
-    <t>cute work out pants</t>
-  </si>
-  <si>
-    <t>2 piece legging sets for women</t>
-  </si>
-  <si>
-    <t>work outfits for women gym</t>
-  </si>
-  <si>
-    <t>outfits for women 2 piece sets</t>
-  </si>
-  <si>
-    <t>joggers set for women 2 piece</t>
-  </si>
-  <si>
-    <t>warm up suits for women 2 pieces</t>
-  </si>
-  <si>
-    <t>blue track suits for women set</t>
-  </si>
-  <si>
-    <t>bowling compression sleeve</t>
-  </si>
-  <si>
-    <t>yoga outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>llaveros pink victoria secret</t>
-  </si>
-  <si>
-    <t>sports legging</t>
-  </si>
-  <si>
-    <t>yoga outfits for women</t>
-  </si>
-  <si>
-    <t>tennis outfits for women</t>
-  </si>
-  <si>
-    <t>bodybuilding women</t>
-  </si>
-  <si>
-    <t>turquoise crop top</t>
-  </si>
-  <si>
-    <t>leg compression sleeves women</t>
-  </si>
-  <si>
-    <t>woman tracksuits</t>
-  </si>
-  <si>
-    <t>womens athletic jacket</t>
-  </si>
-  <si>
-    <t>fitness outfits for women set</t>
-  </si>
-  <si>
-    <t>women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>womens shirts for leggings</t>
-  </si>
-  <si>
-    <t>womens legging sets</t>
-  </si>
-  <si>
-    <t>leggings sexy</t>
-  </si>
-  <si>
-    <t>womens leggings shirts</t>
-  </si>
-  <si>
-    <t>female outfits</t>
-  </si>
-  <si>
-    <t>workout sets for women</t>
-  </si>
-  <si>
-    <t>workout clothing</t>
-  </si>
-  <si>
-    <t>workout clothing for women</t>
-  </si>
-  <si>
-    <t>gym outfits</t>
-  </si>
-  <si>
-    <t>leggings and top set for women</t>
-  </si>
-  <si>
-    <t>exercise shirts for women</t>
-  </si>
-  <si>
-    <t>fitness clothing</t>
-  </si>
-  <si>
-    <t>workout shirt women</t>
-  </si>
-  <si>
-    <t>exercise shirt for women</t>
-  </si>
-  <si>
-    <t>sweater crop top</t>
-  </si>
-  <si>
-    <t>blue two piece outfits for women</t>
-  </si>
-  <si>
-    <t>running leg compression sleeves</t>
-  </si>
-  <si>
-    <t>exercise charts for women</t>
-  </si>
-  <si>
-    <t>womens yoga clothes</t>
-  </si>
-  <si>
-    <t>2 piece workout outfits for women</t>
-  </si>
-  <si>
-    <t>legging shirts for women</t>
-  </si>
-  <si>
-    <t>workout bodysuit for women</t>
-  </si>
-  <si>
-    <t>bowling shirts for women</t>
-  </si>
-  <si>
-    <t>black sweater crop top</t>
-  </si>
-  <si>
-    <t>two piece sweater sets for women</t>
-  </si>
-  <si>
-    <t>plus size victoria secret pink clothing</t>
-  </si>
-  <si>
-    <t>ribbed crop tops for women</t>
-  </si>
-  <si>
-    <t>seamless leggings for women workout</t>
-  </si>
-  <si>
-    <t>womens tracksuit</t>
-  </si>
-  <si>
-    <t>2 piece sets</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop tops for women</t>
-  </si>
-  <si>
-    <t>compression tights for women</t>
-  </si>
-  <si>
-    <t>women matching sets outfits</t>
-  </si>
-  <si>
-    <t>woman outfits</t>
-  </si>
-  <si>
-    <t>exercise outfits for women</t>
-  </si>
-  <si>
-    <t>athletic jacket women</t>
-  </si>
-  <si>
-    <t>athletic outfits for women</t>
-  </si>
-  <si>
-    <t>crop jackets for women</t>
-  </si>
-  <si>
-    <t>compression yoga leggings</t>
-  </si>
-  <si>
-    <t>gym zip up</t>
-  </si>
-  <si>
-    <t>colorful jackets for women</t>
-  </si>
-  <si>
-    <t>outfit sets for women</t>
-  </si>
-  <si>
-    <t>seamless workout leggings</t>
-  </si>
-  <si>
-    <t>misses tops</t>
-  </si>
-  <si>
-    <t>fashionable sweaters for women</t>
-  </si>
-  <si>
-    <t>bodybuilding long sleeve shirts</t>
-  </si>
-  <si>
-    <t>sport clothes for women</t>
-  </si>
-  <si>
-    <t>women sport leggings</t>
-  </si>
-  <si>
-    <t>womens winter tops</t>
-  </si>
-  <si>
-    <t>cute crop tops for women</t>
-  </si>
-  <si>
-    <t>crop workout tops for women</t>
-  </si>
-  <si>
-    <t>compression leg warmers</t>
-  </si>
-  <si>
-    <t>leggings set</t>
-  </si>
-  <si>
-    <t>womans clothing</t>
-  </si>
-  <si>
-    <t>two piece activewear for women</t>
-  </si>
-  <si>
-    <t>sexy jogging suits for women</t>
-  </si>
-  <si>
-    <t>workout set women</t>
-  </si>
-  <si>
-    <t>womens clothing sets</t>
-  </si>
-  <si>
-    <t>women clothing outfits</t>
-  </si>
-  <si>
-    <t>womens clothes winter</t>
-  </si>
-  <si>
-    <t>exercise gym suit</t>
-  </si>
-  <si>
-    <t>compression top for women</t>
-  </si>
-  <si>
-    <t>sexy yoga set</t>
-  </si>
-  <si>
-    <t>crop jacket women</t>
-  </si>
-  <si>
-    <t>crop tops workout for women</t>
-  </si>
-  <si>
-    <t>outfit set women</t>
-  </si>
-  <si>
-    <t>black out</t>
-  </si>
-  <si>
-    <t>legging sport</t>
-  </si>
-  <si>
-    <t>cropped leggings</t>
-  </si>
-  <si>
-    <t>with leggings</t>
+    <t>bodybuilding clothe</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>blue workout legging</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>black workout legging</t>
+  </si>
+  <si>
+    <t>blue clothe</t>
+  </si>
+  <si>
+    <t>shirt legging</t>
+  </si>
+  <si>
+    <t>pink tight</t>
+  </si>
+  <si>
+    <t>skinny outfit</t>
+  </si>
+  <si>
+    <t>clothing set outfit</t>
+  </si>
+  <si>
+    <t>clothing outfit</t>
+  </si>
+  <si>
+    <t>blue pant</t>
+  </si>
+  <si>
+    <t>winter pant</t>
+  </si>
+  <si>
+    <t>legging with</t>
+  </si>
+  <si>
+    <t>black shirt legging</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>black blue legging</t>
+  </si>
+  <si>
+    <t>clothe shirt</t>
+  </si>
+  <si>
+    <t>work tight</t>
+  </si>
+  <si>
+    <t>track tight</t>
+  </si>
+  <si>
+    <t>pink 2 piece outfit</t>
+  </si>
+  <si>
+    <t>pink 2 piece set</t>
+  </si>
+  <si>
+    <t>long tight</t>
+  </si>
+  <si>
+    <t>work out tight</t>
+  </si>
+  <si>
+    <t>soft athletic legging</t>
+  </si>
+  <si>
+    <t>legging long sleeve top set</t>
+  </si>
+  <si>
+    <t>black top legging</t>
+  </si>
+  <si>
+    <t>black crop legging</t>
+  </si>
+  <si>
+    <t>long sleeve 2 piece set</t>
+  </si>
+  <si>
+    <t>green athletic legging</t>
+  </si>
+  <si>
+    <t>soft sleeve</t>
+  </si>
+  <si>
+    <t>long black legging</t>
+  </si>
+  <si>
+    <t>black green legging</t>
+  </si>
+  <si>
+    <t>matching legging</t>
+  </si>
+  <si>
+    <t>exercise black legging</t>
+  </si>
+  <si>
+    <t>soft black legging</t>
+  </si>
+  <si>
+    <t>soft black</t>
+  </si>
+  <si>
+    <t>blue black tight</t>
+  </si>
+  <si>
+    <t>blue workout pant</t>
+  </si>
+  <si>
+    <t>black workout tight</t>
+  </si>
+  <si>
+    <t>blue 2 piece set</t>
+  </si>
+  <si>
+    <t>matching crop top pant set</t>
+  </si>
+  <si>
+    <t>black winter outfit</t>
+  </si>
+  <si>
+    <t>winter workout pant</t>
+  </si>
+  <si>
+    <t>2 piece pant outfit</t>
+  </si>
+  <si>
+    <t>black tight set</t>
+  </si>
+  <si>
+    <t>black winter tight</t>
+  </si>
+  <si>
+    <t>black tight pant</t>
+  </si>
+  <si>
+    <t>2 piece matching pant set</t>
+  </si>
+  <si>
+    <t>size top</t>
+  </si>
+  <si>
+    <t>winter crop</t>
+  </si>
+  <si>
+    <t>winter yoga top</t>
+  </si>
+  <si>
+    <t>seamless ribbed crop top</t>
+  </si>
+  <si>
+    <t>top with legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless</t>
+  </si>
+  <si>
+    <t>legging size small</t>
+  </si>
+  <si>
+    <t>pink long</t>
+  </si>
+  <si>
+    <t>pink seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed workout top</t>
+  </si>
+  <si>
+    <t>small legging</t>
+  </si>
+  <si>
+    <t>pink 2 piece</t>
+  </si>
+  <si>
+    <t>ribbed workout legging</t>
+  </si>
+  <si>
+    <t>pink workout legging</t>
+  </si>
+  <si>
+    <t>pink yoga legging</t>
+  </si>
+  <si>
+    <t>fashionable pant</t>
+  </si>
+  <si>
+    <t>black suit set woman</t>
+  </si>
+  <si>
+    <t>woman clothe jogger</t>
+  </si>
+  <si>
+    <t>suit piece woman</t>
+  </si>
+  <si>
+    <t>clothe woman crop top</t>
+  </si>
+  <si>
+    <t>workout clothe woman pant</t>
+  </si>
+  <si>
+    <t>suit clothe</t>
+  </si>
+  <si>
+    <t>high top pant woman</t>
+  </si>
+  <si>
+    <t>black pant set woman</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
+  </si>
+  <si>
+    <t>2 piece pant woman</t>
+  </si>
+  <si>
+    <t>black apparel woman</t>
+  </si>
+  <si>
+    <t>green black clothe</t>
+  </si>
+  <si>
+    <t>crop top suit woman</t>
+  </si>
+  <si>
+    <t>waist black</t>
+  </si>
+  <si>
+    <t>suit top woman</t>
+  </si>
+  <si>
+    <t>black set woman</t>
+  </si>
+  <si>
+    <t>small pant woman</t>
+  </si>
+  <si>
+    <t>green pant woman high waist</t>
+  </si>
+  <si>
+    <t>green jogger set woman</t>
+  </si>
+  <si>
+    <t>workout pant set</t>
+  </si>
+  <si>
+    <t>workout jogger pant</t>
+  </si>
+  <si>
+    <t>fashionable jogger woman</t>
+  </si>
+  <si>
+    <t>crop workout pant</t>
+  </si>
+  <si>
+    <t>crop set woman</t>
+  </si>
+  <si>
+    <t>black jogger suit woman</t>
+  </si>
+  <si>
+    <t>woman apparel top</t>
+  </si>
+  <si>
+    <t>suit 2</t>
+  </si>
+  <si>
+    <t>small green</t>
+  </si>
+  <si>
+    <t>small crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger pant</t>
+  </si>
+  <si>
+    <t>black crop woman</t>
+  </si>
+  <si>
+    <t>2 piece pant</t>
+  </si>
+  <si>
+    <t>crop jogger set woman</t>
   </si>
 </sst>
 </file>
@@ -652,334 +652,334 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1160,5 +1160,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EC798E-EC53-48BF-838B-2882B5C0330E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD33D6-B722-4997-93EA-DCD63D932088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,306 +25,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>women body suit</t>
-  </si>
-  <si>
-    <t>workout leggings black</t>
-  </si>
-  <si>
-    <t>legging sets for women</t>
-  </si>
-  <si>
-    <t>workout clothes set</t>
-  </si>
-  <si>
-    <t>gym crop top</t>
-  </si>
-  <si>
-    <t>leggings sport</t>
-  </si>
-  <si>
-    <t>matching sweaters</t>
-  </si>
-  <si>
-    <t>long sleeve shirt women black</t>
-  </si>
-  <si>
-    <t>green leggings for women</t>
-  </si>
-  <si>
-    <t>workout crop tops for women</t>
-  </si>
-  <si>
-    <t>sexy gym clothes for women</t>
-  </si>
-  <si>
-    <t>2 pieces outfits</t>
-  </si>
-  <si>
-    <t>sweater crop tops for women</t>
-  </si>
-  <si>
-    <t>exercise clothes</t>
-  </si>
-  <si>
-    <t>finger workout</t>
-  </si>
-  <si>
-    <t>modest workout clothes for women</t>
-  </si>
-  <si>
-    <t>3 piece outfits for women</t>
-  </si>
-  <si>
-    <t>womans workout clothes</t>
-  </si>
-  <si>
-    <t>two piece sets for women</t>
-  </si>
-  <si>
-    <t>crop top and leggings set</t>
-  </si>
-  <si>
-    <t>black crop top women</t>
-  </si>
-  <si>
-    <t>green shirt women</t>
-  </si>
-  <si>
-    <t>2 pcs set for women</t>
-  </si>
-  <si>
-    <t>pink victoria secret headbands</t>
-  </si>
-  <si>
-    <t>clothes for gym</t>
-  </si>
-  <si>
-    <t>exercise set for women</t>
-  </si>
-  <si>
-    <t>sport sweaters for women</t>
-  </si>
-  <si>
-    <t>compression tops for women exercise</t>
-  </si>
-  <si>
-    <t>female gym clothes</t>
-  </si>
-  <si>
-    <t>joggers fitness</t>
-  </si>
-  <si>
-    <t>black crop sweater</t>
-  </si>
-  <si>
-    <t>womens outfits sets</t>
-  </si>
-  <si>
-    <t>green two piece outfits for women</t>
-  </si>
-  <si>
-    <t>hole top</t>
-  </si>
-  <si>
-    <t>sweat suits for women</t>
-  </si>
-  <si>
-    <t>dark green outfit</t>
-  </si>
-  <si>
-    <t>sweats suits</t>
-  </si>
-  <si>
-    <t>victoris secret pink clothing</t>
-  </si>
-  <si>
-    <t>green outfits for women</t>
-  </si>
-  <si>
-    <t>shirt workout</t>
-  </si>
-  <si>
-    <t>2 outfit</t>
-  </si>
-  <si>
-    <t>track suit women</t>
-  </si>
-  <si>
-    <t>women two piece outfits</t>
-  </si>
-  <si>
-    <t>zero to sexy</t>
-  </si>
-  <si>
-    <t>long green shirts for women</t>
-  </si>
-  <si>
-    <t>seamless tops for women</t>
-  </si>
-  <si>
-    <t>leggings sets for women</t>
-  </si>
-  <si>
-    <t>workout cloth for women</t>
-  </si>
-  <si>
-    <t>women black crop top</t>
-  </si>
-  <si>
-    <t>black cropped long sleeve</t>
-  </si>
-  <si>
-    <t>winter sports suit</t>
-  </si>
-  <si>
-    <t>womens winter outfits</t>
-  </si>
-  <si>
-    <t>big and tall sweat suits</t>
-  </si>
-  <si>
-    <t>black exercise shirt women</t>
-  </si>
-  <si>
-    <t>black and green leggings for women</t>
-  </si>
-  <si>
-    <t>green and black top</t>
-  </si>
-  <si>
-    <t>long sleeve black women</t>
-  </si>
-  <si>
-    <t>long sleeve body suits womens</t>
-  </si>
-  <si>
-    <t>womens sweater set</t>
-  </si>
-  <si>
-    <t>adidas sweat suits for women set</t>
-  </si>
-  <si>
-    <t>green crop tops</t>
-  </si>
-  <si>
-    <t>sexy workout clothes for women set</t>
-  </si>
-  <si>
-    <t>yoga sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece black set for women</t>
-  </si>
-  <si>
-    <t>dark green tops</t>
-  </si>
-  <si>
-    <t>matching jogger sets women clothing</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve sets for women</t>
-  </si>
-  <si>
-    <t>tights for track</t>
-  </si>
-  <si>
-    <t>womens winter outfits sets</t>
-  </si>
-  <si>
-    <t>green 2 piece outfit for women</t>
-  </si>
-  <si>
-    <t>workout tops for women set</t>
-  </si>
-  <si>
-    <t>seamless workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens matching lounge set</t>
-  </si>
-  <si>
-    <t>longsleeve crop top</t>
-  </si>
-  <si>
-    <t>crop fitness top for women</t>
-  </si>
-  <si>
-    <t>yoga set</t>
-  </si>
-  <si>
-    <t>seamless leggings</t>
-  </si>
-  <si>
-    <t>shirts for leggings</t>
-  </si>
-  <si>
-    <t>yoga clothes for women</t>
-  </si>
-  <si>
-    <t>womens yoga suits</t>
-  </si>
-  <si>
-    <t>women athletic clothes</t>
-  </si>
-  <si>
-    <t>track set women</t>
-  </si>
-  <si>
-    <t>track sets</t>
-  </si>
-  <si>
-    <t>bodybuilding jacket</t>
-  </si>
-  <si>
-    <t>cute womens jogging suits</t>
-  </si>
-  <si>
-    <t>womens athletic fashion</t>
-  </si>
-  <si>
-    <t>fitness clothes</t>
-  </si>
-  <si>
-    <t>matching workout set</t>
-  </si>
-  <si>
-    <t>women fitness clothes</t>
-  </si>
-  <si>
-    <t>set clothes for women</t>
-  </si>
-  <si>
-    <t>two piece outfits for women</t>
-  </si>
-  <si>
-    <t>legging and crop top set</t>
-  </si>
-  <si>
-    <t>legging shirts</t>
-  </si>
-  <si>
-    <t>female clothes</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout tops</t>
-  </si>
-  <si>
-    <t>exercise leggings for women</t>
-  </si>
-  <si>
-    <t>exercise leggings set</t>
-  </si>
-  <si>
-    <t>legging outfits for women</t>
-  </si>
-  <si>
-    <t>bodybuilding workout clothes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>pink sweat suits for women victoria secret</t>
+  </si>
+  <si>
+    <t>long sleeve crop tops for women</t>
+  </si>
+  <si>
+    <t>womens workout outfits sets</t>
+  </si>
+  <si>
+    <t>crop workout top</t>
+  </si>
+  <si>
+    <t>suits ladies</t>
+  </si>
+  <si>
+    <t>outfit sets for women clothing</t>
+  </si>
+  <si>
+    <t>seamless leggings workout</t>
+  </si>
+  <si>
+    <t>long sleeve pink shirt</t>
+  </si>
+  <si>
+    <t>womens clothing black</t>
+  </si>
+  <si>
+    <t>sports leggings pink</t>
+  </si>
+  <si>
+    <t>yoga pants victorias secret pink</t>
+  </si>
+  <si>
+    <t>women's workout clothes</t>
+  </si>
+  <si>
+    <t>big and tall workout clothes</t>
+  </si>
+  <si>
+    <t>gym women clothes</t>
+  </si>
+  <si>
+    <t>women's winter tops</t>
+  </si>
+  <si>
+    <t>women athletic sets</t>
+  </si>
+  <si>
+    <t>women's long sleeve workout tops</t>
+  </si>
+  <si>
+    <t>womens workout long sleeve tops</t>
+  </si>
+  <si>
+    <t>ropa para gym mujer</t>
+  </si>
+  <si>
+    <t>crop black shirt</t>
+  </si>
+  <si>
+    <t>work crop top</t>
+  </si>
+  <si>
+    <t>women sports clothes</t>
+  </si>
+  <si>
+    <t>black athletic top women</t>
+  </si>
+  <si>
+    <t>pink victoria secret tights for women</t>
+  </si>
+  <si>
+    <t>matching sets women clothing winter</t>
+  </si>
+  <si>
+    <t>women workout outfit</t>
+  </si>
+  <si>
+    <t>old navy workout clothes for women</t>
+  </si>
+  <si>
+    <t>women track</t>
+  </si>
+  <si>
+    <t>gymshark workout clothes for women</t>
+  </si>
+  <si>
+    <t>womens track suits 2 piece</t>
+  </si>
+  <si>
+    <t>ropa victoria secret para mujer</t>
+  </si>
+  <si>
+    <t>body suit women</t>
+  </si>
+  <si>
+    <t>work out sets</t>
+  </si>
+  <si>
+    <t>women gym clothes</t>
+  </si>
+  <si>
+    <t>womans shirts for leggings</t>
+  </si>
+  <si>
+    <t>womens athletic clothing sets</t>
+  </si>
+  <si>
+    <t>sexy two piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens workout bodysuit</t>
+  </si>
+  <si>
+    <t>adidas workout clothes for women</t>
+  </si>
+  <si>
+    <t>womens gym crop top</t>
+  </si>
+  <si>
+    <t>gym crop tops for women</t>
+  </si>
+  <si>
+    <t>women long sleeve workout tops</t>
+  </si>
+  <si>
+    <t>ladies workout clothes</t>
+  </si>
+  <si>
+    <t>womens zip up</t>
+  </si>
+  <si>
+    <t>suit for women for work</t>
+  </si>
+  <si>
+    <t>crop top workout</t>
+  </si>
+  <si>
+    <t>tracksuit set women</t>
+  </si>
+  <si>
+    <t>ribbed leggings for women</t>
+  </si>
+  <si>
+    <t>sexy zip up top</t>
+  </si>
+  <si>
+    <t>sexy green tops for women</t>
+  </si>
+  <si>
+    <t>clothing winter women</t>
+  </si>
+  <si>
+    <t>women's suits</t>
+  </si>
+  <si>
+    <t>ropa pink victoria secret</t>
+  </si>
+  <si>
+    <t>work out body suit for women</t>
+  </si>
+  <si>
+    <t>pink workout tights</t>
+  </si>
+  <si>
+    <t>winter workout pants</t>
+  </si>
+  <si>
+    <t>casual sweat suits for women</t>
+  </si>
+  <si>
+    <t>floral sweat suits for women</t>
+  </si>
+  <si>
+    <t>crop top for ladies</t>
+  </si>
+  <si>
+    <t>workout womens clothing</t>
+  </si>
+  <si>
+    <t>pink long sleeve bodysuit women</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing sweats</t>
+  </si>
+  <si>
+    <t>women's workout outfits matching</t>
+  </si>
+  <si>
+    <t>vicotria's secret pink clothes</t>
+  </si>
+  <si>
+    <t>womens dry suit</t>
+  </si>
+  <si>
+    <t>sweat pants top</t>
+  </si>
+  <si>
+    <t>cold weather workout clothes for women</t>
+  </si>
+  <si>
+    <t>work out clothes for woman</t>
+  </si>
+  <si>
+    <t>croptop workout</t>
+  </si>
+  <si>
+    <t>womens black two piece outfits</t>
+  </si>
+  <si>
+    <t>guess sweat suits for women</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets petite</t>
+  </si>
+  <si>
+    <t>women two piece long sleeve sets</t>
+  </si>
+  <si>
+    <t>2pc sweat suits for women</t>
+  </si>
+  <si>
+    <t>lady body suits</t>
+  </si>
+  <si>
+    <t>women long sleeve athletic tops</t>
+  </si>
+  <si>
+    <t>women two piece outfits sets sexy</t>
+  </si>
+  <si>
+    <t>workout crop tops for women gym</t>
+  </si>
+  <si>
+    <t>legging sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>work out sets for women</t>
+  </si>
+  <si>
+    <t>super model active wear set</t>
+  </si>
+  <si>
+    <t>track suits for women 2 piece</t>
   </si>
 </sst>
 </file>
@@ -680,7 +626,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A100"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,95 +1041,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD33D6-B722-4997-93EA-DCD63D932088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7DEA6-86CB-4133-AAE7-54CC8187D72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,252 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>pink sweat suits for women victoria secret</t>
-  </si>
-  <si>
-    <t>long sleeve crop tops for women</t>
-  </si>
-  <si>
-    <t>womens workout outfits sets</t>
-  </si>
-  <si>
-    <t>crop workout top</t>
-  </si>
-  <si>
-    <t>suits ladies</t>
-  </si>
-  <si>
-    <t>outfit sets for women clothing</t>
-  </si>
-  <si>
-    <t>seamless leggings workout</t>
-  </si>
-  <si>
-    <t>long sleeve pink shirt</t>
-  </si>
-  <si>
-    <t>womens clothing black</t>
-  </si>
-  <si>
-    <t>sports leggings pink</t>
-  </si>
-  <si>
-    <t>yoga pants victorias secret pink</t>
-  </si>
-  <si>
-    <t>women's workout clothes</t>
-  </si>
-  <si>
-    <t>big and tall workout clothes</t>
-  </si>
-  <si>
-    <t>gym women clothes</t>
-  </si>
-  <si>
-    <t>women's winter tops</t>
-  </si>
-  <si>
-    <t>women athletic sets</t>
-  </si>
-  <si>
-    <t>women's long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>womens workout long sleeve tops</t>
-  </si>
-  <si>
-    <t>ropa para gym mujer</t>
-  </si>
-  <si>
-    <t>crop black shirt</t>
-  </si>
-  <si>
-    <t>work crop top</t>
-  </si>
-  <si>
-    <t>women sports clothes</t>
-  </si>
-  <si>
-    <t>black athletic top women</t>
-  </si>
-  <si>
-    <t>pink victoria secret tights for women</t>
-  </si>
-  <si>
-    <t>matching sets women clothing winter</t>
-  </si>
-  <si>
-    <t>women workout outfit</t>
-  </si>
-  <si>
-    <t>old navy workout clothes for women</t>
-  </si>
-  <si>
-    <t>women track</t>
-  </si>
-  <si>
-    <t>gymshark workout clothes for women</t>
-  </si>
-  <si>
-    <t>womens track suits 2 piece</t>
-  </si>
-  <si>
-    <t>ropa victoria secret para mujer</t>
-  </si>
-  <si>
-    <t>body suit women</t>
-  </si>
-  <si>
-    <t>work out sets</t>
-  </si>
-  <si>
-    <t>women gym clothes</t>
-  </si>
-  <si>
-    <t>womans shirts for leggings</t>
-  </si>
-  <si>
-    <t>womens athletic clothing sets</t>
-  </si>
-  <si>
-    <t>sexy two piece outfits for women</t>
-  </si>
-  <si>
-    <t>womens workout bodysuit</t>
-  </si>
-  <si>
-    <t>adidas workout clothes for women</t>
-  </si>
-  <si>
-    <t>womens gym crop top</t>
-  </si>
-  <si>
-    <t>gym crop tops for women</t>
-  </si>
-  <si>
-    <t>women long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>ladies workout clothes</t>
-  </si>
-  <si>
-    <t>womens zip up</t>
-  </si>
-  <si>
-    <t>suit for women for work</t>
-  </si>
-  <si>
-    <t>crop top workout</t>
-  </si>
-  <si>
-    <t>tracksuit set women</t>
-  </si>
-  <si>
-    <t>ribbed leggings for women</t>
-  </si>
-  <si>
-    <t>sexy zip up top</t>
-  </si>
-  <si>
-    <t>sexy green tops for women</t>
-  </si>
-  <si>
-    <t>clothing winter women</t>
-  </si>
-  <si>
-    <t>women's suits</t>
-  </si>
-  <si>
-    <t>ropa pink victoria secret</t>
-  </si>
-  <si>
-    <t>work out body suit for women</t>
-  </si>
-  <si>
-    <t>pink workout tights</t>
-  </si>
-  <si>
-    <t>winter workout pants</t>
-  </si>
-  <si>
-    <t>casual sweat suits for women</t>
-  </si>
-  <si>
-    <t>floral sweat suits for women</t>
-  </si>
-  <si>
-    <t>crop top for ladies</t>
-  </si>
-  <si>
-    <t>workout womens clothing</t>
-  </si>
-  <si>
-    <t>pink long sleeve bodysuit women</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing sweats</t>
-  </si>
-  <si>
-    <t>women's workout outfits matching</t>
-  </si>
-  <si>
-    <t>vicotria's secret pink clothes</t>
-  </si>
-  <si>
-    <t>womens dry suit</t>
-  </si>
-  <si>
-    <t>sweat pants top</t>
-  </si>
-  <si>
-    <t>cold weather workout clothes for women</t>
-  </si>
-  <si>
-    <t>work out clothes for woman</t>
-  </si>
-  <si>
-    <t>croptop workout</t>
-  </si>
-  <si>
-    <t>womens black two piece outfits</t>
-  </si>
-  <si>
-    <t>guess sweat suits for women</t>
-  </si>
-  <si>
-    <t>womens jogging suits sets petite</t>
-  </si>
-  <si>
-    <t>women two piece long sleeve sets</t>
-  </si>
-  <si>
-    <t>2pc sweat suits for women</t>
-  </si>
-  <si>
-    <t>lady body suits</t>
-  </si>
-  <si>
-    <t>women long sleeve athletic tops</t>
-  </si>
-  <si>
-    <t>women two piece outfits sets sexy</t>
-  </si>
-  <si>
-    <t>workout crop tops for women gym</t>
-  </si>
-  <si>
-    <t>legging sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>work out sets for women</t>
-  </si>
-  <si>
-    <t>super model active wear set</t>
-  </si>
-  <si>
-    <t>track suits for women 2 piece</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>bodybuilding clothing</t>
+  </si>
+  <si>
+    <t>womens workout crop top</t>
+  </si>
+  <si>
+    <t>matching set for women</t>
+  </si>
+  <si>
+    <t>sweat suit for women</t>
+  </si>
+  <si>
+    <t>tracksuits women</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>matching workout sets</t>
+  </si>
+  <si>
+    <t>women exercise</t>
+  </si>
+  <si>
+    <t>sexy workout leggings for women</t>
+  </si>
+  <si>
+    <t>sports suits for women</t>
+  </si>
+  <si>
+    <t>women winter workout clothes</t>
+  </si>
+  <si>
+    <t>track suit for women two piece</t>
+  </si>
+  <si>
+    <t>2 pc track suits</t>
+  </si>
+  <si>
+    <t>sweatsuits sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>adidas track suits for women set</t>
+  </si>
+  <si>
+    <t>sport leggings women</t>
+  </si>
+  <si>
+    <t>pink sweat suits for women</t>
+  </si>
+  <si>
+    <t>pink sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>sweat suits women adidas</t>
+  </si>
+  <si>
+    <t>crop top outfits</t>
+  </si>
+  <si>
+    <t>workout outfit for women</t>
+  </si>
+  <si>
+    <t>addidas workout clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece sweat suits for women</t>
+  </si>
+  <si>
+    <t>black seamless leggings for women</t>
+  </si>
+  <si>
+    <t>track suits for women sexy</t>
+  </si>
+  <si>
+    <t>gymshark workout clothes women</t>
+  </si>
+  <si>
+    <t>betsey johnson workout clothes for women</t>
+  </si>
+  <si>
+    <t>tye dye sweat suits for women set</t>
+  </si>
+  <si>
+    <t>suna sweat suits for women set</t>
+  </si>
+  <si>
+    <t>work out sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>tracksuit womens for winter</t>
+  </si>
+  <si>
+    <t>sexy fitness leggings</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing velvet</t>
+  </si>
+  <si>
+    <t>workout clothes sets</t>
+  </si>
+  <si>
+    <t>woman track suit</t>
+  </si>
+  <si>
+    <t>shirt with leggings</t>
+  </si>
+  <si>
+    <t>exercise sweat suits for women</t>
+  </si>
+  <si>
+    <t>yoga set pink</t>
+  </si>
+  <si>
+    <t>black blue leggings</t>
+  </si>
+  <si>
+    <t>athletic sets</t>
+  </si>
+  <si>
+    <t>workout matching sets for women</t>
+  </si>
+  <si>
+    <t>2 pieces set women clothing</t>
+  </si>
+  <si>
+    <t>sexy women workout</t>
+  </si>
+  <si>
+    <t>workout clothes for women long sleeve</t>
+  </si>
+  <si>
+    <t>sexy matching set</t>
+  </si>
+  <si>
+    <t>diary jogger set</t>
+  </si>
+  <si>
+    <t>womens workout outfits sets 2 piece</t>
+  </si>
+  <si>
+    <t>women's athletic clothing sets</t>
+  </si>
+  <si>
+    <t>woman sweatsuit</t>
+  </si>
+  <si>
+    <t>winter clothes for women set</t>
+  </si>
+  <si>
+    <t>womens winter sets</t>
+  </si>
+  <si>
+    <t>two piece for women outfit</t>
+  </si>
+  <si>
+    <t>womens track set</t>
+  </si>
+  <si>
+    <t>womens long sleeve crop top</t>
+  </si>
+  <si>
+    <t>seamless sets activewear</t>
+  </si>
+  <si>
+    <t>black two piece outfits for women</t>
+  </si>
+  <si>
+    <t>crop leggings workout</t>
+  </si>
+  <si>
+    <t>leggings with holes</t>
+  </si>
+  <si>
+    <t>woman's sweatsuits</t>
+  </si>
+  <si>
+    <t>workout croptops for womens</t>
+  </si>
+  <si>
+    <t>2 piece outfits for women sexy</t>
+  </si>
+  <si>
+    <t>workout tops for women long sleeve</t>
+  </si>
+  <si>
+    <t>womens two piece outfits long sleeve</t>
+  </si>
+  <si>
+    <t>clothes for gym women</t>
+  </si>
+  <si>
+    <t>womens warm up suits 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout tops for women</t>
+  </si>
+  <si>
+    <t>womens outfit set</t>
+  </si>
+  <si>
+    <t>two pieces outfits for women</t>
+  </si>
+  <si>
+    <t>womens athletic crop top</t>
+  </si>
+  <si>
+    <t>sexy sets for women outfit</t>
+  </si>
+  <si>
+    <t>women sweat suits sets</t>
+  </si>
+  <si>
+    <t>tracksuit sets for women</t>
+  </si>
+  <si>
+    <t>workout set women 2 piece</t>
+  </si>
+  <si>
+    <t>victoria secret pink leggins</t>
+  </si>
+  <si>
+    <t>work out outfits for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits sets clearance</t>
+  </si>
+  <si>
+    <t>women workout crop tops</t>
+  </si>
+  <si>
+    <t>gym shirt for women</t>
+  </si>
+  <si>
+    <t>cropped black leggings for women</t>
+  </si>
+  <si>
+    <t>long sleeve yoga tops for women</t>
+  </si>
+  <si>
+    <t>seamless workout set for women</t>
+  </si>
+  <si>
+    <t>womens sport clothing</t>
+  </si>
+  <si>
+    <t>womens athletic tops long sleeve</t>
+  </si>
+  <si>
+    <t>nike womens sweatsuits 2 piece</t>
+  </si>
+  <si>
+    <t>sweaters women workout</t>
+  </si>
+  <si>
+    <t>2 peice womens workout outfit</t>
+  </si>
+  <si>
+    <t>womans crop shirt</t>
+  </si>
+  <si>
+    <t>workouts sets women</t>
+  </si>
+  <si>
+    <t>blue black outfit</t>
+  </si>
+  <si>
+    <t>2 peice workout outfit</t>
+  </si>
+  <si>
+    <t>womens athletic sets 2 piece</t>
+  </si>
+  <si>
+    <t>matching workout outfit set</t>
+  </si>
+  <si>
+    <t>long sleeve exercise outfit</t>
+  </si>
+  <si>
+    <t>excercise outfits women</t>
+  </si>
+  <si>
+    <t>matching athletic sets women</t>
+  </si>
+  <si>
+    <t>crop yoga jacket</t>
+  </si>
+  <si>
+    <t>women two piece outfits sets</t>
+  </si>
+  <si>
+    <t>body suit for women</t>
+  </si>
+  <si>
+    <t>workout 2 piece sets for women</t>
+  </si>
+  <si>
+    <t>workout zip up women</t>
   </si>
 </sst>
 </file>
@@ -626,7 +680,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,17 +1095,95 @@
         <v>81</v>
       </c>
     </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7DEA6-86CB-4133-AAE7-54CC8187D72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>bodybuilding clothing</t>
-  </si>
-  <si>
-    <t>womens workout crop top</t>
-  </si>
-  <si>
-    <t>matching set for women</t>
-  </si>
-  <si>
-    <t>sweat suit for women</t>
-  </si>
-  <si>
-    <t>tracksuits women</t>
-  </si>
-  <si>
-    <t>exercise sets for women</t>
-  </si>
-  <si>
-    <t>matching workout sets</t>
-  </si>
-  <si>
-    <t>women exercise</t>
-  </si>
-  <si>
-    <t>sexy workout leggings for women</t>
-  </si>
-  <si>
-    <t>sports suits for women</t>
-  </si>
-  <si>
-    <t>women winter workout clothes</t>
-  </si>
-  <si>
-    <t>track suit for women two piece</t>
-  </si>
-  <si>
-    <t>2 pc track suits</t>
-  </si>
-  <si>
-    <t>sweatsuits sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>adidas track suits for women set</t>
-  </si>
-  <si>
-    <t>sport leggings women</t>
-  </si>
-  <si>
-    <t>pink sweat suits for women</t>
-  </si>
-  <si>
-    <t>pink sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>sweat suits women adidas</t>
-  </si>
-  <si>
-    <t>crop top outfits</t>
-  </si>
-  <si>
-    <t>workout outfit for women</t>
-  </si>
-  <si>
-    <t>addidas workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece sweat suits for women</t>
-  </si>
-  <si>
-    <t>black seamless leggings for women</t>
-  </si>
-  <si>
-    <t>track suits for women sexy</t>
-  </si>
-  <si>
-    <t>gymshark workout clothes women</t>
-  </si>
-  <si>
-    <t>betsey johnson workout clothes for women</t>
-  </si>
-  <si>
-    <t>tye dye sweat suits for women set</t>
-  </si>
-  <si>
-    <t>suna sweat suits for women set</t>
-  </si>
-  <si>
-    <t>work out sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>tracksuit womens for winter</t>
-  </si>
-  <si>
-    <t>sexy fitness leggings</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing velvet</t>
-  </si>
-  <si>
-    <t>workout clothes sets</t>
-  </si>
-  <si>
-    <t>woman track suit</t>
-  </si>
-  <si>
-    <t>shirt with leggings</t>
-  </si>
-  <si>
-    <t>exercise sweat suits for women</t>
-  </si>
-  <si>
-    <t>yoga set pink</t>
-  </si>
-  <si>
-    <t>black blue leggings</t>
-  </si>
-  <si>
-    <t>athletic sets</t>
-  </si>
-  <si>
-    <t>workout matching sets for women</t>
-  </si>
-  <si>
-    <t>2 pieces set women clothing</t>
-  </si>
-  <si>
-    <t>sexy women workout</t>
-  </si>
-  <si>
-    <t>workout clothes for women long sleeve</t>
-  </si>
-  <si>
-    <t>sexy matching set</t>
-  </si>
-  <si>
-    <t>diary jogger set</t>
-  </si>
-  <si>
-    <t>womens workout outfits sets 2 piece</t>
-  </si>
-  <si>
-    <t>women's athletic clothing sets</t>
-  </si>
-  <si>
-    <t>woman sweatsuit</t>
-  </si>
-  <si>
-    <t>winter clothes for women set</t>
-  </si>
-  <si>
-    <t>womens winter sets</t>
-  </si>
-  <si>
-    <t>two piece for women outfit</t>
-  </si>
-  <si>
-    <t>womens track set</t>
-  </si>
-  <si>
-    <t>womens long sleeve crop top</t>
-  </si>
-  <si>
-    <t>seamless sets activewear</t>
-  </si>
-  <si>
-    <t>black two piece outfits for women</t>
-  </si>
-  <si>
-    <t>crop leggings workout</t>
-  </si>
-  <si>
-    <t>leggings with holes</t>
-  </si>
-  <si>
-    <t>woman's sweatsuits</t>
-  </si>
-  <si>
-    <t>workout croptops for womens</t>
-  </si>
-  <si>
-    <t>2 piece outfits for women sexy</t>
-  </si>
-  <si>
-    <t>workout tops for women long sleeve</t>
-  </si>
-  <si>
-    <t>womens two piece outfits long sleeve</t>
-  </si>
-  <si>
-    <t>clothes for gym women</t>
-  </si>
-  <si>
-    <t>womens warm up suits 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout tops for women</t>
-  </si>
-  <si>
-    <t>womens outfit set</t>
-  </si>
-  <si>
-    <t>two pieces outfits for women</t>
-  </si>
-  <si>
-    <t>womens athletic crop top</t>
-  </si>
-  <si>
-    <t>sexy sets for women outfit</t>
-  </si>
-  <si>
-    <t>women sweat suits sets</t>
-  </si>
-  <si>
-    <t>tracksuit sets for women</t>
-  </si>
-  <si>
-    <t>workout set women 2 piece</t>
-  </si>
-  <si>
-    <t>victoria secret pink leggins</t>
-  </si>
-  <si>
-    <t>work out outfits for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets clearance</t>
-  </si>
-  <si>
-    <t>women workout crop tops</t>
-  </si>
-  <si>
-    <t>gym shirt for women</t>
-  </si>
-  <si>
-    <t>cropped black leggings for women</t>
-  </si>
-  <si>
-    <t>long sleeve yoga tops for women</t>
-  </si>
-  <si>
-    <t>seamless workout set for women</t>
-  </si>
-  <si>
-    <t>womens sport clothing</t>
-  </si>
-  <si>
-    <t>womens athletic tops long sleeve</t>
-  </si>
-  <si>
-    <t>nike womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>sweaters women workout</t>
-  </si>
-  <si>
-    <t>2 peice womens workout outfit</t>
-  </si>
-  <si>
-    <t>womans crop shirt</t>
-  </si>
-  <si>
-    <t>workouts sets women</t>
-  </si>
-  <si>
-    <t>blue black outfit</t>
-  </si>
-  <si>
-    <t>2 peice workout outfit</t>
-  </si>
-  <si>
-    <t>womens athletic sets 2 piece</t>
-  </si>
-  <si>
-    <t>matching workout outfit set</t>
-  </si>
-  <si>
-    <t>long sleeve exercise outfit</t>
-  </si>
-  <si>
-    <t>excercise outfits women</t>
-  </si>
-  <si>
-    <t>matching athletic sets women</t>
-  </si>
-  <si>
-    <t>crop yoga jacket</t>
-  </si>
-  <si>
-    <t>women two piece outfits sets</t>
-  </si>
-  <si>
-    <t>body suit for women</t>
-  </si>
-  <si>
-    <t>workout 2 piece sets for women</t>
-  </si>
-  <si>
-    <t>workout zip up women</t>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -680,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,30 +1138,27 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784785B-172B-4E09-B9D7-F941160C669A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85924524-2221-477D-A27F-2B9F692A7071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,306 +25,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>gym for women clothing</t>
-  </si>
-  <si>
-    <t>long sleeve women</t>
-  </si>
-  <si>
-    <t>yoga pants set</t>
-  </si>
-  <si>
-    <t>womens fitness tops</t>
-  </si>
-  <si>
-    <t>long shirts for leggings</t>
-  </si>
-  <si>
-    <t>female compression shirt</t>
-  </si>
-  <si>
-    <t>fitness crop tops for women</t>
-  </si>
-  <si>
-    <t>fitness joggers women</t>
-  </si>
-  <si>
-    <t>women gym clothes set</t>
-  </si>
-  <si>
-    <t>women outfits sets</t>
-  </si>
-  <si>
-    <t>women activewear suits</t>
-  </si>
-  <si>
-    <t>leggings outfits for women with top</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop top</t>
-  </si>
-  <si>
-    <t>womens workout set</t>
-  </si>
-  <si>
-    <t>workout yoga tops for women</t>
-  </si>
-  <si>
-    <t>gym clothes for women sets</t>
-  </si>
-  <si>
-    <t>womens long workout tops</t>
-  </si>
-  <si>
-    <t>workout outfit for women set</t>
-  </si>
-  <si>
-    <t>womens yoga sets</t>
-  </si>
-  <si>
-    <t>2 piece sets for women</t>
-  </si>
-  <si>
-    <t>workout sets clothes for women</t>
-  </si>
-  <si>
-    <t>gym crop tops for women long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve crop tops for women workout</t>
-  </si>
-  <si>
-    <t>matching set outfit women sexy</t>
-  </si>
-  <si>
-    <t>sports tops for women</t>
-  </si>
-  <si>
-    <t>the limited clothing women</t>
-  </si>
-  <si>
-    <t>sexy leggings</t>
-  </si>
-  <si>
-    <t>winter for women clothing</t>
-  </si>
-  <si>
-    <t>suits for women</t>
-  </si>
-  <si>
-    <t>exercise outfits for women set</t>
-  </si>
-  <si>
-    <t>tennis outfit</t>
-  </si>
-  <si>
-    <t>tracks for women</t>
-  </si>
-  <si>
-    <t>suit women</t>
-  </si>
-  <si>
-    <t>athletic clothes for women</t>
-  </si>
-  <si>
-    <t>crop zip up</t>
-  </si>
-  <si>
-    <t>compression jacket women</t>
-  </si>
-  <si>
-    <t>bride yoga outfit</t>
-  </si>
-  <si>
-    <t>sweat suit</t>
-  </si>
-  <si>
-    <t>outfit for women</t>
-  </si>
-  <si>
-    <t>sweat suits</t>
-  </si>
-  <si>
-    <t>tights set for women</t>
-  </si>
-  <si>
-    <t>woman sport clothes</t>
-  </si>
-  <si>
-    <t>woman outfits sets</t>
-  </si>
-  <si>
-    <t>sexy leggings for women exercise</t>
-  </si>
-  <si>
-    <t>cute winter outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece winter outfits for women</t>
-  </si>
-  <si>
-    <t>athletic crop tops for women</t>
-  </si>
-  <si>
-    <t>adidas sweat suits women</t>
-  </si>
-  <si>
-    <t>sweat for women set</t>
-  </si>
-  <si>
-    <t>womens sweat suit</t>
-  </si>
-  <si>
-    <t>women sweat suits</t>
-  </si>
-  <si>
-    <t>woman sport clothes set</t>
-  </si>
-  <si>
-    <t>black sexy leggings for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets</t>
-  </si>
-  <si>
-    <t>jogging suits for women</t>
-  </si>
-  <si>
-    <t>tracksuit green</t>
-  </si>
-  <si>
-    <t>two piece outfits for women sexy</t>
-  </si>
-  <si>
-    <t>yoga legging set</t>
-  </si>
-  <si>
-    <t>athletic leggings green</t>
-  </si>
-  <si>
-    <t>yoga tops long sleeve</t>
-  </si>
-  <si>
-    <t>yoga outfit set</t>
-  </si>
-  <si>
-    <t>workout shirts women</t>
-  </si>
-  <si>
-    <t>workout tops women long sleeve</t>
-  </si>
-  <si>
-    <t>black clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit for women</t>
-  </si>
-  <si>
-    <t>women tracksuit set</t>
-  </si>
-  <si>
-    <t>women clothing sets</t>
-  </si>
-  <si>
-    <t>crop top black</t>
-  </si>
-  <si>
-    <t>crop top long sleeve for women</t>
-  </si>
-  <si>
-    <t>crop top set for women</t>
-  </si>
-  <si>
-    <t>womens long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>workout set clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes sexy</t>
-  </si>
-  <si>
-    <t>leggings outfit for women</t>
-  </si>
-  <si>
-    <t>gym clothes set for women</t>
-  </si>
-  <si>
-    <t>black suit for women</t>
-  </si>
-  <si>
-    <t>workout leggings set for women</t>
-  </si>
-  <si>
-    <t>matching set women</t>
-  </si>
-  <si>
-    <t>zip up top</t>
-  </si>
-  <si>
-    <t>exercise outfit for women</t>
-  </si>
-  <si>
-    <t>crop tops exercise</t>
-  </si>
-  <si>
-    <t>crop tops gym</t>
-  </si>
-  <si>
-    <t>crop tops long sleeve</t>
-  </si>
-  <si>
-    <t>crop tops outfits for women</t>
-  </si>
-  <si>
-    <t>sweat suit set</t>
-  </si>
-  <si>
-    <t>sweatsuits for women</t>
-  </si>
-  <si>
-    <t>crop tops women clothing</t>
-  </si>
-  <si>
-    <t>legging shirt</t>
-  </si>
-  <si>
-    <t>sweats for women</t>
-  </si>
-  <si>
-    <t>sweats sets for women</t>
-  </si>
-  <si>
-    <t>sweats suits for women</t>
-  </si>
-  <si>
-    <t>jogging suit for women</t>
-  </si>
-  <si>
-    <t>sweatsuit for women</t>
-  </si>
-  <si>
-    <t>sweatsuit women</t>
-  </si>
-  <si>
-    <t>two piece sets</t>
-  </si>
-  <si>
-    <t>women suits</t>
-  </si>
-  <si>
-    <t>athletic clothes women</t>
-  </si>
-  <si>
-    <t>leggings for gym</t>
-  </si>
-  <si>
-    <t>leggins pink victoria secret</t>
-  </si>
-  <si>
-    <t>2 piece athletic outfits</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+  <si>
+    <t>green workout</t>
+  </si>
+  <si>
+    <t>green black top woman</t>
+  </si>
+  <si>
+    <t>black 2 piece woman</t>
+  </si>
+  <si>
+    <t>green set woman</t>
+  </si>
+  <si>
+    <t>green workout pant woman</t>
+  </si>
+  <si>
+    <t>black workout clothe</t>
+  </si>
+  <si>
+    <t>green black workout set</t>
+  </si>
+  <si>
+    <t>top woman set</t>
+  </si>
+  <si>
+    <t>jogger pant set woman</t>
+  </si>
+  <si>
+    <t>woman workout crop</t>
+  </si>
+  <si>
+    <t>woman high</t>
+  </si>
+  <si>
+    <t>fashionable workout clothe woman</t>
+  </si>
+  <si>
+    <t>black green pant</t>
+  </si>
+  <si>
+    <t>woman clothe top</t>
+  </si>
+  <si>
+    <t>jogger woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant jogger woman</t>
+  </si>
+  <si>
+    <t>tight 2 piece outfit</t>
+  </si>
+  <si>
+    <t>with tight</t>
+  </si>
+  <si>
+    <t>compression clothe</t>
+  </si>
+  <si>
+    <t>seamless yoga top</t>
+  </si>
+  <si>
+    <t>workout legging top</t>
+  </si>
+  <si>
+    <t>seamless tracksuit</t>
+  </si>
+  <si>
+    <t>long yoga legging</t>
+  </si>
+  <si>
+    <t>legging 2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 legging</t>
+  </si>
+  <si>
+    <t>ready pard</t>
+  </si>
+  <si>
+    <t>2 top</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless</t>
+  </si>
+  <si>
+    <t>high yoga legging</t>
+  </si>
+  <si>
+    <t>ready 2</t>
+  </si>
+  <si>
+    <t>bodybuilding apparel</t>
+  </si>
+  <si>
+    <t>women jogging sets</t>
+  </si>
+  <si>
+    <t>workout bodysuit</t>
+  </si>
+  <si>
+    <t>work out clothes</t>
+  </si>
+  <si>
+    <t>yoga suits</t>
+  </si>
+  <si>
+    <t>yoga long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women under armour</t>
+  </si>
+  <si>
+    <t>crop long sleeve</t>
+  </si>
+  <si>
+    <t>workout leggings and top</t>
+  </si>
+  <si>
+    <t>womens activewear long sleeve</t>
+  </si>
+  <si>
+    <t>zip up crop top</t>
+  </si>
+  <si>
+    <t>gym outfit set</t>
+  </si>
+  <si>
+    <t>black outfit set</t>
+  </si>
+  <si>
+    <t>cropped shirt</t>
+  </si>
+  <si>
+    <t>top fashion</t>
+  </si>
+  <si>
+    <t>2 piece yoga outfit</t>
+  </si>
+  <si>
+    <t>exercise tights</t>
+  </si>
+  <si>
+    <t>workout long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>seamless shirts for women</t>
+  </si>
+  <si>
+    <t>woman gym leggings</t>
+  </si>
+  <si>
+    <t>yoga long sleeve</t>
+  </si>
+  <si>
+    <t>blue crop top set</t>
+  </si>
+  <si>
+    <t>activewear for women sets</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout shirt</t>
+  </si>
+  <si>
+    <t>track crop top</t>
+  </si>
+  <si>
+    <t>long sleeve workout</t>
+  </si>
+  <si>
+    <t>2 piece shirt</t>
+  </si>
+  <si>
+    <t>2 piece crop set</t>
+  </si>
+  <si>
+    <t>high waist long leggings</t>
+  </si>
+  <si>
+    <t>women jogging suits</t>
+  </si>
+  <si>
+    <t>blue workout shirt</t>
+  </si>
+  <si>
+    <t>green woman</t>
+  </si>
+  <si>
+    <t>tight pink shirt</t>
+  </si>
+  <si>
+    <t>pink workout crop top</t>
+  </si>
+  <si>
+    <t>tight workout shirt</t>
+  </si>
+  <si>
+    <t>winter long sleeve</t>
+  </si>
+  <si>
+    <t>matching crop top</t>
+  </si>
+  <si>
+    <t>zip up compression</t>
+  </si>
+  <si>
+    <t>pink ribbed crop top</t>
+  </si>
+  <si>
+    <t>women warm up sets</t>
+  </si>
+  <si>
+    <t>winter sweatsuit</t>
+  </si>
+  <si>
+    <t>green jogger set</t>
+  </si>
+  <si>
+    <t>winter workout top</t>
+  </si>
+  <si>
+    <t>victoria secret exercise clothes</t>
+  </si>
+  <si>
+    <t>black suit pant</t>
+  </si>
+  <si>
+    <t>pink sports sleeve</t>
+  </si>
+  <si>
+    <t>black yoga outfit</t>
+  </si>
+  <si>
+    <t>athletic legging set</t>
+  </si>
+  <si>
+    <t>blue outfit set</t>
+  </si>
+  <si>
+    <t>tight pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>tight pink long sleeve</t>
+  </si>
+  <si>
+    <t>cute tracksuit sets for women</t>
+  </si>
+  <si>
+    <t>super soft leggings for women</t>
+  </si>
+  <si>
+    <t>blue tight top</t>
+  </si>
+  <si>
+    <t>blue tight crop top</t>
+  </si>
+  <si>
+    <t>one piece workout outfit for women</t>
+  </si>
+  <si>
+    <t>sweat suits for women cotton</t>
   </si>
 </sst>
 </file>
@@ -679,9 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A100"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1120,70 +1079,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85924524-2221-477D-A27F-2B9F692A7071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0FC3C-D5E5-413C-AD5F-6A8D3244CC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,267 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
-  <si>
-    <t>green workout</t>
-  </si>
-  <si>
-    <t>green black top woman</t>
-  </si>
-  <si>
-    <t>black 2 piece woman</t>
-  </si>
-  <si>
-    <t>green set woman</t>
-  </si>
-  <si>
-    <t>green workout pant woman</t>
-  </si>
-  <si>
-    <t>black workout clothe</t>
-  </si>
-  <si>
-    <t>green black workout set</t>
-  </si>
-  <si>
-    <t>top woman set</t>
-  </si>
-  <si>
-    <t>jogger pant set woman</t>
-  </si>
-  <si>
-    <t>woman workout crop</t>
-  </si>
-  <si>
-    <t>woman high</t>
-  </si>
-  <si>
-    <t>fashionable workout clothe woman</t>
-  </si>
-  <si>
-    <t>black green pant</t>
-  </si>
-  <si>
-    <t>woman clothe top</t>
-  </si>
-  <si>
-    <t>jogger woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant jogger woman</t>
-  </si>
-  <si>
-    <t>tight 2 piece outfit</t>
-  </si>
-  <si>
-    <t>with tight</t>
-  </si>
-  <si>
-    <t>compression clothe</t>
-  </si>
-  <si>
-    <t>seamless yoga top</t>
-  </si>
-  <si>
-    <t>workout legging top</t>
-  </si>
-  <si>
-    <t>seamless tracksuit</t>
-  </si>
-  <si>
-    <t>long yoga legging</t>
-  </si>
-  <si>
-    <t>legging 2 piece outfit</t>
-  </si>
-  <si>
-    <t>2 legging</t>
-  </si>
-  <si>
-    <t>ready pard</t>
-  </si>
-  <si>
-    <t>2 top</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless</t>
-  </si>
-  <si>
-    <t>high yoga legging</t>
-  </si>
-  <si>
-    <t>ready 2</t>
-  </si>
-  <si>
-    <t>bodybuilding apparel</t>
-  </si>
-  <si>
-    <t>women jogging sets</t>
-  </si>
-  <si>
-    <t>workout bodysuit</t>
-  </si>
-  <si>
-    <t>work out clothes</t>
-  </si>
-  <si>
-    <t>yoga suits</t>
-  </si>
-  <si>
-    <t>yoga long sleeve tops for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women under armour</t>
-  </si>
-  <si>
-    <t>crop long sleeve</t>
-  </si>
-  <si>
-    <t>workout leggings and top</t>
-  </si>
-  <si>
-    <t>womens activewear long sleeve</t>
-  </si>
-  <si>
-    <t>zip up crop top</t>
-  </si>
-  <si>
-    <t>gym outfit set</t>
-  </si>
-  <si>
-    <t>black outfit set</t>
-  </si>
-  <si>
-    <t>cropped shirt</t>
-  </si>
-  <si>
-    <t>top fashion</t>
-  </si>
-  <si>
-    <t>2 piece yoga outfit</t>
-  </si>
-  <si>
-    <t>exercise tights</t>
-  </si>
-  <si>
-    <t>workout long sleeve tops for women</t>
-  </si>
-  <si>
-    <t>seamless shirts for women</t>
-  </si>
-  <si>
-    <t>woman gym leggings</t>
-  </si>
-  <si>
-    <t>yoga long sleeve</t>
-  </si>
-  <si>
-    <t>blue crop top set</t>
-  </si>
-  <si>
-    <t>activewear for women sets</t>
-  </si>
-  <si>
-    <t>long sleeve crop workout shirt</t>
-  </si>
-  <si>
-    <t>track crop top</t>
-  </si>
-  <si>
-    <t>long sleeve workout</t>
-  </si>
-  <si>
-    <t>2 piece shirt</t>
-  </si>
-  <si>
-    <t>2 piece crop set</t>
-  </si>
-  <si>
-    <t>high waist long leggings</t>
-  </si>
-  <si>
-    <t>women jogging suits</t>
-  </si>
-  <si>
-    <t>blue workout shirt</t>
-  </si>
-  <si>
-    <t>green woman</t>
-  </si>
-  <si>
-    <t>tight pink shirt</t>
-  </si>
-  <si>
-    <t>pink workout crop top</t>
-  </si>
-  <si>
-    <t>tight workout shirt</t>
-  </si>
-  <si>
-    <t>winter long sleeve</t>
-  </si>
-  <si>
-    <t>matching crop top</t>
-  </si>
-  <si>
-    <t>zip up compression</t>
-  </si>
-  <si>
-    <t>pink ribbed crop top</t>
-  </si>
-  <si>
-    <t>women warm up sets</t>
-  </si>
-  <si>
-    <t>winter sweatsuit</t>
-  </si>
-  <si>
-    <t>green jogger set</t>
-  </si>
-  <si>
-    <t>winter workout top</t>
-  </si>
-  <si>
-    <t>victoria secret exercise clothes</t>
-  </si>
-  <si>
-    <t>black suit pant</t>
-  </si>
-  <si>
-    <t>pink sports sleeve</t>
-  </si>
-  <si>
-    <t>black yoga outfit</t>
-  </si>
-  <si>
-    <t>athletic legging set</t>
-  </si>
-  <si>
-    <t>blue outfit set</t>
-  </si>
-  <si>
-    <t>tight pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>tight pink long sleeve</t>
-  </si>
-  <si>
-    <t>cute tracksuit sets for women</t>
-  </si>
-  <si>
-    <t>super soft leggings for women</t>
-  </si>
-  <si>
-    <t>blue tight top</t>
-  </si>
-  <si>
-    <t>blue tight crop top</t>
-  </si>
-  <si>
-    <t>one piece workout outfit for women</t>
-  </si>
-  <si>
-    <t>sweat suits for women cotton</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>two piece outfit for women</t>
+  </si>
+  <si>
+    <t>blue black leggings</t>
+  </si>
+  <si>
+    <t>womens high tops</t>
+  </si>
+  <si>
+    <t>women exercise tops long sleeve</t>
+  </si>
+  <si>
+    <t>2peice sets for women</t>
+  </si>
+  <si>
+    <t>jogging suit womens</t>
+  </si>
+  <si>
+    <t>deportivos para mujer</t>
+  </si>
+  <si>
+    <t>gym set clothes</t>
+  </si>
+  <si>
+    <t>sweats set</t>
+  </si>
+  <si>
+    <t>sweatsuit set for women</t>
+  </si>
+  <si>
+    <t>black clothing</t>
+  </si>
+  <si>
+    <t>womens suits</t>
+  </si>
+  <si>
+    <t>woman suit</t>
+  </si>
+  <si>
+    <t>outfit clothes</t>
+  </si>
+  <si>
+    <t>woman exercise clothes</t>
+  </si>
+  <si>
+    <t>workout zip up for women</t>
+  </si>
+  <si>
+    <t>womens long sleeve athletic tops</t>
+  </si>
+  <si>
+    <t>black long sleeve crop top for women</t>
+  </si>
+  <si>
+    <t>mommy and me workout clothes</t>
+  </si>
+  <si>
+    <t>exercise womens clothing</t>
+  </si>
+  <si>
+    <t>pink jogging suit</t>
+  </si>
+  <si>
+    <t>womens two piece outfits</t>
+  </si>
+  <si>
+    <t>winter active wear for women</t>
+  </si>
+  <si>
+    <t>sport suit for women</t>
+  </si>
+  <si>
+    <t>set long</t>
+  </si>
+  <si>
+    <t>winter athletic wear women</t>
+  </si>
+  <si>
+    <t>fitness long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>shirt suits for women</t>
+  </si>
+  <si>
+    <t>compression athletic leggings women</t>
+  </si>
+  <si>
+    <t>woman crop top</t>
+  </si>
+  <si>
+    <t>tops black</t>
+  </si>
+  <si>
+    <t>athletic two piece outfits for women</t>
+  </si>
+  <si>
+    <t>athletic long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>clothing sets for women</t>
+  </si>
+  <si>
+    <t>bowling clothes for women</t>
+  </si>
+  <si>
+    <t>female suit</t>
+  </si>
+  <si>
+    <t>warm workout clothes</t>
+  </si>
+  <si>
+    <t>leggings suits for women</t>
+  </si>
+  <si>
+    <t>matching 2 piece outfits</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets</t>
+  </si>
+  <si>
+    <t>suits set for women</t>
+  </si>
+  <si>
+    <t>victory secret pink clothing</t>
+  </si>
+  <si>
+    <t>exercise sweat suits</t>
+  </si>
+  <si>
+    <t>cropped black shirt</t>
+  </si>
+  <si>
+    <t>seamless shirts</t>
+  </si>
+  <si>
+    <t>womens suit</t>
+  </si>
+  <si>
+    <t>womens sweatsuits</t>
+  </si>
+  <si>
+    <t>womens outfits for winter</t>
+  </si>
+  <si>
+    <t>two piece outfit women</t>
+  </si>
+  <si>
+    <t>green two piece</t>
+  </si>
+  <si>
+    <t>2 piece women clothes</t>
+  </si>
+  <si>
+    <t>women suit set</t>
+  </si>
+  <si>
+    <t>shirts with leggings</t>
+  </si>
+  <si>
+    <t>shirts with leggings for women</t>
+  </si>
+  <si>
+    <t>outfit winter for women</t>
+  </si>
+  <si>
+    <t>green suit for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop athletic</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout top</t>
+  </si>
+  <si>
+    <t>blue track suit</t>
+  </si>
+  <si>
+    <t>high waist pants and crop top set</t>
+  </si>
+  <si>
+    <t>zipper crop top</t>
+  </si>
+  <si>
+    <t>clothes gym women</t>
+  </si>
+  <si>
+    <t>women crop top</t>
+  </si>
+  <si>
+    <t>sweat exercise suit</t>
+  </si>
+  <si>
+    <t>fashion jogging suits for women</t>
+  </si>
+  <si>
+    <t>clothes shirts</t>
+  </si>
+  <si>
+    <t>sweat sleeves</t>
+  </si>
+  <si>
+    <t>top sets for women</t>
+  </si>
+  <si>
+    <t>women exercise shirts</t>
+  </si>
+  <si>
+    <t>women sweatsuits set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens compression suit</t>
+  </si>
+  <si>
+    <t>black leggings outfit</t>
+  </si>
+  <si>
+    <t>two piece long sleeve outfits for women</t>
+  </si>
+  <si>
+    <t>two piece active wear</t>
+  </si>
+  <si>
+    <t>two piece track suit</t>
+  </si>
+  <si>
+    <t>womens athletic sets</t>
+  </si>
+  <si>
+    <t>womens athletic suits</t>
+  </si>
+  <si>
+    <t>sexy athletic tops for women</t>
+  </si>
+  <si>
+    <t>black cropped leggings for women</t>
+  </si>
+  <si>
+    <t>womens fashion sweat suits</t>
+  </si>
+  <si>
+    <t>2 piece high waist outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece sports outfits for women</t>
+  </si>
+  <si>
+    <t>shirt and leggings set</t>
+  </si>
+  <si>
+    <t>workout long sleeve crop top</t>
+  </si>
+  <si>
+    <t>woman sweat suits sets</t>
+  </si>
+  <si>
+    <t>matching leggings and top women</t>
+  </si>
+  <si>
+    <t>pack of crop tops for women</t>
+  </si>
+  <si>
+    <t>zip up bodysuit for women</t>
+  </si>
+  <si>
+    <t>crop tops activewear</t>
+  </si>
+  <si>
+    <t>green two piece set for women</t>
+  </si>
+  <si>
+    <t>blue clothing for women</t>
+  </si>
+  <si>
+    <t>blue 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens sweats set</t>
+  </si>
+  <si>
+    <t>women yoga jacket</t>
+  </si>
+  <si>
+    <t>womens gym outfit set</t>
+  </si>
+  <si>
+    <t>athletics 2</t>
+  </si>
+  <si>
+    <t>sweat shirt</t>
+  </si>
+  <si>
+    <t>two pieces</t>
+  </si>
+  <si>
+    <t>green womens top</t>
   </si>
 </sst>
 </file>
@@ -640,7 +679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1079,17 +1120,70 @@
         <v>86</v>
       </c>
     </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EC798E-EC53-48BF-838B-2882B5C0330E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226684D-4E52-4CE1-ADFF-8B3B9D49AA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>women body suit</t>
-  </si>
-  <si>
-    <t>workout leggings black</t>
-  </si>
-  <si>
-    <t>legging sets for women</t>
-  </si>
-  <si>
-    <t>workout clothes set</t>
-  </si>
-  <si>
-    <t>gym crop top</t>
-  </si>
-  <si>
-    <t>leggings sport</t>
-  </si>
-  <si>
-    <t>matching sweaters</t>
-  </si>
-  <si>
-    <t>long sleeve shirt women black</t>
-  </si>
-  <si>
-    <t>green leggings for women</t>
-  </si>
-  <si>
-    <t>workout crop tops for women</t>
-  </si>
-  <si>
-    <t>sexy gym clothes for women</t>
-  </si>
-  <si>
-    <t>2 pieces outfits</t>
-  </si>
-  <si>
-    <t>sweater crop tops for women</t>
-  </si>
-  <si>
-    <t>exercise clothes</t>
-  </si>
-  <si>
-    <t>finger workout</t>
-  </si>
-  <si>
-    <t>modest workout clothes for women</t>
-  </si>
-  <si>
-    <t>3 piece outfits for women</t>
-  </si>
-  <si>
-    <t>womans workout clothes</t>
-  </si>
-  <si>
-    <t>two piece sets for women</t>
-  </si>
-  <si>
-    <t>crop top and leggings set</t>
-  </si>
-  <si>
-    <t>black crop top women</t>
-  </si>
-  <si>
-    <t>green shirt women</t>
-  </si>
-  <si>
-    <t>2 pcs set for women</t>
-  </si>
-  <si>
-    <t>pink victoria secret headbands</t>
-  </si>
-  <si>
-    <t>clothes for gym</t>
-  </si>
-  <si>
-    <t>exercise set for women</t>
-  </si>
-  <si>
-    <t>sport sweaters for women</t>
-  </si>
-  <si>
-    <t>compression tops for women exercise</t>
-  </si>
-  <si>
-    <t>female gym clothes</t>
-  </si>
-  <si>
-    <t>joggers fitness</t>
-  </si>
-  <si>
-    <t>black crop sweater</t>
-  </si>
-  <si>
-    <t>womens outfits sets</t>
-  </si>
-  <si>
-    <t>green two piece outfits for women</t>
-  </si>
-  <si>
-    <t>hole top</t>
-  </si>
-  <si>
-    <t>sweat suits for women</t>
-  </si>
-  <si>
-    <t>dark green outfit</t>
-  </si>
-  <si>
-    <t>sweats suits</t>
-  </si>
-  <si>
-    <t>victoris secret pink clothing</t>
-  </si>
-  <si>
-    <t>green outfits for women</t>
-  </si>
-  <si>
-    <t>shirt workout</t>
-  </si>
-  <si>
-    <t>2 outfit</t>
-  </si>
-  <si>
-    <t>track suit women</t>
-  </si>
-  <si>
-    <t>women two piece outfits</t>
-  </si>
-  <si>
-    <t>zero to sexy</t>
-  </si>
-  <si>
-    <t>long green shirts for women</t>
-  </si>
-  <si>
-    <t>seamless tops for women</t>
-  </si>
-  <si>
-    <t>leggings sets for women</t>
-  </si>
-  <si>
-    <t>workout cloth for women</t>
-  </si>
-  <si>
-    <t>women black crop top</t>
-  </si>
-  <si>
-    <t>black cropped long sleeve</t>
-  </si>
-  <si>
-    <t>winter sports suit</t>
-  </si>
-  <si>
-    <t>womens winter outfits</t>
-  </si>
-  <si>
-    <t>big and tall sweat suits</t>
-  </si>
-  <si>
-    <t>black exercise shirt women</t>
-  </si>
-  <si>
-    <t>black and green leggings for women</t>
-  </si>
-  <si>
-    <t>green and black top</t>
-  </si>
-  <si>
-    <t>long sleeve black women</t>
-  </si>
-  <si>
-    <t>long sleeve body suits womens</t>
-  </si>
-  <si>
-    <t>womens sweater set</t>
-  </si>
-  <si>
-    <t>adidas sweat suits for women set</t>
-  </si>
-  <si>
-    <t>green crop tops</t>
-  </si>
-  <si>
-    <t>sexy workout clothes for women set</t>
-  </si>
-  <si>
-    <t>yoga sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece black set for women</t>
-  </si>
-  <si>
-    <t>dark green tops</t>
-  </si>
-  <si>
-    <t>matching jogger sets women clothing</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve sets for women</t>
-  </si>
-  <si>
-    <t>tights for track</t>
-  </si>
-  <si>
-    <t>womens winter outfits sets</t>
-  </si>
-  <si>
-    <t>green 2 piece outfit for women</t>
-  </si>
-  <si>
-    <t>workout tops for women set</t>
-  </si>
-  <si>
-    <t>seamless workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>womens matching lounge set</t>
-  </si>
-  <si>
-    <t>longsleeve crop top</t>
-  </si>
-  <si>
-    <t>crop fitness top for women</t>
-  </si>
-  <si>
-    <t>yoga set</t>
-  </si>
-  <si>
-    <t>seamless leggings</t>
-  </si>
-  <si>
-    <t>shirts for leggings</t>
-  </si>
-  <si>
-    <t>yoga clothes for women</t>
-  </si>
-  <si>
-    <t>womens yoga suits</t>
-  </si>
-  <si>
-    <t>women athletic clothes</t>
-  </si>
-  <si>
-    <t>track set women</t>
-  </si>
-  <si>
-    <t>track sets</t>
-  </si>
-  <si>
-    <t>bodybuilding jacket</t>
-  </si>
-  <si>
-    <t>cute womens jogging suits</t>
-  </si>
-  <si>
-    <t>womens athletic fashion</t>
-  </si>
-  <si>
-    <t>fitness clothes</t>
-  </si>
-  <si>
-    <t>matching workout set</t>
-  </si>
-  <si>
-    <t>women fitness clothes</t>
-  </si>
-  <si>
-    <t>set clothes for women</t>
-  </si>
-  <si>
-    <t>two piece outfits for women</t>
-  </si>
-  <si>
-    <t>legging and crop top set</t>
-  </si>
-  <si>
-    <t>legging shirts</t>
-  </si>
-  <si>
-    <t>female clothes</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout tops</t>
-  </si>
-  <si>
-    <t>exercise leggings for women</t>
-  </si>
-  <si>
-    <t>exercise leggings set</t>
-  </si>
-  <si>
-    <t>legging outfits for women</t>
-  </si>
-  <si>
-    <t>bodybuilding workout clothes</t>
+    <t>pink sweat suits for women victoria secret</t>
+  </si>
+  <si>
+    <t>long sleeve crop tops for women</t>
+  </si>
+  <si>
+    <t>womens workout outfits sets</t>
+  </si>
+  <si>
+    <t>crop workout top</t>
+  </si>
+  <si>
+    <t>suits ladies</t>
+  </si>
+  <si>
+    <t>outfit sets for women clothing</t>
+  </si>
+  <si>
+    <t>seamless leggings workout</t>
+  </si>
+  <si>
+    <t>long sleeve pink shirt</t>
+  </si>
+  <si>
+    <t>womens clothing black</t>
+  </si>
+  <si>
+    <t>sports leggings pink</t>
+  </si>
+  <si>
+    <t>yoga pants victorias secret pink</t>
+  </si>
+  <si>
+    <t>women's workout clothes</t>
+  </si>
+  <si>
+    <t>big and tall workout clothes</t>
+  </si>
+  <si>
+    <t>gym women clothes</t>
+  </si>
+  <si>
+    <t>women's winter tops</t>
+  </si>
+  <si>
+    <t>women athletic sets</t>
+  </si>
+  <si>
+    <t>women's long sleeve workout tops</t>
+  </si>
+  <si>
+    <t>womens workout long sleeve tops</t>
+  </si>
+  <si>
+    <t>ropa para gym mujer</t>
+  </si>
+  <si>
+    <t>crop black shirt</t>
+  </si>
+  <si>
+    <t>work crop top</t>
+  </si>
+  <si>
+    <t>women sports clothes</t>
+  </si>
+  <si>
+    <t>black athletic top women</t>
+  </si>
+  <si>
+    <t>pink victoria secret tights for women</t>
+  </si>
+  <si>
+    <t>matching sets women clothing winter</t>
+  </si>
+  <si>
+    <t>women workout outfit</t>
+  </si>
+  <si>
+    <t>old navy workout clothes for women</t>
+  </si>
+  <si>
+    <t>women track</t>
+  </si>
+  <si>
+    <t>gymshark workout clothes for women</t>
+  </si>
+  <si>
+    <t>womens track suits 2 piece</t>
+  </si>
+  <si>
+    <t>ropa victoria secret para mujer</t>
+  </si>
+  <si>
+    <t>body suit women</t>
+  </si>
+  <si>
+    <t>work out sets</t>
+  </si>
+  <si>
+    <t>women gym clothes</t>
+  </si>
+  <si>
+    <t>womans shirts for leggings</t>
+  </si>
+  <si>
+    <t>womens athletic clothing sets</t>
+  </si>
+  <si>
+    <t>sexy two piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens workout bodysuit</t>
+  </si>
+  <si>
+    <t>adidas workout clothes for women</t>
+  </si>
+  <si>
+    <t>womens gym crop top</t>
+  </si>
+  <si>
+    <t>gym crop tops for women</t>
+  </si>
+  <si>
+    <t>women long sleeve workout tops</t>
+  </si>
+  <si>
+    <t>ladies workout clothes</t>
+  </si>
+  <si>
+    <t>womens zip up</t>
+  </si>
+  <si>
+    <t>suit for women for work</t>
+  </si>
+  <si>
+    <t>crop top workout</t>
+  </si>
+  <si>
+    <t>tracksuit set women</t>
+  </si>
+  <si>
+    <t>ribbed leggings for women</t>
+  </si>
+  <si>
+    <t>sexy zip up top</t>
+  </si>
+  <si>
+    <t>sexy green tops for women</t>
+  </si>
+  <si>
+    <t>clothing winter women</t>
+  </si>
+  <si>
+    <t>women's suits</t>
+  </si>
+  <si>
+    <t>ropa pink victoria secret</t>
+  </si>
+  <si>
+    <t>work out body suit for women</t>
+  </si>
+  <si>
+    <t>pink workout tights</t>
+  </si>
+  <si>
+    <t>winter workout pants</t>
+  </si>
+  <si>
+    <t>casual sweat suits for women</t>
+  </si>
+  <si>
+    <t>floral sweat suits for women</t>
+  </si>
+  <si>
+    <t>crop top for ladies</t>
+  </si>
+  <si>
+    <t>workout womens clothing</t>
+  </si>
+  <si>
+    <t>pink long sleeve bodysuit women</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing sweats</t>
+  </si>
+  <si>
+    <t>women's workout outfits matching</t>
+  </si>
+  <si>
+    <t>vicotria's secret pink clothes</t>
+  </si>
+  <si>
+    <t>womens dry suit</t>
+  </si>
+  <si>
+    <t>sweat pants top</t>
+  </si>
+  <si>
+    <t>cold weather workout clothes for women</t>
+  </si>
+  <si>
+    <t>work out clothes for woman</t>
+  </si>
+  <si>
+    <t>croptop workout</t>
+  </si>
+  <si>
+    <t>womens black two piece outfits</t>
+  </si>
+  <si>
+    <t>guess sweat suits for women</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets petite</t>
+  </si>
+  <si>
+    <t>women two piece long sleeve sets</t>
+  </si>
+  <si>
+    <t>2pc sweat suits for women</t>
+  </si>
+  <si>
+    <t>lady body suits</t>
+  </si>
+  <si>
+    <t>women long sleeve athletic tops</t>
+  </si>
+  <si>
+    <t>women two piece outfits sets sexy</t>
+  </si>
+  <si>
+    <t>workout crop tops for women gym</t>
+  </si>
+  <si>
+    <t>legging sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>work out sets for women</t>
+  </si>
+  <si>
+    <t>super model active wear set</t>
+  </si>
+  <si>
+    <t>track suits for women 2 piece</t>
+  </si>
+  <si>
+    <t>champion sweat suit for women</t>
+  </si>
+  <si>
+    <t>athletic womens clothing</t>
+  </si>
+  <si>
+    <t>body suit</t>
+  </si>
+  <si>
+    <t>track leggings women</t>
+  </si>
+  <si>
+    <t>womens athletic clothes</t>
+  </si>
+  <si>
+    <t>womens athletic long sleeve tops</t>
+  </si>
+  <si>
+    <t>womens athletic zip up</t>
+  </si>
+  <si>
+    <t>body suits</t>
+  </si>
+  <si>
+    <t>body suit tops for women long sleeve</t>
+  </si>
+  <si>
+    <t>fashion outfits for women</t>
+  </si>
+  <si>
+    <t>women leggings gym</t>
+  </si>
+  <si>
+    <t>leggings exercise</t>
+  </si>
+  <si>
+    <t>gym shirts for women cheap</t>
+  </si>
+  <si>
+    <t>sexy workout tights for women</t>
+  </si>
+  <si>
+    <t>ladies jogging suits sets</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing leggings set</t>
+  </si>
+  <si>
+    <t>active wear sets for women</t>
+  </si>
+  <si>
+    <t>2 piece sets for women sexy</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226684D-4E52-4CE1-ADFF-8B3B9D49AA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7DEA6-86CB-4133-AAE7-54CC8187D72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>pink sweat suits for women victoria secret</t>
-  </si>
-  <si>
-    <t>long sleeve crop tops for women</t>
-  </si>
-  <si>
-    <t>womens workout outfits sets</t>
-  </si>
-  <si>
-    <t>crop workout top</t>
-  </si>
-  <si>
-    <t>suits ladies</t>
-  </si>
-  <si>
-    <t>outfit sets for women clothing</t>
-  </si>
-  <si>
-    <t>seamless leggings workout</t>
-  </si>
-  <si>
-    <t>long sleeve pink shirt</t>
-  </si>
-  <si>
-    <t>womens clothing black</t>
-  </si>
-  <si>
-    <t>sports leggings pink</t>
-  </si>
-  <si>
-    <t>yoga pants victorias secret pink</t>
-  </si>
-  <si>
-    <t>women's workout clothes</t>
-  </si>
-  <si>
-    <t>big and tall workout clothes</t>
-  </si>
-  <si>
-    <t>gym women clothes</t>
-  </si>
-  <si>
-    <t>women's winter tops</t>
-  </si>
-  <si>
-    <t>women athletic sets</t>
-  </si>
-  <si>
-    <t>women's long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>womens workout long sleeve tops</t>
-  </si>
-  <si>
-    <t>ropa para gym mujer</t>
-  </si>
-  <si>
-    <t>crop black shirt</t>
-  </si>
-  <si>
-    <t>work crop top</t>
-  </si>
-  <si>
-    <t>women sports clothes</t>
-  </si>
-  <si>
-    <t>black athletic top women</t>
-  </si>
-  <si>
-    <t>pink victoria secret tights for women</t>
-  </si>
-  <si>
-    <t>matching sets women clothing winter</t>
-  </si>
-  <si>
-    <t>women workout outfit</t>
-  </si>
-  <si>
-    <t>old navy workout clothes for women</t>
-  </si>
-  <si>
-    <t>women track</t>
-  </si>
-  <si>
-    <t>gymshark workout clothes for women</t>
-  </si>
-  <si>
-    <t>womens track suits 2 piece</t>
-  </si>
-  <si>
-    <t>ropa victoria secret para mujer</t>
-  </si>
-  <si>
-    <t>body suit women</t>
-  </si>
-  <si>
-    <t>work out sets</t>
-  </si>
-  <si>
-    <t>women gym clothes</t>
-  </si>
-  <si>
-    <t>womans shirts for leggings</t>
-  </si>
-  <si>
-    <t>womens athletic clothing sets</t>
-  </si>
-  <si>
-    <t>sexy two piece outfits for women</t>
-  </si>
-  <si>
-    <t>womens workout bodysuit</t>
-  </si>
-  <si>
-    <t>adidas workout clothes for women</t>
-  </si>
-  <si>
-    <t>womens gym crop top</t>
-  </si>
-  <si>
-    <t>gym crop tops for women</t>
-  </si>
-  <si>
-    <t>women long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>ladies workout clothes</t>
-  </si>
-  <si>
-    <t>womens zip up</t>
-  </si>
-  <si>
-    <t>suit for women for work</t>
-  </si>
-  <si>
-    <t>crop top workout</t>
-  </si>
-  <si>
-    <t>tracksuit set women</t>
-  </si>
-  <si>
-    <t>ribbed leggings for women</t>
-  </si>
-  <si>
-    <t>sexy zip up top</t>
-  </si>
-  <si>
-    <t>sexy green tops for women</t>
-  </si>
-  <si>
-    <t>clothing winter women</t>
-  </si>
-  <si>
-    <t>women's suits</t>
-  </si>
-  <si>
-    <t>ropa pink victoria secret</t>
-  </si>
-  <si>
-    <t>work out body suit for women</t>
-  </si>
-  <si>
-    <t>pink workout tights</t>
-  </si>
-  <si>
-    <t>winter workout pants</t>
-  </si>
-  <si>
-    <t>casual sweat suits for women</t>
-  </si>
-  <si>
-    <t>floral sweat suits for women</t>
-  </si>
-  <si>
-    <t>crop top for ladies</t>
-  </si>
-  <si>
-    <t>workout womens clothing</t>
-  </si>
-  <si>
-    <t>pink long sleeve bodysuit women</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing sweats</t>
-  </si>
-  <si>
-    <t>women's workout outfits matching</t>
-  </si>
-  <si>
-    <t>vicotria's secret pink clothes</t>
-  </si>
-  <si>
-    <t>womens dry suit</t>
-  </si>
-  <si>
-    <t>sweat pants top</t>
-  </si>
-  <si>
-    <t>cold weather workout clothes for women</t>
-  </si>
-  <si>
-    <t>work out clothes for woman</t>
-  </si>
-  <si>
-    <t>croptop workout</t>
-  </si>
-  <si>
-    <t>womens black two piece outfits</t>
-  </si>
-  <si>
-    <t>guess sweat suits for women</t>
-  </si>
-  <si>
-    <t>womens jogging suits sets petite</t>
-  </si>
-  <si>
-    <t>women two piece long sleeve sets</t>
-  </si>
-  <si>
-    <t>2pc sweat suits for women</t>
-  </si>
-  <si>
-    <t>lady body suits</t>
-  </si>
-  <si>
-    <t>women long sleeve athletic tops</t>
-  </si>
-  <si>
-    <t>women two piece outfits sets sexy</t>
-  </si>
-  <si>
-    <t>workout crop tops for women gym</t>
-  </si>
-  <si>
-    <t>legging sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>work out sets for women</t>
-  </si>
-  <si>
-    <t>super model active wear set</t>
-  </si>
-  <si>
-    <t>track suits for women 2 piece</t>
-  </si>
-  <si>
-    <t>champion sweat suit for women</t>
-  </si>
-  <si>
-    <t>athletic womens clothing</t>
-  </si>
-  <si>
-    <t>body suit</t>
-  </si>
-  <si>
-    <t>track leggings women</t>
-  </si>
-  <si>
-    <t>womens athletic clothes</t>
-  </si>
-  <si>
-    <t>womens athletic long sleeve tops</t>
-  </si>
-  <si>
-    <t>womens athletic zip up</t>
-  </si>
-  <si>
-    <t>body suits</t>
-  </si>
-  <si>
-    <t>body suit tops for women long sleeve</t>
-  </si>
-  <si>
-    <t>fashion outfits for women</t>
-  </si>
-  <si>
-    <t>women leggings gym</t>
-  </si>
-  <si>
-    <t>leggings exercise</t>
-  </si>
-  <si>
-    <t>gym shirts for women cheap</t>
-  </si>
-  <si>
-    <t>sexy workout tights for women</t>
-  </si>
-  <si>
-    <t>ladies jogging suits sets</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing leggings set</t>
-  </si>
-  <si>
-    <t>active wear sets for women</t>
-  </si>
-  <si>
-    <t>2 piece sets for women sexy</t>
+    <t>bodybuilding clothing</t>
+  </si>
+  <si>
+    <t>womens workout crop top</t>
+  </si>
+  <si>
+    <t>matching set for women</t>
+  </si>
+  <si>
+    <t>sweat suit for women</t>
+  </si>
+  <si>
+    <t>tracksuits women</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>matching workout sets</t>
+  </si>
+  <si>
+    <t>women exercise</t>
+  </si>
+  <si>
+    <t>sexy workout leggings for women</t>
+  </si>
+  <si>
+    <t>sports suits for women</t>
+  </si>
+  <si>
+    <t>women winter workout clothes</t>
+  </si>
+  <si>
+    <t>track suit for women two piece</t>
+  </si>
+  <si>
+    <t>2 pc track suits</t>
+  </si>
+  <si>
+    <t>sweatsuits sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>adidas track suits for women set</t>
+  </si>
+  <si>
+    <t>sport leggings women</t>
+  </si>
+  <si>
+    <t>pink sweat suits for women</t>
+  </si>
+  <si>
+    <t>pink sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>sweat suits women adidas</t>
+  </si>
+  <si>
+    <t>crop top outfits</t>
+  </si>
+  <si>
+    <t>workout outfit for women</t>
+  </si>
+  <si>
+    <t>addidas workout clothes for women</t>
+  </si>
+  <si>
+    <t>2 piece sweat suits for women</t>
+  </si>
+  <si>
+    <t>black seamless leggings for women</t>
+  </si>
+  <si>
+    <t>track suits for women sexy</t>
+  </si>
+  <si>
+    <t>gymshark workout clothes women</t>
+  </si>
+  <si>
+    <t>betsey johnson workout clothes for women</t>
+  </si>
+  <si>
+    <t>tye dye sweat suits for women set</t>
+  </si>
+  <si>
+    <t>suna sweat suits for women set</t>
+  </si>
+  <si>
+    <t>work out sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>tracksuit womens for winter</t>
+  </si>
+  <si>
+    <t>sexy fitness leggings</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing velvet</t>
+  </si>
+  <si>
+    <t>workout clothes sets</t>
+  </si>
+  <si>
+    <t>woman track suit</t>
+  </si>
+  <si>
+    <t>shirt with leggings</t>
+  </si>
+  <si>
+    <t>exercise sweat suits for women</t>
+  </si>
+  <si>
+    <t>yoga set pink</t>
+  </si>
+  <si>
+    <t>black blue leggings</t>
+  </si>
+  <si>
+    <t>athletic sets</t>
+  </si>
+  <si>
+    <t>workout matching sets for women</t>
+  </si>
+  <si>
+    <t>2 pieces set women clothing</t>
+  </si>
+  <si>
+    <t>sexy women workout</t>
+  </si>
+  <si>
+    <t>workout clothes for women long sleeve</t>
+  </si>
+  <si>
+    <t>sexy matching set</t>
+  </si>
+  <si>
+    <t>diary jogger set</t>
+  </si>
+  <si>
+    <t>womens workout outfits sets 2 piece</t>
+  </si>
+  <si>
+    <t>women's athletic clothing sets</t>
+  </si>
+  <si>
+    <t>woman sweatsuit</t>
+  </si>
+  <si>
+    <t>winter clothes for women set</t>
+  </si>
+  <si>
+    <t>womens winter sets</t>
+  </si>
+  <si>
+    <t>two piece for women outfit</t>
+  </si>
+  <si>
+    <t>womens track set</t>
+  </si>
+  <si>
+    <t>womens long sleeve crop top</t>
+  </si>
+  <si>
+    <t>seamless sets activewear</t>
+  </si>
+  <si>
+    <t>black two piece outfits for women</t>
+  </si>
+  <si>
+    <t>crop leggings workout</t>
+  </si>
+  <si>
+    <t>leggings with holes</t>
+  </si>
+  <si>
+    <t>woman's sweatsuits</t>
+  </si>
+  <si>
+    <t>workout croptops for womens</t>
+  </si>
+  <si>
+    <t>2 piece outfits for women sexy</t>
+  </si>
+  <si>
+    <t>workout tops for women long sleeve</t>
+  </si>
+  <si>
+    <t>womens two piece outfits long sleeve</t>
+  </si>
+  <si>
+    <t>clothes for gym women</t>
+  </si>
+  <si>
+    <t>womens warm up suits 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout tops for women</t>
+  </si>
+  <si>
+    <t>womens outfit set</t>
+  </si>
+  <si>
+    <t>two pieces outfits for women</t>
+  </si>
+  <si>
+    <t>womens athletic crop top</t>
+  </si>
+  <si>
+    <t>sexy sets for women outfit</t>
+  </si>
+  <si>
+    <t>women sweat suits sets</t>
+  </si>
+  <si>
+    <t>tracksuit sets for women</t>
+  </si>
+  <si>
+    <t>workout set women 2 piece</t>
+  </si>
+  <si>
+    <t>victoria secret pink leggins</t>
+  </si>
+  <si>
+    <t>work out outfits for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits sets clearance</t>
+  </si>
+  <si>
+    <t>women workout crop tops</t>
+  </si>
+  <si>
+    <t>gym shirt for women</t>
+  </si>
+  <si>
+    <t>cropped black leggings for women</t>
+  </si>
+  <si>
+    <t>long sleeve yoga tops for women</t>
+  </si>
+  <si>
+    <t>seamless workout set for women</t>
+  </si>
+  <si>
+    <t>womens sport clothing</t>
+  </si>
+  <si>
+    <t>womens athletic tops long sleeve</t>
+  </si>
+  <si>
+    <t>nike womens sweatsuits 2 piece</t>
+  </si>
+  <si>
+    <t>sweaters women workout</t>
+  </si>
+  <si>
+    <t>2 peice womens workout outfit</t>
+  </si>
+  <si>
+    <t>womans crop shirt</t>
+  </si>
+  <si>
+    <t>workouts sets women</t>
+  </si>
+  <si>
+    <t>blue black outfit</t>
+  </si>
+  <si>
+    <t>2 peice workout outfit</t>
+  </si>
+  <si>
+    <t>womens athletic sets 2 piece</t>
+  </si>
+  <si>
+    <t>matching workout outfit set</t>
+  </si>
+  <si>
+    <t>long sleeve exercise outfit</t>
+  </si>
+  <si>
+    <t>excercise outfits women</t>
+  </si>
+  <si>
+    <t>matching athletic sets women</t>
+  </si>
+  <si>
+    <t>crop yoga jacket</t>
+  </si>
+  <si>
+    <t>women two piece outfits sets</t>
+  </si>
+  <si>
+    <t>body suit for women</t>
+  </si>
+  <si>
+    <t>workout 2 piece sets for women</t>
+  </si>
+  <si>
+    <t>workout zip up women</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF51F35A-5D89-4D80-BA7D-9E3C6544BF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C606288-3FEF-4124-862C-0C87F70A213C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>womens track suit set</t>
-  </si>
-  <si>
-    <t>black legging shirts</t>
-  </si>
-  <si>
-    <t>workout clothes for women tees</t>
-  </si>
-  <si>
-    <t>workout two piece sets for women</t>
-  </si>
-  <si>
-    <t>matching sweatsuit women</t>
-  </si>
-  <si>
-    <t>exercise outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>modern goods shop</t>
-  </si>
-  <si>
-    <t>2 piece jogger suits for women</t>
-  </si>
-  <si>
-    <t>women tight joggers</t>
-  </si>
-  <si>
-    <t>cute work out pants</t>
-  </si>
-  <si>
-    <t>2 piece legging sets for women</t>
-  </si>
-  <si>
-    <t>work outfits for women gym</t>
-  </si>
-  <si>
-    <t>outfits for women 2 piece sets</t>
-  </si>
-  <si>
-    <t>joggers set for women 2 piece</t>
-  </si>
-  <si>
-    <t>warm up suits for women 2 pieces</t>
-  </si>
-  <si>
-    <t>blue track suits for women set</t>
-  </si>
-  <si>
-    <t>bowling compression sleeve</t>
-  </si>
-  <si>
-    <t>yoga outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>llaveros pink victoria secret</t>
-  </si>
-  <si>
-    <t>sports legging</t>
-  </si>
-  <si>
-    <t>yoga outfits for women</t>
-  </si>
-  <si>
-    <t>tennis outfits for women</t>
-  </si>
-  <si>
-    <t>bodybuilding women</t>
-  </si>
-  <si>
-    <t>turquoise crop top</t>
-  </si>
-  <si>
-    <t>leg compression sleeves women</t>
-  </si>
-  <si>
-    <t>woman tracksuits</t>
-  </si>
-  <si>
-    <t>womens athletic jacket</t>
-  </si>
-  <si>
-    <t>fitness outfits for women set</t>
-  </si>
-  <si>
-    <t>women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>womens shirts for leggings</t>
-  </si>
-  <si>
-    <t>womens legging sets</t>
-  </si>
-  <si>
-    <t>leggings sexy</t>
-  </si>
-  <si>
-    <t>womens leggings shirts</t>
-  </si>
-  <si>
-    <t>female outfits</t>
-  </si>
-  <si>
-    <t>workout sets for women</t>
-  </si>
-  <si>
-    <t>workout clothing</t>
-  </si>
-  <si>
-    <t>workout clothing for women</t>
-  </si>
-  <si>
-    <t>gym outfits</t>
-  </si>
-  <si>
-    <t>leggings and top set for women</t>
-  </si>
-  <si>
-    <t>exercise shirts for women</t>
-  </si>
-  <si>
-    <t>fitness clothing</t>
-  </si>
-  <si>
-    <t>workout shirt women</t>
-  </si>
-  <si>
-    <t>exercise shirt for women</t>
-  </si>
-  <si>
-    <t>sweater crop top</t>
-  </si>
-  <si>
-    <t>blue two piece outfits for women</t>
-  </si>
-  <si>
-    <t>running leg compression sleeves</t>
-  </si>
-  <si>
-    <t>exercise charts for women</t>
-  </si>
-  <si>
-    <t>womens yoga clothes</t>
-  </si>
-  <si>
-    <t>2 piece workout outfits for women</t>
-  </si>
-  <si>
-    <t>legging shirts for women</t>
-  </si>
-  <si>
-    <t>workout bodysuit for women</t>
-  </si>
-  <si>
-    <t>bowling shirts for women</t>
-  </si>
-  <si>
-    <t>black sweater crop top</t>
-  </si>
-  <si>
-    <t>two piece sweater sets for women</t>
-  </si>
-  <si>
-    <t>plus size victoria secret pink clothing</t>
-  </si>
-  <si>
-    <t>ribbed crop tops for women</t>
-  </si>
-  <si>
-    <t>seamless leggings for women workout</t>
-  </si>
-  <si>
-    <t>womens tracksuit</t>
-  </si>
-  <si>
-    <t>2 piece sets</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop tops for women</t>
-  </si>
-  <si>
-    <t>compression tights for women</t>
-  </si>
-  <si>
-    <t>women matching sets outfits</t>
-  </si>
-  <si>
-    <t>woman outfits</t>
-  </si>
-  <si>
-    <t>exercise outfits for women</t>
-  </si>
-  <si>
-    <t>athletic jacket women</t>
-  </si>
-  <si>
-    <t>athletic outfits for women</t>
-  </si>
-  <si>
-    <t>crop jackets for women</t>
-  </si>
-  <si>
-    <t>compression yoga leggings</t>
-  </si>
-  <si>
-    <t>gym zip up</t>
-  </si>
-  <si>
-    <t>colorful jackets for women</t>
-  </si>
-  <si>
-    <t>outfit sets for women</t>
-  </si>
-  <si>
-    <t>seamless workout leggings</t>
-  </si>
-  <si>
-    <t>misses tops</t>
-  </si>
-  <si>
-    <t>fashionable sweaters for women</t>
-  </si>
-  <si>
-    <t>bodybuilding long sleeve shirts</t>
-  </si>
-  <si>
-    <t>sport clothes for women</t>
-  </si>
-  <si>
-    <t>women sport leggings</t>
-  </si>
-  <si>
-    <t>womens winter tops</t>
-  </si>
-  <si>
-    <t>cute crop tops for women</t>
-  </si>
-  <si>
-    <t>crop workout tops for women</t>
-  </si>
-  <si>
-    <t>compression leg warmers</t>
-  </si>
-  <si>
-    <t>leggings set</t>
-  </si>
-  <si>
-    <t>womans clothing</t>
-  </si>
-  <si>
-    <t>two piece activewear for women</t>
-  </si>
-  <si>
-    <t>sexy jogging suits for women</t>
-  </si>
-  <si>
-    <t>workout set women</t>
-  </si>
-  <si>
-    <t>womens clothing sets</t>
-  </si>
-  <si>
-    <t>women clothing outfits</t>
-  </si>
-  <si>
-    <t>womens clothes winter</t>
-  </si>
-  <si>
-    <t>exercise gym suit</t>
-  </si>
-  <si>
-    <t>compression top for women</t>
-  </si>
-  <si>
-    <t>sexy yoga set</t>
-  </si>
-  <si>
-    <t>crop jacket women</t>
-  </si>
-  <si>
-    <t>crop tops workout for women</t>
-  </si>
-  <si>
-    <t>outfit set women</t>
-  </si>
-  <si>
-    <t>black out</t>
-  </si>
-  <si>
-    <t>legging sport</t>
-  </si>
-  <si>
-    <t>cropped leggings</t>
-  </si>
-  <si>
-    <t>with leggings</t>
+    <t>women long sleeve activewear</t>
+  </si>
+  <si>
+    <t>sport outfit for women</t>
+  </si>
+  <si>
+    <t>sexy clothes for women</t>
+  </si>
+  <si>
+    <t>finger yoga</t>
+  </si>
+  <si>
+    <t>sportswear suit</t>
+  </si>
+  <si>
+    <t>long sleeve workout tops</t>
+  </si>
+  <si>
+    <t>gym clothing women</t>
+  </si>
+  <si>
+    <t>crop top long sleeve</t>
+  </si>
+  <si>
+    <t>crop top outfits for women</t>
+  </si>
+  <si>
+    <t>crop top pack</t>
+  </si>
+  <si>
+    <t>crop top with pants</t>
+  </si>
+  <si>
+    <t>workout tops crop</t>
+  </si>
+  <si>
+    <t>active wear outfits for women</t>
+  </si>
+  <si>
+    <t>adidas women jogging suits sets</t>
+  </si>
+  <si>
+    <t>ladies suits for work</t>
+  </si>
+  <si>
+    <t>womens long sleeve compression shirt</t>
+  </si>
+  <si>
+    <t>pink victoria secret t shirts</t>
+  </si>
+  <si>
+    <t>suits for women sport</t>
+  </si>
+  <si>
+    <t>womens suits for work</t>
+  </si>
+  <si>
+    <t>winter clothing for women</t>
+  </si>
+  <si>
+    <t>sexy workout leggings</t>
+  </si>
+  <si>
+    <t>athletic long sleeve women</t>
+  </si>
+  <si>
+    <t>suit shirts for women</t>
+  </si>
+  <si>
+    <t>cropped sleeve shirt</t>
+  </si>
+  <si>
+    <t>two piece set for women</t>
+  </si>
+  <si>
+    <t>gym suit</t>
+  </si>
+  <si>
+    <t>womans tracksuit set</t>
+  </si>
+  <si>
+    <t>crop top high waist pants set</t>
+  </si>
+  <si>
+    <t>workout long sleeve tops</t>
+  </si>
+  <si>
+    <t>shirts and leggings for women</t>
+  </si>
+  <si>
+    <t>body works gym</t>
+  </si>
+  <si>
+    <t>zip up bodysuit</t>
+  </si>
+  <si>
+    <t>women's sweatsuits sets</t>
+  </si>
+  <si>
+    <t>adidas sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>pink tracksuit women</t>
+  </si>
+  <si>
+    <t>victoria s secret pink clothing</t>
+  </si>
+  <si>
+    <t>cute jogging suits for women</t>
+  </si>
+  <si>
+    <t>sexy sweat suits for women</t>
+  </si>
+  <si>
+    <t>black gym shirt</t>
+  </si>
+  <si>
+    <t>pink bowling shirt</t>
+  </si>
+  <si>
+    <t>two piece outfits for women black</t>
+  </si>
+  <si>
+    <t>female gym suits</t>
+  </si>
+  <si>
+    <t>cropped black long sleeve</t>
+  </si>
+  <si>
+    <t>womens crop workout</t>
+  </si>
+  <si>
+    <t>compression sweat suit</t>
+  </si>
+  <si>
+    <t>crop top with zipper</t>
+  </si>
+  <si>
+    <t>black sweatsuits for women</t>
+  </si>
+  <si>
+    <t>distressed sweat suit women</t>
+  </si>
+  <si>
+    <t>crop tops for women pink</t>
+  </si>
+  <si>
+    <t>pink victoria secret leggins</t>
+  </si>
+  <si>
+    <t>pink victoria secret cup</t>
+  </si>
+  <si>
+    <t>2 piece outfits for women black</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing underwear</t>
+  </si>
+  <si>
+    <t>long sleeve women workout tops</t>
+  </si>
+  <si>
+    <t>leggins victoria secret pink</t>
+  </si>
+  <si>
+    <t>xxl pink victoria secret</t>
+  </si>
+  <si>
+    <t>women black workout shirt</t>
+  </si>
+  <si>
+    <t>work out clothing sets</t>
+  </si>
+  <si>
+    <t>clothing sport for women</t>
+  </si>
+  <si>
+    <t>adidas women sweat suits</t>
+  </si>
+  <si>
+    <t>2 piece victoria secret pink clothing</t>
+  </si>
+  <si>
+    <t>pink workout outfits for women</t>
+  </si>
+  <si>
+    <t>pink athletic sleeves</t>
+  </si>
+  <si>
+    <t>workout leggings for women pink</t>
+  </si>
+  <si>
+    <t>crop top suit for women</t>
+  </si>
+  <si>
+    <t>blue womens suit set</t>
+  </si>
+  <si>
+    <t>womens fashion sweat suit</t>
+  </si>
+  <si>
+    <t>long sleeve crop top pack</t>
+  </si>
+  <si>
+    <t>long sleeve crop top winter</t>
+  </si>
+  <si>
+    <t>pink bodysuit for women long sleeve</t>
+  </si>
+  <si>
+    <t>gym clothes for women crop top</t>
+  </si>
+  <si>
+    <t>womens sweat suits 2 piece with hoodie</t>
+  </si>
+  <si>
+    <t>women clothing sets outfits</t>
+  </si>
+  <si>
+    <t>women's yoga gym crop top compression workout athletic long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sweat for women 2 piece</t>
+  </si>
+  <si>
+    <t>haodian workout set</t>
+  </si>
+  <si>
+    <t>women's sports clothing</t>
+  </si>
+  <si>
+    <t>jogging suits 2 pieces set</t>
+  </si>
+  <si>
+    <t>women's sweat suits 2 piece</t>
+  </si>
+  <si>
+    <t>womens sport workout zip up long sleeve</t>
+  </si>
+  <si>
+    <t>hanes sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>gym workout legging</t>
+  </si>
+  <si>
+    <t>black gym legging</t>
+  </si>
+  <si>
+    <t>pink workout tight</t>
+  </si>
+  <si>
+    <t>soft outfit</t>
+  </si>
+  <si>
+    <t>green black outfit</t>
+  </si>
+  <si>
+    <t>blue 2 piece outfit</t>
+  </si>
+  <si>
+    <t>black blue pant</t>
+  </si>
+  <si>
+    <t>black winter pant</t>
+  </si>
+  <si>
+    <t>blue tracksuit set</t>
+  </si>
+  <si>
+    <t>blue 2 piece</t>
+  </si>
+  <si>
+    <t>pink legging top</t>
+  </si>
+  <si>
+    <t>ribbed yoga legging</t>
+  </si>
+  <si>
+    <t>seamless ribbed top</t>
+  </si>
+  <si>
+    <t>winter workout legging</t>
+  </si>
+  <si>
+    <t>track legging</t>
+  </si>
+  <si>
+    <t>seamless ribbed legging</t>
+  </si>
+  <si>
+    <t>workout pant top woman</t>
+  </si>
+  <si>
+    <t>black workout jogger</t>
+  </si>
+  <si>
+    <t>woman pant top black</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -651,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,27 +1166,30 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C606288-3FEF-4124-862C-0C87F70A213C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6F5A7-0F1C-4356-975C-41000CFF242D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>women long sleeve activewear</t>
-  </si>
-  <si>
-    <t>sport outfit for women</t>
-  </si>
-  <si>
-    <t>sexy clothes for women</t>
-  </si>
-  <si>
-    <t>finger yoga</t>
-  </si>
-  <si>
-    <t>sportswear suit</t>
-  </si>
-  <si>
-    <t>long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>gym clothing women</t>
-  </si>
-  <si>
-    <t>crop top long sleeve</t>
-  </si>
-  <si>
-    <t>crop top outfits for women</t>
-  </si>
-  <si>
-    <t>crop top pack</t>
-  </si>
-  <si>
-    <t>crop top with pants</t>
-  </si>
-  <si>
-    <t>workout tops crop</t>
-  </si>
-  <si>
-    <t>active wear outfits for women</t>
-  </si>
-  <si>
-    <t>adidas women jogging suits sets</t>
-  </si>
-  <si>
-    <t>ladies suits for work</t>
-  </si>
-  <si>
-    <t>womens long sleeve compression shirt</t>
-  </si>
-  <si>
-    <t>pink victoria secret t shirts</t>
-  </si>
-  <si>
-    <t>suits for women sport</t>
-  </si>
-  <si>
-    <t>womens suits for work</t>
-  </si>
-  <si>
-    <t>winter clothing for women</t>
-  </si>
-  <si>
-    <t>sexy workout leggings</t>
-  </si>
-  <si>
-    <t>athletic long sleeve women</t>
-  </si>
-  <si>
-    <t>suit shirts for women</t>
-  </si>
-  <si>
-    <t>cropped sleeve shirt</t>
-  </si>
-  <si>
-    <t>two piece set for women</t>
-  </si>
-  <si>
-    <t>gym suit</t>
-  </si>
-  <si>
-    <t>womans tracksuit set</t>
-  </si>
-  <si>
-    <t>crop top high waist pants set</t>
-  </si>
-  <si>
-    <t>workout long sleeve tops</t>
-  </si>
-  <si>
-    <t>shirts and leggings for women</t>
-  </si>
-  <si>
-    <t>body works gym</t>
-  </si>
-  <si>
-    <t>zip up bodysuit</t>
-  </si>
-  <si>
-    <t>women's sweatsuits sets</t>
-  </si>
-  <si>
-    <t>adidas sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>pink tracksuit women</t>
-  </si>
-  <si>
-    <t>victoria s secret pink clothing</t>
-  </si>
-  <si>
-    <t>cute jogging suits for women</t>
-  </si>
-  <si>
-    <t>sexy sweat suits for women</t>
-  </si>
-  <si>
-    <t>black gym shirt</t>
-  </si>
-  <si>
-    <t>pink bowling shirt</t>
-  </si>
-  <si>
-    <t>two piece outfits for women black</t>
-  </si>
-  <si>
-    <t>female gym suits</t>
-  </si>
-  <si>
-    <t>cropped black long sleeve</t>
-  </si>
-  <si>
-    <t>womens crop workout</t>
-  </si>
-  <si>
-    <t>compression sweat suit</t>
-  </si>
-  <si>
-    <t>crop top with zipper</t>
-  </si>
-  <si>
-    <t>black sweatsuits for women</t>
-  </si>
-  <si>
-    <t>distressed sweat suit women</t>
-  </si>
-  <si>
-    <t>crop tops for women pink</t>
-  </si>
-  <si>
-    <t>pink victoria secret leggins</t>
-  </si>
-  <si>
-    <t>pink victoria secret cup</t>
-  </si>
-  <si>
-    <t>2 piece outfits for women black</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing underwear</t>
-  </si>
-  <si>
-    <t>long sleeve women workout tops</t>
-  </si>
-  <si>
-    <t>leggins victoria secret pink</t>
-  </si>
-  <si>
-    <t>xxl pink victoria secret</t>
-  </si>
-  <si>
-    <t>women black workout shirt</t>
-  </si>
-  <si>
-    <t>work out clothing sets</t>
-  </si>
-  <si>
-    <t>clothing sport for women</t>
-  </si>
-  <si>
-    <t>adidas women sweat suits</t>
-  </si>
-  <si>
-    <t>2 piece victoria secret pink clothing</t>
-  </si>
-  <si>
-    <t>pink workout outfits for women</t>
-  </si>
-  <si>
-    <t>pink athletic sleeves</t>
-  </si>
-  <si>
-    <t>workout leggings for women pink</t>
-  </si>
-  <si>
-    <t>crop top suit for women</t>
-  </si>
-  <si>
-    <t>blue womens suit set</t>
-  </si>
-  <si>
-    <t>womens fashion sweat suit</t>
-  </si>
-  <si>
-    <t>long sleeve crop top pack</t>
-  </si>
-  <si>
-    <t>long sleeve crop top winter</t>
-  </si>
-  <si>
-    <t>pink bodysuit for women long sleeve</t>
-  </si>
-  <si>
-    <t>gym clothes for women crop top</t>
-  </si>
-  <si>
-    <t>womens sweat suits 2 piece with hoodie</t>
-  </si>
-  <si>
-    <t>women clothing sets outfits</t>
-  </si>
-  <si>
-    <t>women's yoga gym crop top compression workout athletic long sleeve shirt</t>
-  </si>
-  <si>
-    <t>sweat for women 2 piece</t>
-  </si>
-  <si>
-    <t>haodian workout set</t>
-  </si>
-  <si>
-    <t>women's sports clothing</t>
-  </si>
-  <si>
-    <t>jogging suits 2 pieces set</t>
-  </si>
-  <si>
-    <t>women's sweat suits 2 piece</t>
-  </si>
-  <si>
-    <t>womens sport workout zip up long sleeve</t>
-  </si>
-  <si>
-    <t>hanes sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>gym workout legging</t>
-  </si>
-  <si>
-    <t>black gym legging</t>
-  </si>
-  <si>
-    <t>pink workout tight</t>
-  </si>
-  <si>
-    <t>soft outfit</t>
-  </si>
-  <si>
-    <t>green black outfit</t>
-  </si>
-  <si>
-    <t>blue 2 piece outfit</t>
-  </si>
-  <si>
-    <t>black blue pant</t>
-  </si>
-  <si>
-    <t>black winter pant</t>
-  </si>
-  <si>
-    <t>blue tracksuit set</t>
-  </si>
-  <si>
-    <t>blue 2 piece</t>
-  </si>
-  <si>
-    <t>pink legging top</t>
-  </si>
-  <si>
-    <t>ribbed yoga legging</t>
-  </si>
-  <si>
-    <t>seamless ribbed top</t>
-  </si>
-  <si>
-    <t>winter workout legging</t>
-  </si>
-  <si>
-    <t>track legging</t>
-  </si>
-  <si>
-    <t>seamless ribbed legging</t>
-  </si>
-  <si>
-    <t>workout pant top woman</t>
-  </si>
-  <si>
-    <t>black workout jogger</t>
-  </si>
-  <si>
-    <t>woman pant top black</t>
+    <t>bodybuilding clothe</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>blue workout legging</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>black workout legging</t>
+  </si>
+  <si>
+    <t>blue clothe</t>
+  </si>
+  <si>
+    <t>shirt legging</t>
+  </si>
+  <si>
+    <t>pink tight</t>
+  </si>
+  <si>
+    <t>skinny outfit</t>
+  </si>
+  <si>
+    <t>clothing set outfit</t>
+  </si>
+  <si>
+    <t>clothing outfit</t>
+  </si>
+  <si>
+    <t>blue pant</t>
+  </si>
+  <si>
+    <t>winter pant</t>
+  </si>
+  <si>
+    <t>legging with</t>
+  </si>
+  <si>
+    <t>black shirt legging</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>black blue legging</t>
+  </si>
+  <si>
+    <t>clothe shirt</t>
+  </si>
+  <si>
+    <t>work tight</t>
+  </si>
+  <si>
+    <t>track tight</t>
+  </si>
+  <si>
+    <t>pink 2 piece outfit</t>
+  </si>
+  <si>
+    <t>pink 2 piece set</t>
+  </si>
+  <si>
+    <t>long tight</t>
+  </si>
+  <si>
+    <t>work out tight</t>
+  </si>
+  <si>
+    <t>soft athletic legging</t>
+  </si>
+  <si>
+    <t>legging long sleeve top set</t>
+  </si>
+  <si>
+    <t>black top legging</t>
+  </si>
+  <si>
+    <t>black crop legging</t>
+  </si>
+  <si>
+    <t>long sleeve 2 piece set</t>
+  </si>
+  <si>
+    <t>green athletic legging</t>
+  </si>
+  <si>
+    <t>soft sleeve</t>
+  </si>
+  <si>
+    <t>long black legging</t>
+  </si>
+  <si>
+    <t>black green legging</t>
+  </si>
+  <si>
+    <t>matching legging</t>
+  </si>
+  <si>
+    <t>exercise black legging</t>
+  </si>
+  <si>
+    <t>soft black legging</t>
+  </si>
+  <si>
+    <t>soft black</t>
+  </si>
+  <si>
+    <t>blue black tight</t>
+  </si>
+  <si>
+    <t>blue workout pant</t>
+  </si>
+  <si>
+    <t>black workout tight</t>
+  </si>
+  <si>
+    <t>blue 2 piece set</t>
+  </si>
+  <si>
+    <t>matching crop top pant set</t>
+  </si>
+  <si>
+    <t>black winter outfit</t>
+  </si>
+  <si>
+    <t>winter workout pant</t>
+  </si>
+  <si>
+    <t>2 piece pant outfit</t>
+  </si>
+  <si>
+    <t>black tight set</t>
+  </si>
+  <si>
+    <t>black winter tight</t>
+  </si>
+  <si>
+    <t>black tight pant</t>
+  </si>
+  <si>
+    <t>2 piece matching pant set</t>
+  </si>
+  <si>
+    <t>size top</t>
+  </si>
+  <si>
+    <t>winter crop</t>
+  </si>
+  <si>
+    <t>winter yoga top</t>
+  </si>
+  <si>
+    <t>seamless ribbed crop top</t>
+  </si>
+  <si>
+    <t>top with legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless</t>
+  </si>
+  <si>
+    <t>legging size small</t>
+  </si>
+  <si>
+    <t>pink long</t>
+  </si>
+  <si>
+    <t>pink seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed seamless legging</t>
+  </si>
+  <si>
+    <t>ribbed workout top</t>
+  </si>
+  <si>
+    <t>small legging</t>
+  </si>
+  <si>
+    <t>pink 2 piece</t>
+  </si>
+  <si>
+    <t>ribbed workout legging</t>
+  </si>
+  <si>
+    <t>pink workout legging</t>
+  </si>
+  <si>
+    <t>pink yoga legging</t>
+  </si>
+  <si>
+    <t>fashionable pant</t>
+  </si>
+  <si>
+    <t>black suit set woman</t>
+  </si>
+  <si>
+    <t>woman clothe jogger</t>
+  </si>
+  <si>
+    <t>suit piece woman</t>
+  </si>
+  <si>
+    <t>clothe woman crop top</t>
+  </si>
+  <si>
+    <t>workout clothe woman pant</t>
+  </si>
+  <si>
+    <t>suit clothe</t>
+  </si>
+  <si>
+    <t>high top pant woman</t>
+  </si>
+  <si>
+    <t>black pant set woman</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
+  </si>
+  <si>
+    <t>2 piece pant woman</t>
+  </si>
+  <si>
+    <t>black apparel woman</t>
+  </si>
+  <si>
+    <t>green black clothe</t>
+  </si>
+  <si>
+    <t>crop top suit woman</t>
+  </si>
+  <si>
+    <t>waist black</t>
+  </si>
+  <si>
+    <t>suit top woman</t>
+  </si>
+  <si>
+    <t>black set woman</t>
+  </si>
+  <si>
+    <t>small pant woman</t>
+  </si>
+  <si>
+    <t>green pant woman high waist</t>
+  </si>
+  <si>
+    <t>green jogger set woman</t>
+  </si>
+  <si>
+    <t>workout pant set</t>
+  </si>
+  <si>
+    <t>workout jogger pant</t>
+  </si>
+  <si>
+    <t>fashionable jogger woman</t>
+  </si>
+  <si>
+    <t>crop workout pant</t>
+  </si>
+  <si>
+    <t>crop set woman</t>
+  </si>
+  <si>
+    <t>black jogger suit woman</t>
+  </si>
+  <si>
+    <t>woman apparel top</t>
+  </si>
+  <si>
+    <t>suit 2</t>
+  </si>
+  <si>
+    <t>small green</t>
+  </si>
+  <si>
+    <t>small crop top woman</t>
+  </si>
+  <si>
+    <t>green jogger pant</t>
+  </si>
+  <si>
+    <t>black crop woman</t>
+  </si>
+  <si>
+    <t>2 piece pant</t>
+  </si>
+  <si>
+    <t>crop jogger set woman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -679,335 +651,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -1166,30 +1138,28 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BR001-BRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FF7EA3-4945-4956-B02E-FD81696567F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F381ACC9-7CF8-4E10-88BF-41B794A23AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08MPM2BB2" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,142 +25,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>cross sport bra</t>
-  </si>
-  <si>
-    <t>low back sport bra</t>
-  </si>
-  <si>
-    <t>back front</t>
-  </si>
-  <si>
-    <t>sport bra cup</t>
-  </si>
-  <si>
-    <t>cross front sport bra</t>
-  </si>
-  <si>
-    <t>criss cross back sport bra</t>
-  </si>
-  <si>
-    <t>criss cross front sport bra</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>green workout</t>
+  </si>
+  <si>
+    <t>green black top woman</t>
+  </si>
+  <si>
+    <t>black 2 piece woman</t>
+  </si>
+  <si>
+    <t>green set woman</t>
+  </si>
+  <si>
+    <t>green workout pant woman</t>
+  </si>
+  <si>
+    <t>black workout clothe</t>
+  </si>
+  <si>
+    <t>green black workout set</t>
+  </si>
+  <si>
+    <t>top woman set</t>
+  </si>
+  <si>
+    <t>jogger pant set woman</t>
+  </si>
+  <si>
+    <t>woman workout crop</t>
+  </si>
+  <si>
+    <t>woman high</t>
+  </si>
+  <si>
+    <t>fashionable workout clothe woman</t>
+  </si>
+  <si>
+    <t>black green pant</t>
+  </si>
+  <si>
+    <t>woman clothe top</t>
+  </si>
+  <si>
+    <t>jogger woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant jogger woman</t>
+  </si>
+  <si>
+    <t>tight 2 piece outfit</t>
+  </si>
+  <si>
+    <t>with tight</t>
+  </si>
+  <si>
+    <t>compression clothe</t>
+  </si>
+  <si>
+    <t>seamless yoga top</t>
+  </si>
+  <si>
+    <t>workout legging top</t>
+  </si>
+  <si>
+    <t>seamless tracksuit</t>
+  </si>
+  <si>
+    <t>long yoga legging</t>
+  </si>
+  <si>
+    <t>legging 2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 legging</t>
   </si>
   <si>
     <t>ready pard</t>
   </si>
   <si>
-    <t>removable bra cup</t>
-  </si>
-  <si>
-    <t>back cup</t>
-  </si>
-  <si>
-    <t>low sport bra</t>
-  </si>
-  <si>
-    <t>yoga strappy sport bra</t>
-  </si>
-  <si>
-    <t>yoga sport bra top</t>
-  </si>
-  <si>
-    <t>black strappy sport bra</t>
-  </si>
-  <si>
-    <t>black yoga sport bra</t>
-  </si>
-  <si>
-    <t>s with</t>
-  </si>
-  <si>
-    <t>black bra cup</t>
-  </si>
-  <si>
-    <t>black sport bra top</t>
-  </si>
-  <si>
-    <t>yoga m</t>
-  </si>
-  <si>
-    <t>yoga l</t>
-  </si>
-  <si>
-    <t>line sport</t>
-  </si>
-  <si>
-    <t>sport green</t>
-  </si>
-  <si>
-    <t>workout s</t>
-  </si>
-  <si>
-    <t>wirefree sport bra</t>
-  </si>
-  <si>
-    <t>strappy padded sport bra</t>
-  </si>
-  <si>
-    <t>workout long bra</t>
-  </si>
-  <si>
-    <t>green strappy sport bra</t>
-  </si>
-  <si>
-    <t>green sport bra padded</t>
-  </si>
-  <si>
-    <t>wirefree criss cross bra</t>
-  </si>
-  <si>
-    <t>green workout</t>
-  </si>
-  <si>
-    <t>xl sport bra</t>
-  </si>
-  <si>
-    <t>bralette sport bra</t>
-  </si>
-  <si>
-    <t>gym yoga top</t>
-  </si>
-  <si>
-    <t>cute s</t>
-  </si>
-  <si>
-    <t>longline sport bra top</t>
-  </si>
-  <si>
-    <t>longline bralette top</t>
-  </si>
-  <si>
-    <t>strappy longline sport bra</t>
-  </si>
-  <si>
-    <t>pink wireless</t>
-  </si>
-  <si>
-    <t>wireless s</t>
-  </si>
-  <si>
-    <t>cute yoga top</t>
-  </si>
-  <si>
-    <t>longline yoga top</t>
-  </si>
-  <si>
-    <t>pink sport top</t>
-  </si>
-  <si>
-    <t>pink longline sport bra</t>
+    <t>2 top</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless</t>
+  </si>
+  <si>
+    <t>high yoga legging</t>
+  </si>
+  <si>
+    <t>ready 2</t>
+  </si>
+  <si>
+    <t>bodybuilding apparel</t>
+  </si>
+  <si>
+    <t>women jogging sets</t>
+  </si>
+  <si>
+    <t>workout bodysuit</t>
+  </si>
+  <si>
+    <t>work out clothes</t>
+  </si>
+  <si>
+    <t>yoga suits</t>
+  </si>
+  <si>
+    <t>yoga long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women under armour</t>
+  </si>
+  <si>
+    <t>crop long sleeve</t>
+  </si>
+  <si>
+    <t>workout leggings and top</t>
+  </si>
+  <si>
+    <t>womens activewear long sleeve</t>
+  </si>
+  <si>
+    <t>zip up crop top</t>
+  </si>
+  <si>
+    <t>gym outfit set</t>
+  </si>
+  <si>
+    <t>black outfit set</t>
+  </si>
+  <si>
+    <t>cropped shirt</t>
+  </si>
+  <si>
+    <t>top fashion</t>
+  </si>
+  <si>
+    <t>2 piece yoga outfit</t>
+  </si>
+  <si>
+    <t>exercise tights</t>
+  </si>
+  <si>
+    <t>workout long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>seamless shirts for women</t>
+  </si>
+  <si>
+    <t>woman gym leggings</t>
+  </si>
+  <si>
+    <t>yoga long sleeve</t>
+  </si>
+  <si>
+    <t>blue crop top set</t>
+  </si>
+  <si>
+    <t>activewear for women sets</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout shirt</t>
+  </si>
+  <si>
+    <t>track crop top</t>
+  </si>
+  <si>
+    <t>long sleeve workout</t>
+  </si>
+  <si>
+    <t>2 piece shirt</t>
+  </si>
+  <si>
+    <t>2 piece crop set</t>
+  </si>
+  <si>
+    <t>high waist long leggings</t>
+  </si>
+  <si>
+    <t>women jogging suits</t>
+  </si>
+  <si>
+    <t>blue workout shirt</t>
+  </si>
+  <si>
+    <t>green woman</t>
+  </si>
+  <si>
+    <t>tight pink shirt</t>
+  </si>
+  <si>
+    <t>pink workout crop top</t>
+  </si>
+  <si>
+    <t>tight workout shirt</t>
+  </si>
+  <si>
+    <t>winter long sleeve</t>
+  </si>
+  <si>
+    <t>matching crop top</t>
+  </si>
+  <si>
+    <t>zip up compression</t>
+  </si>
+  <si>
+    <t>pink ribbed crop top</t>
+  </si>
+  <si>
+    <t>women warm up sets</t>
+  </si>
+  <si>
+    <t>winter sweatsuit</t>
+  </si>
+  <si>
+    <t>green jogger set</t>
+  </si>
+  <si>
+    <t>winter workout top</t>
+  </si>
+  <si>
+    <t>victoria secret exercise clothes</t>
+  </si>
+  <si>
+    <t>black suit pant</t>
+  </si>
+  <si>
+    <t>pink sports sleeve</t>
+  </si>
+  <si>
+    <t>black yoga outfit</t>
+  </si>
+  <si>
+    <t>athletic legging set</t>
+  </si>
+  <si>
+    <t>blue outfit set</t>
+  </si>
+  <si>
+    <t>tight pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>tight pink long sleeve</t>
+  </si>
+  <si>
+    <t>cute tracksuit sets for women</t>
+  </si>
+  <si>
+    <t>super soft leggings for women</t>
+  </si>
+  <si>
+    <t>blue tight top</t>
+  </si>
+  <si>
+    <t>blue tight crop top</t>
+  </si>
+  <si>
+    <t>one piece workout outfit for women</t>
+  </si>
+  <si>
+    <t>sweat suits for women cotton</t>
+  </si>
+  <si>
+    <t>womens athletic clothing</t>
+  </si>
+  <si>
+    <t>leggings gym</t>
+  </si>
+  <si>
+    <t>long shirts</t>
+  </si>
+  <si>
+    <t>gym tights for women</t>
+  </si>
+  <si>
+    <t>women workout sets clothes</t>
+  </si>
+  <si>
+    <t>suit shirt</t>
+  </si>
+  <si>
+    <t>crop yoga top</t>
+  </si>
+  <si>
+    <t>cheap gym clothes</t>
+  </si>
+  <si>
+    <t>ribbed fabric</t>
+  </si>
+  <si>
+    <t>gym workout clothes</t>
+  </si>
+  <si>
+    <t>skinny shirts for women</t>
+  </si>
+  <si>
+    <t>crop top pants suit</t>
+  </si>
+  <si>
+    <t>pink crop top long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -478,9 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -699,8 +900,296 @@
         <v>42</v>
       </c>
     </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F381ACC9-7CF8-4E10-88BF-41B794A23AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0FC3C-D5E5-413C-AD5F-6A8D3244CC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>green workout</t>
-  </si>
-  <si>
-    <t>green black top woman</t>
-  </si>
-  <si>
-    <t>black 2 piece woman</t>
-  </si>
-  <si>
-    <t>green set woman</t>
-  </si>
-  <si>
-    <t>green workout pant woman</t>
-  </si>
-  <si>
-    <t>black workout clothe</t>
-  </si>
-  <si>
-    <t>green black workout set</t>
-  </si>
-  <si>
-    <t>top woman set</t>
-  </si>
-  <si>
-    <t>jogger pant set woman</t>
-  </si>
-  <si>
-    <t>woman workout crop</t>
-  </si>
-  <si>
-    <t>woman high</t>
-  </si>
-  <si>
-    <t>fashionable workout clothe woman</t>
-  </si>
-  <si>
-    <t>black green pant</t>
-  </si>
-  <si>
-    <t>woman clothe top</t>
-  </si>
-  <si>
-    <t>jogger woman 2 piece</t>
-  </si>
-  <si>
-    <t>workout pant jogger woman</t>
-  </si>
-  <si>
-    <t>tight 2 piece outfit</t>
-  </si>
-  <si>
-    <t>with tight</t>
-  </si>
-  <si>
-    <t>compression clothe</t>
-  </si>
-  <si>
-    <t>seamless yoga top</t>
-  </si>
-  <si>
-    <t>workout legging top</t>
-  </si>
-  <si>
-    <t>seamless tracksuit</t>
-  </si>
-  <si>
-    <t>long yoga legging</t>
-  </si>
-  <si>
-    <t>legging 2 piece outfit</t>
-  </si>
-  <si>
-    <t>2 legging</t>
-  </si>
-  <si>
-    <t>ready pard</t>
-  </si>
-  <si>
-    <t>2 top</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless</t>
-  </si>
-  <si>
-    <t>high yoga legging</t>
-  </si>
-  <si>
-    <t>ready 2</t>
-  </si>
-  <si>
-    <t>bodybuilding apparel</t>
-  </si>
-  <si>
-    <t>women jogging sets</t>
-  </si>
-  <si>
-    <t>workout bodysuit</t>
-  </si>
-  <si>
-    <t>work out clothes</t>
-  </si>
-  <si>
-    <t>yoga suits</t>
-  </si>
-  <si>
-    <t>yoga long sleeve tops for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women under armour</t>
-  </si>
-  <si>
-    <t>crop long sleeve</t>
-  </si>
-  <si>
-    <t>workout leggings and top</t>
-  </si>
-  <si>
-    <t>womens activewear long sleeve</t>
-  </si>
-  <si>
-    <t>zip up crop top</t>
-  </si>
-  <si>
-    <t>gym outfit set</t>
-  </si>
-  <si>
-    <t>black outfit set</t>
-  </si>
-  <si>
-    <t>cropped shirt</t>
-  </si>
-  <si>
-    <t>top fashion</t>
-  </si>
-  <si>
-    <t>2 piece yoga outfit</t>
-  </si>
-  <si>
-    <t>exercise tights</t>
-  </si>
-  <si>
-    <t>workout long sleeve tops for women</t>
-  </si>
-  <si>
-    <t>seamless shirts for women</t>
-  </si>
-  <si>
-    <t>woman gym leggings</t>
-  </si>
-  <si>
-    <t>yoga long sleeve</t>
-  </si>
-  <si>
-    <t>blue crop top set</t>
-  </si>
-  <si>
-    <t>activewear for women sets</t>
-  </si>
-  <si>
-    <t>long sleeve crop workout shirt</t>
-  </si>
-  <si>
-    <t>track crop top</t>
-  </si>
-  <si>
-    <t>long sleeve workout</t>
-  </si>
-  <si>
-    <t>2 piece shirt</t>
-  </si>
-  <si>
-    <t>2 piece crop set</t>
-  </si>
-  <si>
-    <t>high waist long leggings</t>
-  </si>
-  <si>
-    <t>women jogging suits</t>
-  </si>
-  <si>
-    <t>blue workout shirt</t>
-  </si>
-  <si>
-    <t>green woman</t>
-  </si>
-  <si>
-    <t>tight pink shirt</t>
-  </si>
-  <si>
-    <t>pink workout crop top</t>
-  </si>
-  <si>
-    <t>tight workout shirt</t>
-  </si>
-  <si>
-    <t>winter long sleeve</t>
-  </si>
-  <si>
-    <t>matching crop top</t>
-  </si>
-  <si>
-    <t>zip up compression</t>
-  </si>
-  <si>
-    <t>pink ribbed crop top</t>
-  </si>
-  <si>
-    <t>women warm up sets</t>
-  </si>
-  <si>
-    <t>winter sweatsuit</t>
-  </si>
-  <si>
-    <t>green jogger set</t>
-  </si>
-  <si>
-    <t>winter workout top</t>
-  </si>
-  <si>
-    <t>victoria secret exercise clothes</t>
-  </si>
-  <si>
-    <t>black suit pant</t>
-  </si>
-  <si>
-    <t>pink sports sleeve</t>
-  </si>
-  <si>
-    <t>black yoga outfit</t>
-  </si>
-  <si>
-    <t>athletic legging set</t>
-  </si>
-  <si>
-    <t>blue outfit set</t>
-  </si>
-  <si>
-    <t>tight pink long sleeve shirt</t>
-  </si>
-  <si>
-    <t>tight pink long sleeve</t>
-  </si>
-  <si>
-    <t>cute tracksuit sets for women</t>
-  </si>
-  <si>
-    <t>super soft leggings for women</t>
-  </si>
-  <si>
-    <t>blue tight top</t>
-  </si>
-  <si>
-    <t>blue tight crop top</t>
-  </si>
-  <si>
-    <t>one piece workout outfit for women</t>
-  </si>
-  <si>
-    <t>sweat suits for women cotton</t>
-  </si>
-  <si>
-    <t>womens athletic clothing</t>
-  </si>
-  <si>
-    <t>leggings gym</t>
-  </si>
-  <si>
-    <t>long shirts</t>
-  </si>
-  <si>
-    <t>gym tights for women</t>
-  </si>
-  <si>
-    <t>women workout sets clothes</t>
-  </si>
-  <si>
-    <t>suit shirt</t>
-  </si>
-  <si>
-    <t>crop yoga top</t>
-  </si>
-  <si>
-    <t>cheap gym clothes</t>
-  </si>
-  <si>
-    <t>ribbed fabric</t>
-  </si>
-  <si>
-    <t>gym workout clothes</t>
-  </si>
-  <si>
-    <t>skinny shirts for women</t>
-  </si>
-  <si>
-    <t>crop top pants suit</t>
-  </si>
-  <si>
-    <t>pink crop top long sleeve</t>
+    <t>two piece outfit for women</t>
+  </si>
+  <si>
+    <t>blue black leggings</t>
+  </si>
+  <si>
+    <t>womens high tops</t>
+  </si>
+  <si>
+    <t>women exercise tops long sleeve</t>
+  </si>
+  <si>
+    <t>2peice sets for women</t>
+  </si>
+  <si>
+    <t>jogging suit womens</t>
+  </si>
+  <si>
+    <t>deportivos para mujer</t>
+  </si>
+  <si>
+    <t>gym set clothes</t>
+  </si>
+  <si>
+    <t>sweats set</t>
+  </si>
+  <si>
+    <t>sweatsuit set for women</t>
+  </si>
+  <si>
+    <t>black clothing</t>
+  </si>
+  <si>
+    <t>womens suits</t>
+  </si>
+  <si>
+    <t>woman suit</t>
+  </si>
+  <si>
+    <t>outfit clothes</t>
+  </si>
+  <si>
+    <t>woman exercise clothes</t>
+  </si>
+  <si>
+    <t>workout zip up for women</t>
+  </si>
+  <si>
+    <t>womens long sleeve athletic tops</t>
+  </si>
+  <si>
+    <t>black long sleeve crop top for women</t>
+  </si>
+  <si>
+    <t>mommy and me workout clothes</t>
+  </si>
+  <si>
+    <t>exercise womens clothing</t>
+  </si>
+  <si>
+    <t>pink jogging suit</t>
+  </si>
+  <si>
+    <t>womens two piece outfits</t>
+  </si>
+  <si>
+    <t>winter active wear for women</t>
+  </si>
+  <si>
+    <t>sport suit for women</t>
+  </si>
+  <si>
+    <t>set long</t>
+  </si>
+  <si>
+    <t>winter athletic wear women</t>
+  </si>
+  <si>
+    <t>fitness long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>shirt suits for women</t>
+  </si>
+  <si>
+    <t>compression athletic leggings women</t>
+  </si>
+  <si>
+    <t>woman crop top</t>
+  </si>
+  <si>
+    <t>tops black</t>
+  </si>
+  <si>
+    <t>athletic two piece outfits for women</t>
+  </si>
+  <si>
+    <t>athletic long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>clothing sets for women</t>
+  </si>
+  <si>
+    <t>bowling clothes for women</t>
+  </si>
+  <si>
+    <t>female suit</t>
+  </si>
+  <si>
+    <t>warm workout clothes</t>
+  </si>
+  <si>
+    <t>leggings suits for women</t>
+  </si>
+  <si>
+    <t>matching 2 piece outfits</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets</t>
+  </si>
+  <si>
+    <t>suits set for women</t>
+  </si>
+  <si>
+    <t>victory secret pink clothing</t>
+  </si>
+  <si>
+    <t>exercise sweat suits</t>
+  </si>
+  <si>
+    <t>cropped black shirt</t>
+  </si>
+  <si>
+    <t>seamless shirts</t>
+  </si>
+  <si>
+    <t>womens suit</t>
+  </si>
+  <si>
+    <t>womens sweatsuits</t>
+  </si>
+  <si>
+    <t>womens outfits for winter</t>
+  </si>
+  <si>
+    <t>two piece outfit women</t>
+  </si>
+  <si>
+    <t>green two piece</t>
+  </si>
+  <si>
+    <t>2 piece women clothes</t>
+  </si>
+  <si>
+    <t>women suit set</t>
+  </si>
+  <si>
+    <t>shirts with leggings</t>
+  </si>
+  <si>
+    <t>shirts with leggings for women</t>
+  </si>
+  <si>
+    <t>outfit winter for women</t>
+  </si>
+  <si>
+    <t>green suit for women</t>
+  </si>
+  <si>
+    <t>long sleeve crop athletic</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout top</t>
+  </si>
+  <si>
+    <t>blue track suit</t>
+  </si>
+  <si>
+    <t>high waist pants and crop top set</t>
+  </si>
+  <si>
+    <t>zipper crop top</t>
+  </si>
+  <si>
+    <t>clothes gym women</t>
+  </si>
+  <si>
+    <t>women crop top</t>
+  </si>
+  <si>
+    <t>sweat exercise suit</t>
+  </si>
+  <si>
+    <t>fashion jogging suits for women</t>
+  </si>
+  <si>
+    <t>clothes shirts</t>
+  </si>
+  <si>
+    <t>sweat sleeves</t>
+  </si>
+  <si>
+    <t>top sets for women</t>
+  </si>
+  <si>
+    <t>women exercise shirts</t>
+  </si>
+  <si>
+    <t>women sweatsuits set</t>
+  </si>
+  <si>
+    <t>long sleeve two piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens compression suit</t>
+  </si>
+  <si>
+    <t>black leggings outfit</t>
+  </si>
+  <si>
+    <t>two piece long sleeve outfits for women</t>
+  </si>
+  <si>
+    <t>two piece active wear</t>
+  </si>
+  <si>
+    <t>two piece track suit</t>
+  </si>
+  <si>
+    <t>womens athletic sets</t>
+  </si>
+  <si>
+    <t>womens athletic suits</t>
+  </si>
+  <si>
+    <t>sexy athletic tops for women</t>
+  </si>
+  <si>
+    <t>black cropped leggings for women</t>
+  </si>
+  <si>
+    <t>womens fashion sweat suits</t>
+  </si>
+  <si>
+    <t>2 piece high waist outfits for women</t>
+  </si>
+  <si>
+    <t>2 piece sports outfits for women</t>
+  </si>
+  <si>
+    <t>shirt and leggings set</t>
+  </si>
+  <si>
+    <t>workout long sleeve crop top</t>
+  </si>
+  <si>
+    <t>woman sweat suits sets</t>
+  </si>
+  <si>
+    <t>matching leggings and top women</t>
+  </si>
+  <si>
+    <t>pack of crop tops for women</t>
+  </si>
+  <si>
+    <t>zip up bodysuit for women</t>
+  </si>
+  <si>
+    <t>crop tops activewear</t>
+  </si>
+  <si>
+    <t>green two piece set for women</t>
+  </si>
+  <si>
+    <t>blue clothing for women</t>
+  </si>
+  <si>
+    <t>blue 2 piece outfits for women</t>
+  </si>
+  <si>
+    <t>womens sweats set</t>
+  </si>
+  <si>
+    <t>women yoga jacket</t>
+  </si>
+  <si>
+    <t>womens gym outfit set</t>
+  </si>
+  <si>
+    <t>athletics 2</t>
+  </si>
+  <si>
+    <t>sweat shirt</t>
+  </si>
+  <si>
+    <t>two pieces</t>
+  </si>
+  <si>
+    <t>green womens top</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46607217-B6AD-4E15-A75F-88D920DC3E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,64 +25,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>body suit set</t>
-  </si>
-  <si>
-    <t>crop top sport</t>
-  </si>
-  <si>
-    <t>2 piece clothing sets for women</t>
-  </si>
-  <si>
-    <t>winter yoga clothes</t>
-  </si>
-  <si>
-    <t>pink yoga set</t>
-  </si>
-  <si>
-    <t>gym bodysuit for women</t>
-  </si>
-  <si>
-    <t>workout body suit</t>
-  </si>
-  <si>
-    <t>shirts for the gym</t>
-  </si>
-  <si>
-    <t>crop tops for women workout</t>
-  </si>
-  <si>
-    <t>clearance long shirts</t>
-  </si>
-  <si>
-    <t>long sweats</t>
-  </si>
-  <si>
-    <t>long sleeve athletic compression shirts</t>
-  </si>
-  <si>
-    <t>yoga leggings soft</t>
-  </si>
-  <si>
-    <t>long crop top for women</t>
-  </si>
-  <si>
-    <t>soft seamless leggings</t>
-  </si>
-  <si>
-    <t>women's sport clothing</t>
-  </si>
-  <si>
-    <t>womens sweat suits 2 piece</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -431,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,23 +742,423 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BR001-BRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB14DB-6CC1-45B1-B584-4556476ECCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2A336-51CA-4E5C-8D8A-20055D6DAEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
+    <sheet name="B08MPM2BB2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>workout suit woman set</t>
-  </si>
-  <si>
-    <t>jogger top woman</t>
-  </si>
-  <si>
-    <t>small jogger</t>
-  </si>
-  <si>
-    <t>waist top woman</t>
-  </si>
-  <si>
-    <t>top set woman</t>
-  </si>
-  <si>
-    <t>crop workout pant woman</t>
-  </si>
-  <si>
-    <t>high pant</t>
-  </si>
-  <si>
-    <t>fashionable pant woman</t>
-  </si>
-  <si>
-    <t>woman clothe pant</t>
-  </si>
-  <si>
-    <t>small pant</t>
-  </si>
-  <si>
-    <t>woman workout jogger high waist</t>
-  </si>
-  <si>
-    <t>woman black 2</t>
-  </si>
-  <si>
-    <t>black 2 piece set woman</t>
-  </si>
-  <si>
-    <t>high waist jogger pant woman</t>
-  </si>
-  <si>
-    <t>high woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe</t>
-  </si>
-  <si>
-    <t>workout crop top set woman</t>
-  </si>
-  <si>
-    <t>black workout</t>
-  </si>
-  <si>
-    <t>waist pant</t>
-  </si>
-  <si>
-    <t>woman green</t>
-  </si>
-  <si>
-    <t>2 piece pant suit woman</t>
-  </si>
-  <si>
-    <t>green workout pant</t>
-  </si>
-  <si>
-    <t>green jogger pant woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman set</t>
-  </si>
-  <si>
-    <t>fashionable top woman</t>
-  </si>
-  <si>
-    <t>piece woman</t>
-  </si>
-  <si>
-    <t>small clothe</t>
-  </si>
-  <si>
-    <t>clothe crop top</t>
-  </si>
-  <si>
-    <t>woman clothe 2 piece set</t>
-  </si>
-  <si>
-    <t>green black pant</t>
-  </si>
-  <si>
-    <t>woman small clothe</t>
-  </si>
-  <si>
-    <t>black crop pant</t>
-  </si>
-  <si>
-    <t>green black jogger</t>
-  </si>
-  <si>
-    <t>clothe top</t>
-  </si>
-  <si>
-    <t>clothe pant</t>
-  </si>
-  <si>
-    <t>workout crop woman</t>
-  </si>
-  <si>
-    <t>waist pant woman</t>
-  </si>
-  <si>
-    <t>black workout set woman</t>
-  </si>
-  <si>
-    <t>woman jogger pant set</t>
-  </si>
-  <si>
-    <t>small top woman</t>
-  </si>
-  <si>
-    <t>workout jogger pant woman</t>
-  </si>
-  <si>
-    <t>green pant suit woman</t>
-  </si>
-  <si>
-    <t>high waist workout pant</t>
-  </si>
-  <si>
-    <t>crop top pant</t>
-  </si>
-  <si>
-    <t>black workout crop top woman</t>
-  </si>
-  <si>
-    <t>workout suit woman 2 piece</t>
-  </si>
-  <si>
-    <t>black crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece jogger woman</t>
-  </si>
-  <si>
-    <t>clothe woman top</t>
-  </si>
-  <si>
-    <t>green workout top woman</t>
-  </si>
-  <si>
-    <t>fashionable clothe woman</t>
-  </si>
-  <si>
-    <t>woman jogger suit 2 piece</t>
-  </si>
-  <si>
-    <t>woman pant top set</t>
-  </si>
-  <si>
-    <t>black jogger set woman</t>
-  </si>
-  <si>
-    <t>crop jogger woman</t>
-  </si>
-  <si>
-    <t>woman workout pant set</t>
-  </si>
-  <si>
-    <t>workout 2 piece woman</t>
-  </si>
-  <si>
-    <t>green suit woman</t>
-  </si>
-  <si>
-    <t>woman 2 piece suit</t>
-  </si>
-  <si>
-    <t>crop top jogger set woman</t>
-  </si>
-  <si>
-    <t>high pant woman</t>
-  </si>
-  <si>
-    <t>black jogger pant woman</t>
-  </si>
-  <si>
-    <t>clothe set woman</t>
-  </si>
-  <si>
-    <t>crop woman</t>
-  </si>
-  <si>
-    <t>high waist black pant woman</t>
-  </si>
-  <si>
-    <t>black jogger woman high waist</t>
-  </si>
-  <si>
-    <t>green clothe woman</t>
-  </si>
-  <si>
-    <t>crop top pant set woman</t>
-  </si>
-  <si>
-    <t>workout apparel woman</t>
-  </si>
-  <si>
-    <t>black high top woman</t>
-  </si>
-  <si>
-    <t>workout clothe set</t>
-  </si>
-  <si>
-    <t>workout clothe woman 2 piece</t>
-  </si>
-  <si>
-    <t>high waist workout pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman high waist set</t>
-  </si>
-  <si>
-    <t>workout top woman set</t>
-  </si>
-  <si>
-    <t>workout clothe woman top</t>
-  </si>
-  <si>
-    <t>black workout top woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman</t>
-  </si>
-  <si>
-    <t>suit set woman</t>
-  </si>
-  <si>
-    <t>crop top set woman</t>
-  </si>
-  <si>
-    <t>green clothe</t>
-  </si>
-  <si>
-    <t>workout suit woman</t>
-  </si>
-  <si>
-    <t>pant set woman</t>
-  </si>
-  <si>
-    <t>black pant suit woman</t>
-  </si>
-  <si>
-    <t>black workout pant woman</t>
-  </si>
-  <si>
-    <t>crop pant woman</t>
-  </si>
-  <si>
-    <t>2 piece pant set woman</t>
-  </si>
-  <si>
-    <t>green crop top woman</t>
-  </si>
-  <si>
-    <t>green jogger woman</t>
-  </si>
-  <si>
-    <t>workout jogger woman</t>
-  </si>
-  <si>
-    <t>jogger suit woman set</t>
-  </si>
-  <si>
-    <t>black clothe woman</t>
-  </si>
-  <si>
-    <t>green top woman</t>
-  </si>
-  <si>
-    <t>workout clothe woman set</t>
-  </si>
-  <si>
-    <t>green pant woman</t>
-  </si>
-  <si>
-    <t>high waist pant woman</t>
-  </si>
-  <si>
-    <t>jogger woman set</t>
-  </si>
-  <si>
-    <t>workout set woman</t>
-  </si>
-  <si>
-    <t>jogger pant woman</t>
-  </si>
-  <si>
-    <t>black crop top woman</t>
+    <t>impact ready</t>
+  </si>
+  <si>
+    <t>gym top</t>
+  </si>
+  <si>
+    <t>l cup</t>
+  </si>
+  <si>
+    <t>m sport</t>
+  </si>
+  <si>
+    <t>longline sport bra</t>
+  </si>
+  <si>
+    <t>cross top</t>
+  </si>
+  <si>
+    <t>cup top</t>
+  </si>
+  <si>
+    <t>pink s</t>
+  </si>
+  <si>
+    <t>cross back</t>
+  </si>
+  <si>
+    <t>wireless sport bra</t>
+  </si>
+  <si>
+    <t>sport back</t>
+  </si>
+  <si>
+    <t>elastic line</t>
+  </si>
+  <si>
+    <t>back m</t>
+  </si>
+  <si>
+    <t>yoga bralette</t>
+  </si>
+  <si>
+    <t>black strappy bra</t>
+  </si>
+  <si>
+    <t>pink sport bra</t>
+  </si>
+  <si>
+    <t>longline top</t>
+  </si>
+  <si>
+    <t>cute pink top</t>
+  </si>
+  <si>
+    <t>long line sport bra</t>
+  </si>
+  <si>
+    <t>black yoga bra</t>
+  </si>
+  <si>
+    <t>front bra</t>
+  </si>
+  <si>
+    <t>padded workout bra</t>
+  </si>
+  <si>
+    <t>pink gym</t>
+  </si>
+  <si>
+    <t>green apparel</t>
+  </si>
+  <si>
+    <t>s cup</t>
+  </si>
+  <si>
+    <t>padded sport bra</t>
+  </si>
+  <si>
+    <t>yoga back</t>
+  </si>
+  <si>
+    <t>green back</t>
+  </si>
+  <si>
+    <t>low impact bra</t>
+  </si>
+  <si>
+    <t>cross back top</t>
+  </si>
+  <si>
+    <t>yoga black</t>
+  </si>
+  <si>
+    <t>workout elastic</t>
+  </si>
+  <si>
+    <t>removable cup</t>
+  </si>
+  <si>
+    <t>s line</t>
+  </si>
+  <si>
+    <t>criss cross back bra</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>long sport bra</t>
+  </si>
+  <si>
+    <t>black sport</t>
+  </si>
+  <si>
+    <t>criss cross front bra</t>
+  </si>
+  <si>
+    <t>elastic green</t>
+  </si>
+  <si>
+    <t>strappy front bra</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>green yoga</t>
+  </si>
+  <si>
+    <t>back black</t>
+  </si>
+  <si>
+    <t>wirefree padded bra</t>
+  </si>
+  <si>
+    <t>sport bra top</t>
+  </si>
+  <si>
+    <t>pink yoga top</t>
+  </si>
+  <si>
+    <t>pink apparel</t>
+  </si>
+  <si>
+    <t>pink sport</t>
+  </si>
+  <si>
+    <t>pink yoga</t>
+  </si>
+  <si>
+    <t>green line</t>
+  </si>
+  <si>
+    <t>long green line</t>
+  </si>
+  <si>
+    <t>m cup</t>
+  </si>
+  <si>
+    <t>yoga s</t>
+  </si>
+  <si>
+    <t>low impact</t>
+  </si>
+  <si>
+    <t>yoga sport</t>
+  </si>
+  <si>
+    <t>m long</t>
+  </si>
+  <si>
+    <t>sport bralette</t>
+  </si>
+  <si>
+    <t>black sport bra</t>
+  </si>
+  <si>
+    <t>criss cross sport bra</t>
+  </si>
+  <si>
+    <t>cross bralette</t>
+  </si>
+  <si>
+    <t>cup with top</t>
+  </si>
+  <si>
+    <t>back bra</t>
+  </si>
+  <si>
+    <t>yoga cup</t>
+  </si>
+  <si>
+    <t>bra with low back</t>
+  </si>
+  <si>
+    <t>m apparel</t>
+  </si>
+  <si>
+    <t>black cross top</t>
+  </si>
+  <si>
+    <t>gym sport bra</t>
+  </si>
+  <si>
+    <t>low top</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>cute sport bra</t>
+  </si>
+  <si>
+    <t>xl bra</t>
+  </si>
+  <si>
+    <t>cross cup</t>
+  </si>
+  <si>
+    <t>low bra</t>
+  </si>
+  <si>
+    <t>yoga elastic</t>
+  </si>
+  <si>
+    <t>yoga sport bra</t>
+  </si>
+  <si>
+    <t>front sport bra</t>
+  </si>
+  <si>
+    <t>sport xl</t>
+  </si>
+  <si>
+    <t>cute cross</t>
+  </si>
+  <si>
+    <t>low back</t>
+  </si>
+  <si>
+    <t>black sport top</t>
+  </si>
+  <si>
+    <t>long green</t>
+  </si>
+  <si>
+    <t>yoga with</t>
+  </si>
+  <si>
+    <t>black with</t>
+  </si>
+  <si>
+    <t>bra s</t>
+  </si>
+  <si>
+    <t>back s</t>
+  </si>
+  <si>
+    <t>yoga bra cross</t>
+  </si>
+  <si>
+    <t>black cross back</t>
+  </si>
+  <si>
+    <t>cross back yoga top</t>
+  </si>
+  <si>
+    <t>l cup bra</t>
+  </si>
+  <si>
+    <t>longline bra top</t>
+  </si>
+  <si>
+    <t>yoga bra cross back</t>
+  </si>
+  <si>
+    <t>low impact sport bra</t>
+  </si>
+  <si>
+    <t>sport bra removable cup</t>
+  </si>
+  <si>
+    <t>strappy back sport bra</t>
+  </si>
+  <si>
+    <t>strappy front sport bra</t>
+  </si>
+  <si>
+    <t>cross back sport bra</t>
+  </si>
+  <si>
+    <t>impact bra sport</t>
+  </si>
+  <si>
+    <t>apparel bra</t>
+  </si>
+  <si>
+    <t>sport bra with cup</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BR001-BRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2A336-51CA-4E5C-8D8A-20055D6DAEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F30BC4-3AC7-445D-8A66-8AF907DA0A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08MPM2BB2" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>impact ready</t>
-  </si>
-  <si>
-    <t>gym top</t>
-  </si>
-  <si>
-    <t>l cup</t>
-  </si>
-  <si>
-    <t>m sport</t>
-  </si>
-  <si>
-    <t>longline sport bra</t>
-  </si>
-  <si>
-    <t>cross top</t>
-  </si>
-  <si>
-    <t>cup top</t>
-  </si>
-  <si>
-    <t>pink s</t>
-  </si>
-  <si>
-    <t>cross back</t>
-  </si>
-  <si>
-    <t>wireless sport bra</t>
-  </si>
-  <si>
-    <t>sport back</t>
-  </si>
-  <si>
-    <t>elastic line</t>
-  </si>
-  <si>
-    <t>back m</t>
-  </si>
-  <si>
-    <t>yoga bralette</t>
-  </si>
-  <si>
-    <t>black strappy bra</t>
-  </si>
-  <si>
-    <t>pink sport bra</t>
-  </si>
-  <si>
-    <t>longline top</t>
-  </si>
-  <si>
-    <t>cute pink top</t>
-  </si>
-  <si>
-    <t>long line sport bra</t>
-  </si>
-  <si>
-    <t>black yoga bra</t>
-  </si>
-  <si>
-    <t>front bra</t>
-  </si>
-  <si>
-    <t>padded workout bra</t>
-  </si>
-  <si>
-    <t>pink gym</t>
+    <t>black sport</t>
+  </si>
+  <si>
+    <t>clothing set</t>
+  </si>
+  <si>
+    <t>seamless legging</t>
+  </si>
+  <si>
+    <t>seamless crop top</t>
+  </si>
+  <si>
+    <t>legging suit</t>
+  </si>
+  <si>
+    <t>legging top set</t>
   </si>
   <si>
     <t>green apparel</t>
   </si>
   <si>
-    <t>s cup</t>
-  </si>
-  <si>
-    <t>padded sport bra</t>
-  </si>
-  <si>
-    <t>yoga back</t>
-  </si>
-  <si>
-    <t>green back</t>
-  </si>
-  <si>
-    <t>low impact bra</t>
-  </si>
-  <si>
-    <t>cross back top</t>
-  </si>
-  <si>
-    <t>yoga black</t>
-  </si>
-  <si>
-    <t>workout elastic</t>
-  </si>
-  <si>
-    <t>removable cup</t>
-  </si>
-  <si>
-    <t>s line</t>
-  </si>
-  <si>
-    <t>criss cross back bra</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>long sport bra</t>
-  </si>
-  <si>
-    <t>black sport</t>
-  </si>
-  <si>
-    <t>criss cross front bra</t>
-  </si>
-  <si>
-    <t>elastic green</t>
-  </si>
-  <si>
-    <t>strappy front bra</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>green yoga</t>
-  </si>
-  <si>
-    <t>back black</t>
-  </si>
-  <si>
-    <t>wirefree padded bra</t>
-  </si>
-  <si>
-    <t>sport bra top</t>
-  </si>
-  <si>
-    <t>pink yoga top</t>
-  </si>
-  <si>
-    <t>pink apparel</t>
-  </si>
-  <si>
-    <t>pink sport</t>
-  </si>
-  <si>
-    <t>pink yoga</t>
-  </si>
-  <si>
-    <t>green line</t>
-  </si>
-  <si>
-    <t>long green line</t>
-  </si>
-  <si>
-    <t>m cup</t>
-  </si>
-  <si>
-    <t>yoga s</t>
-  </si>
-  <si>
-    <t>low impact</t>
-  </si>
-  <si>
-    <t>yoga sport</t>
-  </si>
-  <si>
-    <t>m long</t>
-  </si>
-  <si>
-    <t>sport bralette</t>
-  </si>
-  <si>
-    <t>black sport bra</t>
-  </si>
-  <si>
-    <t>criss cross sport bra</t>
-  </si>
-  <si>
-    <t>cross bralette</t>
-  </si>
-  <si>
-    <t>cup with top</t>
-  </si>
-  <si>
-    <t>back bra</t>
-  </si>
-  <si>
-    <t>yoga cup</t>
-  </si>
-  <si>
-    <t>bra with low back</t>
-  </si>
-  <si>
-    <t>m apparel</t>
-  </si>
-  <si>
-    <t>black cross top</t>
-  </si>
-  <si>
-    <t>gym sport bra</t>
-  </si>
-  <si>
-    <t>low top</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>cute sport bra</t>
-  </si>
-  <si>
-    <t>xl bra</t>
-  </si>
-  <si>
-    <t>cross cup</t>
-  </si>
-  <si>
-    <t>low bra</t>
-  </si>
-  <si>
-    <t>yoga elastic</t>
-  </si>
-  <si>
-    <t>yoga sport bra</t>
-  </si>
-  <si>
-    <t>front sport bra</t>
-  </si>
-  <si>
-    <t>sport xl</t>
-  </si>
-  <si>
-    <t>cute cross</t>
-  </si>
-  <si>
-    <t>low back</t>
-  </si>
-  <si>
-    <t>black sport top</t>
+    <t>small crop top</t>
+  </si>
+  <si>
+    <t>black compression</t>
+  </si>
+  <si>
+    <t>winter activewear</t>
+  </si>
+  <si>
+    <t>winter blue</t>
+  </si>
+  <si>
+    <t>winter tracksuit</t>
+  </si>
+  <si>
+    <t>pink work shirt</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>winter outfit</t>
+  </si>
+  <si>
+    <t>2 piece matching set</t>
+  </si>
+  <si>
+    <t>2 piece long sleeve</t>
+  </si>
+  <si>
+    <t>2 piece workout set</t>
+  </si>
+  <si>
+    <t>black pant suit</t>
+  </si>
+  <si>
+    <t>black pant set</t>
+  </si>
+  <si>
+    <t>black workout shirt</t>
+  </si>
+  <si>
+    <t>black workout top</t>
+  </si>
+  <si>
+    <t>seamless top</t>
+  </si>
+  <si>
+    <t>pink tight shirt</t>
+  </si>
+  <si>
+    <t>pink crop shirt</t>
+  </si>
+  <si>
+    <t>green high top</t>
+  </si>
+  <si>
+    <t>work out crop</t>
+  </si>
+  <si>
+    <t>two piece legging set</t>
+  </si>
+  <si>
+    <t>seamless workout top</t>
+  </si>
+  <si>
+    <t>seamless workout</t>
+  </si>
+  <si>
+    <t>black sport shirt</t>
+  </si>
+  <si>
+    <t>winter workout</t>
+  </si>
+  <si>
+    <t>long black top</t>
+  </si>
+  <si>
+    <t>tight long sleeve workout shirt</t>
+  </si>
+  <si>
+    <t>workout tracksuit</t>
+  </si>
+  <si>
+    <t>workout pant</t>
+  </si>
+  <si>
+    <t>2 piece jogger</t>
+  </si>
+  <si>
+    <t>2 piece woman</t>
+  </si>
+  <si>
+    <t>athletic legging</t>
+  </si>
+  <si>
+    <t>black tight top</t>
+  </si>
+  <si>
+    <t>black jogger</t>
+  </si>
+  <si>
+    <t>black long crop top</t>
+  </si>
+  <si>
+    <t>crop top woman</t>
+  </si>
+  <si>
+    <t>green black top</t>
+  </si>
+  <si>
+    <t>long sleeve winter shirt</t>
+  </si>
+  <si>
+    <t>2 piece pant set</t>
+  </si>
+  <si>
+    <t>2 piece pant suit</t>
+  </si>
+  <si>
+    <t>long sleeve work out shirt</t>
+  </si>
+  <si>
+    <t>long sleeve set</t>
+  </si>
+  <si>
+    <t>black top woman</t>
+  </si>
+  <si>
+    <t>long sleeve outfit</t>
+  </si>
+  <si>
+    <t>crop top pant set</t>
+  </si>
+  <si>
+    <t>long sleeve athletic top</t>
+  </si>
+  <si>
+    <t>long sleeve two piece set</t>
+  </si>
+  <si>
+    <t>pink workout set</t>
+  </si>
+  <si>
+    <t>black jogger set</t>
+  </si>
+  <si>
+    <t>tight workout top</t>
+  </si>
+  <si>
+    <t>long sleeve clothing</t>
+  </si>
+  <si>
+    <t>black athletic crop top</t>
+  </si>
+  <si>
+    <t>small black crop top</t>
+  </si>
+  <si>
+    <t>black athletic sleeve</t>
+  </si>
+  <si>
+    <t>matching legging set</t>
+  </si>
+  <si>
+    <t>long sleeve workout top</t>
+  </si>
+  <si>
+    <t>long sleeve crop top workout</t>
+  </si>
+  <si>
+    <t>pink long sleeve crop</t>
+  </si>
+  <si>
+    <t>black long sleeve crop</t>
+  </si>
+  <si>
+    <t>green long sleeve crop</t>
+  </si>
+  <si>
+    <t>long sleeve crop top set</t>
+  </si>
+  <si>
+    <t>long sleeve work</t>
+  </si>
+  <si>
+    <t>top pant set</t>
+  </si>
+  <si>
+    <t>pink outfit set</t>
+  </si>
+  <si>
+    <t>black crop</t>
+  </si>
+  <si>
+    <t>long black</t>
+  </si>
+  <si>
+    <t>work outfit</t>
+  </si>
+  <si>
+    <t>piece work</t>
+  </si>
+  <si>
+    <t>set two</t>
+  </si>
+  <si>
+    <t>fitness pant</t>
+  </si>
+  <si>
+    <t>winter shirt</t>
+  </si>
+  <si>
+    <t>workout tight</t>
+  </si>
+  <si>
+    <t>high top woman</t>
+  </si>
+  <si>
+    <t>matching pant set</t>
+  </si>
+  <si>
+    <t>gym tight</t>
+  </si>
+  <si>
+    <t>legging outfit</t>
   </si>
   <si>
     <t>long green</t>
   </si>
   <si>
+    <t>crop legging</t>
+  </si>
+  <si>
+    <t>work set</t>
+  </si>
+  <si>
+    <t>seamless long sleeve workout top</t>
+  </si>
+  <si>
+    <t>two apparel</t>
+  </si>
+  <si>
+    <t>tracksuit pant</t>
+  </si>
+  <si>
+    <t>work out pink</t>
+  </si>
+  <si>
+    <t>workout track</t>
+  </si>
+  <si>
+    <t>black high top</t>
+  </si>
+  <si>
+    <t>fashionable top</t>
+  </si>
+  <si>
+    <t>winter top</t>
+  </si>
+  <si>
+    <t>2 small</t>
+  </si>
+  <si>
+    <t>seamless crop</t>
+  </si>
+  <si>
     <t>yoga with</t>
   </si>
   <si>
-    <t>black with</t>
-  </si>
-  <si>
-    <t>bra s</t>
-  </si>
-  <si>
-    <t>back s</t>
-  </si>
-  <si>
-    <t>yoga bra cross</t>
-  </si>
-  <si>
-    <t>black cross back</t>
-  </si>
-  <si>
-    <t>cross back yoga top</t>
-  </si>
-  <si>
-    <t>l cup bra</t>
-  </si>
-  <si>
-    <t>longline bra top</t>
-  </si>
-  <si>
-    <t>yoga bra cross back</t>
-  </si>
-  <si>
-    <t>low impact sport bra</t>
-  </si>
-  <si>
-    <t>sport bra removable cup</t>
-  </si>
-  <si>
-    <t>strappy back sport bra</t>
-  </si>
-  <si>
-    <t>strappy front sport bra</t>
-  </si>
-  <si>
-    <t>cross back sport bra</t>
-  </si>
-  <si>
-    <t>impact bra sport</t>
-  </si>
-  <si>
-    <t>apparel bra</t>
-  </si>
-  <si>
-    <t>sport bra with cup</t>
+    <t>pink out shirt</t>
+  </si>
+  <si>
+    <t>pink crop</t>
+  </si>
+  <si>
+    <t>yoga jogger</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BR001-BRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A2FEA-AD0F-439C-B373-7CAA2B764E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9238FE-DA35-4F9A-BC04-89A45298142A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
+    <sheet name="B08MPM2BB2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>womens athletic jackets lightweight</t>
-  </si>
-  <si>
-    <t>tights and jacket set for women</t>
-  </si>
-  <si>
-    <t>black zipper sweaters for women</t>
-  </si>
-  <si>
-    <t>polyester spandex leggings for women</t>
-  </si>
-  <si>
-    <t>two piece legging set for women</t>
-  </si>
-  <si>
-    <t>cropped two piece</t>
-  </si>
-  <si>
-    <t>jogging sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>athletic crop tops</t>
-  </si>
-  <si>
-    <t>wide leg outfit for women</t>
-  </si>
-  <si>
-    <t>top womens sport</t>
-  </si>
-  <si>
-    <t>womens workout clothes winter</t>
-  </si>
-  <si>
-    <t>exercise sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout gym clothes women</t>
-  </si>
-  <si>
-    <t>light pink sweat suits for women</t>
-  </si>
-  <si>
-    <t>winter pants for ladies</t>
-  </si>
-  <si>
-    <t>workout set for women 2 piece</t>
-  </si>
-  <si>
-    <t>sweatsuits for women two piece</t>
-  </si>
-  <si>
-    <t>outfits for winter woman</t>
-  </si>
-  <si>
-    <t>crop top piece set</t>
-  </si>
-  <si>
-    <t>style and co leggings for women</t>
-  </si>
-  <si>
-    <t>matching sets for women outfit sexy</t>
-  </si>
-  <si>
-    <t>winter outfit sets for women</t>
-  </si>
-  <si>
-    <t>yoga pants suit</t>
-  </si>
-  <si>
-    <t>women tights suit</t>
-  </si>
-  <si>
-    <t>gym warm up suits</t>
-  </si>
-  <si>
-    <t>women three piece outfits sets</t>
-  </si>
-  <si>
-    <t>3 pack black leggings for women</t>
-  </si>
-  <si>
-    <t>2 piece joggers sets for women</t>
-  </si>
-  <si>
-    <t>winter running tight women</t>
-  </si>
-  <si>
-    <t>mono de yoga para mujer</t>
-  </si>
-  <si>
-    <t>bodybuilding track pants</t>
-  </si>
-  <si>
-    <t>croptops for womens</t>
-  </si>
-  <si>
-    <t>women 2 piece tracksuit sets</t>
-  </si>
-  <si>
-    <t>cute workout tops women</t>
-  </si>
-  <si>
-    <t>winter 2 piece outfit women</t>
-  </si>
-  <si>
-    <t>women legging sets outfits</t>
-  </si>
-  <si>
-    <t>sweat suits for women set workout</t>
-  </si>
-  <si>
-    <t>active wear two piece sets for women</t>
-  </si>
-  <si>
-    <t>3 piece lounge sets for women</t>
-  </si>
-  <si>
-    <t>womens sweat suits two piece</t>
-  </si>
-  <si>
-    <t>womens work outfits sets</t>
-  </si>
-  <si>
-    <t>womens 2 piece workout outfits</t>
-  </si>
-  <si>
-    <t>cropped athletic tops for women</t>
-  </si>
-  <si>
-    <t>tights sets women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>hotexy womens workout sets 2 piece workout</t>
-  </si>
-  <si>
-    <t>gym set clothing</t>
-  </si>
-  <si>
-    <t>crop athletic tops for women</t>
-  </si>
-  <si>
-    <t>jet joy workout set</t>
-  </si>
-  <si>
-    <t>gym shark 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>leggings outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>professional clothes for women for work</t>
-  </si>
-  <si>
-    <t>2 pc track suits for women</t>
-  </si>
-  <si>
-    <t>prime clothes for women</t>
-  </si>
-  <si>
-    <t>womens sets 2 piece outfits</t>
-  </si>
-  <si>
-    <t>workout 2 piece outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece legging workout set</t>
-  </si>
-  <si>
-    <t>seamless yoga set</t>
-  </si>
-  <si>
-    <t>tennis clothes for women</t>
-  </si>
-  <si>
-    <t>women jogger outfits sets</t>
-  </si>
-  <si>
-    <t>sweater leggings for women</t>
-  </si>
-  <si>
-    <t>yoga sets for women</t>
-  </si>
-  <si>
-    <t>outfits for women</t>
-  </si>
-  <si>
-    <t>tracksuit womens</t>
-  </si>
-  <si>
-    <t>women compression shirt</t>
-  </si>
-  <si>
-    <t>long sleeve sport shirt women</t>
-  </si>
-  <si>
-    <t>crop long sleeve top</t>
-  </si>
-  <si>
-    <t>zumba outfits for women</t>
-  </si>
-  <si>
-    <t>long sleeve green shirt women</t>
-  </si>
-  <si>
-    <t>compression top women long sleeve</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>cropped long sleeve</t>
-  </si>
-  <si>
-    <t>womens blue shirt</t>
-  </si>
-  <si>
-    <t>womens winter clothing</t>
-  </si>
-  <si>
-    <t>fitness sweaters for women</t>
-  </si>
-  <si>
-    <t>finger sports</t>
-  </si>
-  <si>
-    <t>spandex 2 piece</t>
-  </si>
-  <si>
-    <t>cheap suit</t>
-  </si>
-  <si>
-    <t>womens sweats</t>
-  </si>
-  <si>
-    <t>green crop tops for women</t>
-  </si>
-  <si>
-    <t>work out set women</t>
-  </si>
-  <si>
-    <t>2 piece long sleeve outfits for women</t>
-  </si>
-  <si>
-    <t>pink body suit</t>
-  </si>
-  <si>
-    <t>black outfits for women</t>
-  </si>
-  <si>
-    <t>womens exercise</t>
-  </si>
-  <si>
-    <t>sexy workout sets for women</t>
-  </si>
-  <si>
-    <t>leggings sets</t>
-  </si>
-  <si>
-    <t>track suit for women</t>
-  </si>
-  <si>
-    <t>purple sweat suit for women</t>
-  </si>
-  <si>
-    <t>women workout set</t>
-  </si>
-  <si>
-    <t>womens sports crop top</t>
-  </si>
-  <si>
-    <t>womens cropped shirts</t>
-  </si>
-  <si>
-    <t>long sleeve shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>ropa deportiva sexy para mujer</t>
-  </si>
-  <si>
-    <t>sweat sleeve</t>
-  </si>
-  <si>
-    <t>women 2 piece outfits sets</t>
-  </si>
-  <si>
-    <t>sportswear womens gym</t>
-  </si>
-  <si>
-    <t>womens compression shirt</t>
-  </si>
-  <si>
-    <t>gym shirt women</t>
-  </si>
-  <si>
-    <t>womens compression tights</t>
-  </si>
-  <si>
-    <t>track tights</t>
+    <t>black top</t>
+  </si>
+  <si>
+    <t>black bra</t>
+  </si>
+  <si>
+    <t>wireless bra</t>
+  </si>
+  <si>
+    <t>sport bra</t>
+  </si>
+  <si>
+    <t>pink top</t>
+  </si>
+  <si>
+    <t>yoga bra</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>low back bra</t>
+  </si>
+  <si>
+    <t>black s</t>
+  </si>
+  <si>
+    <t>longline bra</t>
+  </si>
+  <si>
+    <t>padded bra</t>
+  </si>
+  <si>
+    <t>green bra</t>
+  </si>
+  <si>
+    <t>strappy bra</t>
+  </si>
+  <si>
+    <t>bra top</t>
+  </si>
+  <si>
+    <t>pink bra</t>
+  </si>
+  <si>
+    <t>pink bralette</t>
+  </si>
+  <si>
+    <t>workout bra</t>
+  </si>
+  <si>
+    <t>strappy bralette</t>
+  </si>
+  <si>
+    <t>black bra top</t>
+  </si>
+  <si>
+    <t>longline bralette</t>
+  </si>
+  <si>
+    <t>black cross</t>
+  </si>
+  <si>
+    <t>bralette top</t>
+  </si>
+  <si>
+    <t>cute top</t>
+  </si>
+  <si>
+    <t>criss cross bra</t>
+  </si>
+  <si>
+    <t>black l</t>
+  </si>
+  <si>
+    <t>black m</t>
+  </si>
+  <si>
+    <t>wirefree bra</t>
+  </si>
+  <si>
+    <t>criss cross top</t>
+  </si>
+  <si>
+    <t>long line bra</t>
+  </si>
+  <si>
+    <t>cute bra</t>
+  </si>
+  <si>
+    <t>criss cross</t>
+  </si>
+  <si>
+    <t>pink bra top</t>
+  </si>
+  <si>
+    <t>bralette bra</t>
+  </si>
+  <si>
+    <t>impact sport</t>
+  </si>
+  <si>
+    <t>long s</t>
+  </si>
+  <si>
+    <t>top s</t>
+  </si>
+  <si>
+    <t>black cup</t>
+  </si>
+  <si>
+    <t>wireless bralette</t>
+  </si>
+  <si>
+    <t>women’s longline sports bra wirefree padded medium support yoga bras gym running workout tank tops</t>
+  </si>
+  <si>
+    <t>cross bra</t>
+  </si>
+  <si>
+    <t>green l</t>
+  </si>
+  <si>
+    <t>cup with</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>long bra</t>
+  </si>
+  <si>
+    <t>yoga gym</t>
+  </si>
+  <si>
+    <t>low back bralette</t>
+  </si>
+  <si>
+    <t>longline yoga bra</t>
+  </si>
+  <si>
+    <t>criss cross bralette</t>
+  </si>
+  <si>
+    <t>sport elastic</t>
+  </si>
+  <si>
+    <t>cute back</t>
+  </si>
+  <si>
+    <t>pink cross</t>
+  </si>
+  <si>
+    <t>green s</t>
+  </si>
+  <si>
+    <t>black apparel</t>
+  </si>
+  <si>
+    <t>black yoga top</t>
+  </si>
+  <si>
+    <t>green m</t>
+  </si>
+  <si>
+    <t>yoga bra strappy</t>
+  </si>
+  <si>
+    <t>cross back bra</t>
+  </si>
+  <si>
+    <t>cute pink</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>cute bralette</t>
+  </si>
+  <si>
+    <t>low back top</t>
+  </si>
+  <si>
+    <t>criss cross back top</t>
+  </si>
+  <si>
+    <t>strappy top</t>
+  </si>
+  <si>
+    <t>criss cross front</t>
+  </si>
+  <si>
+    <t>strappy sport bra</t>
+  </si>
+  <si>
+    <t>cross front bra</t>
+  </si>
+  <si>
+    <t>bra elastic</t>
+  </si>
+  <si>
+    <t>long line</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>strappy back bralette</t>
+  </si>
+  <si>
+    <t>green sport bra</t>
+  </si>
+  <si>
+    <t>bra cup</t>
+  </si>
+  <si>
+    <t>wireless sport</t>
+  </si>
+  <si>
+    <t>top m</t>
+  </si>
+  <si>
+    <t>strappy back top</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>gym back</t>
+  </si>
+  <si>
+    <t>back top</t>
+  </si>
+  <si>
+    <t>strappy yoga bra</t>
+  </si>
+  <si>
+    <t>sport cup</t>
+  </si>
+  <si>
+    <t>strappy back bra</t>
+  </si>
+  <si>
+    <t>strappy yoga top</t>
+  </si>
+  <si>
+    <t>criss cross back</t>
+  </si>
+  <si>
+    <t>long l</t>
+  </si>
+  <si>
+    <t>low front bra</t>
+  </si>
+  <si>
+    <t>gym bra</t>
+  </si>
+  <si>
+    <t>workout sport bra</t>
+  </si>
+  <si>
+    <t>cross back bralette</t>
+  </si>
+  <si>
+    <t>pink criss cross top</t>
+  </si>
+  <si>
+    <t>black strappy top</t>
+  </si>
+  <si>
+    <t>cross line</t>
+  </si>
+  <si>
+    <t>strappy workout bra</t>
+  </si>
+  <si>
+    <t>back workout</t>
+  </si>
+  <si>
+    <t>yoga bra top</t>
+  </si>
+  <si>
+    <t>black strappy</t>
+  </si>
+  <si>
+    <t>black criss cross top</t>
+  </si>
+  <si>
+    <t>padded yoga bra</t>
+  </si>
+  <si>
+    <t>pink bralette top</t>
+  </si>
+  <si>
+    <t>green cross</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -679,9 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1166,30 +1136,27 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BR001-BRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9238FE-DA35-4F9A-BC04-89A45298142A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FCA84-2B1F-446A-8D90-FD3F0857856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08MPM2BB2" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,306 +25,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>black top</t>
-  </si>
-  <si>
-    <t>black bra</t>
-  </si>
-  <si>
-    <t>wireless bra</t>
-  </si>
-  <si>
-    <t>sport bra</t>
-  </si>
-  <si>
-    <t>pink top</t>
-  </si>
-  <si>
-    <t>yoga bra</t>
-  </si>
-  <si>
-    <t>yoga top</t>
-  </si>
-  <si>
-    <t>low back bra</t>
-  </si>
-  <si>
-    <t>black s</t>
-  </si>
-  <si>
-    <t>longline bra</t>
-  </si>
-  <si>
-    <t>padded bra</t>
-  </si>
-  <si>
-    <t>green bra</t>
-  </si>
-  <si>
-    <t>strappy bra</t>
-  </si>
-  <si>
-    <t>bra top</t>
-  </si>
-  <si>
-    <t>pink bra</t>
-  </si>
-  <si>
-    <t>pink bralette</t>
-  </si>
-  <si>
-    <t>workout bra</t>
-  </si>
-  <si>
-    <t>strappy bralette</t>
-  </si>
-  <si>
-    <t>black bra top</t>
-  </si>
-  <si>
-    <t>longline bralette</t>
-  </si>
-  <si>
-    <t>black cross</t>
-  </si>
-  <si>
-    <t>bralette top</t>
-  </si>
-  <si>
-    <t>cute top</t>
-  </si>
-  <si>
-    <t>criss cross bra</t>
-  </si>
-  <si>
-    <t>black l</t>
-  </si>
-  <si>
-    <t>black m</t>
-  </si>
-  <si>
-    <t>wirefree bra</t>
-  </si>
-  <si>
-    <t>criss cross top</t>
-  </si>
-  <si>
-    <t>long line bra</t>
-  </si>
-  <si>
-    <t>cute bra</t>
-  </si>
-  <si>
-    <t>criss cross</t>
-  </si>
-  <si>
-    <t>pink bra top</t>
-  </si>
-  <si>
-    <t>bralette bra</t>
-  </si>
-  <si>
-    <t>impact sport</t>
-  </si>
-  <si>
-    <t>long s</t>
-  </si>
-  <si>
-    <t>top s</t>
-  </si>
-  <si>
-    <t>black cup</t>
-  </si>
-  <si>
-    <t>wireless bralette</t>
-  </si>
-  <si>
-    <t>women’s longline sports bra wirefree padded medium support yoga bras gym running workout tank tops</t>
-  </si>
-  <si>
-    <t>cross bra</t>
-  </si>
-  <si>
-    <t>green l</t>
-  </si>
-  <si>
-    <t>cup with</t>
-  </si>
-  <si>
-    <t>sport gym</t>
-  </si>
-  <si>
-    <t>long bra</t>
-  </si>
-  <si>
-    <t>yoga gym</t>
-  </si>
-  <si>
-    <t>low back bralette</t>
-  </si>
-  <si>
-    <t>longline yoga bra</t>
-  </si>
-  <si>
-    <t>criss cross bralette</t>
-  </si>
-  <si>
-    <t>sport elastic</t>
-  </si>
-  <si>
-    <t>cute back</t>
-  </si>
-  <si>
-    <t>pink cross</t>
-  </si>
-  <si>
-    <t>green s</t>
-  </si>
-  <si>
-    <t>black apparel</t>
-  </si>
-  <si>
-    <t>black yoga top</t>
-  </si>
-  <si>
-    <t>green m</t>
-  </si>
-  <si>
-    <t>yoga bra strappy</t>
-  </si>
-  <si>
-    <t>cross back bra</t>
-  </si>
-  <si>
-    <t>cute pink</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>cute bralette</t>
-  </si>
-  <si>
-    <t>low back top</t>
-  </si>
-  <si>
-    <t>criss cross back top</t>
-  </si>
-  <si>
-    <t>strappy top</t>
-  </si>
-  <si>
-    <t>criss cross front</t>
-  </si>
-  <si>
-    <t>strappy sport bra</t>
-  </si>
-  <si>
-    <t>cross front bra</t>
-  </si>
-  <si>
-    <t>bra elastic</t>
-  </si>
-  <si>
-    <t>long line</t>
-  </si>
-  <si>
-    <t>sport top</t>
-  </si>
-  <si>
-    <t>strappy back bralette</t>
-  </si>
-  <si>
-    <t>green sport bra</t>
-  </si>
-  <si>
-    <t>bra cup</t>
-  </si>
-  <si>
-    <t>wireless sport</t>
-  </si>
-  <si>
-    <t>top m</t>
-  </si>
-  <si>
-    <t>strappy back top</t>
-  </si>
-  <si>
-    <t>gym apparel</t>
-  </si>
-  <si>
-    <t>gym back</t>
-  </si>
-  <si>
-    <t>back top</t>
-  </si>
-  <si>
-    <t>strappy yoga bra</t>
-  </si>
-  <si>
-    <t>sport cup</t>
-  </si>
-  <si>
-    <t>strappy back bra</t>
-  </si>
-  <si>
-    <t>strappy yoga top</t>
-  </si>
-  <si>
-    <t>criss cross back</t>
-  </si>
-  <si>
-    <t>long l</t>
-  </si>
-  <si>
-    <t>low front bra</t>
-  </si>
-  <si>
-    <t>gym bra</t>
-  </si>
-  <si>
-    <t>workout sport bra</t>
-  </si>
-  <si>
-    <t>cross back bralette</t>
-  </si>
-  <si>
-    <t>pink criss cross top</t>
-  </si>
-  <si>
-    <t>black strappy top</t>
-  </si>
-  <si>
-    <t>cross line</t>
-  </si>
-  <si>
-    <t>strappy workout bra</t>
-  </si>
-  <si>
-    <t>back workout</t>
-  </si>
-  <si>
-    <t>yoga bra top</t>
-  </si>
-  <si>
-    <t>black strappy</t>
-  </si>
-  <si>
-    <t>black criss cross top</t>
-  </si>
-  <si>
-    <t>padded yoga bra</t>
-  </si>
-  <si>
-    <t>pink bralette top</t>
-  </si>
-  <si>
-    <t>green cross</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+  <si>
+    <t>sweatsuits sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>two piece workout outfits for women</t>
+  </si>
+  <si>
+    <t>sweat sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece workout sets for women</t>
+  </si>
+  <si>
+    <t>active wear two piece sets for women</t>
+  </si>
+  <si>
+    <t>sweat outfits for women 2 pieces</t>
+  </si>
+  <si>
+    <t>womens workout sets</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>women tracksuit set</t>
+  </si>
+  <si>
+    <t>jogger suits for women set</t>
+  </si>
+  <si>
+    <t>two piece sweatsuits for women</t>
+  </si>
+  <si>
+    <t>yoga outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>joggers for women set</t>
+  </si>
+  <si>
+    <t>women's athletic clothing sets</t>
+  </si>
+  <si>
+    <t>gym sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>matching sweatsuit women</t>
+  </si>
+  <si>
+    <t>workout clothes for women sets</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>work outfits for women gym set</t>
+  </si>
+  <si>
+    <t>gym outfits for women set</t>
+  </si>
+  <si>
+    <t>womens sweat suits two piece</t>
+  </si>
+  <si>
+    <t>activewear sets for women</t>
+  </si>
+  <si>
+    <t>active wear outfits for women</t>
+  </si>
+  <si>
+    <t>jogger set for women</t>
+  </si>
+  <si>
+    <t>women track suits 2 piece set</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>sexy workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece high waist</t>
+  </si>
+  <si>
+    <t>workout sweaters for women</t>
+  </si>
+  <si>
+    <t>womens sweatsuits</t>
+  </si>
+  <si>
+    <t>athletic sets for women</t>
+  </si>
+  <si>
+    <t>matching workout sets for women</t>
+  </si>
+  <si>
+    <t>track suits for women sexy</t>
+  </si>
+  <si>
+    <t>sweat suits for women</t>
+  </si>
+  <si>
+    <t>two piece jogger sets for women</t>
+  </si>
+  <si>
+    <t>sweatsuits for women set</t>
+  </si>
+  <si>
+    <t>women sweat suits two piece set</t>
+  </si>
+  <si>
+    <t>gym sets for women</t>
+  </si>
+  <si>
+    <t>2 piece tracksuit for women</t>
+  </si>
+  <si>
+    <t>workout clothes set for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweat suits</t>
+  </si>
+  <si>
+    <t>workout top for women set</t>
+  </si>
+  <si>
+    <t>track suits for women set</t>
+  </si>
+  <si>
+    <t>sweat suits for women set</t>
+  </si>
+  <si>
+    <t>workout clothes for women</t>
+  </si>
+  <si>
+    <t>women sweatsuits sets</t>
+  </si>
+  <si>
+    <t>sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>jogging suits for women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>womens sweatsuits sets</t>
+  </si>
+  <si>
+    <t>jogger sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>tracksuit for women set</t>
+  </si>
+  <si>
+    <t>women jogging suit set</t>
+  </si>
+  <si>
+    <t>workout sets for women</t>
+  </si>
+  <si>
+    <t>womens jogging suits sets</t>
+  </si>
+  <si>
+    <t>womens tracksuit set</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>2 piece workout clothe</t>
   </si>
 </sst>
 </file>
@@ -649,230 +535,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
@@ -882,17 +770,17 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -902,257 +790,162 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BR001-BRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784785B-172B-4E09-B9D7-F941160C669A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB07872-9D90-4F1D-A25C-5B1FB2B68333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
+    <sheet name="B08MPM2BB2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,313 +25,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>gym for women clothing</t>
-  </si>
-  <si>
-    <t>long sleeve women</t>
-  </si>
-  <si>
-    <t>yoga pants set</t>
-  </si>
-  <si>
-    <t>womens fitness tops</t>
-  </si>
-  <si>
-    <t>long shirts for leggings</t>
-  </si>
-  <si>
-    <t>female compression shirt</t>
-  </si>
-  <si>
-    <t>fitness crop tops for women</t>
-  </si>
-  <si>
-    <t>fitness joggers women</t>
-  </si>
-  <si>
-    <t>women gym clothes set</t>
-  </si>
-  <si>
-    <t>women outfits sets</t>
-  </si>
-  <si>
-    <t>women activewear suits</t>
-  </si>
-  <si>
-    <t>leggings outfits for women with top</t>
-  </si>
-  <si>
-    <t>long sleeve workout crop top</t>
-  </si>
-  <si>
-    <t>womens workout set</t>
-  </si>
-  <si>
-    <t>workout yoga tops for women</t>
-  </si>
-  <si>
-    <t>gym clothes for women sets</t>
-  </si>
-  <si>
-    <t>womens long workout tops</t>
-  </si>
-  <si>
-    <t>workout outfit for women set</t>
-  </si>
-  <si>
-    <t>womens yoga sets</t>
-  </si>
-  <si>
-    <t>2 piece sets for women</t>
-  </si>
-  <si>
-    <t>workout sets clothes for women</t>
-  </si>
-  <si>
-    <t>gym crop tops for women long sleeve</t>
-  </si>
-  <si>
-    <t>long sleeve crop tops for women workout</t>
-  </si>
-  <si>
-    <t>matching set outfit women sexy</t>
-  </si>
-  <si>
-    <t>sports tops for women</t>
-  </si>
-  <si>
-    <t>the limited clothing women</t>
-  </si>
-  <si>
-    <t>sexy leggings</t>
-  </si>
-  <si>
-    <t>winter for women clothing</t>
-  </si>
-  <si>
-    <t>suits for women</t>
-  </si>
-  <si>
-    <t>exercise outfits for women set</t>
-  </si>
-  <si>
-    <t>tennis outfit</t>
-  </si>
-  <si>
-    <t>tracks for women</t>
-  </si>
-  <si>
-    <t>suit women</t>
-  </si>
-  <si>
-    <t>athletic clothes for women</t>
-  </si>
-  <si>
-    <t>crop zip up</t>
-  </si>
-  <si>
-    <t>compression jacket women</t>
-  </si>
-  <si>
-    <t>bride yoga outfit</t>
-  </si>
-  <si>
-    <t>sweat suit</t>
-  </si>
-  <si>
-    <t>outfit for women</t>
-  </si>
-  <si>
-    <t>sweat suits</t>
-  </si>
-  <si>
-    <t>tights set for women</t>
-  </si>
-  <si>
-    <t>woman sport clothes</t>
-  </si>
-  <si>
-    <t>woman outfits sets</t>
-  </si>
-  <si>
-    <t>sexy leggings for women exercise</t>
-  </si>
-  <si>
-    <t>cute winter outfits for women</t>
-  </si>
-  <si>
-    <t>2 piece winter outfits for women</t>
-  </si>
-  <si>
-    <t>athletic crop tops for women</t>
-  </si>
-  <si>
-    <t>adidas sweat suits women</t>
-  </si>
-  <si>
-    <t>sweat for women set</t>
-  </si>
-  <si>
-    <t>womens sweat suit</t>
-  </si>
-  <si>
-    <t>women sweat suits</t>
-  </si>
-  <si>
-    <t>woman sport clothes set</t>
-  </si>
-  <si>
-    <t>black sexy leggings for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets</t>
-  </si>
-  <si>
-    <t>jogging suits for women</t>
-  </si>
-  <si>
-    <t>tracksuit green</t>
-  </si>
-  <si>
-    <t>two piece outfits for women sexy</t>
-  </si>
-  <si>
-    <t>yoga legging set</t>
-  </si>
-  <si>
-    <t>athletic leggings green</t>
-  </si>
-  <si>
-    <t>yoga tops long sleeve</t>
-  </si>
-  <si>
-    <t>yoga outfit set</t>
-  </si>
-  <si>
-    <t>workout shirts women</t>
-  </si>
-  <si>
-    <t>workout tops women long sleeve</t>
-  </si>
-  <si>
-    <t>black clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece tracksuit for women</t>
-  </si>
-  <si>
-    <t>women tracksuit set</t>
-  </si>
-  <si>
-    <t>women clothing sets</t>
-  </si>
-  <si>
-    <t>crop top black</t>
-  </si>
-  <si>
-    <t>crop top long sleeve for women</t>
-  </si>
-  <si>
-    <t>crop top set for women</t>
-  </si>
-  <si>
-    <t>womens long sleeve workout tops</t>
-  </si>
-  <si>
-    <t>workout set clothes for women</t>
-  </si>
-  <si>
-    <t>workout clothes sexy</t>
-  </si>
-  <si>
-    <t>leggings outfit for women</t>
-  </si>
-  <si>
-    <t>gym clothes set for women</t>
-  </si>
-  <si>
-    <t>black suit for women</t>
-  </si>
-  <si>
-    <t>workout leggings set for women</t>
-  </si>
-  <si>
-    <t>matching set women</t>
-  </si>
-  <si>
-    <t>zip up top</t>
-  </si>
-  <si>
-    <t>exercise outfit for women</t>
-  </si>
-  <si>
-    <t>crop tops exercise</t>
-  </si>
-  <si>
-    <t>crop tops gym</t>
-  </si>
-  <si>
-    <t>crop tops long sleeve</t>
-  </si>
-  <si>
-    <t>crop tops outfits for women</t>
-  </si>
-  <si>
-    <t>sweat suit set</t>
-  </si>
-  <si>
-    <t>sweatsuits for women</t>
-  </si>
-  <si>
-    <t>crop tops women clothing</t>
-  </si>
-  <si>
-    <t>legging shirt</t>
-  </si>
-  <si>
-    <t>sweats for women</t>
-  </si>
-  <si>
-    <t>sweats sets for women</t>
-  </si>
-  <si>
-    <t>sweats suits for women</t>
-  </si>
-  <si>
-    <t>jogging suit for women</t>
-  </si>
-  <si>
-    <t>sweatsuit for women</t>
-  </si>
-  <si>
-    <t>sweatsuit women</t>
-  </si>
-  <si>
-    <t>two piece sets</t>
-  </si>
-  <si>
-    <t>women suits</t>
-  </si>
-  <si>
-    <t>athletic clothes women</t>
-  </si>
-  <si>
-    <t>leggings for gym</t>
-  </si>
-  <si>
-    <t>leggins pink victoria secret</t>
-  </si>
-  <si>
-    <t>2 piece athletic outfits</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>cross sport bra</t>
+  </si>
+  <si>
+    <t>low back sport bra</t>
+  </si>
+  <si>
+    <t>back front</t>
+  </si>
+  <si>
+    <t>sport bra cup</t>
+  </si>
+  <si>
+    <t>cross front sport bra</t>
+  </si>
+  <si>
+    <t>criss cross back sport bra</t>
+  </si>
+  <si>
+    <t>criss cross front sport bra</t>
+  </si>
+  <si>
+    <t>ready pard</t>
+  </si>
+  <si>
+    <t>removable bra cup</t>
+  </si>
+  <si>
+    <t>back cup</t>
+  </si>
+  <si>
+    <t>low sport bra</t>
+  </si>
+  <si>
+    <t>yoga strappy sport bra</t>
+  </si>
+  <si>
+    <t>yoga sport bra top</t>
+  </si>
+  <si>
+    <t>black strappy sport bra</t>
+  </si>
+  <si>
+    <t>black yoga sport bra</t>
+  </si>
+  <si>
+    <t>s with</t>
+  </si>
+  <si>
+    <t>black bra cup</t>
+  </si>
+  <si>
+    <t>black sport bra top</t>
+  </si>
+  <si>
+    <t>yoga m</t>
+  </si>
+  <si>
+    <t>yoga l</t>
+  </si>
+  <si>
+    <t>line sport</t>
+  </si>
+  <si>
+    <t>sport green</t>
+  </si>
+  <si>
+    <t>workout s</t>
+  </si>
+  <si>
+    <t>wirefree sport bra</t>
+  </si>
+  <si>
+    <t>strappy padded sport bra</t>
+  </si>
+  <si>
+    <t>workout long bra</t>
+  </si>
+  <si>
+    <t>green strappy sport bra</t>
+  </si>
+  <si>
+    <t>green sport bra padded</t>
+  </si>
+  <si>
+    <t>wirefree criss cross bra</t>
+  </si>
+  <si>
+    <t>green workout</t>
+  </si>
+  <si>
+    <t>xl sport bra</t>
+  </si>
+  <si>
+    <t>bralette sport bra</t>
+  </si>
+  <si>
+    <t>gym yoga top</t>
+  </si>
+  <si>
+    <t>cute s</t>
+  </si>
+  <si>
+    <t>longline sport bra top</t>
+  </si>
+  <si>
+    <t>longline bralette top</t>
+  </si>
+  <si>
+    <t>strappy longline sport bra</t>
+  </si>
+  <si>
+    <t>pink wireless</t>
+  </si>
+  <si>
+    <t>wireless s</t>
+  </si>
+  <si>
+    <t>cute yoga top</t>
+  </si>
+  <si>
+    <t>longline yoga top</t>
+  </si>
+  <si>
+    <t>pink sport top</t>
+  </si>
+  <si>
+    <t>pink longline sport bra</t>
+  </si>
+  <si>
+    <t>xl cup</t>
+  </si>
+  <si>
+    <t>xl top</t>
+  </si>
+  <si>
+    <t>xl black</t>
+  </si>
+  <si>
+    <t>easy comfort bra criss cross</t>
+  </si>
+  <si>
+    <t>sports bra padded</t>
+  </si>
+  <si>
+    <t>front close sports bras</t>
+  </si>
+  <si>
+    <t>backless bras for women</t>
+  </si>
+  <si>
+    <t>longline bras for women</t>
+  </si>
+  <si>
+    <t>strappy sports bra</t>
+  </si>
+  <si>
+    <t>sexy black lingerie for women</t>
+  </si>
+  <si>
+    <t>strappy bralettes for women</t>
+  </si>
+  <si>
+    <t>ltd iron cross</t>
+  </si>
+  <si>
+    <t>tops yoga</t>
+  </si>
+  <si>
+    <t>bra cups</t>
+  </si>
+  <si>
+    <t>backless tops for women</t>
+  </si>
+  <si>
+    <t>front strappy bra</t>
+  </si>
+  <si>
+    <t>criss cross sports bras for women</t>
+  </si>
+  <si>
+    <t>backless gym tops for women</t>
+  </si>
+  <si>
+    <t>cute yoga tops</t>
+  </si>
+  <si>
+    <t>long sports bra</t>
+  </si>
+  <si>
+    <t>long sports bras for women</t>
+  </si>
+  <si>
+    <t>cute bras for women</t>
+  </si>
+  <si>
+    <t>woman pink tops</t>
+  </si>
+  <si>
+    <t>removable bra cups</t>
+  </si>
+  <si>
+    <t>backless sports bra</t>
+  </si>
+  <si>
+    <t>strappy pink bralette</t>
+  </si>
+  <si>
+    <t>long line sports bra</t>
+  </si>
+  <si>
+    <t>yoga bras for women strappy</t>
+  </si>
+  <si>
+    <t>workout bras</t>
+  </si>
+  <si>
+    <t>long sports bras</t>
+  </si>
+  <si>
+    <t>sexy sports bras</t>
+  </si>
+  <si>
+    <t>womens criss cross sports bra</t>
+  </si>
+  <si>
+    <t>sexy workout sports bras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +274,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +292,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -677,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A100"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1065,131 +965,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BR001-BRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB07872-9D90-4F1D-A25C-5B1FB2B68333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F381ACC9-7CF8-4E10-88BF-41B794A23AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08MPM2BB2" sheetId="1" r:id="rId1"/>
+    <sheet name="B08L7BD4C6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,241 +25,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>cross sport bra</t>
-  </si>
-  <si>
-    <t>low back sport bra</t>
-  </si>
-  <si>
-    <t>back front</t>
-  </si>
-  <si>
-    <t>sport bra cup</t>
-  </si>
-  <si>
-    <t>cross front sport bra</t>
-  </si>
-  <si>
-    <t>criss cross back sport bra</t>
-  </si>
-  <si>
-    <t>criss cross front sport bra</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>green workout</t>
+  </si>
+  <si>
+    <t>green black top woman</t>
+  </si>
+  <si>
+    <t>black 2 piece woman</t>
+  </si>
+  <si>
+    <t>green set woman</t>
+  </si>
+  <si>
+    <t>green workout pant woman</t>
+  </si>
+  <si>
+    <t>black workout clothe</t>
+  </si>
+  <si>
+    <t>green black workout set</t>
+  </si>
+  <si>
+    <t>top woman set</t>
+  </si>
+  <si>
+    <t>jogger pant set woman</t>
+  </si>
+  <si>
+    <t>woman workout crop</t>
+  </si>
+  <si>
+    <t>woman high</t>
+  </si>
+  <si>
+    <t>fashionable workout clothe woman</t>
+  </si>
+  <si>
+    <t>black green pant</t>
+  </si>
+  <si>
+    <t>woman clothe top</t>
+  </si>
+  <si>
+    <t>jogger woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant jogger woman</t>
+  </si>
+  <si>
+    <t>tight 2 piece outfit</t>
+  </si>
+  <si>
+    <t>with tight</t>
+  </si>
+  <si>
+    <t>compression clothe</t>
+  </si>
+  <si>
+    <t>seamless yoga top</t>
+  </si>
+  <si>
+    <t>workout legging top</t>
+  </si>
+  <si>
+    <t>seamless tracksuit</t>
+  </si>
+  <si>
+    <t>long yoga legging</t>
+  </si>
+  <si>
+    <t>legging 2 piece outfit</t>
+  </si>
+  <si>
+    <t>2 legging</t>
   </si>
   <si>
     <t>ready pard</t>
   </si>
   <si>
-    <t>removable bra cup</t>
-  </si>
-  <si>
-    <t>back cup</t>
-  </si>
-  <si>
-    <t>low sport bra</t>
-  </si>
-  <si>
-    <t>yoga strappy sport bra</t>
-  </si>
-  <si>
-    <t>yoga sport bra top</t>
-  </si>
-  <si>
-    <t>black strappy sport bra</t>
-  </si>
-  <si>
-    <t>black yoga sport bra</t>
-  </si>
-  <si>
-    <t>s with</t>
-  </si>
-  <si>
-    <t>black bra cup</t>
-  </si>
-  <si>
-    <t>black sport bra top</t>
-  </si>
-  <si>
-    <t>yoga m</t>
-  </si>
-  <si>
-    <t>yoga l</t>
-  </si>
-  <si>
-    <t>line sport</t>
-  </si>
-  <si>
-    <t>sport green</t>
-  </si>
-  <si>
-    <t>workout s</t>
-  </si>
-  <si>
-    <t>wirefree sport bra</t>
-  </si>
-  <si>
-    <t>strappy padded sport bra</t>
-  </si>
-  <si>
-    <t>workout long bra</t>
-  </si>
-  <si>
-    <t>green strappy sport bra</t>
-  </si>
-  <si>
-    <t>green sport bra padded</t>
-  </si>
-  <si>
-    <t>wirefree criss cross bra</t>
-  </si>
-  <si>
-    <t>green workout</t>
-  </si>
-  <si>
-    <t>xl sport bra</t>
-  </si>
-  <si>
-    <t>bralette sport bra</t>
-  </si>
-  <si>
-    <t>gym yoga top</t>
-  </si>
-  <si>
-    <t>cute s</t>
-  </si>
-  <si>
-    <t>longline sport bra top</t>
-  </si>
-  <si>
-    <t>longline bralette top</t>
-  </si>
-  <si>
-    <t>strappy longline sport bra</t>
-  </si>
-  <si>
-    <t>pink wireless</t>
-  </si>
-  <si>
-    <t>wireless s</t>
-  </si>
-  <si>
-    <t>cute yoga top</t>
-  </si>
-  <si>
-    <t>longline yoga top</t>
-  </si>
-  <si>
-    <t>pink sport top</t>
-  </si>
-  <si>
-    <t>pink longline sport bra</t>
-  </si>
-  <si>
-    <t>xl cup</t>
-  </si>
-  <si>
-    <t>xl top</t>
-  </si>
-  <si>
-    <t>xl black</t>
-  </si>
-  <si>
-    <t>easy comfort bra criss cross</t>
-  </si>
-  <si>
-    <t>sports bra padded</t>
-  </si>
-  <si>
-    <t>front close sports bras</t>
-  </si>
-  <si>
-    <t>backless bras for women</t>
-  </si>
-  <si>
-    <t>longline bras for women</t>
-  </si>
-  <si>
-    <t>strappy sports bra</t>
-  </si>
-  <si>
-    <t>sexy black lingerie for women</t>
-  </si>
-  <si>
-    <t>strappy bralettes for women</t>
-  </si>
-  <si>
-    <t>ltd iron cross</t>
-  </si>
-  <si>
-    <t>tops yoga</t>
-  </si>
-  <si>
-    <t>bra cups</t>
-  </si>
-  <si>
-    <t>backless tops for women</t>
-  </si>
-  <si>
-    <t>front strappy bra</t>
-  </si>
-  <si>
-    <t>criss cross sports bras for women</t>
-  </si>
-  <si>
-    <t>backless gym tops for women</t>
-  </si>
-  <si>
-    <t>cute yoga tops</t>
-  </si>
-  <si>
-    <t>long sports bra</t>
-  </si>
-  <si>
-    <t>long sports bras for women</t>
-  </si>
-  <si>
-    <t>cute bras for women</t>
-  </si>
-  <si>
-    <t>woman pink tops</t>
-  </si>
-  <si>
-    <t>removable bra cups</t>
-  </si>
-  <si>
-    <t>backless sports bra</t>
-  </si>
-  <si>
-    <t>strappy pink bralette</t>
-  </si>
-  <si>
-    <t>long line sports bra</t>
-  </si>
-  <si>
-    <t>yoga bras for women strappy</t>
-  </si>
-  <si>
-    <t>workout bras</t>
-  </si>
-  <si>
-    <t>long sports bras</t>
-  </si>
-  <si>
-    <t>sexy sports bras</t>
-  </si>
-  <si>
-    <t>womens criss cross sports bra</t>
-  </si>
-  <si>
-    <t>sexy workout sports bras</t>
+    <t>2 top</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless</t>
+  </si>
+  <si>
+    <t>high yoga legging</t>
+  </si>
+  <si>
+    <t>ready 2</t>
+  </si>
+  <si>
+    <t>bodybuilding apparel</t>
+  </si>
+  <si>
+    <t>women jogging sets</t>
+  </si>
+  <si>
+    <t>workout bodysuit</t>
+  </si>
+  <si>
+    <t>work out clothes</t>
+  </si>
+  <si>
+    <t>yoga suits</t>
+  </si>
+  <si>
+    <t>yoga long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women under armour</t>
+  </si>
+  <si>
+    <t>crop long sleeve</t>
+  </si>
+  <si>
+    <t>workout leggings and top</t>
+  </si>
+  <si>
+    <t>womens activewear long sleeve</t>
+  </si>
+  <si>
+    <t>zip up crop top</t>
+  </si>
+  <si>
+    <t>gym outfit set</t>
+  </si>
+  <si>
+    <t>black outfit set</t>
+  </si>
+  <si>
+    <t>cropped shirt</t>
+  </si>
+  <si>
+    <t>top fashion</t>
+  </si>
+  <si>
+    <t>2 piece yoga outfit</t>
+  </si>
+  <si>
+    <t>exercise tights</t>
+  </si>
+  <si>
+    <t>workout long sleeve tops for women</t>
+  </si>
+  <si>
+    <t>seamless shirts for women</t>
+  </si>
+  <si>
+    <t>woman gym leggings</t>
+  </si>
+  <si>
+    <t>yoga long sleeve</t>
+  </si>
+  <si>
+    <t>blue crop top set</t>
+  </si>
+  <si>
+    <t>activewear for women sets</t>
+  </si>
+  <si>
+    <t>long sleeve crop workout shirt</t>
+  </si>
+  <si>
+    <t>track crop top</t>
+  </si>
+  <si>
+    <t>long sleeve workout</t>
+  </si>
+  <si>
+    <t>2 piece shirt</t>
+  </si>
+  <si>
+    <t>2 piece crop set</t>
+  </si>
+  <si>
+    <t>high waist long leggings</t>
+  </si>
+  <si>
+    <t>women jogging suits</t>
+  </si>
+  <si>
+    <t>blue workout shirt</t>
+  </si>
+  <si>
+    <t>green woman</t>
+  </si>
+  <si>
+    <t>tight pink shirt</t>
+  </si>
+  <si>
+    <t>pink workout crop top</t>
+  </si>
+  <si>
+    <t>tight workout shirt</t>
+  </si>
+  <si>
+    <t>winter long sleeve</t>
+  </si>
+  <si>
+    <t>matching crop top</t>
+  </si>
+  <si>
+    <t>zip up compression</t>
+  </si>
+  <si>
+    <t>pink ribbed crop top</t>
+  </si>
+  <si>
+    <t>women warm up sets</t>
+  </si>
+  <si>
+    <t>winter sweatsuit</t>
+  </si>
+  <si>
+    <t>green jogger set</t>
+  </si>
+  <si>
+    <t>winter workout top</t>
+  </si>
+  <si>
+    <t>victoria secret exercise clothes</t>
+  </si>
+  <si>
+    <t>black suit pant</t>
+  </si>
+  <si>
+    <t>pink sports sleeve</t>
+  </si>
+  <si>
+    <t>black yoga outfit</t>
+  </si>
+  <si>
+    <t>athletic legging set</t>
+  </si>
+  <si>
+    <t>blue outfit set</t>
+  </si>
+  <si>
+    <t>tight pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>tight pink long sleeve</t>
+  </si>
+  <si>
+    <t>cute tracksuit sets for women</t>
+  </si>
+  <si>
+    <t>super soft leggings for women</t>
+  </si>
+  <si>
+    <t>blue tight top</t>
+  </si>
+  <si>
+    <t>blue tight crop top</t>
+  </si>
+  <si>
+    <t>one piece workout outfit for women</t>
+  </si>
+  <si>
+    <t>sweat suits for women cotton</t>
+  </si>
+  <si>
+    <t>womens athletic clothing</t>
+  </si>
+  <si>
+    <t>leggings gym</t>
+  </si>
+  <si>
+    <t>long shirts</t>
+  </si>
+  <si>
+    <t>gym tights for women</t>
+  </si>
+  <si>
+    <t>women workout sets clothes</t>
+  </si>
+  <si>
+    <t>suit shirt</t>
+  </si>
+  <si>
+    <t>crop yoga top</t>
+  </si>
+  <si>
+    <t>cheap gym clothes</t>
+  </si>
+  <si>
+    <t>ribbed fabric</t>
+  </si>
+  <si>
+    <t>gym workout clothes</t>
+  </si>
+  <si>
+    <t>skinny shirts for women</t>
+  </si>
+  <si>
+    <t>crop top pants suit</t>
+  </si>
+  <si>
+    <t>pink crop top long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,13 +346,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,16 +378,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -577,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,8 +1065,131 @@
         <v>75</v>
       </c>
     </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A97:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7DEA6-86CB-4133-AAE7-54CC8187D72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD36E9E-0602-498B-800D-3EBE5E1A3615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>bodybuilding clothing</t>
-  </si>
-  <si>
-    <t>womens workout crop top</t>
-  </si>
-  <si>
-    <t>matching set for women</t>
-  </si>
-  <si>
-    <t>sweat suit for women</t>
-  </si>
-  <si>
-    <t>tracksuits women</t>
-  </si>
-  <si>
-    <t>exercise sets for women</t>
-  </si>
-  <si>
-    <t>matching workout sets</t>
-  </si>
-  <si>
-    <t>women exercise</t>
-  </si>
-  <si>
-    <t>sexy workout leggings for women</t>
-  </si>
-  <si>
-    <t>sports suits for women</t>
-  </si>
-  <si>
-    <t>women winter workout clothes</t>
-  </si>
-  <si>
-    <t>track suit for women two piece</t>
-  </si>
-  <si>
-    <t>2 pc track suits</t>
-  </si>
-  <si>
-    <t>sweatsuits sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>adidas track suits for women set</t>
-  </si>
-  <si>
-    <t>sport leggings women</t>
-  </si>
-  <si>
-    <t>pink sweat suits for women</t>
-  </si>
-  <si>
-    <t>pink sweatsuit for women 2 piece</t>
-  </si>
-  <si>
-    <t>sweat suits women adidas</t>
-  </si>
-  <si>
-    <t>crop top outfits</t>
-  </si>
-  <si>
-    <t>workout outfit for women</t>
-  </si>
-  <si>
-    <t>addidas workout clothes for women</t>
-  </si>
-  <si>
-    <t>2 piece sweat suits for women</t>
-  </si>
-  <si>
-    <t>black seamless leggings for women</t>
-  </si>
-  <si>
-    <t>track suits for women sexy</t>
-  </si>
-  <si>
-    <t>gymshark workout clothes women</t>
-  </si>
-  <si>
-    <t>betsey johnson workout clothes for women</t>
-  </si>
-  <si>
-    <t>tye dye sweat suits for women set</t>
-  </si>
-  <si>
-    <t>suna sweat suits for women set</t>
-  </si>
-  <si>
-    <t>work out sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>tracksuit womens for winter</t>
-  </si>
-  <si>
-    <t>sexy fitness leggings</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing velvet</t>
-  </si>
-  <si>
-    <t>workout clothes sets</t>
-  </si>
-  <si>
-    <t>woman track suit</t>
-  </si>
-  <si>
-    <t>shirt with leggings</t>
-  </si>
-  <si>
-    <t>exercise sweat suits for women</t>
-  </si>
-  <si>
-    <t>yoga set pink</t>
-  </si>
-  <si>
-    <t>black blue leggings</t>
-  </si>
-  <si>
-    <t>athletic sets</t>
-  </si>
-  <si>
-    <t>workout matching sets for women</t>
-  </si>
-  <si>
-    <t>2 pieces set women clothing</t>
-  </si>
-  <si>
-    <t>sexy women workout</t>
-  </si>
-  <si>
-    <t>workout clothes for women long sleeve</t>
-  </si>
-  <si>
-    <t>sexy matching set</t>
-  </si>
-  <si>
-    <t>diary jogger set</t>
-  </si>
-  <si>
-    <t>womens workout outfits sets 2 piece</t>
-  </si>
-  <si>
-    <t>women's athletic clothing sets</t>
-  </si>
-  <si>
-    <t>woman sweatsuit</t>
-  </si>
-  <si>
-    <t>winter clothes for women set</t>
-  </si>
-  <si>
-    <t>womens winter sets</t>
-  </si>
-  <si>
-    <t>two piece for women outfit</t>
-  </si>
-  <si>
-    <t>womens track set</t>
-  </si>
-  <si>
-    <t>womens long sleeve crop top</t>
-  </si>
-  <si>
-    <t>seamless sets activewear</t>
-  </si>
-  <si>
-    <t>black two piece outfits for women</t>
-  </si>
-  <si>
-    <t>crop leggings workout</t>
-  </si>
-  <si>
-    <t>leggings with holes</t>
-  </si>
-  <si>
-    <t>woman's sweatsuits</t>
-  </si>
-  <si>
-    <t>workout croptops for womens</t>
-  </si>
-  <si>
-    <t>2 piece outfits for women sexy</t>
-  </si>
-  <si>
-    <t>workout tops for women long sleeve</t>
-  </si>
-  <si>
-    <t>womens two piece outfits long sleeve</t>
-  </si>
-  <si>
-    <t>clothes for gym women</t>
-  </si>
-  <si>
-    <t>womens warm up suits 2 piece</t>
-  </si>
-  <si>
-    <t>long sleeve workout tops for women</t>
-  </si>
-  <si>
-    <t>womens outfit set</t>
-  </si>
-  <si>
-    <t>two pieces outfits for women</t>
-  </si>
-  <si>
-    <t>womens athletic crop top</t>
-  </si>
-  <si>
-    <t>sexy sets for women outfit</t>
-  </si>
-  <si>
-    <t>women sweat suits sets</t>
-  </si>
-  <si>
-    <t>tracksuit sets for women</t>
-  </si>
-  <si>
-    <t>workout set women 2 piece</t>
-  </si>
-  <si>
-    <t>victoria secret pink leggins</t>
-  </si>
-  <si>
-    <t>work out outfits for women</t>
-  </si>
-  <si>
-    <t>womens sweatsuits sets clearance</t>
-  </si>
-  <si>
-    <t>women workout crop tops</t>
-  </si>
-  <si>
-    <t>gym shirt for women</t>
-  </si>
-  <si>
-    <t>cropped black leggings for women</t>
-  </si>
-  <si>
-    <t>long sleeve yoga tops for women</t>
-  </si>
-  <si>
-    <t>seamless workout set for women</t>
-  </si>
-  <si>
-    <t>womens sport clothing</t>
-  </si>
-  <si>
-    <t>womens athletic tops long sleeve</t>
-  </si>
-  <si>
-    <t>nike womens sweatsuits 2 piece</t>
-  </si>
-  <si>
-    <t>sweaters women workout</t>
-  </si>
-  <si>
-    <t>2 peice womens workout outfit</t>
-  </si>
-  <si>
-    <t>womans crop shirt</t>
-  </si>
-  <si>
-    <t>workouts sets women</t>
-  </si>
-  <si>
-    <t>blue black outfit</t>
-  </si>
-  <si>
-    <t>2 peice workout outfit</t>
-  </si>
-  <si>
-    <t>womens athletic sets 2 piece</t>
-  </si>
-  <si>
-    <t>matching workout outfit set</t>
-  </si>
-  <si>
-    <t>long sleeve exercise outfit</t>
-  </si>
-  <si>
-    <t>excercise outfits women</t>
-  </si>
-  <si>
-    <t>matching athletic sets women</t>
-  </si>
-  <si>
-    <t>crop yoga jacket</t>
-  </si>
-  <si>
-    <t>women two piece outfits sets</t>
-  </si>
-  <si>
-    <t>body suit for women</t>
-  </si>
-  <si>
-    <t>workout 2 piece sets for women</t>
-  </si>
-  <si>
-    <t>workout zip up women</t>
+    <t>body suit set</t>
+  </si>
+  <si>
+    <t>crop top sport</t>
+  </si>
+  <si>
+    <t>2 piece clothing sets for women</t>
+  </si>
+  <si>
+    <t>winter yoga clothes</t>
+  </si>
+  <si>
+    <t>pink yoga set</t>
+  </si>
+  <si>
+    <t>gym bodysuit for women</t>
+  </si>
+  <si>
+    <t>workout body suit</t>
+  </si>
+  <si>
+    <t>shirts for the gym</t>
+  </si>
+  <si>
+    <t>crop tops for women workout</t>
+  </si>
+  <si>
+    <t>clearance long shirts</t>
+  </si>
+  <si>
+    <t>long sweats</t>
+  </si>
+  <si>
+    <t>long sleeve athletic compression shirts</t>
+  </si>
+  <si>
+    <t>yoga leggings soft</t>
+  </si>
+  <si>
+    <t>long crop top for women</t>
+  </si>
+  <si>
+    <t>soft seamless leggings</t>
+  </si>
+  <si>
+    <t>women's sport clothing</t>
+  </si>
+  <si>
+    <t>womens sweat suits 2 piece</t>
+  </si>
+  <si>
+    <t>womens athletic long sleeve</t>
+  </si>
+  <si>
+    <t>body suit tops</t>
+  </si>
+  <si>
+    <t>long shirts for women</t>
+  </si>
+  <si>
+    <t>sports clothing for women</t>
+  </si>
+  <si>
+    <t>sets for women clothing</t>
+  </si>
+  <si>
+    <t>women's activewear outfits</t>
+  </si>
+  <si>
+    <t>full sweat suit for women</t>
+  </si>
+  <si>
+    <t>women sport clothing</t>
+  </si>
+  <si>
+    <t>black track suit for women</t>
+  </si>
+  <si>
+    <t>workout crops</t>
+  </si>
+  <si>
+    <t>womens yoga outfit 2 piece</t>
+  </si>
+  <si>
+    <t>ladies active wear sets</t>
+  </si>
+  <si>
+    <t>jogging suits for women pink</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing green</t>
+  </si>
+  <si>
+    <t>womens active wear long sleeve</t>
+  </si>
+  <si>
+    <t>lounge apparel sets for women</t>
+  </si>
+  <si>
+    <t>top pc</t>
+  </si>
+  <si>
+    <t>sequence two piece set for women</t>
+  </si>
+  <si>
+    <t>silver sweat suit women</t>
+  </si>
+  <si>
+    <t>just for fun two piece set womens</t>
+  </si>
+  <si>
+    <t>two pieces long sleeves women</t>
+  </si>
+  <si>
+    <t>fuzzy two piece set womens</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece shorts</t>
+  </si>
+  <si>
+    <t>fitness apparel for women</t>
+  </si>
+  <si>
+    <t>gym apparel for women</t>
+  </si>
+  <si>
+    <t>crop tops for women</t>
+  </si>
+  <si>
+    <t>long gym shirts for women</t>
+  </si>
+  <si>
+    <t>womens matching sets</t>
+  </si>
+  <si>
+    <t>women shirt long</t>
+  </si>
+  <si>
+    <t>athletic tops for women long sleeve</t>
+  </si>
+  <si>
+    <t>black crop jacket for women</t>
+  </si>
+  <si>
+    <t>sports legging for women</t>
+  </si>
+  <si>
+    <t>yoga top long</t>
+  </si>
+  <si>
+    <t>sexy two piece sets for women</t>
+  </si>
+  <si>
+    <t>fitness outfit women</t>
+  </si>
+  <si>
+    <t>sweat suits set</t>
+  </si>
+  <si>
+    <t>women fitness crop top</t>
+  </si>
+  <si>
+    <t>activewear long sleeve</t>
+  </si>
+  <si>
+    <t>long athletic shirts for women</t>
+  </si>
+  <si>
+    <t>thermal workout clothes for women</t>
+  </si>
+  <si>
+    <t>gym pack for women</t>
+  </si>
+  <si>
+    <t>black legging sets</t>
+  </si>
+  <si>
+    <t>athlesuire wear</t>
+  </si>
+  <si>
+    <t>women bodybuilding</t>
+  </si>
+  <si>
+    <t>warm workout clothes for women</t>
+  </si>
+  <si>
+    <t>female yoga clothes</t>
+  </si>
+  <si>
+    <t>jacket crop</t>
+  </si>
+  <si>
+    <t>ladies two piece suits</t>
+  </si>
+  <si>
+    <t>legging suits for women</t>
+  </si>
+  <si>
+    <t>pink track suits</t>
+  </si>
+  <si>
+    <t>and jacket set</t>
+  </si>
+  <si>
+    <t>green sweatsuit women</t>
+  </si>
+  <si>
+    <t>slimming workout clothes for women</t>
+  </si>
+  <si>
+    <t>female body building</t>
+  </si>
+  <si>
+    <t>sweatsuit woman</t>
+  </si>
+  <si>
+    <t>workout crop long sleeve</t>
+  </si>
+  <si>
+    <t>workout sweatsuits for women</t>
+  </si>
+  <si>
+    <t>woman winter clothing</t>
+  </si>
+  <si>
+    <t>womens winter shirts</t>
+  </si>
+  <si>
+    <t>women two pieces outfit</t>
+  </si>
+  <si>
+    <t>black and blue shirt women</t>
+  </si>
+  <si>
+    <t>womens running suits</t>
+  </si>
+  <si>
+    <t>sexy long sleeve outfits for women</t>
+  </si>
+  <si>
+    <t>womens black workout shirt</t>
+  </si>
+  <si>
+    <t>hanes womens sweat suits</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing nfl</t>
+  </si>
+  <si>
+    <t>workout clothes for women pink</t>
+  </si>
+  <si>
+    <t>super clothing</t>
+  </si>
+  <si>
+    <t>tight crop</t>
+  </si>
+  <si>
+    <t>zip up body suit</t>
+  </si>
+  <si>
+    <t>two sets</t>
+  </si>
+  <si>
+    <t>black yoga crop</t>
+  </si>
+  <si>
+    <t>two piece shirt set</t>
+  </si>
+  <si>
+    <t>women active wear sets</t>
+  </si>
+  <si>
+    <t>workout shirt crop</t>
+  </si>
+  <si>
+    <t>long sleeve gym crop</t>
+  </si>
+  <si>
+    <t>sweatsuits womens</t>
+  </si>
+  <si>
+    <t>camo two piece set for women</t>
+  </si>
+  <si>
+    <t>two piece sets for women business</t>
+  </si>
+  <si>
+    <t>long sleeve workout shirts for women cropped</t>
+  </si>
+  <si>
+    <t>crop top and high waist wide leg pants</t>
+  </si>
+  <si>
+    <t>gym clothe for women</t>
+  </si>
+  <si>
+    <t>black spandex body suit for women</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pnt-vm\pnt\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD36E9E-0602-498B-800D-3EBE5E1A3615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC0AE-7448-4A8E-8100-FD6276B80335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,311 +27,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>body suit set</t>
-  </si>
-  <si>
-    <t>crop top sport</t>
-  </si>
-  <si>
-    <t>2 piece clothing sets for women</t>
-  </si>
-  <si>
-    <t>winter yoga clothes</t>
-  </si>
-  <si>
-    <t>pink yoga set</t>
-  </si>
-  <si>
-    <t>gym bodysuit for women</t>
-  </si>
-  <si>
-    <t>workout body suit</t>
-  </si>
-  <si>
-    <t>shirts for the gym</t>
-  </si>
-  <si>
-    <t>crop tops for women workout</t>
-  </si>
-  <si>
-    <t>clearance long shirts</t>
-  </si>
-  <si>
-    <t>long sweats</t>
-  </si>
-  <si>
-    <t>long sleeve athletic compression shirts</t>
-  </si>
-  <si>
-    <t>yoga leggings soft</t>
-  </si>
-  <si>
-    <t>long crop top for women</t>
-  </si>
-  <si>
-    <t>soft seamless leggings</t>
-  </si>
-  <si>
-    <t>women's sport clothing</t>
-  </si>
-  <si>
-    <t>womens sweat suits 2 piece</t>
-  </si>
-  <si>
-    <t>womens athletic long sleeve</t>
-  </si>
-  <si>
-    <t>body suit tops</t>
-  </si>
-  <si>
-    <t>long shirts for women</t>
-  </si>
-  <si>
-    <t>sports clothing for women</t>
-  </si>
-  <si>
-    <t>sets for women clothing</t>
-  </si>
-  <si>
-    <t>women's activewear outfits</t>
-  </si>
-  <si>
-    <t>full sweat suit for women</t>
-  </si>
-  <si>
-    <t>women sport clothing</t>
-  </si>
-  <si>
-    <t>black track suit for women</t>
-  </si>
-  <si>
-    <t>workout crops</t>
-  </si>
-  <si>
-    <t>womens yoga outfit 2 piece</t>
-  </si>
-  <si>
-    <t>ladies active wear sets</t>
-  </si>
-  <si>
-    <t>jogging suits for women pink</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing green</t>
-  </si>
-  <si>
-    <t>womens active wear long sleeve</t>
-  </si>
-  <si>
-    <t>lounge apparel sets for women</t>
-  </si>
-  <si>
-    <t>top pc</t>
-  </si>
-  <si>
-    <t>sequence two piece set for women</t>
-  </si>
-  <si>
-    <t>silver sweat suit women</t>
-  </si>
-  <si>
-    <t>just for fun two piece set womens</t>
-  </si>
-  <si>
-    <t>two pieces long sleeves women</t>
-  </si>
-  <si>
-    <t>fuzzy two piece set womens</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece shorts</t>
-  </si>
-  <si>
-    <t>fitness apparel for women</t>
-  </si>
-  <si>
-    <t>gym apparel for women</t>
-  </si>
-  <si>
-    <t>crop tops for women</t>
-  </si>
-  <si>
-    <t>long gym shirts for women</t>
-  </si>
-  <si>
-    <t>womens matching sets</t>
-  </si>
-  <si>
-    <t>women shirt long</t>
-  </si>
-  <si>
-    <t>athletic tops for women long sleeve</t>
-  </si>
-  <si>
-    <t>black crop jacket for women</t>
-  </si>
-  <si>
-    <t>sports legging for women</t>
-  </si>
-  <si>
-    <t>yoga top long</t>
-  </si>
-  <si>
-    <t>sexy two piece sets for women</t>
-  </si>
-  <si>
-    <t>fitness outfit women</t>
-  </si>
-  <si>
-    <t>sweat suits set</t>
-  </si>
-  <si>
-    <t>women fitness crop top</t>
-  </si>
-  <si>
-    <t>activewear long sleeve</t>
-  </si>
-  <si>
-    <t>long athletic shirts for women</t>
-  </si>
-  <si>
-    <t>thermal workout clothes for women</t>
-  </si>
-  <si>
-    <t>gym pack for women</t>
-  </si>
-  <si>
-    <t>black legging sets</t>
-  </si>
-  <si>
-    <t>athlesuire wear</t>
-  </si>
-  <si>
-    <t>women bodybuilding</t>
-  </si>
-  <si>
-    <t>warm workout clothes for women</t>
-  </si>
-  <si>
-    <t>female yoga clothes</t>
-  </si>
-  <si>
-    <t>jacket crop</t>
-  </si>
-  <si>
-    <t>ladies two piece suits</t>
-  </si>
-  <si>
-    <t>legging suits for women</t>
-  </si>
-  <si>
-    <t>pink track suits</t>
-  </si>
-  <si>
-    <t>and jacket set</t>
-  </si>
-  <si>
-    <t>green sweatsuit women</t>
-  </si>
-  <si>
-    <t>slimming workout clothes for women</t>
-  </si>
-  <si>
-    <t>female body building</t>
-  </si>
-  <si>
-    <t>sweatsuit woman</t>
-  </si>
-  <si>
-    <t>workout crop long sleeve</t>
-  </si>
-  <si>
-    <t>workout sweatsuits for women</t>
-  </si>
-  <si>
-    <t>woman winter clothing</t>
-  </si>
-  <si>
-    <t>womens winter shirts</t>
-  </si>
-  <si>
-    <t>women two pieces outfit</t>
-  </si>
-  <si>
-    <t>black and blue shirt women</t>
-  </si>
-  <si>
-    <t>womens running suits</t>
-  </si>
-  <si>
-    <t>sexy long sleeve outfits for women</t>
-  </si>
-  <si>
-    <t>womens black workout shirt</t>
-  </si>
-  <si>
-    <t>hanes womens sweat suits</t>
-  </si>
-  <si>
-    <t>victoria secret pink clothing nfl</t>
-  </si>
-  <si>
-    <t>workout clothes for women pink</t>
-  </si>
-  <si>
-    <t>super clothing</t>
-  </si>
-  <si>
-    <t>tight crop</t>
-  </si>
-  <si>
-    <t>zip up body suit</t>
-  </si>
-  <si>
-    <t>two sets</t>
-  </si>
-  <si>
-    <t>black yoga crop</t>
-  </si>
-  <si>
-    <t>two piece shirt set</t>
-  </si>
-  <si>
-    <t>women active wear sets</t>
-  </si>
-  <si>
-    <t>workout shirt crop</t>
-  </si>
-  <si>
-    <t>long sleeve gym crop</t>
-  </si>
-  <si>
-    <t>sweatsuits womens</t>
-  </si>
-  <si>
-    <t>camo two piece set for women</t>
-  </si>
-  <si>
-    <t>two piece sets for women business</t>
-  </si>
-  <si>
-    <t>long sleeve workout shirts for women cropped</t>
-  </si>
-  <si>
-    <t>crop top and high waist wide leg pants</t>
-  </si>
-  <si>
-    <t>gym clothe for women</t>
-  </si>
-  <si>
-    <t>black spandex body suit for women</t>
+    <t>jogger woman high waist</t>
+  </si>
+  <si>
+    <t>black jogger woman</t>
+  </si>
+  <si>
+    <t>workout crop top woman</t>
+  </si>
+  <si>
+    <t>jogger set woman 2 piece</t>
+  </si>
+  <si>
+    <t>workout pant woman</t>
+  </si>
+  <si>
+    <t>workout set woman 2 piece</t>
+  </si>
+  <si>
+    <t>black pant woman</t>
+  </si>
+  <si>
+    <t>workout clothe woman</t>
+  </si>
+  <si>
+    <t>workout top woman</t>
+  </si>
+  <si>
+    <t>crop athletic jacket</t>
+  </si>
+  <si>
+    <t>tight clothe</t>
+  </si>
+  <si>
+    <t>black yoga tight</t>
+  </si>
+  <si>
+    <t>black compression tight</t>
+  </si>
+  <si>
+    <t>turquoise clothe</t>
+  </si>
+  <si>
+    <t>turquoise piece</t>
+  </si>
+  <si>
+    <t>fitness tight</t>
+  </si>
+  <si>
+    <t>crop tight</t>
+  </si>
+  <si>
+    <t>clothe compression</t>
+  </si>
+  <si>
+    <t>turquoise tight</t>
+  </si>
+  <si>
+    <t>piece black</t>
+  </si>
+  <si>
+    <t>athletic tight</t>
+  </si>
+  <si>
+    <t>fitness clothe</t>
+  </si>
+  <si>
+    <t>compression yoga tight</t>
+  </si>
+  <si>
+    <t>clothe outfit</t>
+  </si>
+  <si>
+    <t>athletic clothe</t>
+  </si>
+  <si>
+    <t>black clothe</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>athletic sport</t>
+  </si>
+  <si>
+    <t>fitness jogger</t>
+  </si>
+  <si>
+    <t>jogging legging</t>
+  </si>
+  <si>
+    <t>seamless athletic legging</t>
+  </si>
+  <si>
+    <t>two set top</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>long workout legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging high waist</t>
+  </si>
+  <si>
+    <t>2 piece seamless workout outfit</t>
+  </si>
+  <si>
+    <t>crop workout legging</t>
+  </si>
+  <si>
+    <t>yoga seamless outfit</t>
+  </si>
+  <si>
+    <t>2 piece outfit long sleeve</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>long sleeve workout outfit</t>
+  </si>
+  <si>
+    <t>high waist crop legging</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>high waist legging long</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>long sleeve crop top outfit</t>
+  </si>
+  <si>
+    <t>long sleeve top legging</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>jogger legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>long top legging</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>work out</t>
+  </si>
+  <si>
+    <t>fashion top</t>
+  </si>
+  <si>
+    <t>athletic sleeve</t>
+  </si>
+  <si>
+    <t>gym shirt</t>
+  </si>
+  <si>
+    <t>two piece</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>workout waist</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>track set</t>
+  </si>
+  <si>
+    <t>yoga fitness</t>
+  </si>
+  <si>
+    <t>yoga jacket</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>bodybuilding shirt</t>
+  </si>
+  <si>
+    <t>turquoise jacket</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>high top</t>
+  </si>
+  <si>
+    <t>fitness apparel</t>
+  </si>
+  <si>
+    <t>crop top</t>
+  </si>
+  <si>
+    <t>sleeve top</t>
+  </si>
+  <si>
+    <t>fashion set</t>
+  </si>
+  <si>
+    <t>high waist black pant</t>
+  </si>
+  <si>
+    <t>legging crop top set</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout crop top</t>
+  </si>
+  <si>
+    <t>workout matching set</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>workout shirt long sleeve</t>
+  </si>
+  <si>
+    <t>long sleeve shirt</t>
+  </si>
+  <si>
+    <t>pink long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>black suit</t>
+  </si>
+  <si>
+    <t>black jacket</t>
+  </si>
+  <si>
+    <t>black legging</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>black long sleeve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +346,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,30 +364,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{6B4B9581-7B3B-4F9E-A799-5079CE5900E5}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -680,7 +652,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,30 +1138,27 @@
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\yoga-suit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD8E95-9E7F-447C-A076-592E7B32940F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C606288-3FEF-4124-862C-0C87F70A213C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,39 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>womens long sleeve gym shirt</t>
-  </si>
-  <si>
-    <t>crop top with zipper in front</t>
-  </si>
-  <si>
-    <t>blue apparel for women</t>
-  </si>
-  <si>
-    <t>long crop workout top</t>
-  </si>
-  <si>
-    <t>winter fitness clothing</t>
-  </si>
-  <si>
-    <t>outfits for women for gym</t>
-  </si>
-  <si>
-    <t>pans para mujer para frio 2 piezas</t>
-  </si>
-  <si>
-    <t>womens lounge suits sets</t>
-  </si>
-  <si>
-    <t>womens sweat suits on sale</t>
-  </si>
-  <si>
-    <t>green sets women outfit</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece outfit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>women long sleeve activewear</t>
+  </si>
+  <si>
+    <t>sport outfit for women</t>
+  </si>
+  <si>
+    <t>sexy clothes for women</t>
+  </si>
+  <si>
+    <t>finger yoga</t>
+  </si>
+  <si>
+    <t>sportswear suit</t>
+  </si>
+  <si>
+    <t>long sleeve workout tops</t>
+  </si>
+  <si>
+    <t>gym clothing women</t>
+  </si>
+  <si>
+    <t>crop top long sleeve</t>
+  </si>
+  <si>
+    <t>crop top outfits for women</t>
+  </si>
+  <si>
+    <t>crop top pack</t>
+  </si>
+  <si>
+    <t>crop top with pants</t>
+  </si>
+  <si>
+    <t>workout tops crop</t>
+  </si>
+  <si>
+    <t>active wear outfits for women</t>
+  </si>
+  <si>
+    <t>adidas women jogging suits sets</t>
+  </si>
+  <si>
+    <t>ladies suits for work</t>
+  </si>
+  <si>
+    <t>womens long sleeve compression shirt</t>
+  </si>
+  <si>
+    <t>pink victoria secret t shirts</t>
+  </si>
+  <si>
+    <t>suits for women sport</t>
+  </si>
+  <si>
+    <t>womens suits for work</t>
+  </si>
+  <si>
+    <t>winter clothing for women</t>
+  </si>
+  <si>
+    <t>sexy workout leggings</t>
+  </si>
+  <si>
+    <t>athletic long sleeve women</t>
+  </si>
+  <si>
+    <t>suit shirts for women</t>
+  </si>
+  <si>
+    <t>cropped sleeve shirt</t>
+  </si>
+  <si>
+    <t>two piece set for women</t>
+  </si>
+  <si>
+    <t>gym suit</t>
+  </si>
+  <si>
+    <t>womans tracksuit set</t>
+  </si>
+  <si>
+    <t>crop top high waist pants set</t>
+  </si>
+  <si>
+    <t>workout long sleeve tops</t>
+  </si>
+  <si>
+    <t>shirts and leggings for women</t>
+  </si>
+  <si>
+    <t>body works gym</t>
+  </si>
+  <si>
+    <t>zip up bodysuit</t>
+  </si>
+  <si>
+    <t>women's sweatsuits sets</t>
+  </si>
+  <si>
+    <t>adidas sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>pink tracksuit women</t>
+  </si>
+  <si>
+    <t>victoria s secret pink clothing</t>
+  </si>
+  <si>
+    <t>cute jogging suits for women</t>
+  </si>
+  <si>
+    <t>sexy sweat suits for women</t>
+  </si>
+  <si>
+    <t>black gym shirt</t>
+  </si>
+  <si>
+    <t>pink bowling shirt</t>
+  </si>
+  <si>
+    <t>two piece outfits for women black</t>
+  </si>
+  <si>
+    <t>female gym suits</t>
+  </si>
+  <si>
+    <t>cropped black long sleeve</t>
+  </si>
+  <si>
+    <t>womens crop workout</t>
+  </si>
+  <si>
+    <t>compression sweat suit</t>
+  </si>
+  <si>
+    <t>crop top with zipper</t>
+  </si>
+  <si>
+    <t>black sweatsuits for women</t>
+  </si>
+  <si>
+    <t>distressed sweat suit women</t>
+  </si>
+  <si>
+    <t>crop tops for women pink</t>
+  </si>
+  <si>
+    <t>pink victoria secret leggins</t>
+  </si>
+  <si>
+    <t>pink victoria secret cup</t>
+  </si>
+  <si>
+    <t>2 piece outfits for women black</t>
+  </si>
+  <si>
+    <t>victoria secret pink clothing underwear</t>
+  </si>
+  <si>
+    <t>long sleeve women workout tops</t>
+  </si>
+  <si>
+    <t>leggins victoria secret pink</t>
+  </si>
+  <si>
+    <t>xxl pink victoria secret</t>
+  </si>
+  <si>
+    <t>women black workout shirt</t>
+  </si>
+  <si>
+    <t>work out clothing sets</t>
+  </si>
+  <si>
+    <t>clothing sport for women</t>
+  </si>
+  <si>
+    <t>adidas women sweat suits</t>
+  </si>
+  <si>
+    <t>2 piece victoria secret pink clothing</t>
+  </si>
+  <si>
+    <t>pink workout outfits for women</t>
+  </si>
+  <si>
+    <t>pink athletic sleeves</t>
+  </si>
+  <si>
+    <t>workout leggings for women pink</t>
+  </si>
+  <si>
+    <t>crop top suit for women</t>
+  </si>
+  <si>
+    <t>blue womens suit set</t>
+  </si>
+  <si>
+    <t>womens fashion sweat suit</t>
+  </si>
+  <si>
+    <t>long sleeve crop top pack</t>
+  </si>
+  <si>
+    <t>long sleeve crop top winter</t>
+  </si>
+  <si>
+    <t>pink bodysuit for women long sleeve</t>
+  </si>
+  <si>
+    <t>gym clothes for women crop top</t>
+  </si>
+  <si>
+    <t>womens sweat suits 2 piece with hoodie</t>
+  </si>
+  <si>
+    <t>women clothing sets outfits</t>
+  </si>
+  <si>
+    <t>women's yoga gym crop top compression workout athletic long sleeve shirt</t>
+  </si>
+  <si>
+    <t>sweat for women 2 piece</t>
+  </si>
+  <si>
+    <t>haodian workout set</t>
+  </si>
+  <si>
+    <t>women's sports clothing</t>
+  </si>
+  <si>
+    <t>jogging suits 2 pieces set</t>
+  </si>
+  <si>
+    <t>women's sweat suits 2 piece</t>
+  </si>
+  <si>
+    <t>womens sport workout zip up long sleeve</t>
+  </si>
+  <si>
+    <t>hanes sweatsuit for women 2 piece</t>
+  </si>
+  <si>
+    <t>gym workout legging</t>
+  </si>
+  <si>
+    <t>black gym legging</t>
+  </si>
+  <si>
+    <t>pink workout tight</t>
+  </si>
+  <si>
+    <t>soft outfit</t>
+  </si>
+  <si>
+    <t>green black outfit</t>
+  </si>
+  <si>
+    <t>blue 2 piece outfit</t>
+  </si>
+  <si>
+    <t>black blue pant</t>
+  </si>
+  <si>
+    <t>black winter pant</t>
+  </si>
+  <si>
+    <t>blue tracksuit set</t>
+  </si>
+  <si>
+    <t>blue 2 piece</t>
+  </si>
+  <si>
+    <t>pink legging top</t>
+  </si>
+  <si>
+    <t>ribbed yoga legging</t>
+  </si>
+  <si>
+    <t>seamless ribbed top</t>
+  </si>
+  <si>
+    <t>winter workout legging</t>
+  </si>
+  <si>
+    <t>track legging</t>
+  </si>
+  <si>
+    <t>seamless ribbed legging</t>
+  </si>
+  <si>
+    <t>workout pant top woman</t>
+  </si>
+  <si>
+    <t>black workout jogger</t>
+  </si>
+  <si>
+    <t>woman pant top black</t>
   </si>
 </sst>
 </file>
@@ -412,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,17 +740,450 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
